--- a/resources/mpn.xlsx
+++ b/resources/mpn.xlsx
@@ -5,10 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="canon1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="blank" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="canon1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="prelude15_1" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +22,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="6">
+  <si>
+    <t xml:space="preserve">bt</t>
+  </si>
   <si>
     <t xml:space="preserve">パッヘルベル - 「カノン」 - Lesson1</t>
   </si>
@@ -28,10 +33,13 @@
     <t xml:space="preserve">https://www.youtube.com/watch?v=kc6paGaJ0Fg</t>
   </si>
   <si>
-    <t xml:space="preserve">bt</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve">雨だれ Lesson1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=oqoPJcpt_v0</t>
   </si>
 </sst>
 </file>
@@ -190,7 +198,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -244,6 +252,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -360,15 +372,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CK135"/>
+  <dimension ref="A1:CK9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2565" topLeftCell="A1" activePane="bottomLeft" state="split"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2835" topLeftCell="A1" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="BN117" activeCellId="0" sqref="BN117"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.13"/>
@@ -503,9 +515,7 @@
       <c r="CK1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
+      <c r="B2" s="6"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="0"/>
@@ -554,9 +564,7 @@
       <c r="CK2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B3" s="7"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="0"/>
@@ -783,12 +791,460 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC7" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ7" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="14"/>
+      <c r="AJ7" s="14"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X9" s="14"/>
+      <c r="AE9" s="14"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:CK135"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2835" topLeftCell="A1" activePane="bottomLeft" state="split"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="AE9" activeCellId="0" sqref="AE9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="33" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="45" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="57" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="69" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="76" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="77" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="78" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="79" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="80" min="80" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="81" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="84" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="85" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="86" min="86" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="1" width="3.13"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BK1" s="1"/>
+      <c r="BL1" s="1"/>
+      <c r="BN1" s="1"/>
+      <c r="BP1" s="1"/>
+      <c r="BS1" s="1"/>
+      <c r="BU1" s="1"/>
+      <c r="BW1" s="1"/>
+      <c r="BX1" s="1"/>
+      <c r="BZ1" s="1"/>
+      <c r="CB1" s="1"/>
+      <c r="CE1" s="1"/>
+      <c r="CG1" s="1"/>
+      <c r="CI1" s="1"/>
+      <c r="CJ1" s="1"/>
+      <c r="CK1" s="5"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="0"/>
+      <c r="F2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BB2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BG2" s="1"/>
+      <c r="BI2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1"/>
+      <c r="BN2" s="1"/>
+      <c r="BP2" s="1"/>
+      <c r="BS2" s="1"/>
+      <c r="BU2" s="1"/>
+      <c r="BW2" s="1"/>
+      <c r="BX2" s="1"/>
+      <c r="BZ2" s="1"/>
+      <c r="CB2" s="1"/>
+      <c r="CE2" s="1"/>
+      <c r="CG2" s="1"/>
+      <c r="CI2" s="1"/>
+      <c r="CJ2" s="1"/>
+      <c r="CK2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+      <c r="BN3" s="1"/>
+      <c r="BP3" s="1"/>
+      <c r="BS3" s="1"/>
+      <c r="BU3" s="1"/>
+      <c r="BW3" s="1"/>
+      <c r="BX3" s="1"/>
+      <c r="BZ3" s="1"/>
+      <c r="CB3" s="1"/>
+      <c r="CE3" s="1"/>
+      <c r="CG3" s="1"/>
+      <c r="CI3" s="1"/>
+      <c r="CJ3" s="1"/>
+      <c r="CK3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BB4" s="1"/>
+      <c r="BD4" s="1"/>
+      <c r="BG4" s="1"/>
+      <c r="BI4" s="1"/>
+      <c r="BK4" s="1"/>
+      <c r="BL4" s="1"/>
+      <c r="BN4" s="1"/>
+      <c r="BP4" s="1"/>
+      <c r="BS4" s="1"/>
+      <c r="BU4" s="1"/>
+      <c r="BW4" s="1"/>
+      <c r="BX4" s="1"/>
+      <c r="BZ4" s="1"/>
+      <c r="CB4" s="1"/>
+      <c r="CE4" s="1"/>
+      <c r="CG4" s="1"/>
+      <c r="CI4" s="1"/>
+      <c r="CJ4" s="1"/>
+      <c r="CK4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="8"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="8"/>
+      <c r="AV5" s="8"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="9"/>
+      <c r="BA5" s="11"/>
+      <c r="BB5" s="11"/>
+      <c r="BC5" s="11"/>
+      <c r="BD5" s="11"/>
+      <c r="BE5" s="11"/>
+      <c r="BF5" s="11"/>
+      <c r="BG5" s="11"/>
+      <c r="BH5" s="11"/>
+      <c r="BI5" s="11"/>
+      <c r="BJ5" s="11"/>
+      <c r="BK5" s="11"/>
+      <c r="BL5" s="10"/>
+      <c r="BM5" s="8"/>
+      <c r="BN5" s="8"/>
+      <c r="BO5" s="8"/>
+      <c r="BP5" s="8"/>
+      <c r="BQ5" s="8"/>
+      <c r="BR5" s="8"/>
+      <c r="BS5" s="8"/>
+      <c r="BT5" s="8"/>
+      <c r="BU5" s="8"/>
+      <c r="BV5" s="8"/>
+      <c r="BW5" s="8"/>
+      <c r="BX5" s="9"/>
+      <c r="BY5" s="11"/>
+      <c r="BZ5" s="11"/>
+      <c r="CA5" s="11"/>
+      <c r="CB5" s="11"/>
+      <c r="CC5" s="11"/>
+      <c r="CD5" s="11"/>
+      <c r="CE5" s="11"/>
+      <c r="CF5" s="11"/>
+      <c r="CG5" s="11"/>
+      <c r="CH5" s="11"/>
+      <c r="CI5" s="11"/>
+      <c r="CJ5" s="10"/>
+      <c r="CK5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="12"/>
+      <c r="AR6" s="12"/>
+      <c r="AU6" s="12"/>
+      <c r="AW6" s="12"/>
+      <c r="AY6" s="12"/>
+      <c r="BB6" s="12"/>
+      <c r="BD6" s="12"/>
+      <c r="BG6" s="12"/>
+      <c r="BI6" s="12"/>
+      <c r="BK6" s="12"/>
+      <c r="BN6" s="12"/>
+      <c r="BP6" s="12"/>
+      <c r="BS6" s="12"/>
+      <c r="BU6" s="12"/>
+      <c r="BW6" s="12"/>
+      <c r="BZ6" s="12"/>
+      <c r="CB6" s="12"/>
+      <c r="CE6" s="12"/>
+      <c r="CG6" s="12"/>
+      <c r="CI6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ7" s="15" t="n">
         <v>1</v>
       </c>
       <c r="AO7" s="1" t="n">
@@ -799,10 +1255,10 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X9" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE9" s="14" t="n">
+      <c r="X9" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE9" s="15" t="n">
         <v>1</v>
       </c>
       <c r="AN9" s="3" t="n">
@@ -818,10 +1274,10 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z11" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG11" s="14" t="n">
+      <c r="Z11" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG11" s="15" t="n">
         <v>1</v>
       </c>
       <c r="AL11" s="1" t="n">
@@ -832,10 +1288,10 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U13" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB13" s="15" t="n">
+      <c r="U13" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB13" s="16" t="n">
         <v>1</v>
       </c>
       <c r="AJ13" s="1" t="n">
@@ -847,12 +1303,12 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="V15" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC15" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC15" s="15" t="n">
         <v>1</v>
       </c>
       <c r="AH15" s="1" t="n">
@@ -863,10 +1319,10 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q17" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="X17" s="14" t="n">
+      <c r="Q17" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="X17" s="15" t="n">
         <v>1</v>
       </c>
       <c r="AG17" s="1" t="n">
@@ -877,10 +1333,10 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V19" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC19" s="14" t="n">
+      <c r="V19" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC19" s="15" t="n">
         <v>1</v>
       </c>
       <c r="AH19" s="1" t="n">
@@ -891,10 +1347,10 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X21" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE21" s="14" t="n">
+      <c r="X21" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE21" s="15" t="n">
         <v>1</v>
       </c>
       <c r="AJ21" s="1" t="n">
@@ -911,15 +1367,15 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC23" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ23" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO23" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ23" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO23" s="15" t="n">
         <v>1</v>
       </c>
       <c r="AS23" s="1" t="n">
@@ -933,13 +1389,13 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X25" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE25" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ25" s="14" t="n">
+      <c r="X25" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE25" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ25" s="15" t="n">
         <v>1</v>
       </c>
       <c r="AQ25" s="1" t="n">
@@ -953,13 +1409,13 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z27" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG27" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL27" s="14" t="n">
+      <c r="Z27" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG27" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL27" s="15" t="n">
         <v>1</v>
       </c>
       <c r="AO27" s="1" t="n">
@@ -973,13 +1429,13 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U29" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB29" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG29" s="15" t="n">
+      <c r="U29" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB29" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG29" s="16" t="n">
         <v>1</v>
       </c>
       <c r="AN29" s="3" t="n">
@@ -994,15 +1450,15 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="V31" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC31" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH31" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC31" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH31" s="15" t="n">
         <v>1</v>
       </c>
       <c r="AL31" s="1" t="n">
@@ -1016,13 +1472,13 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q33" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="X33" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC33" s="14" t="n">
+      <c r="Q33" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="X33" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC33" s="15" t="n">
         <v>1</v>
       </c>
       <c r="AJ33" s="1" t="n">
@@ -1036,13 +1492,13 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V35" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC35" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH35" s="14" t="n">
+      <c r="V35" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC35" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH35" s="15" t="n">
         <v>1</v>
       </c>
       <c r="AL35" s="1" t="n">
@@ -1059,13 +1515,13 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X37" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE37" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ37" s="14" t="n">
+      <c r="X37" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE37" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ37" s="15" t="n">
         <v>1</v>
       </c>
       <c r="AN37" s="3" t="n">
@@ -1080,9 +1536,9 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC39" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="15" t="n">
         <v>5</v>
       </c>
       <c r="AJ39" s="0"/>
@@ -1098,24 +1554,24 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AJ40" s="14" t="n">
+      <c r="AJ40" s="15" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AO41" s="14" t="n">
+      <c r="AO41" s="15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AO42" s="14"/>
+      <c r="AO42" s="15"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X43" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE43" s="14"/>
-      <c r="AJ43" s="14"/>
+      <c r="X43" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE43" s="15"/>
+      <c r="AJ43" s="15"/>
       <c r="AQ43" s="1" t="n">
         <v>1</v>
       </c>
@@ -1127,14 +1583,14 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X44" s="14"/>
-      <c r="AE44" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ44" s="14"/>
+      <c r="X44" s="15"/>
+      <c r="AE44" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ44" s="15"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AJ45" s="14" t="n">
+      <c r="AJ45" s="15" t="n">
         <v>1</v>
       </c>
       <c r="AZ45" s="3" t="n">
@@ -1142,14 +1598,14 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AJ46" s="14"/>
+      <c r="AJ46" s="15"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z47" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG47" s="14"/>
-      <c r="AL47" s="14"/>
+      <c r="Z47" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG47" s="15"/>
+      <c r="AL47" s="15"/>
       <c r="AO47" s="1" t="n">
         <v>1</v>
       </c>
@@ -1161,14 +1617,14 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z48" s="14"/>
-      <c r="AG48" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL48" s="14"/>
+      <c r="Z48" s="15"/>
+      <c r="AG48" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL48" s="15"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL49" s="14" t="n">
+      <c r="AL49" s="15" t="n">
         <v>1</v>
       </c>
       <c r="AX49" s="1" t="n">
@@ -1176,14 +1632,14 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL50" s="14"/>
+      <c r="AL50" s="15"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U51" s="14" t="n">
+      <c r="U51" s="15" t="n">
         <v>5</v>
       </c>
       <c r="AB51" s="0"/>
-      <c r="AG51" s="15"/>
+      <c r="AG51" s="16"/>
       <c r="AN51" s="3" t="n">
         <v>1</v>
       </c>
@@ -1195,14 +1651,14 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U52" s="14"/>
-      <c r="AB52" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG52" s="15"/>
+      <c r="U52" s="15"/>
+      <c r="AB52" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG52" s="16"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AG53" s="15" t="n">
+      <c r="AG53" s="16" t="n">
         <v>1</v>
       </c>
       <c r="AV53" s="1" t="n">
@@ -1210,17 +1666,17 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AG54" s="15"/>
+      <c r="AG54" s="16"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="V55" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC55" s="14"/>
-      <c r="AH55" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="V55" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC55" s="15"/>
+      <c r="AH55" s="15"/>
       <c r="AL55" s="1" t="n">
         <v>1</v>
       </c>
@@ -1232,14 +1688,14 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V56" s="14"/>
-      <c r="AC56" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH56" s="14"/>
+      <c r="V56" s="15"/>
+      <c r="AC56" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH56" s="15"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH57" s="14" t="n">
+      <c r="AH57" s="15" t="n">
         <v>1</v>
       </c>
       <c r="AL57" s="1" t="n">
@@ -1250,14 +1706,14 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH58" s="14"/>
+      <c r="AH58" s="15"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q59" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="X59" s="14"/>
-      <c r="AC59" s="14"/>
+      <c r="Q59" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="X59" s="15"/>
+      <c r="AC59" s="15"/>
       <c r="AJ59" s="1" t="n">
         <v>1</v>
       </c>
@@ -1269,14 +1725,14 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q60" s="14"/>
-      <c r="X60" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC60" s="14"/>
+      <c r="Q60" s="15"/>
+      <c r="X60" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC60" s="15"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AC61" s="14" t="n">
+      <c r="AC61" s="15" t="n">
         <v>1</v>
       </c>
       <c r="AJ61" s="1" t="n">
@@ -1287,14 +1743,14 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AC62" s="14"/>
+      <c r="AC62" s="15"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V63" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC63" s="14"/>
-      <c r="AH63" s="14"/>
+      <c r="V63" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC63" s="15"/>
+      <c r="AH63" s="15"/>
       <c r="AL63" s="1" t="n">
         <v>1</v>
       </c>
@@ -1309,14 +1765,14 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V64" s="14"/>
-      <c r="AC64" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH64" s="14"/>
+      <c r="V64" s="15"/>
+      <c r="AC64" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH64" s="15"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH65" s="14" t="n">
+      <c r="AH65" s="15" t="n">
         <v>1</v>
       </c>
       <c r="AL65" s="1" t="n">
@@ -1327,14 +1783,14 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH66" s="14"/>
+      <c r="AH66" s="15"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X67" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE67" s="14"/>
-      <c r="AJ67" s="14"/>
+      <c r="X67" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE67" s="15"/>
+      <c r="AJ67" s="15"/>
       <c r="AN67" s="3" t="n">
         <v>1</v>
       </c>
@@ -1346,126 +1802,126 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X68" s="14"/>
-      <c r="AE68" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ68" s="14"/>
+      <c r="X68" s="15"/>
+      <c r="AE68" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ68" s="15"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AJ69" s="14" t="n">
+      <c r="AJ69" s="15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AJ70" s="14"/>
-    </row>
-    <row r="71" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="17"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="17"/>
-      <c r="M71" s="18"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="18"/>
-      <c r="P71" s="19"/>
-      <c r="Q71" s="17"/>
-      <c r="R71" s="18"/>
-      <c r="S71" s="17"/>
-      <c r="T71" s="18"/>
-      <c r="U71" s="17"/>
-      <c r="V71" s="17"/>
-      <c r="W71" s="18"/>
-      <c r="X71" s="17"/>
-      <c r="Y71" s="18"/>
-      <c r="Z71" s="17"/>
-      <c r="AA71" s="18"/>
-      <c r="AB71" s="19"/>
-      <c r="AC71" s="21" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD71" s="18"/>
-      <c r="AE71" s="17"/>
-      <c r="AF71" s="18"/>
-      <c r="AG71" s="17"/>
-      <c r="AH71" s="17"/>
-      <c r="AI71" s="18"/>
-      <c r="AJ71" s="16"/>
-      <c r="AK71" s="18"/>
-      <c r="AL71" s="17"/>
-      <c r="AM71" s="18"/>
-      <c r="AN71" s="19"/>
-      <c r="AO71" s="16"/>
-      <c r="AP71" s="18"/>
-      <c r="AQ71" s="17"/>
-      <c r="AR71" s="18"/>
-      <c r="AS71" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT71" s="17"/>
-      <c r="AU71" s="18"/>
-      <c r="AV71" s="17"/>
-      <c r="AW71" s="18"/>
-      <c r="AX71" s="17"/>
-      <c r="AY71" s="18"/>
-      <c r="AZ71" s="19"/>
-      <c r="BA71" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB71" s="18"/>
-      <c r="BC71" s="17"/>
-      <c r="BD71" s="18"/>
-      <c r="BE71" s="17"/>
-      <c r="BF71" s="17"/>
-      <c r="BG71" s="18"/>
-      <c r="BH71" s="17"/>
-      <c r="BI71" s="18"/>
-      <c r="BJ71" s="17"/>
-      <c r="BK71" s="18"/>
-      <c r="BL71" s="19"/>
-      <c r="BM71" s="17"/>
-      <c r="BN71" s="18"/>
-      <c r="BO71" s="17"/>
-      <c r="BP71" s="18"/>
-      <c r="BQ71" s="17"/>
-      <c r="BR71" s="17"/>
-      <c r="BS71" s="18"/>
-      <c r="BT71" s="17"/>
-      <c r="BU71" s="18"/>
-      <c r="BV71" s="17"/>
-      <c r="BW71" s="18"/>
-      <c r="BX71" s="19"/>
-      <c r="BY71" s="17"/>
-      <c r="BZ71" s="18"/>
-      <c r="CA71" s="17"/>
-      <c r="CB71" s="18"/>
-      <c r="CC71" s="17"/>
-      <c r="CD71" s="17"/>
-      <c r="CE71" s="18"/>
-      <c r="CF71" s="17"/>
-      <c r="CG71" s="18"/>
-      <c r="CH71" s="17"/>
-      <c r="CI71" s="18"/>
-      <c r="CJ71" s="19"/>
-      <c r="CK71" s="17"/>
+      <c r="AJ70" s="15"/>
+    </row>
+    <row r="71" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="18"/>
+      <c r="M71" s="19"/>
+      <c r="N71" s="18"/>
+      <c r="O71" s="19"/>
+      <c r="P71" s="20"/>
+      <c r="Q71" s="18"/>
+      <c r="R71" s="19"/>
+      <c r="S71" s="18"/>
+      <c r="T71" s="19"/>
+      <c r="U71" s="18"/>
+      <c r="V71" s="18"/>
+      <c r="W71" s="19"/>
+      <c r="X71" s="18"/>
+      <c r="Y71" s="19"/>
+      <c r="Z71" s="18"/>
+      <c r="AA71" s="19"/>
+      <c r="AB71" s="20"/>
+      <c r="AC71" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD71" s="19"/>
+      <c r="AE71" s="18"/>
+      <c r="AF71" s="19"/>
+      <c r="AG71" s="18"/>
+      <c r="AH71" s="18"/>
+      <c r="AI71" s="19"/>
+      <c r="AJ71" s="17"/>
+      <c r="AK71" s="19"/>
+      <c r="AL71" s="18"/>
+      <c r="AM71" s="19"/>
+      <c r="AN71" s="20"/>
+      <c r="AO71" s="17"/>
+      <c r="AP71" s="19"/>
+      <c r="AQ71" s="18"/>
+      <c r="AR71" s="19"/>
+      <c r="AS71" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT71" s="18"/>
+      <c r="AU71" s="19"/>
+      <c r="AV71" s="18"/>
+      <c r="AW71" s="19"/>
+      <c r="AX71" s="18"/>
+      <c r="AY71" s="19"/>
+      <c r="AZ71" s="20"/>
+      <c r="BA71" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB71" s="19"/>
+      <c r="BC71" s="18"/>
+      <c r="BD71" s="19"/>
+      <c r="BE71" s="18"/>
+      <c r="BF71" s="18"/>
+      <c r="BG71" s="19"/>
+      <c r="BH71" s="18"/>
+      <c r="BI71" s="19"/>
+      <c r="BJ71" s="18"/>
+      <c r="BK71" s="19"/>
+      <c r="BL71" s="20"/>
+      <c r="BM71" s="18"/>
+      <c r="BN71" s="19"/>
+      <c r="BO71" s="18"/>
+      <c r="BP71" s="19"/>
+      <c r="BQ71" s="18"/>
+      <c r="BR71" s="18"/>
+      <c r="BS71" s="19"/>
+      <c r="BT71" s="18"/>
+      <c r="BU71" s="19"/>
+      <c r="BV71" s="18"/>
+      <c r="BW71" s="19"/>
+      <c r="BX71" s="20"/>
+      <c r="BY71" s="18"/>
+      <c r="BZ71" s="19"/>
+      <c r="CA71" s="18"/>
+      <c r="CB71" s="19"/>
+      <c r="CC71" s="18"/>
+      <c r="CD71" s="18"/>
+      <c r="CE71" s="19"/>
+      <c r="CF71" s="18"/>
+      <c r="CG71" s="19"/>
+      <c r="CH71" s="18"/>
+      <c r="CI71" s="19"/>
+      <c r="CJ71" s="20"/>
+      <c r="CK71" s="18"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AJ72" s="14" t="n">
+      <c r="AJ72" s="15" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AO73" s="14" t="n">
+      <c r="AO73" s="15" t="n">
         <v>1</v>
       </c>
       <c r="AS73" s="0"/>
@@ -1486,7 +1942,7 @@
       <c r="BH73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AO74" s="14"/>
+      <c r="AO74" s="15"/>
       <c r="AS74" s="0"/>
       <c r="AT74" s="0"/>
       <c r="AU74" s="0"/>
@@ -1505,11 +1961,11 @@
       <c r="BH74" s="0"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X75" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE75" s="14"/>
-      <c r="AJ75" s="14"/>
+      <c r="X75" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE75" s="15"/>
+      <c r="AJ75" s="15"/>
       <c r="AN75" s="3" t="n">
         <v>1</v>
       </c>
@@ -1518,11 +1974,11 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X76" s="14"/>
-      <c r="AE76" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ76" s="14"/>
+      <c r="X76" s="15"/>
+      <c r="AE76" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ76" s="15"/>
       <c r="AS76" s="0"/>
       <c r="AT76" s="0"/>
       <c r="AU76" s="0"/>
@@ -1541,7 +1997,7 @@
       <c r="BH76" s="0"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AJ77" s="14" t="n">
+      <c r="AJ77" s="15" t="n">
         <v>1</v>
       </c>
       <c r="AQ77" s="1" t="n">
@@ -1552,14 +2008,14 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AJ78" s="14"/>
+      <c r="AJ78" s="15"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z79" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG79" s="14"/>
-      <c r="AL79" s="14"/>
+      <c r="Z79" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG79" s="15"/>
+      <c r="AL79" s="15"/>
       <c r="AS79" s="1" t="n">
         <v>1</v>
       </c>
@@ -1568,11 +2024,11 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z80" s="14"/>
-      <c r="AG80" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL80" s="14"/>
+      <c r="Z80" s="15"/>
+      <c r="AG80" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL80" s="15"/>
       <c r="AS80" s="0"/>
       <c r="AT80" s="0"/>
       <c r="AU80" s="0"/>
@@ -1591,7 +2047,7 @@
       <c r="BH80" s="0"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL81" s="14" t="n">
+      <c r="AL81" s="15" t="n">
         <v>1</v>
       </c>
       <c r="AX81" s="1" t="n">
@@ -1602,14 +2058,14 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL82" s="14"/>
+      <c r="AL82" s="15"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U83" s="14" t="n">
+      <c r="U83" s="15" t="n">
         <v>5</v>
       </c>
       <c r="AB83" s="0"/>
-      <c r="AG83" s="15"/>
+      <c r="AG83" s="16"/>
       <c r="AZ83" s="3" t="n">
         <v>2</v>
       </c>
@@ -1618,11 +2074,11 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U84" s="14"/>
-      <c r="AB84" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG84" s="15"/>
+      <c r="U84" s="15"/>
+      <c r="AB84" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG84" s="16"/>
       <c r="AS84" s="0"/>
       <c r="AT84" s="0"/>
       <c r="AU84" s="0"/>
@@ -1641,7 +2097,7 @@
       <c r="BH84" s="0"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AG85" s="15" t="n">
+      <c r="AG85" s="16" t="n">
         <v>1</v>
       </c>
       <c r="AN85" s="3" t="n">
@@ -1652,17 +2108,17 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AG86" s="15"/>
+      <c r="AG86" s="16"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="V87" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC87" s="14"/>
-      <c r="AH87" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="V87" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC87" s="15"/>
+      <c r="AH87" s="15"/>
       <c r="AO87" s="1" t="n">
         <v>1</v>
       </c>
@@ -1671,14 +2127,14 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V88" s="14"/>
-      <c r="AC88" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH88" s="14"/>
+      <c r="V88" s="15"/>
+      <c r="AC88" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH88" s="15"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH89" s="14" t="n">
+      <c r="AH89" s="15" t="n">
         <v>1</v>
       </c>
       <c r="AT89" s="1" t="n">
@@ -1686,14 +2142,14 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH90" s="14"/>
+      <c r="AH90" s="15"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q91" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="X91" s="14"/>
-      <c r="AC91" s="14"/>
+      <c r="Q91" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="X91" s="15"/>
+      <c r="AC91" s="15"/>
       <c r="AJ91" s="1" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +2161,11 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q92" s="14"/>
-      <c r="X92" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC92" s="14"/>
+      <c r="Q92" s="15"/>
+      <c r="X92" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC92" s="15"/>
       <c r="AS92" s="0"/>
       <c r="AT92" s="0"/>
       <c r="AU92" s="0"/>
@@ -1728,7 +2184,7 @@
       <c r="BH92" s="0"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AC93" s="14" t="n">
+      <c r="AC93" s="15" t="n">
         <v>1</v>
       </c>
       <c r="AO93" s="1" t="n">
@@ -1739,14 +2195,14 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AC94" s="14"/>
+      <c r="AC94" s="15"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V95" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC95" s="14"/>
-      <c r="AH95" s="14"/>
+      <c r="V95" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC95" s="15"/>
+      <c r="AH95" s="15"/>
       <c r="AL95" s="1" t="n">
         <v>1</v>
       </c>
@@ -1758,11 +2214,11 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V96" s="14"/>
-      <c r="AC96" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH96" s="14"/>
+      <c r="V96" s="15"/>
+      <c r="AC96" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH96" s="15"/>
       <c r="AS96" s="0"/>
       <c r="AT96" s="0"/>
       <c r="AU96" s="0"/>
@@ -1781,7 +2237,7 @@
       <c r="BH96" s="0"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH97" s="14" t="n">
+      <c r="AH97" s="15" t="n">
         <v>1</v>
       </c>
       <c r="AT97" s="1" t="n">
@@ -1792,14 +2248,14 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH98" s="14"/>
+      <c r="AH98" s="15"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X99" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE99" s="14"/>
-      <c r="AJ99" s="14"/>
+      <c r="X99" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE99" s="15"/>
+      <c r="AJ99" s="15"/>
       <c r="AT99" s="1" t="n">
         <v>1</v>
       </c>
@@ -1808,11 +2264,11 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X100" s="14"/>
-      <c r="AE100" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ100" s="14"/>
+      <c r="X100" s="15"/>
+      <c r="AE100" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ100" s="15"/>
       <c r="AS100" s="0"/>
       <c r="AT100" s="0"/>
       <c r="AU100" s="0"/>
@@ -1831,7 +2287,7 @@
       <c r="BH100" s="0"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AJ101" s="14" t="n">
+      <c r="AJ101" s="15" t="n">
         <v>1</v>
       </c>
       <c r="AS101" s="0"/>
@@ -1858,9 +2314,9 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC103" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC103" s="15" t="n">
         <v>5</v>
       </c>
       <c r="AJ103" s="0"/>
@@ -1870,7 +2326,7 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AJ104" s="14" t="n">
+      <c r="AJ104" s="15" t="n">
         <v>2</v>
       </c>
       <c r="AZ104" s="3" t="n">
@@ -1878,7 +2334,7 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AO105" s="14" t="n">
+      <c r="AO105" s="15" t="n">
         <v>1</v>
       </c>
       <c r="BA105" s="1" t="n">
@@ -1886,27 +2342,27 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AO106" s="14"/>
+      <c r="AO106" s="15"/>
       <c r="AS106" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X107" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE107" s="14"/>
-      <c r="AJ107" s="14"/>
+      <c r="X107" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE107" s="15"/>
+      <c r="AJ107" s="15"/>
       <c r="AV107" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X108" s="14"/>
-      <c r="AE108" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ108" s="14"/>
+      <c r="X108" s="15"/>
+      <c r="AE108" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ108" s="15"/>
       <c r="AS108" s="0"/>
       <c r="AT108" s="0"/>
       <c r="AU108" s="0"/>
@@ -1925,7 +2381,7 @@
       <c r="BH108" s="0"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AJ109" s="14" t="n">
+      <c r="AJ109" s="15" t="n">
         <v>1</v>
       </c>
       <c r="AZ109" s="3" t="n">
@@ -1933,7 +2389,7 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AJ110" s="14"/>
+      <c r="AJ110" s="15"/>
       <c r="AS110" s="0"/>
       <c r="AT110" s="0"/>
       <c r="AU110" s="0"/>
@@ -1952,21 +2408,21 @@
       <c r="BH110" s="0"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z111" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG111" s="14"/>
-      <c r="AL111" s="14"/>
+      <c r="Z111" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG111" s="15"/>
+      <c r="AL111" s="15"/>
       <c r="BA111" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z112" s="14"/>
-      <c r="AG112" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL112" s="14"/>
+      <c r="Z112" s="15"/>
+      <c r="AG112" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL112" s="15"/>
       <c r="AS112" s="0"/>
       <c r="AT112" s="0"/>
       <c r="AU112" s="0"/>
@@ -1985,7 +2441,7 @@
       <c r="BH112" s="0"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL113" s="14" t="n">
+      <c r="AL113" s="15" t="n">
         <v>1</v>
       </c>
       <c r="BE113" s="1" t="n">
@@ -1993,7 +2449,7 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL114" s="14"/>
+      <c r="AL114" s="15"/>
       <c r="AS114" s="0"/>
       <c r="AT114" s="0"/>
       <c r="AU114" s="0"/>
@@ -2012,11 +2468,11 @@
       <c r="BH114" s="0"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U115" s="14" t="n">
+      <c r="U115" s="15" t="n">
         <v>5</v>
       </c>
       <c r="AB115" s="0"/>
-      <c r="AG115" s="15"/>
+      <c r="AG115" s="16"/>
       <c r="AZ115" s="3" t="n">
         <v>2</v>
       </c>
@@ -2025,11 +2481,11 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U116" s="14"/>
-      <c r="AB116" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG116" s="15"/>
+      <c r="U116" s="15"/>
+      <c r="AB116" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG116" s="16"/>
       <c r="AS116" s="0"/>
       <c r="AT116" s="0"/>
       <c r="AU116" s="0"/>
@@ -2048,7 +2504,7 @@
       <c r="BH116" s="0"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AG117" s="15" t="n">
+      <c r="AG117" s="16" t="n">
         <v>1</v>
       </c>
       <c r="AN117" s="3" t="n">
@@ -2059,7 +2515,7 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AG118" s="15"/>
+      <c r="AG118" s="16"/>
       <c r="AS118" s="0"/>
       <c r="AT118" s="0"/>
       <c r="AU118" s="0"/>
@@ -2079,13 +2535,13 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="V119" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC119" s="14"/>
-      <c r="AH119" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="V119" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC119" s="15"/>
+      <c r="AH119" s="15"/>
       <c r="AX119" s="1" t="n">
         <v>1</v>
       </c>
@@ -2094,17 +2550,17 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V120" s="14"/>
-      <c r="AC120" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH120" s="14"/>
+      <c r="V120" s="15"/>
+      <c r="AC120" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH120" s="15"/>
       <c r="BE120" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH121" s="14" t="n">
+      <c r="AH121" s="15" t="n">
         <v>1</v>
       </c>
       <c r="AX121" s="1" t="n">
@@ -2115,17 +2571,17 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH122" s="14"/>
+      <c r="AH122" s="15"/>
       <c r="BC122" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q123" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="X123" s="14"/>
-      <c r="AC123" s="14"/>
+      <c r="Q123" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="X123" s="15"/>
+      <c r="AC123" s="15"/>
       <c r="AV123" s="1" t="n">
         <v>1</v>
       </c>
@@ -2134,17 +2590,17 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q124" s="14"/>
-      <c r="X124" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC124" s="14"/>
+      <c r="Q124" s="15"/>
+      <c r="X124" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC124" s="15"/>
       <c r="BC124" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AC125" s="14" t="n">
+      <c r="AC125" s="15" t="n">
         <v>1</v>
       </c>
       <c r="BA125" s="1" t="n">
@@ -2152,17 +2608,17 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AC126" s="14"/>
+      <c r="AC126" s="15"/>
       <c r="AZ126" s="3" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V127" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC127" s="14"/>
-      <c r="AH127" s="14"/>
+      <c r="V127" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC127" s="15"/>
+      <c r="AH127" s="15"/>
       <c r="AM127" s="2" t="s">
         <v>3</v>
       </c>
@@ -2174,17 +2630,17 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V128" s="14"/>
-      <c r="AC128" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH128" s="14"/>
+      <c r="V128" s="15"/>
+      <c r="AC128" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH128" s="15"/>
       <c r="AV128" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH129" s="14" t="n">
+      <c r="AH129" s="15" t="n">
         <v>1</v>
       </c>
       <c r="AT129" s="1" t="n">
@@ -2192,27 +2648,27 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH130" s="14"/>
+      <c r="AH130" s="15"/>
       <c r="BA130" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X131" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE131" s="14"/>
-      <c r="AJ131" s="14"/>
+      <c r="X131" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE131" s="15"/>
+      <c r="AJ131" s="15"/>
       <c r="BA131" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X132" s="14"/>
-      <c r="AE132" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ132" s="14"/>
+      <c r="X132" s="15"/>
+      <c r="AE132" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ132" s="15"/>
       <c r="AS132" s="1" t="n">
         <v>2</v>
       </c>
@@ -2220,7 +2676,7 @@
       <c r="BA132" s="0"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AJ133" s="14" t="n">
+      <c r="AJ133" s="15" t="n">
         <v>1</v>
       </c>
       <c r="AQ133" s="1" t="n">
@@ -2234,9 +2690,9 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC135" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC135" s="15" t="n">
         <v>5</v>
       </c>
       <c r="BA135" s="1" t="n">
@@ -2249,7 +2705,1457 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:CK85"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2835" topLeftCell="A30" activePane="bottomLeft" state="split"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="AS47" activeCellId="0" sqref="AS47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="33" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="45" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="57" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="69" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="76" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="77" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="78" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="79" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="80" min="80" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="81" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="84" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="85" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="86" min="86" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="1" width="3.13"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BK1" s="1"/>
+      <c r="BL1" s="1"/>
+      <c r="BN1" s="1"/>
+      <c r="BP1" s="1"/>
+      <c r="BS1" s="1"/>
+      <c r="BU1" s="1"/>
+      <c r="BW1" s="1"/>
+      <c r="BX1" s="1"/>
+      <c r="BZ1" s="1"/>
+      <c r="CB1" s="1"/>
+      <c r="CE1" s="1"/>
+      <c r="CG1" s="1"/>
+      <c r="CI1" s="1"/>
+      <c r="CJ1" s="1"/>
+      <c r="CK1" s="5"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="0"/>
+      <c r="F2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BB2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BG2" s="1"/>
+      <c r="BI2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1"/>
+      <c r="BN2" s="1"/>
+      <c r="BP2" s="1"/>
+      <c r="BS2" s="1"/>
+      <c r="BU2" s="1"/>
+      <c r="BW2" s="1"/>
+      <c r="BX2" s="1"/>
+      <c r="BZ2" s="1"/>
+      <c r="CB2" s="1"/>
+      <c r="CE2" s="1"/>
+      <c r="CG2" s="1"/>
+      <c r="CI2" s="1"/>
+      <c r="CJ2" s="1"/>
+      <c r="CK2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+      <c r="BN3" s="1"/>
+      <c r="BP3" s="1"/>
+      <c r="BS3" s="1"/>
+      <c r="BU3" s="1"/>
+      <c r="BW3" s="1"/>
+      <c r="BX3" s="1"/>
+      <c r="BZ3" s="1"/>
+      <c r="CB3" s="1"/>
+      <c r="CE3" s="1"/>
+      <c r="CG3" s="1"/>
+      <c r="CI3" s="1"/>
+      <c r="CJ3" s="1"/>
+      <c r="CK3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BB4" s="1"/>
+      <c r="BD4" s="1"/>
+      <c r="BG4" s="1"/>
+      <c r="BI4" s="1"/>
+      <c r="BK4" s="1"/>
+      <c r="BL4" s="1"/>
+      <c r="BN4" s="1"/>
+      <c r="BP4" s="1"/>
+      <c r="BS4" s="1"/>
+      <c r="BU4" s="1"/>
+      <c r="BW4" s="1"/>
+      <c r="BX4" s="1"/>
+      <c r="BZ4" s="1"/>
+      <c r="CB4" s="1"/>
+      <c r="CE4" s="1"/>
+      <c r="CG4" s="1"/>
+      <c r="CI4" s="1"/>
+      <c r="CJ4" s="1"/>
+      <c r="CK4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="8"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="8"/>
+      <c r="AV5" s="8"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="9"/>
+      <c r="BA5" s="11"/>
+      <c r="BB5" s="11"/>
+      <c r="BC5" s="11"/>
+      <c r="BD5" s="11"/>
+      <c r="BE5" s="11"/>
+      <c r="BF5" s="11"/>
+      <c r="BG5" s="11"/>
+      <c r="BH5" s="11"/>
+      <c r="BI5" s="11"/>
+      <c r="BJ5" s="11"/>
+      <c r="BK5" s="11"/>
+      <c r="BL5" s="10"/>
+      <c r="BM5" s="8"/>
+      <c r="BN5" s="8"/>
+      <c r="BO5" s="8"/>
+      <c r="BP5" s="8"/>
+      <c r="BQ5" s="8"/>
+      <c r="BR5" s="8"/>
+      <c r="BS5" s="8"/>
+      <c r="BT5" s="8"/>
+      <c r="BU5" s="8"/>
+      <c r="BV5" s="8"/>
+      <c r="BW5" s="8"/>
+      <c r="BX5" s="9"/>
+      <c r="BY5" s="11"/>
+      <c r="BZ5" s="11"/>
+      <c r="CA5" s="11"/>
+      <c r="CB5" s="11"/>
+      <c r="CC5" s="11"/>
+      <c r="CD5" s="11"/>
+      <c r="CE5" s="11"/>
+      <c r="CF5" s="11"/>
+      <c r="CG5" s="11"/>
+      <c r="CH5" s="11"/>
+      <c r="CI5" s="11"/>
+      <c r="CJ5" s="10"/>
+      <c r="CK5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="12"/>
+      <c r="AR6" s="12"/>
+      <c r="AU6" s="12"/>
+      <c r="AW6" s="12"/>
+      <c r="AY6" s="12"/>
+      <c r="BB6" s="12"/>
+      <c r="BD6" s="12"/>
+      <c r="BG6" s="12"/>
+      <c r="BI6" s="12"/>
+      <c r="BK6" s="12"/>
+      <c r="BN6" s="12"/>
+      <c r="BP6" s="12"/>
+      <c r="BS6" s="12"/>
+      <c r="BU6" s="12"/>
+      <c r="BW6" s="12"/>
+      <c r="BZ6" s="12"/>
+      <c r="CB6" s="12"/>
+      <c r="CE6" s="12"/>
+      <c r="CG6" s="12"/>
+      <c r="CI6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ7" s="14"/>
+      <c r="BF7" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE8" s="14"/>
+      <c r="AK8" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV8" s="0"/>
+      <c r="AW8" s="0"/>
+      <c r="AX8" s="0"/>
+      <c r="AY8" s="0"/>
+      <c r="AZ8" s="0"/>
+      <c r="BA8" s="0"/>
+      <c r="BB8" s="0"/>
+      <c r="BC8" s="0"/>
+      <c r="BD8" s="0"/>
+      <c r="BE8" s="0"/>
+      <c r="BF8" s="0"/>
+      <c r="BG8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X9" s="14"/>
+      <c r="AC9" s="0"/>
+      <c r="AD9" s="0"/>
+      <c r="AE9" s="0"/>
+      <c r="AF9" s="0"/>
+      <c r="AG9" s="0"/>
+      <c r="AH9" s="0"/>
+      <c r="AI9" s="0"/>
+      <c r="AJ9" s="0"/>
+      <c r="AK9" s="0"/>
+      <c r="AL9" s="0"/>
+      <c r="AM9" s="0"/>
+      <c r="AN9" s="0"/>
+      <c r="AO9" s="0"/>
+      <c r="AP9" s="0"/>
+      <c r="AQ9" s="0"/>
+      <c r="AR9" s="0"/>
+      <c r="AS9" s="0"/>
+      <c r="AT9" s="0"/>
+      <c r="BB9" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP10" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT10" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW10" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK11" s="15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK12" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY12" s="0"/>
+      <c r="AZ12" s="0"/>
+      <c r="BA12" s="0"/>
+      <c r="BB12" s="0"/>
+      <c r="BC12" s="0"/>
+      <c r="BD12" s="0"/>
+      <c r="BE12" s="0"/>
+      <c r="BF12" s="0"/>
+      <c r="BG12" s="0"/>
+      <c r="BH12" s="0"/>
+      <c r="BI12" s="0"/>
+      <c r="BJ12" s="0"/>
+      <c r="BK12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK13" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY13" s="0"/>
+      <c r="AZ13" s="0"/>
+      <c r="BA13" s="0"/>
+      <c r="BB13" s="0"/>
+      <c r="BC13" s="0"/>
+      <c r="BD13" s="0"/>
+      <c r="BE13" s="0"/>
+      <c r="BF13" s="0"/>
+      <c r="BG13" s="0"/>
+      <c r="BH13" s="0"/>
+      <c r="BI13" s="0"/>
+      <c r="BJ13" s="0"/>
+      <c r="BK13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP14" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT14" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY14" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK15" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA15" s="0"/>
+      <c r="BB15" s="0"/>
+      <c r="BC15" s="0"/>
+      <c r="BD15" s="0"/>
+      <c r="BE15" s="0"/>
+      <c r="BF15" s="0"/>
+      <c r="BG15" s="0"/>
+      <c r="BH15" s="0"/>
+      <c r="BI15" s="0"/>
+      <c r="BJ15" s="0"/>
+      <c r="BK15" s="0"/>
+      <c r="BL15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU16" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA16" s="1" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK17" s="15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK18" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA18" s="0"/>
+      <c r="BB18" s="0"/>
+      <c r="BC18" s="0"/>
+      <c r="BD18" s="0"/>
+      <c r="BE18" s="0"/>
+      <c r="BF18" s="0"/>
+      <c r="BG18" s="0"/>
+      <c r="BH18" s="0"/>
+      <c r="BI18" s="0"/>
+      <c r="BJ18" s="0"/>
+      <c r="BK18" s="0"/>
+      <c r="BL18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK19" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA19" s="0"/>
+      <c r="BB19" s="0"/>
+      <c r="BC19" s="0"/>
+      <c r="BD19" s="0"/>
+      <c r="BE19" s="0"/>
+      <c r="BF19" s="0"/>
+      <c r="BG19" s="0"/>
+      <c r="BH19" s="0"/>
+      <c r="BI19" s="0"/>
+      <c r="BJ19" s="0"/>
+      <c r="BK19" s="0"/>
+      <c r="BL19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AM20" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA20" s="0"/>
+      <c r="BB20" s="0"/>
+      <c r="BC20" s="0"/>
+      <c r="BD20" s="0"/>
+      <c r="BE20" s="0"/>
+      <c r="BF20" s="0"/>
+      <c r="BG20" s="0"/>
+      <c r="BH20" s="0"/>
+      <c r="BI20" s="0"/>
+      <c r="BJ20" s="0"/>
+      <c r="BK20" s="0"/>
+      <c r="BL20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK21" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA21" s="0"/>
+      <c r="BB21" s="0"/>
+      <c r="BC21" s="0"/>
+      <c r="BD21" s="0"/>
+      <c r="BE21" s="0"/>
+      <c r="BF21" s="0"/>
+      <c r="BG21" s="0"/>
+      <c r="BH21" s="0"/>
+      <c r="BI21" s="0"/>
+      <c r="BJ21" s="0"/>
+      <c r="BK21" s="0"/>
+      <c r="BL21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP22" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT22" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB22" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK23" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA23" s="0"/>
+      <c r="BB23" s="0"/>
+      <c r="BC23" s="0"/>
+      <c r="BD23" s="0"/>
+      <c r="BE23" s="0"/>
+      <c r="BF23" s="0"/>
+      <c r="BG23" s="0"/>
+      <c r="BH23" s="0"/>
+      <c r="BI23" s="0"/>
+      <c r="BJ23" s="0"/>
+      <c r="BK23" s="0"/>
+      <c r="BL23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU24" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD24" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK25" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA25" s="0"/>
+      <c r="BB25" s="0"/>
+      <c r="BC25" s="0"/>
+      <c r="BD25" s="0"/>
+      <c r="BE25" s="0"/>
+      <c r="BF25" s="0"/>
+      <c r="BG25" s="0"/>
+      <c r="BH25" s="0"/>
+      <c r="BI25" s="0"/>
+      <c r="BJ25" s="0"/>
+      <c r="BK25" s="0"/>
+      <c r="BL25" s="0"/>
+      <c r="BM25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AW26" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF26" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AY27" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG27" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK28" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA28" s="0"/>
+      <c r="BB28" s="0"/>
+      <c r="BC28" s="0"/>
+      <c r="BD28" s="0"/>
+      <c r="BE28" s="0"/>
+      <c r="BF28" s="0"/>
+      <c r="BG28" s="0"/>
+      <c r="BH28" s="0"/>
+      <c r="BI28" s="0"/>
+      <c r="BJ28" s="0"/>
+      <c r="BK28" s="0"/>
+      <c r="BL28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK29" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA29" s="0"/>
+      <c r="BB29" s="0"/>
+      <c r="BC29" s="0"/>
+      <c r="BD29" s="0"/>
+      <c r="BE29" s="0"/>
+      <c r="BF29" s="0"/>
+      <c r="BG29" s="0"/>
+      <c r="BH29" s="0"/>
+      <c r="BI29" s="0"/>
+      <c r="BJ29" s="0"/>
+      <c r="BK29" s="0"/>
+      <c r="BL29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK30" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA30" s="0"/>
+      <c r="BB30" s="0"/>
+      <c r="BC30" s="0"/>
+      <c r="BD30" s="0"/>
+      <c r="BE30" s="0"/>
+      <c r="BF30" s="0"/>
+      <c r="BG30" s="0"/>
+      <c r="BH30" s="0"/>
+      <c r="BI30" s="0"/>
+      <c r="BJ30" s="0"/>
+      <c r="BK30" s="0"/>
+      <c r="BL30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP31" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW31" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF31" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK32" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA32" s="0"/>
+      <c r="BB32" s="0"/>
+      <c r="BC32" s="0"/>
+      <c r="BD32" s="0"/>
+      <c r="BE32" s="0"/>
+      <c r="BF32" s="0"/>
+      <c r="BG32" s="0"/>
+      <c r="BH32" s="0"/>
+      <c r="BI32" s="0"/>
+      <c r="BJ32" s="0"/>
+      <c r="BK32" s="0"/>
+      <c r="BL32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO33" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW33" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF33" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK34" s="15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AU35" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA35" s="0"/>
+      <c r="BB35" s="0"/>
+      <c r="BC35" s="0"/>
+      <c r="BD35" s="0"/>
+      <c r="BE35" s="0"/>
+      <c r="BF35" s="0"/>
+      <c r="BG35" s="0"/>
+      <c r="BH35" s="0"/>
+      <c r="BI35" s="0"/>
+      <c r="BJ35" s="0"/>
+      <c r="BK35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK36" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD36" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL36" s="0"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP37" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT37" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA37" s="0"/>
+      <c r="BB37" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK38" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA38" s="0"/>
+      <c r="BB38" s="0"/>
+      <c r="BC38" s="0"/>
+      <c r="BD38" s="0"/>
+      <c r="BE38" s="0"/>
+      <c r="BF38" s="0"/>
+      <c r="BG38" s="0"/>
+      <c r="BH38" s="0"/>
+      <c r="BI38" s="0"/>
+      <c r="BJ38" s="0"/>
+      <c r="BK38" s="0"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK39" s="15"/>
+      <c r="BD39" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AO40" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU40" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD40" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AO41" s="15"/>
+      <c r="AU41" s="15"/>
+      <c r="BF41" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AO42" s="15"/>
+      <c r="AU42" s="15"/>
+      <c r="BD42" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK43" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC43" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK44" s="15"/>
+      <c r="BD44" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK45" s="15"/>
+      <c r="BF45" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK46" s="15"/>
+      <c r="BG46" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF47" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG47" s="0"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK48" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW48" s="0"/>
+      <c r="AX48" s="0"/>
+      <c r="AY48" s="0"/>
+      <c r="AZ48" s="0"/>
+      <c r="BA48" s="0"/>
+      <c r="BB48" s="0"/>
+      <c r="BC48" s="0"/>
+      <c r="BD48" s="0"/>
+      <c r="BE48" s="0"/>
+      <c r="BF48" s="0"/>
+      <c r="BG48" s="0"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK49" s="15"/>
+      <c r="BB49" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG49" s="0"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP50" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT50" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW50" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG50" s="0"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK51" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG51" s="0"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK52" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY52" s="0"/>
+      <c r="AZ52" s="0"/>
+      <c r="BA52" s="0"/>
+      <c r="BB52" s="0"/>
+      <c r="BC52" s="0"/>
+      <c r="BD52" s="0"/>
+      <c r="BE52" s="0"/>
+      <c r="BF52" s="0"/>
+      <c r="BG52" s="0"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK53" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY53" s="0"/>
+      <c r="AZ53" s="0"/>
+      <c r="BA53" s="0"/>
+      <c r="BB53" s="0"/>
+      <c r="BC53" s="0"/>
+      <c r="BD53" s="0"/>
+      <c r="BE53" s="0"/>
+      <c r="BF53" s="0"/>
+      <c r="BG53" s="0"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK54" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY54" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG54" s="0"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK55" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA55" s="0"/>
+      <c r="BB55" s="0"/>
+      <c r="BC55" s="0"/>
+      <c r="BD55" s="0"/>
+      <c r="BE55" s="0"/>
+      <c r="BF55" s="0"/>
+      <c r="BG55" s="0"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR56" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU56" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA56" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="BG56" s="0"/>
+      <c r="BH56" s="0"/>
+      <c r="BI56" s="0"/>
+      <c r="BJ56" s="0"/>
+      <c r="BK56" s="0"/>
+      <c r="BL56" s="0"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK57" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG57" s="0"/>
+      <c r="BH57" s="0"/>
+      <c r="BI57" s="0"/>
+      <c r="BJ57" s="0"/>
+      <c r="BK57" s="0"/>
+      <c r="BL57" s="0"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK58" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA58" s="0"/>
+      <c r="BB58" s="0"/>
+      <c r="BC58" s="0"/>
+      <c r="BD58" s="0"/>
+      <c r="BE58" s="0"/>
+      <c r="BF58" s="0"/>
+      <c r="BG58" s="0"/>
+      <c r="BH58" s="0"/>
+      <c r="BI58" s="0"/>
+      <c r="BJ58" s="0"/>
+      <c r="BK58" s="0"/>
+      <c r="BL58" s="0"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK59" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA59" s="0"/>
+      <c r="BB59" s="0"/>
+      <c r="BC59" s="0"/>
+      <c r="BD59" s="0"/>
+      <c r="BE59" s="0"/>
+      <c r="BF59" s="0"/>
+      <c r="BG59" s="0"/>
+      <c r="BH59" s="0"/>
+      <c r="BI59" s="0"/>
+      <c r="BJ59" s="0"/>
+      <c r="BK59" s="0"/>
+      <c r="BL59" s="0"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AM60" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA60" s="0"/>
+      <c r="BB60" s="0"/>
+      <c r="BC60" s="0"/>
+      <c r="BD60" s="0"/>
+      <c r="BE60" s="0"/>
+      <c r="BF60" s="0"/>
+      <c r="BG60" s="0"/>
+      <c r="BH60" s="0"/>
+      <c r="BI60" s="0"/>
+      <c r="BJ60" s="0"/>
+      <c r="BK60" s="0"/>
+      <c r="BL60" s="0"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK61" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA61" s="0"/>
+      <c r="BB61" s="0"/>
+      <c r="BC61" s="0"/>
+      <c r="BD61" s="0"/>
+      <c r="BE61" s="0"/>
+      <c r="BF61" s="0"/>
+      <c r="BG61" s="0"/>
+      <c r="BH61" s="0"/>
+      <c r="BI61" s="0"/>
+      <c r="BJ61" s="0"/>
+      <c r="BK61" s="0"/>
+      <c r="BL61" s="0"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP62" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT62" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB62" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG62" s="0"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK63" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA63" s="0"/>
+      <c r="BB63" s="0"/>
+      <c r="BC63" s="0"/>
+      <c r="BD63" s="0"/>
+      <c r="BE63" s="0"/>
+      <c r="BF63" s="0"/>
+      <c r="BG63" s="0"/>
+      <c r="BH63" s="0"/>
+      <c r="BI63" s="0"/>
+      <c r="BJ63" s="0"/>
+      <c r="BK63" s="0"/>
+      <c r="BL63" s="0"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO64" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU64" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA64" s="0"/>
+      <c r="BB64" s="0"/>
+      <c r="BC64" s="0"/>
+      <c r="BD64" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF64" s="0"/>
+      <c r="BG64" s="0"/>
+      <c r="BH64" s="0"/>
+      <c r="BI64" s="0"/>
+      <c r="BJ64" s="0"/>
+      <c r="BK64" s="0"/>
+      <c r="BL64" s="0"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK65" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA65" s="0"/>
+      <c r="BB65" s="0"/>
+      <c r="BC65" s="0"/>
+      <c r="BD65" s="0"/>
+      <c r="BE65" s="0"/>
+      <c r="BF65" s="0"/>
+      <c r="BG65" s="0"/>
+      <c r="BH65" s="0"/>
+      <c r="BI65" s="0"/>
+      <c r="BJ65" s="0"/>
+      <c r="BK65" s="0"/>
+      <c r="BL65" s="0"/>
+      <c r="BM65" s="0"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AW66" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF66" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AY67" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG67" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK68" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA68" s="0"/>
+      <c r="BB68" s="0"/>
+      <c r="BC68" s="0"/>
+      <c r="BD68" s="0"/>
+      <c r="BE68" s="0"/>
+      <c r="BF68" s="0"/>
+      <c r="BG68" s="0"/>
+      <c r="BH68" s="0"/>
+      <c r="BI68" s="0"/>
+      <c r="BJ68" s="0"/>
+      <c r="BK68" s="0"/>
+      <c r="BL68" s="0"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK69" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA69" s="0"/>
+      <c r="BB69" s="0"/>
+      <c r="BC69" s="0"/>
+      <c r="BD69" s="0"/>
+      <c r="BE69" s="0"/>
+      <c r="BF69" s="0"/>
+      <c r="BG69" s="0"/>
+      <c r="BH69" s="0"/>
+      <c r="BI69" s="0"/>
+      <c r="BJ69" s="0"/>
+      <c r="BK69" s="0"/>
+      <c r="BL69" s="0"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK70" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA70" s="0"/>
+      <c r="BB70" s="0"/>
+      <c r="BC70" s="0"/>
+      <c r="BD70" s="0"/>
+      <c r="BE70" s="0"/>
+      <c r="BF70" s="0"/>
+      <c r="BG70" s="0"/>
+      <c r="BH70" s="0"/>
+      <c r="BI70" s="0"/>
+      <c r="BJ70" s="0"/>
+      <c r="BK70" s="0"/>
+      <c r="BL70" s="0"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP71" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW71" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF71" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK72" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA72" s="0"/>
+      <c r="BB72" s="0"/>
+      <c r="BC72" s="0"/>
+      <c r="BD72" s="0"/>
+      <c r="BE72" s="0"/>
+      <c r="BF72" s="0"/>
+      <c r="BG72" s="0"/>
+      <c r="BH72" s="0"/>
+      <c r="BI72" s="0"/>
+      <c r="BJ72" s="0"/>
+      <c r="BK72" s="0"/>
+      <c r="BL72" s="0"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AO73" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW73" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF73" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ73" s="0"/>
+      <c r="BK73" s="0"/>
+      <c r="BL73" s="0"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK74" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ74" s="0"/>
+      <c r="BK74" s="0"/>
+      <c r="BL74" s="0"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AO75" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU75" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ75" s="0"/>
+      <c r="BK75" s="0"/>
+      <c r="BL75" s="0"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK76" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD76" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP77" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT77" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB77" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK78" s="15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP79" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT79" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA79" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK80" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB80" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA81" s="0"/>
+      <c r="BB81" s="0"/>
+      <c r="BC81" s="0"/>
+      <c r="BD81" s="0"/>
+      <c r="BE81" s="0"/>
+      <c r="BF81" s="0"/>
+      <c r="BG81" s="0"/>
+      <c r="BH81" s="0"/>
+      <c r="BI81" s="0"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA82" s="0"/>
+      <c r="BB82" s="0"/>
+      <c r="BC82" s="0"/>
+      <c r="BD82" s="0"/>
+      <c r="BE82" s="0"/>
+      <c r="BF82" s="0"/>
+      <c r="BG82" s="0"/>
+      <c r="BH82" s="0"/>
+      <c r="BI82" s="0"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA83" s="0"/>
+      <c r="BB83" s="0"/>
+      <c r="BC83" s="0"/>
+      <c r="BD83" s="0"/>
+      <c r="BE83" s="0"/>
+      <c r="BF83" s="0"/>
+      <c r="BG83" s="0"/>
+      <c r="BH83" s="0"/>
+      <c r="BI83" s="0"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA84" s="0"/>
+      <c r="BB84" s="0"/>
+      <c r="BC84" s="0"/>
+      <c r="BD84" s="0"/>
+      <c r="BE84" s="0"/>
+      <c r="BF84" s="0"/>
+      <c r="BG84" s="0"/>
+      <c r="BH84" s="0"/>
+      <c r="BI84" s="0"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA85" s="0"/>
+      <c r="BB85" s="0"/>
+      <c r="BC85" s="0"/>
+      <c r="BD85" s="0"/>
+      <c r="BE85" s="0"/>
+      <c r="BF85" s="0"/>
+      <c r="BG85" s="0"/>
+      <c r="BH85" s="0"/>
+      <c r="BI85" s="0"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12ページ &amp;P</oddFooter>

--- a/resources/mpn.xlsx
+++ b/resources/mpn.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="blank" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="canon1" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="prelude15_1" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="kiki_1" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="8">
   <si>
     <t xml:space="preserve">bt</t>
   </si>
@@ -40,6 +41,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=oqoPJcpt_v0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海の見える街 Lesson1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=PU5QzclYzRI</t>
   </si>
 </sst>
 </file>
@@ -255,10 +262,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -293,6 +296,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -372,15 +379,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CK9"/>
+  <dimension ref="A1:CK7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2835" topLeftCell="A1" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.13"/>
@@ -793,12 +800,7 @@
       <c r="A7" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="AC7" s="14"/>
-      <c r="AJ7" s="14"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X9" s="14"/>
-      <c r="AE9" s="14"/>
+      <c r="B7" s="14"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -818,13 +820,13 @@
   </sheetPr>
   <dimension ref="A1:CK135"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2835" topLeftCell="A1" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="AE9" activeCellId="0" sqref="AE9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.13"/>
@@ -1241,10 +1243,10 @@
       <c r="A7" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="AC7" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ7" s="15" t="n">
+      <c r="AC7" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ7" s="14" t="n">
         <v>1</v>
       </c>
       <c r="AO7" s="1" t="n">
@@ -1255,10 +1257,10 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X9" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE9" s="15" t="n">
+      <c r="X9" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE9" s="14" t="n">
         <v>1</v>
       </c>
       <c r="AN9" s="3" t="n">
@@ -1274,10 +1276,10 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z11" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG11" s="15" t="n">
+      <c r="Z11" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG11" s="14" t="n">
         <v>1</v>
       </c>
       <c r="AL11" s="1" t="n">
@@ -1288,10 +1290,10 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U13" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB13" s="16" t="n">
+      <c r="U13" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB13" s="15" t="n">
         <v>1</v>
       </c>
       <c r="AJ13" s="1" t="n">
@@ -1305,10 +1307,10 @@
       <c r="A15" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="V15" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC15" s="15" t="n">
+      <c r="V15" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC15" s="14" t="n">
         <v>1</v>
       </c>
       <c r="AH15" s="1" t="n">
@@ -1319,10 +1321,10 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q17" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="X17" s="15" t="n">
+      <c r="Q17" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="X17" s="14" t="n">
         <v>1</v>
       </c>
       <c r="AG17" s="1" t="n">
@@ -1333,10 +1335,10 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V19" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC19" s="15" t="n">
+      <c r="V19" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC19" s="14" t="n">
         <v>1</v>
       </c>
       <c r="AH19" s="1" t="n">
@@ -1347,10 +1349,10 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X21" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE21" s="15" t="n">
+      <c r="X21" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE21" s="14" t="n">
         <v>1</v>
       </c>
       <c r="AJ21" s="1" t="n">
@@ -1369,13 +1371,13 @@
       <c r="A23" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="AC23" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ23" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO23" s="15" t="n">
+      <c r="AC23" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ23" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO23" s="14" t="n">
         <v>1</v>
       </c>
       <c r="AS23" s="1" t="n">
@@ -1389,13 +1391,13 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X25" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE25" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ25" s="15" t="n">
+      <c r="X25" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE25" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ25" s="14" t="n">
         <v>1</v>
       </c>
       <c r="AQ25" s="1" t="n">
@@ -1409,13 +1411,13 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z27" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG27" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL27" s="15" t="n">
+      <c r="Z27" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG27" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL27" s="14" t="n">
         <v>1</v>
       </c>
       <c r="AO27" s="1" t="n">
@@ -1429,13 +1431,13 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U29" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB29" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG29" s="16" t="n">
+      <c r="U29" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB29" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG29" s="15" t="n">
         <v>1</v>
       </c>
       <c r="AN29" s="3" t="n">
@@ -1452,13 +1454,13 @@
       <c r="A31" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="V31" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC31" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH31" s="15" t="n">
+      <c r="V31" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC31" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH31" s="14" t="n">
         <v>1</v>
       </c>
       <c r="AL31" s="1" t="n">
@@ -1472,13 +1474,13 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q33" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="X33" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC33" s="15" t="n">
+      <c r="Q33" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="X33" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC33" s="14" t="n">
         <v>1</v>
       </c>
       <c r="AJ33" s="1" t="n">
@@ -1492,13 +1494,13 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V35" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC35" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH35" s="15" t="n">
+      <c r="V35" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC35" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH35" s="14" t="n">
         <v>1</v>
       </c>
       <c r="AL35" s="1" t="n">
@@ -1515,13 +1517,13 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X37" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE37" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ37" s="15" t="n">
+      <c r="X37" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE37" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ37" s="14" t="n">
         <v>1</v>
       </c>
       <c r="AN37" s="3" t="n">
@@ -1538,7 +1540,7 @@
       <c r="A39" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="AC39" s="15" t="n">
+      <c r="AC39" s="14" t="n">
         <v>5</v>
       </c>
       <c r="AJ39" s="0"/>
@@ -1554,24 +1556,24 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AJ40" s="15" t="n">
+      <c r="AJ40" s="14" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AO41" s="15" t="n">
+      <c r="AO41" s="14" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AO42" s="15"/>
+      <c r="AO42" s="14"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X43" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE43" s="15"/>
-      <c r="AJ43" s="15"/>
+      <c r="X43" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE43" s="14"/>
+      <c r="AJ43" s="14"/>
       <c r="AQ43" s="1" t="n">
         <v>1</v>
       </c>
@@ -1583,14 +1585,14 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X44" s="15"/>
-      <c r="AE44" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ44" s="15"/>
+      <c r="X44" s="14"/>
+      <c r="AE44" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ44" s="14"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AJ45" s="15" t="n">
+      <c r="AJ45" s="14" t="n">
         <v>1</v>
       </c>
       <c r="AZ45" s="3" t="n">
@@ -1598,14 +1600,14 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AJ46" s="15"/>
+      <c r="AJ46" s="14"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z47" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG47" s="15"/>
-      <c r="AL47" s="15"/>
+      <c r="Z47" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG47" s="14"/>
+      <c r="AL47" s="14"/>
       <c r="AO47" s="1" t="n">
         <v>1</v>
       </c>
@@ -1617,14 +1619,14 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z48" s="15"/>
-      <c r="AG48" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL48" s="15"/>
+      <c r="Z48" s="14"/>
+      <c r="AG48" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL48" s="14"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL49" s="15" t="n">
+      <c r="AL49" s="14" t="n">
         <v>1</v>
       </c>
       <c r="AX49" s="1" t="n">
@@ -1632,14 +1634,14 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL50" s="15"/>
+      <c r="AL50" s="14"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U51" s="15" t="n">
+      <c r="U51" s="14" t="n">
         <v>5</v>
       </c>
       <c r="AB51" s="0"/>
-      <c r="AG51" s="16"/>
+      <c r="AG51" s="15"/>
       <c r="AN51" s="3" t="n">
         <v>1</v>
       </c>
@@ -1651,14 +1653,14 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U52" s="15"/>
-      <c r="AB52" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG52" s="16"/>
+      <c r="U52" s="14"/>
+      <c r="AB52" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG52" s="15"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AG53" s="16" t="n">
+      <c r="AG53" s="15" t="n">
         <v>1</v>
       </c>
       <c r="AV53" s="1" t="n">
@@ -1666,17 +1668,17 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AG54" s="16"/>
+      <c r="AG54" s="15"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="V55" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC55" s="15"/>
-      <c r="AH55" s="15"/>
+      <c r="V55" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC55" s="14"/>
+      <c r="AH55" s="14"/>
       <c r="AL55" s="1" t="n">
         <v>1</v>
       </c>
@@ -1688,14 +1690,14 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V56" s="15"/>
-      <c r="AC56" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH56" s="15"/>
+      <c r="V56" s="14"/>
+      <c r="AC56" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH56" s="14"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH57" s="15" t="n">
+      <c r="AH57" s="14" t="n">
         <v>1</v>
       </c>
       <c r="AL57" s="1" t="n">
@@ -1706,14 +1708,14 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH58" s="15"/>
+      <c r="AH58" s="14"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q59" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="X59" s="15"/>
-      <c r="AC59" s="15"/>
+      <c r="Q59" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="X59" s="14"/>
+      <c r="AC59" s="14"/>
       <c r="AJ59" s="1" t="n">
         <v>1</v>
       </c>
@@ -1725,14 +1727,14 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q60" s="15"/>
-      <c r="X60" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC60" s="15"/>
+      <c r="Q60" s="14"/>
+      <c r="X60" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC60" s="14"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AC61" s="15" t="n">
+      <c r="AC61" s="14" t="n">
         <v>1</v>
       </c>
       <c r="AJ61" s="1" t="n">
@@ -1743,14 +1745,14 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AC62" s="15"/>
+      <c r="AC62" s="14"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V63" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC63" s="15"/>
-      <c r="AH63" s="15"/>
+      <c r="V63" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC63" s="14"/>
+      <c r="AH63" s="14"/>
       <c r="AL63" s="1" t="n">
         <v>1</v>
       </c>
@@ -1765,14 +1767,14 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V64" s="15"/>
-      <c r="AC64" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH64" s="15"/>
+      <c r="V64" s="14"/>
+      <c r="AC64" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH64" s="14"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH65" s="15" t="n">
+      <c r="AH65" s="14" t="n">
         <v>1</v>
       </c>
       <c r="AL65" s="1" t="n">
@@ -1783,14 +1785,14 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH66" s="15"/>
+      <c r="AH66" s="14"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X67" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE67" s="15"/>
-      <c r="AJ67" s="15"/>
+      <c r="X67" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE67" s="14"/>
+      <c r="AJ67" s="14"/>
       <c r="AN67" s="3" t="n">
         <v>1</v>
       </c>
@@ -1802,126 +1804,126 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X68" s="15"/>
-      <c r="AE68" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ68" s="15"/>
+      <c r="X68" s="14"/>
+      <c r="AE68" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ68" s="14"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AJ69" s="15" t="n">
+      <c r="AJ69" s="14" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AJ70" s="15"/>
-    </row>
-    <row r="71" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="17" t="s">
+      <c r="AJ70" s="14"/>
+    </row>
+    <row r="71" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="19"/>
-      <c r="L71" s="18"/>
-      <c r="M71" s="19"/>
-      <c r="N71" s="18"/>
-      <c r="O71" s="19"/>
-      <c r="P71" s="20"/>
-      <c r="Q71" s="18"/>
-      <c r="R71" s="19"/>
-      <c r="S71" s="18"/>
-      <c r="T71" s="19"/>
-      <c r="U71" s="18"/>
-      <c r="V71" s="18"/>
-      <c r="W71" s="19"/>
-      <c r="X71" s="18"/>
-      <c r="Y71" s="19"/>
-      <c r="Z71" s="18"/>
-      <c r="AA71" s="19"/>
-      <c r="AB71" s="20"/>
-      <c r="AC71" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD71" s="19"/>
-      <c r="AE71" s="18"/>
-      <c r="AF71" s="19"/>
-      <c r="AG71" s="18"/>
-      <c r="AH71" s="18"/>
-      <c r="AI71" s="19"/>
-      <c r="AJ71" s="17"/>
-      <c r="AK71" s="19"/>
-      <c r="AL71" s="18"/>
-      <c r="AM71" s="19"/>
-      <c r="AN71" s="20"/>
-      <c r="AO71" s="17"/>
-      <c r="AP71" s="19"/>
-      <c r="AQ71" s="18"/>
-      <c r="AR71" s="19"/>
-      <c r="AS71" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT71" s="18"/>
-      <c r="AU71" s="19"/>
-      <c r="AV71" s="18"/>
-      <c r="AW71" s="19"/>
-      <c r="AX71" s="18"/>
-      <c r="AY71" s="19"/>
-      <c r="AZ71" s="20"/>
-      <c r="BA71" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB71" s="19"/>
-      <c r="BC71" s="18"/>
-      <c r="BD71" s="19"/>
-      <c r="BE71" s="18"/>
-      <c r="BF71" s="18"/>
-      <c r="BG71" s="19"/>
-      <c r="BH71" s="18"/>
-      <c r="BI71" s="19"/>
-      <c r="BJ71" s="18"/>
-      <c r="BK71" s="19"/>
-      <c r="BL71" s="20"/>
-      <c r="BM71" s="18"/>
-      <c r="BN71" s="19"/>
-      <c r="BO71" s="18"/>
-      <c r="BP71" s="19"/>
-      <c r="BQ71" s="18"/>
-      <c r="BR71" s="18"/>
-      <c r="BS71" s="19"/>
-      <c r="BT71" s="18"/>
-      <c r="BU71" s="19"/>
-      <c r="BV71" s="18"/>
-      <c r="BW71" s="19"/>
-      <c r="BX71" s="20"/>
-      <c r="BY71" s="18"/>
-      <c r="BZ71" s="19"/>
-      <c r="CA71" s="18"/>
-      <c r="CB71" s="19"/>
-      <c r="CC71" s="18"/>
-      <c r="CD71" s="18"/>
-      <c r="CE71" s="19"/>
-      <c r="CF71" s="18"/>
-      <c r="CG71" s="19"/>
-      <c r="CH71" s="18"/>
-      <c r="CI71" s="19"/>
-      <c r="CJ71" s="20"/>
-      <c r="CK71" s="18"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="17"/>
+      <c r="M71" s="18"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="18"/>
+      <c r="P71" s="19"/>
+      <c r="Q71" s="17"/>
+      <c r="R71" s="18"/>
+      <c r="S71" s="17"/>
+      <c r="T71" s="18"/>
+      <c r="U71" s="17"/>
+      <c r="V71" s="17"/>
+      <c r="W71" s="18"/>
+      <c r="X71" s="17"/>
+      <c r="Y71" s="18"/>
+      <c r="Z71" s="17"/>
+      <c r="AA71" s="18"/>
+      <c r="AB71" s="19"/>
+      <c r="AC71" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD71" s="18"/>
+      <c r="AE71" s="17"/>
+      <c r="AF71" s="18"/>
+      <c r="AG71" s="17"/>
+      <c r="AH71" s="17"/>
+      <c r="AI71" s="18"/>
+      <c r="AJ71" s="16"/>
+      <c r="AK71" s="18"/>
+      <c r="AL71" s="17"/>
+      <c r="AM71" s="18"/>
+      <c r="AN71" s="19"/>
+      <c r="AO71" s="16"/>
+      <c r="AP71" s="18"/>
+      <c r="AQ71" s="17"/>
+      <c r="AR71" s="18"/>
+      <c r="AS71" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT71" s="17"/>
+      <c r="AU71" s="18"/>
+      <c r="AV71" s="17"/>
+      <c r="AW71" s="18"/>
+      <c r="AX71" s="17"/>
+      <c r="AY71" s="18"/>
+      <c r="AZ71" s="19"/>
+      <c r="BA71" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB71" s="18"/>
+      <c r="BC71" s="17"/>
+      <c r="BD71" s="18"/>
+      <c r="BE71" s="17"/>
+      <c r="BF71" s="17"/>
+      <c r="BG71" s="18"/>
+      <c r="BH71" s="17"/>
+      <c r="BI71" s="18"/>
+      <c r="BJ71" s="17"/>
+      <c r="BK71" s="18"/>
+      <c r="BL71" s="19"/>
+      <c r="BM71" s="17"/>
+      <c r="BN71" s="18"/>
+      <c r="BO71" s="17"/>
+      <c r="BP71" s="18"/>
+      <c r="BQ71" s="17"/>
+      <c r="BR71" s="17"/>
+      <c r="BS71" s="18"/>
+      <c r="BT71" s="17"/>
+      <c r="BU71" s="18"/>
+      <c r="BV71" s="17"/>
+      <c r="BW71" s="18"/>
+      <c r="BX71" s="19"/>
+      <c r="BY71" s="17"/>
+      <c r="BZ71" s="18"/>
+      <c r="CA71" s="17"/>
+      <c r="CB71" s="18"/>
+      <c r="CC71" s="17"/>
+      <c r="CD71" s="17"/>
+      <c r="CE71" s="18"/>
+      <c r="CF71" s="17"/>
+      <c r="CG71" s="18"/>
+      <c r="CH71" s="17"/>
+      <c r="CI71" s="18"/>
+      <c r="CJ71" s="19"/>
+      <c r="CK71" s="17"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AJ72" s="15" t="n">
+      <c r="AJ72" s="14" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AO73" s="15" t="n">
+      <c r="AO73" s="14" t="n">
         <v>1</v>
       </c>
       <c r="AS73" s="0"/>
@@ -1942,7 +1944,7 @@
       <c r="BH73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AO74" s="15"/>
+      <c r="AO74" s="14"/>
       <c r="AS74" s="0"/>
       <c r="AT74" s="0"/>
       <c r="AU74" s="0"/>
@@ -1961,11 +1963,11 @@
       <c r="BH74" s="0"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X75" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE75" s="15"/>
-      <c r="AJ75" s="15"/>
+      <c r="X75" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE75" s="14"/>
+      <c r="AJ75" s="14"/>
       <c r="AN75" s="3" t="n">
         <v>1</v>
       </c>
@@ -1974,11 +1976,11 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X76" s="15"/>
-      <c r="AE76" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ76" s="15"/>
+      <c r="X76" s="14"/>
+      <c r="AE76" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ76" s="14"/>
       <c r="AS76" s="0"/>
       <c r="AT76" s="0"/>
       <c r="AU76" s="0"/>
@@ -1997,7 +1999,7 @@
       <c r="BH76" s="0"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AJ77" s="15" t="n">
+      <c r="AJ77" s="14" t="n">
         <v>1</v>
       </c>
       <c r="AQ77" s="1" t="n">
@@ -2008,14 +2010,14 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AJ78" s="15"/>
+      <c r="AJ78" s="14"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z79" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG79" s="15"/>
-      <c r="AL79" s="15"/>
+      <c r="Z79" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG79" s="14"/>
+      <c r="AL79" s="14"/>
       <c r="AS79" s="1" t="n">
         <v>1</v>
       </c>
@@ -2024,11 +2026,11 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z80" s="15"/>
-      <c r="AG80" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL80" s="15"/>
+      <c r="Z80" s="14"/>
+      <c r="AG80" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL80" s="14"/>
       <c r="AS80" s="0"/>
       <c r="AT80" s="0"/>
       <c r="AU80" s="0"/>
@@ -2047,7 +2049,7 @@
       <c r="BH80" s="0"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL81" s="15" t="n">
+      <c r="AL81" s="14" t="n">
         <v>1</v>
       </c>
       <c r="AX81" s="1" t="n">
@@ -2058,14 +2060,14 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL82" s="15"/>
+      <c r="AL82" s="14"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U83" s="15" t="n">
+      <c r="U83" s="14" t="n">
         <v>5</v>
       </c>
       <c r="AB83" s="0"/>
-      <c r="AG83" s="16"/>
+      <c r="AG83" s="15"/>
       <c r="AZ83" s="3" t="n">
         <v>2</v>
       </c>
@@ -2074,11 +2076,11 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U84" s="15"/>
-      <c r="AB84" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG84" s="16"/>
+      <c r="U84" s="14"/>
+      <c r="AB84" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG84" s="15"/>
       <c r="AS84" s="0"/>
       <c r="AT84" s="0"/>
       <c r="AU84" s="0"/>
@@ -2097,7 +2099,7 @@
       <c r="BH84" s="0"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AG85" s="16" t="n">
+      <c r="AG85" s="15" t="n">
         <v>1</v>
       </c>
       <c r="AN85" s="3" t="n">
@@ -2108,17 +2110,17 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AG86" s="16"/>
+      <c r="AG86" s="15"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="V87" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC87" s="15"/>
-      <c r="AH87" s="15"/>
+      <c r="V87" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC87" s="14"/>
+      <c r="AH87" s="14"/>
       <c r="AO87" s="1" t="n">
         <v>1</v>
       </c>
@@ -2127,14 +2129,14 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V88" s="15"/>
-      <c r="AC88" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH88" s="15"/>
+      <c r="V88" s="14"/>
+      <c r="AC88" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH88" s="14"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH89" s="15" t="n">
+      <c r="AH89" s="14" t="n">
         <v>1</v>
       </c>
       <c r="AT89" s="1" t="n">
@@ -2142,14 +2144,14 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH90" s="15"/>
+      <c r="AH90" s="14"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q91" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="X91" s="15"/>
-      <c r="AC91" s="15"/>
+      <c r="Q91" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="X91" s="14"/>
+      <c r="AC91" s="14"/>
       <c r="AJ91" s="1" t="n">
         <v>1</v>
       </c>
@@ -2161,11 +2163,11 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q92" s="15"/>
-      <c r="X92" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC92" s="15"/>
+      <c r="Q92" s="14"/>
+      <c r="X92" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC92" s="14"/>
       <c r="AS92" s="0"/>
       <c r="AT92" s="0"/>
       <c r="AU92" s="0"/>
@@ -2184,7 +2186,7 @@
       <c r="BH92" s="0"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AC93" s="15" t="n">
+      <c r="AC93" s="14" t="n">
         <v>1</v>
       </c>
       <c r="AO93" s="1" t="n">
@@ -2195,14 +2197,14 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AC94" s="15"/>
+      <c r="AC94" s="14"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V95" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC95" s="15"/>
-      <c r="AH95" s="15"/>
+      <c r="V95" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC95" s="14"/>
+      <c r="AH95" s="14"/>
       <c r="AL95" s="1" t="n">
         <v>1</v>
       </c>
@@ -2214,11 +2216,11 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V96" s="15"/>
-      <c r="AC96" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH96" s="15"/>
+      <c r="V96" s="14"/>
+      <c r="AC96" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH96" s="14"/>
       <c r="AS96" s="0"/>
       <c r="AT96" s="0"/>
       <c r="AU96" s="0"/>
@@ -2237,7 +2239,7 @@
       <c r="BH96" s="0"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH97" s="15" t="n">
+      <c r="AH97" s="14" t="n">
         <v>1</v>
       </c>
       <c r="AT97" s="1" t="n">
@@ -2248,14 +2250,14 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH98" s="15"/>
+      <c r="AH98" s="14"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X99" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE99" s="15"/>
-      <c r="AJ99" s="15"/>
+      <c r="X99" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE99" s="14"/>
+      <c r="AJ99" s="14"/>
       <c r="AT99" s="1" t="n">
         <v>1</v>
       </c>
@@ -2264,11 +2266,11 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X100" s="15"/>
-      <c r="AE100" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ100" s="15"/>
+      <c r="X100" s="14"/>
+      <c r="AE100" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ100" s="14"/>
       <c r="AS100" s="0"/>
       <c r="AT100" s="0"/>
       <c r="AU100" s="0"/>
@@ -2287,7 +2289,7 @@
       <c r="BH100" s="0"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AJ101" s="15" t="n">
+      <c r="AJ101" s="14" t="n">
         <v>1</v>
       </c>
       <c r="AS101" s="0"/>
@@ -2316,7 +2318,7 @@
       <c r="A103" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="AC103" s="15" t="n">
+      <c r="AC103" s="14" t="n">
         <v>5</v>
       </c>
       <c r="AJ103" s="0"/>
@@ -2326,7 +2328,7 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AJ104" s="15" t="n">
+      <c r="AJ104" s="14" t="n">
         <v>2</v>
       </c>
       <c r="AZ104" s="3" t="n">
@@ -2334,7 +2336,7 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AO105" s="15" t="n">
+      <c r="AO105" s="14" t="n">
         <v>1</v>
       </c>
       <c r="BA105" s="1" t="n">
@@ -2342,27 +2344,27 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AO106" s="15"/>
+      <c r="AO106" s="14"/>
       <c r="AS106" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X107" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE107" s="15"/>
-      <c r="AJ107" s="15"/>
+      <c r="X107" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE107" s="14"/>
+      <c r="AJ107" s="14"/>
       <c r="AV107" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X108" s="15"/>
-      <c r="AE108" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ108" s="15"/>
+      <c r="X108" s="14"/>
+      <c r="AE108" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ108" s="14"/>
       <c r="AS108" s="0"/>
       <c r="AT108" s="0"/>
       <c r="AU108" s="0"/>
@@ -2381,7 +2383,7 @@
       <c r="BH108" s="0"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AJ109" s="15" t="n">
+      <c r="AJ109" s="14" t="n">
         <v>1</v>
       </c>
       <c r="AZ109" s="3" t="n">
@@ -2389,7 +2391,7 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AJ110" s="15"/>
+      <c r="AJ110" s="14"/>
       <c r="AS110" s="0"/>
       <c r="AT110" s="0"/>
       <c r="AU110" s="0"/>
@@ -2408,21 +2410,21 @@
       <c r="BH110" s="0"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z111" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG111" s="15"/>
-      <c r="AL111" s="15"/>
+      <c r="Z111" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG111" s="14"/>
+      <c r="AL111" s="14"/>
       <c r="BA111" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z112" s="15"/>
-      <c r="AG112" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL112" s="15"/>
+      <c r="Z112" s="14"/>
+      <c r="AG112" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL112" s="14"/>
       <c r="AS112" s="0"/>
       <c r="AT112" s="0"/>
       <c r="AU112" s="0"/>
@@ -2441,7 +2443,7 @@
       <c r="BH112" s="0"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL113" s="15" t="n">
+      <c r="AL113" s="14" t="n">
         <v>1</v>
       </c>
       <c r="BE113" s="1" t="n">
@@ -2449,7 +2451,7 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL114" s="15"/>
+      <c r="AL114" s="14"/>
       <c r="AS114" s="0"/>
       <c r="AT114" s="0"/>
       <c r="AU114" s="0"/>
@@ -2468,11 +2470,11 @@
       <c r="BH114" s="0"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U115" s="15" t="n">
+      <c r="U115" s="14" t="n">
         <v>5</v>
       </c>
       <c r="AB115" s="0"/>
-      <c r="AG115" s="16"/>
+      <c r="AG115" s="15"/>
       <c r="AZ115" s="3" t="n">
         <v>2</v>
       </c>
@@ -2481,11 +2483,11 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U116" s="15"/>
-      <c r="AB116" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG116" s="16"/>
+      <c r="U116" s="14"/>
+      <c r="AB116" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG116" s="15"/>
       <c r="AS116" s="0"/>
       <c r="AT116" s="0"/>
       <c r="AU116" s="0"/>
@@ -2504,7 +2506,7 @@
       <c r="BH116" s="0"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AG117" s="16" t="n">
+      <c r="AG117" s="15" t="n">
         <v>1</v>
       </c>
       <c r="AN117" s="3" t="n">
@@ -2515,7 +2517,7 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AG118" s="16"/>
+      <c r="AG118" s="15"/>
       <c r="AS118" s="0"/>
       <c r="AT118" s="0"/>
       <c r="AU118" s="0"/>
@@ -2537,11 +2539,11 @@
       <c r="A119" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="V119" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC119" s="15"/>
-      <c r="AH119" s="15"/>
+      <c r="V119" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC119" s="14"/>
+      <c r="AH119" s="14"/>
       <c r="AX119" s="1" t="n">
         <v>1</v>
       </c>
@@ -2550,17 +2552,17 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V120" s="15"/>
-      <c r="AC120" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH120" s="15"/>
+      <c r="V120" s="14"/>
+      <c r="AC120" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH120" s="14"/>
       <c r="BE120" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH121" s="15" t="n">
+      <c r="AH121" s="14" t="n">
         <v>1</v>
       </c>
       <c r="AX121" s="1" t="n">
@@ -2571,17 +2573,17 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH122" s="15"/>
+      <c r="AH122" s="14"/>
       <c r="BC122" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q123" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="X123" s="15"/>
-      <c r="AC123" s="15"/>
+      <c r="Q123" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="X123" s="14"/>
+      <c r="AC123" s="14"/>
       <c r="AV123" s="1" t="n">
         <v>1</v>
       </c>
@@ -2590,17 +2592,17 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q124" s="15"/>
-      <c r="X124" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC124" s="15"/>
+      <c r="Q124" s="14"/>
+      <c r="X124" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC124" s="14"/>
       <c r="BC124" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AC125" s="15" t="n">
+      <c r="AC125" s="14" t="n">
         <v>1</v>
       </c>
       <c r="BA125" s="1" t="n">
@@ -2608,17 +2610,17 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AC126" s="15"/>
+      <c r="AC126" s="14"/>
       <c r="AZ126" s="3" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V127" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC127" s="15"/>
-      <c r="AH127" s="15"/>
+      <c r="V127" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC127" s="14"/>
+      <c r="AH127" s="14"/>
       <c r="AM127" s="2" t="s">
         <v>3</v>
       </c>
@@ -2630,17 +2632,17 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V128" s="15"/>
-      <c r="AC128" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH128" s="15"/>
+      <c r="V128" s="14"/>
+      <c r="AC128" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH128" s="14"/>
       <c r="AV128" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH129" s="15" t="n">
+      <c r="AH129" s="14" t="n">
         <v>1</v>
       </c>
       <c r="AT129" s="1" t="n">
@@ -2648,27 +2650,27 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH130" s="15"/>
+      <c r="AH130" s="14"/>
       <c r="BA130" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X131" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE131" s="15"/>
-      <c r="AJ131" s="15"/>
+      <c r="X131" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE131" s="14"/>
+      <c r="AJ131" s="14"/>
       <c r="BA131" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X132" s="15"/>
-      <c r="AE132" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ132" s="15"/>
+      <c r="X132" s="14"/>
+      <c r="AE132" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ132" s="14"/>
       <c r="AS132" s="1" t="n">
         <v>2</v>
       </c>
@@ -2676,7 +2678,7 @@
       <c r="BA132" s="0"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AJ133" s="15" t="n">
+      <c r="AJ133" s="14" t="n">
         <v>1</v>
       </c>
       <c r="AQ133" s="1" t="n">
@@ -2692,7 +2694,7 @@
       <c r="A135" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="AC135" s="15" t="n">
+      <c r="AC135" s="14" t="n">
         <v>5</v>
       </c>
       <c r="BA135" s="1" t="n">
@@ -2720,13 +2722,13 @@
   </sheetPr>
   <dimension ref="A1:CK85"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2835" topLeftCell="A30" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="AS47" activeCellId="0" sqref="AS47"/>
+      <selection pane="bottomLeft" activeCell="AK30" activeCellId="0" sqref="AK30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.13"/>
@@ -3143,18 +3145,15 @@
       <c r="A7" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ7" s="14"/>
+      <c r="AD7" s="14" t="n">
+        <v>5</v>
+      </c>
       <c r="BF7" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AE8" s="14"/>
-      <c r="AK8" s="15" t="n">
+      <c r="AK8" s="14" t="n">
         <v>3</v>
       </c>
       <c r="AV8" s="0"/>
@@ -3171,7 +3170,6 @@
       <c r="BG8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X9" s="14"/>
       <c r="AC9" s="0"/>
       <c r="AD9" s="0"/>
       <c r="AE9" s="0"/>
@@ -3195,10 +3193,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AP10" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT10" s="15" t="n">
+      <c r="AP10" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT10" s="14" t="n">
         <v>1</v>
       </c>
       <c r="AW10" s="2" t="n">
@@ -3206,12 +3204,12 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK11" s="15" t="n">
+      <c r="AK11" s="14" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK12" s="15" t="n">
+      <c r="AK12" s="14" t="n">
         <v>5</v>
       </c>
       <c r="AY12" s="0"/>
@@ -3229,7 +3227,7 @@
       <c r="BK12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK13" s="15" t="n">
+      <c r="AK13" s="14" t="n">
         <v>5</v>
       </c>
       <c r="AY13" s="0"/>
@@ -3247,10 +3245,10 @@
       <c r="BK13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AP14" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT14" s="15" t="n">
+      <c r="AP14" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT14" s="14" t="n">
         <v>1</v>
       </c>
       <c r="AY14" s="2" t="n">
@@ -3258,7 +3256,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK15" s="15" t="n">
+      <c r="AK15" s="14" t="n">
         <v>5</v>
       </c>
       <c r="BA15" s="0"/>
@@ -3278,10 +3276,10 @@
       <c r="A16" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="AR16" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU16" s="15" t="n">
+      <c r="AR16" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU16" s="14" t="n">
         <v>1</v>
       </c>
       <c r="BA16" s="1" t="n">
@@ -3289,12 +3287,12 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK17" s="15" t="n">
+      <c r="AK17" s="14" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK18" s="15" t="n">
+      <c r="AK18" s="14" t="n">
         <v>5</v>
       </c>
       <c r="BA18" s="0"/>
@@ -3311,7 +3309,7 @@
       <c r="BL18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK19" s="15" t="n">
+      <c r="AK19" s="14" t="n">
         <v>5</v>
       </c>
       <c r="BA19" s="0"/>
@@ -3328,7 +3326,7 @@
       <c r="BL19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AM20" s="15" t="n">
+      <c r="AM20" s="14" t="n">
         <v>4</v>
       </c>
       <c r="BA20" s="0"/>
@@ -3345,7 +3343,7 @@
       <c r="BL20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK21" s="15" t="n">
+      <c r="AK21" s="14" t="n">
         <v>5</v>
       </c>
       <c r="BA21" s="0"/>
@@ -3362,10 +3360,10 @@
       <c r="BL21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AP22" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT22" s="15" t="n">
+      <c r="AP22" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT22" s="14" t="n">
         <v>1</v>
       </c>
       <c r="BB22" s="2" t="n">
@@ -3373,7 +3371,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK23" s="15" t="n">
+      <c r="AK23" s="14" t="n">
         <v>5</v>
       </c>
       <c r="BA23" s="0"/>
@@ -3393,10 +3391,10 @@
       <c r="A24" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="AO24" s="15" t="n">
+      <c r="AO24" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="AU24" s="15" t="n">
+      <c r="AU24" s="14" t="n">
         <v>2</v>
       </c>
       <c r="BD24" s="2" t="n">
@@ -3404,7 +3402,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK25" s="15" t="n">
+      <c r="AK25" s="14" t="n">
         <v>5</v>
       </c>
       <c r="BA25" s="0"/>
@@ -3422,7 +3420,7 @@
       <c r="BM25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AW26" s="15" t="n">
+      <c r="AW26" s="14" t="n">
         <v>1</v>
       </c>
       <c r="BF26" s="1" t="n">
@@ -3430,7 +3428,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AY27" s="15" t="n">
+      <c r="AY27" s="14" t="n">
         <v>1</v>
       </c>
       <c r="BG27" s="2" t="n">
@@ -3438,7 +3436,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK28" s="15" t="n">
+      <c r="AK28" s="14" t="n">
         <v>5</v>
       </c>
       <c r="BA28" s="0"/>
@@ -3455,7 +3453,7 @@
       <c r="BL28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK29" s="15" t="n">
+      <c r="AK29" s="14" t="n">
         <v>5</v>
       </c>
       <c r="BA29" s="0"/>
@@ -3472,7 +3470,7 @@
       <c r="BL29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK30" s="15" t="n">
+      <c r="AK30" s="14" t="n">
         <v>5</v>
       </c>
       <c r="BA30" s="0"/>
@@ -3489,10 +3487,10 @@
       <c r="BL30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AP31" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW31" s="15" t="n">
+      <c r="AP31" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW31" s="14" t="n">
         <v>1</v>
       </c>
       <c r="BF31" s="1" t="n">
@@ -3500,7 +3498,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK32" s="15" t="n">
+      <c r="AK32" s="14" t="n">
         <v>5</v>
       </c>
       <c r="BA32" s="0"/>
@@ -3520,10 +3518,10 @@
       <c r="A33" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="AO33" s="15" t="n">
+      <c r="AO33" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="AW33" s="15" t="n">
+      <c r="AW33" s="14" t="n">
         <v>1</v>
       </c>
       <c r="BF33" s="1" t="n">
@@ -3531,12 +3529,12 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK34" s="15" t="n">
+      <c r="AK34" s="14" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AU35" s="15" t="n">
+      <c r="AU35" s="14" t="n">
         <v>1</v>
       </c>
       <c r="BA35" s="0"/>
@@ -3552,7 +3550,7 @@
       <c r="BK35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK36" s="15" t="n">
+      <c r="AK36" s="14" t="n">
         <v>5</v>
       </c>
       <c r="BD36" s="2" t="n">
@@ -3561,10 +3559,10 @@
       <c r="BL36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AP37" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT37" s="15" t="n">
+      <c r="AP37" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT37" s="14" t="n">
         <v>1</v>
       </c>
       <c r="BA37" s="0"/>
@@ -3573,7 +3571,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK38" s="15" t="n">
+      <c r="AK38" s="14" t="n">
         <v>5</v>
       </c>
       <c r="BA38" s="0"/>
@@ -3589,16 +3587,16 @@
       <c r="BK38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK39" s="15"/>
+      <c r="AK39" s="14"/>
       <c r="BD39" s="2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AO40" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU40" s="15" t="n">
+      <c r="AO40" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU40" s="14" t="n">
         <v>1</v>
       </c>
       <c r="BD40" s="2" t="n">
@@ -3606,21 +3604,21 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AO41" s="15"/>
-      <c r="AU41" s="15"/>
+      <c r="AO41" s="14"/>
+      <c r="AU41" s="14"/>
       <c r="BF41" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AO42" s="15"/>
-      <c r="AU42" s="15"/>
+      <c r="AO42" s="14"/>
+      <c r="AU42" s="14"/>
       <c r="BD42" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK43" s="15" t="n">
+      <c r="AK43" s="14" t="n">
         <v>3</v>
       </c>
       <c r="BC43" s="1" t="n">
@@ -3628,19 +3626,19 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK44" s="15"/>
+      <c r="AK44" s="14"/>
       <c r="BD44" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK45" s="15"/>
+      <c r="AK45" s="14"/>
       <c r="BF45" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK46" s="15"/>
+      <c r="AK46" s="14"/>
       <c r="BG46" s="2" t="n">
         <v>4</v>
       </c>
@@ -3649,7 +3647,7 @@
       <c r="A47" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="AD47" s="15" t="n">
+      <c r="AD47" s="14" t="n">
         <v>5</v>
       </c>
       <c r="BF47" s="1" t="n">
@@ -3658,7 +3656,7 @@
       <c r="BG47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK48" s="15" t="n">
+      <c r="AK48" s="14" t="n">
         <v>3</v>
       </c>
       <c r="AW48" s="0"/>
@@ -3674,17 +3672,17 @@
       <c r="BG48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK49" s="15"/>
+      <c r="AK49" s="14"/>
       <c r="BB49" s="2" t="n">
         <v>4</v>
       </c>
       <c r="BG49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AP50" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT50" s="15" t="n">
+      <c r="AP50" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT50" s="14" t="n">
         <v>1</v>
       </c>
       <c r="AW50" s="2" t="n">
@@ -3693,13 +3691,13 @@
       <c r="BG50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK51" s="15" t="n">
+      <c r="AK51" s="14" t="n">
         <v>5</v>
       </c>
       <c r="BG51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK52" s="15" t="n">
+      <c r="AK52" s="14" t="n">
         <v>5</v>
       </c>
       <c r="AY52" s="0"/>
@@ -3713,7 +3711,7 @@
       <c r="BG52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK53" s="15" t="n">
+      <c r="AK53" s="14" t="n">
         <v>5</v>
       </c>
       <c r="AY53" s="0"/>
@@ -3727,7 +3725,7 @@
       <c r="BG53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK54" s="15" t="n">
+      <c r="AK54" s="14" t="n">
         <v>5</v>
       </c>
       <c r="AY54" s="2" t="n">
@@ -3736,7 +3734,7 @@
       <c r="BG54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK55" s="15" t="n">
+      <c r="AK55" s="14" t="n">
         <v>5</v>
       </c>
       <c r="BA55" s="0"/>
@@ -3751,10 +3749,10 @@
       <c r="A56" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="AR56" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU56" s="15" t="n">
+      <c r="AR56" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU56" s="14" t="n">
         <v>1</v>
       </c>
       <c r="BA56" s="1" t="n">
@@ -3768,7 +3766,7 @@
       <c r="BL56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK57" s="15" t="n">
+      <c r="AK57" s="14" t="n">
         <v>5</v>
       </c>
       <c r="BG57" s="0"/>
@@ -3779,7 +3777,7 @@
       <c r="BL57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK58" s="15" t="n">
+      <c r="AK58" s="14" t="n">
         <v>5</v>
       </c>
       <c r="BA58" s="0"/>
@@ -3796,7 +3794,7 @@
       <c r="BL58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK59" s="15" t="n">
+      <c r="AK59" s="14" t="n">
         <v>5</v>
       </c>
       <c r="BA59" s="0"/>
@@ -3813,7 +3811,7 @@
       <c r="BL59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AM60" s="15" t="n">
+      <c r="AM60" s="14" t="n">
         <v>4</v>
       </c>
       <c r="BA60" s="0"/>
@@ -3830,7 +3828,7 @@
       <c r="BL60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK61" s="15" t="n">
+      <c r="AK61" s="14" t="n">
         <v>5</v>
       </c>
       <c r="BA61" s="0"/>
@@ -3847,10 +3845,10 @@
       <c r="BL61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AP62" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT62" s="15" t="n">
+      <c r="AP62" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT62" s="14" t="n">
         <v>1</v>
       </c>
       <c r="BB62" s="2" t="n">
@@ -3859,7 +3857,7 @@
       <c r="BG62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK63" s="15" t="n">
+      <c r="AK63" s="14" t="n">
         <v>5</v>
       </c>
       <c r="BA63" s="0"/>
@@ -3879,10 +3877,10 @@
       <c r="A64" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="AO64" s="15" t="n">
+      <c r="AO64" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="AU64" s="15" t="n">
+      <c r="AU64" s="14" t="n">
         <v>2</v>
       </c>
       <c r="BA64" s="0"/>
@@ -3900,7 +3898,7 @@
       <c r="BL64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK65" s="15" t="n">
+      <c r="AK65" s="14" t="n">
         <v>5</v>
       </c>
       <c r="BA65" s="0"/>
@@ -3918,7 +3916,7 @@
       <c r="BM65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AW66" s="15" t="n">
+      <c r="AW66" s="14" t="n">
         <v>1</v>
       </c>
       <c r="BF66" s="1" t="n">
@@ -3926,7 +3924,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AY67" s="15" t="n">
+      <c r="AY67" s="14" t="n">
         <v>1</v>
       </c>
       <c r="BG67" s="2" t="n">
@@ -3934,7 +3932,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK68" s="15" t="n">
+      <c r="AK68" s="14" t="n">
         <v>5</v>
       </c>
       <c r="BA68" s="0"/>
@@ -3951,7 +3949,7 @@
       <c r="BL68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK69" s="15" t="n">
+      <c r="AK69" s="14" t="n">
         <v>5</v>
       </c>
       <c r="BA69" s="0"/>
@@ -3968,7 +3966,7 @@
       <c r="BL69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK70" s="15" t="n">
+      <c r="AK70" s="14" t="n">
         <v>5</v>
       </c>
       <c r="BA70" s="0"/>
@@ -3988,10 +3986,10 @@
       <c r="A71" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="AP71" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW71" s="15" t="n">
+      <c r="AP71" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW71" s="14" t="n">
         <v>1</v>
       </c>
       <c r="BF71" s="1" t="n">
@@ -3999,7 +3997,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK72" s="15" t="n">
+      <c r="AK72" s="14" t="n">
         <v>5</v>
       </c>
       <c r="BA72" s="0"/>
@@ -4016,10 +4014,10 @@
       <c r="BL72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AO73" s="15" t="n">
+      <c r="AO73" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="AW73" s="15" t="n">
+      <c r="AW73" s="14" t="n">
         <v>1</v>
       </c>
       <c r="BF73" s="1" t="n">
@@ -4030,7 +4028,7 @@
       <c r="BL73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK74" s="15" t="n">
+      <c r="AK74" s="14" t="n">
         <v>5</v>
       </c>
       <c r="BJ74" s="0"/>
@@ -4038,10 +4036,10 @@
       <c r="BL74" s="0"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AO75" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU75" s="15" t="n">
+      <c r="AO75" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU75" s="14" t="n">
         <v>1</v>
       </c>
       <c r="BJ75" s="0"/>
@@ -4049,7 +4047,7 @@
       <c r="BL75" s="0"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK76" s="15" t="n">
+      <c r="AK76" s="14" t="n">
         <v>5</v>
       </c>
       <c r="BD76" s="2" t="n">
@@ -4057,10 +4055,10 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AP77" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT77" s="15" t="n">
+      <c r="AP77" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT77" s="14" t="n">
         <v>1</v>
       </c>
       <c r="BB77" s="2" t="n">
@@ -4068,7 +4066,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK78" s="15" t="n">
+      <c r="AK78" s="14" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4076,10 +4074,10 @@
       <c r="A79" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="AP79" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT79" s="15" t="n">
+      <c r="AP79" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT79" s="14" t="n">
         <v>1</v>
       </c>
       <c r="BA79" s="1" t="n">
@@ -4087,7 +4085,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK80" s="15" t="n">
+      <c r="AK80" s="14" t="n">
         <v>4</v>
       </c>
       <c r="AL80" s="1" t="s">
@@ -4161,4 +4159,957 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:CK70"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2835" topLeftCell="A50" activePane="bottomLeft" state="split"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="AE63" activeCellId="0" sqref="AE63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="33" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="45" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="57" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="69" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="76" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="77" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="78" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="79" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="80" min="80" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="81" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="84" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="85" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="86" min="86" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="1" width="3.13"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BK1" s="1"/>
+      <c r="BL1" s="1"/>
+      <c r="BN1" s="1"/>
+      <c r="BP1" s="1"/>
+      <c r="BS1" s="1"/>
+      <c r="BU1" s="1"/>
+      <c r="BW1" s="1"/>
+      <c r="BX1" s="1"/>
+      <c r="BZ1" s="1"/>
+      <c r="CB1" s="1"/>
+      <c r="CE1" s="1"/>
+      <c r="CG1" s="1"/>
+      <c r="CI1" s="1"/>
+      <c r="CJ1" s="1"/>
+      <c r="CK1" s="5"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="0"/>
+      <c r="F2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BB2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BG2" s="1"/>
+      <c r="BI2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1"/>
+      <c r="BN2" s="1"/>
+      <c r="BP2" s="1"/>
+      <c r="BS2" s="1"/>
+      <c r="BU2" s="1"/>
+      <c r="BW2" s="1"/>
+      <c r="BX2" s="1"/>
+      <c r="BZ2" s="1"/>
+      <c r="CB2" s="1"/>
+      <c r="CE2" s="1"/>
+      <c r="CG2" s="1"/>
+      <c r="CI2" s="1"/>
+      <c r="CJ2" s="1"/>
+      <c r="CK2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+      <c r="BN3" s="1"/>
+      <c r="BP3" s="1"/>
+      <c r="BS3" s="1"/>
+      <c r="BU3" s="1"/>
+      <c r="BW3" s="1"/>
+      <c r="BX3" s="1"/>
+      <c r="BZ3" s="1"/>
+      <c r="CB3" s="1"/>
+      <c r="CE3" s="1"/>
+      <c r="CG3" s="1"/>
+      <c r="CI3" s="1"/>
+      <c r="CJ3" s="1"/>
+      <c r="CK3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BB4" s="1"/>
+      <c r="BD4" s="1"/>
+      <c r="BG4" s="1"/>
+      <c r="BI4" s="1"/>
+      <c r="BK4" s="1"/>
+      <c r="BL4" s="1"/>
+      <c r="BN4" s="1"/>
+      <c r="BP4" s="1"/>
+      <c r="BS4" s="1"/>
+      <c r="BU4" s="1"/>
+      <c r="BW4" s="1"/>
+      <c r="BX4" s="1"/>
+      <c r="BZ4" s="1"/>
+      <c r="CB4" s="1"/>
+      <c r="CE4" s="1"/>
+      <c r="CG4" s="1"/>
+      <c r="CI4" s="1"/>
+      <c r="CJ4" s="1"/>
+      <c r="CK4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="8"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="8"/>
+      <c r="AV5" s="8"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="9"/>
+      <c r="BA5" s="11"/>
+      <c r="BB5" s="11"/>
+      <c r="BC5" s="11"/>
+      <c r="BD5" s="11"/>
+      <c r="BE5" s="11"/>
+      <c r="BF5" s="11"/>
+      <c r="BG5" s="11"/>
+      <c r="BH5" s="11"/>
+      <c r="BI5" s="11"/>
+      <c r="BJ5" s="11"/>
+      <c r="BK5" s="11"/>
+      <c r="BL5" s="10"/>
+      <c r="BM5" s="8"/>
+      <c r="BN5" s="8"/>
+      <c r="BO5" s="8"/>
+      <c r="BP5" s="8"/>
+      <c r="BQ5" s="8"/>
+      <c r="BR5" s="8"/>
+      <c r="BS5" s="8"/>
+      <c r="BT5" s="8"/>
+      <c r="BU5" s="8"/>
+      <c r="BV5" s="8"/>
+      <c r="BW5" s="8"/>
+      <c r="BX5" s="9"/>
+      <c r="BY5" s="11"/>
+      <c r="BZ5" s="11"/>
+      <c r="CA5" s="11"/>
+      <c r="CB5" s="11"/>
+      <c r="CC5" s="11"/>
+      <c r="CD5" s="11"/>
+      <c r="CE5" s="11"/>
+      <c r="CF5" s="11"/>
+      <c r="CG5" s="11"/>
+      <c r="CH5" s="11"/>
+      <c r="CI5" s="11"/>
+      <c r="CJ5" s="10"/>
+      <c r="CK5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="12"/>
+      <c r="AR6" s="12"/>
+      <c r="AU6" s="12"/>
+      <c r="AW6" s="12"/>
+      <c r="AY6" s="12"/>
+      <c r="BB6" s="12"/>
+      <c r="BD6" s="12"/>
+      <c r="BG6" s="12"/>
+      <c r="BI6" s="12"/>
+      <c r="BK6" s="12"/>
+      <c r="BN6" s="12"/>
+      <c r="BP6" s="12"/>
+      <c r="BS6" s="12"/>
+      <c r="BU6" s="12"/>
+      <c r="BW6" s="12"/>
+      <c r="BZ6" s="12"/>
+      <c r="CB6" s="12"/>
+      <c r="CE6" s="12"/>
+      <c r="CG6" s="12"/>
+      <c r="CI6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="AL7" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO7" s="0"/>
+      <c r="AP7" s="0"/>
+      <c r="AQ7" s="0"/>
+      <c r="AR7" s="0"/>
+      <c r="AS7" s="0"/>
+      <c r="BE7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AO8" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS8" s="0"/>
+      <c r="BL8" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS9" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ9" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BH10" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BH11" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BG12" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BE13" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BG14" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ15" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV15" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ15" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BH16" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BG17" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BH18" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AO19" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS19" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV19" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO19" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AO20" s="14"/>
+      <c r="AS20" s="14"/>
+      <c r="AV20" s="14"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BM22" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS23" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV23" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL23" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP24" s="14"/>
+      <c r="AS24" s="14"/>
+      <c r="AV24" s="14"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BJ26" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BJ27" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BH30" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU31" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX31" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ31" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AQ32" s="14"/>
+      <c r="AU32" s="14"/>
+      <c r="AX32" s="14"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AQ33" s="14"/>
+      <c r="AU33" s="14"/>
+      <c r="AX33" s="14"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN35" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR35" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU35" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ35" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL35" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AZ38" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN39" s="0"/>
+      <c r="AO39" s="0"/>
+      <c r="AP39" s="0"/>
+      <c r="AQ39" s="0"/>
+      <c r="AR39" s="0"/>
+      <c r="AS39" s="0"/>
+      <c r="BH39" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN40" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS40" s="0"/>
+      <c r="AT40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS41" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV41" s="0"/>
+      <c r="AW41" s="0"/>
+      <c r="AX41" s="0"/>
+      <c r="AY41" s="0"/>
+      <c r="AZ41" s="0"/>
+      <c r="BA41" s="0"/>
+      <c r="BB41" s="0"/>
+      <c r="BC41" s="0"/>
+      <c r="BD41" s="0"/>
+      <c r="BE41" s="0"/>
+      <c r="BF41" s="0"/>
+      <c r="BG41" s="0"/>
+      <c r="BH41" s="0"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS42" s="14"/>
+      <c r="AZ42" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE43" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN43" s="0"/>
+      <c r="AO43" s="0"/>
+      <c r="AP43" s="0"/>
+      <c r="AQ43" s="0"/>
+      <c r="BG43" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN44" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ44" s="0"/>
+      <c r="AR44" s="0"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AQ45" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV45" s="0"/>
+      <c r="AW45" s="0"/>
+      <c r="AX45" s="0"/>
+      <c r="AY45" s="0"/>
+      <c r="AZ45" s="0"/>
+      <c r="BA45" s="0"/>
+      <c r="BB45" s="0"/>
+      <c r="BC45" s="0"/>
+      <c r="BD45" s="0"/>
+      <c r="BE45" s="0"/>
+      <c r="BF45" s="0"/>
+      <c r="BG45" s="0"/>
+      <c r="BH45" s="0"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AQ46" s="14"/>
+      <c r="AZ46" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ47" s="0"/>
+      <c r="AK47" s="0"/>
+      <c r="AL47" s="0"/>
+      <c r="AM47" s="0"/>
+      <c r="AN47" s="0"/>
+      <c r="AO47" s="0"/>
+      <c r="BE47" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AJ48" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO48" s="0"/>
+      <c r="AP48" s="0"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AO49" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC49" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA50" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB51" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ51" s="0"/>
+      <c r="AK51" s="0"/>
+      <c r="AL51" s="0"/>
+      <c r="AM51" s="0"/>
+      <c r="AN51" s="0"/>
+      <c r="BC51" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AJ52" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN52" s="0"/>
+      <c r="AO52" s="0"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN53" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AV54" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG55" s="0"/>
+      <c r="AH55" s="0"/>
+      <c r="AI55" s="0"/>
+      <c r="AJ55" s="0"/>
+      <c r="AK55" s="0"/>
+      <c r="AL55" s="0"/>
+      <c r="AX55" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AG56" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL56" s="0"/>
+      <c r="AM56" s="0"/>
+      <c r="BA56" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AL57" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE57" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BH58" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE59" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL59" s="0"/>
+      <c r="AM59" s="0"/>
+      <c r="AN59" s="0"/>
+      <c r="AO59" s="0"/>
+      <c r="AP59" s="0"/>
+      <c r="AQ59" s="0"/>
+      <c r="BG59" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AL60" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ60" s="0"/>
+      <c r="AR60" s="0"/>
+      <c r="BC60" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AQ61" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ61" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AX62" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="X63" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ63" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE64" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AL65" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN65" s="1"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AJ66" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV66" s="0"/>
+      <c r="AW66" s="0"/>
+      <c r="AX66" s="0"/>
+      <c r="AY66" s="0"/>
+      <c r="AZ66" s="0"/>
+      <c r="BA66" s="0"/>
+      <c r="BB66" s="0"/>
+      <c r="BC66" s="0"/>
+      <c r="BD66" s="0"/>
+      <c r="BE66" s="0"/>
+      <c r="BF66" s="0"/>
+      <c r="BG66" s="0"/>
+      <c r="BH66" s="0"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AI67" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU67" s="0"/>
+      <c r="AV67" s="0"/>
+      <c r="AW67" s="0"/>
+      <c r="AX67" s="0"/>
+      <c r="AY67" s="0"/>
+      <c r="AZ67" s="0"/>
+      <c r="BA67" s="0"/>
+      <c r="BB67" s="0"/>
+      <c r="BC67" s="0"/>
+      <c r="BD67" s="0"/>
+      <c r="BE67" s="0"/>
+      <c r="BF67" s="0"/>
+      <c r="BG67" s="0"/>
+      <c r="BH67" s="0"/>
+      <c r="BI67" s="0"/>
+      <c r="BJ67" s="0"/>
+      <c r="BK67" s="0"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AJ68" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AL69" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN70" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="https://www.youtube.com/watch?v=PU5QzclYzRI"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/resources/mpn.xlsx
+++ b/resources/mpn.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="blank" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="canon1" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="prelude15_1" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="kiki_1" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="pathetique2_10" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="10">
   <si>
     <t xml:space="preserve">bt</t>
   </si>
@@ -47,6 +48,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=PU5QzclYzRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ベートーヴェン - ピアノソナタ第8番「悲愴」 第二楽章 Lesson10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=J3GmiOv_4xg</t>
   </si>
 </sst>
 </file>
@@ -92,7 +99,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,7 +109,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFDDE8CB"/>
+        <bgColor rgb="FFDCDCDC"/>
       </patternFill>
     </fill>
     <fill>
@@ -133,6 +140,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB0C4DE"/>
         <bgColor rgb="FFB4C7DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCDCDC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3D3D3"/>
+        <bgColor rgb="FFDCDCDC"/>
       </patternFill>
     </fill>
   </fills>
@@ -205,7 +224,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -298,6 +317,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -332,11 +359,11 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFD3D3D3"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -346,7 +373,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFDCDCDC"/>
       <rgbColor rgb="FFDDE8CB"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FFB0C4DE"/>
@@ -381,13 +408,13 @@
   </sheetPr>
   <dimension ref="A1:CK7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2835" topLeftCell="A1" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.13"/>
@@ -820,13 +847,13 @@
   </sheetPr>
   <dimension ref="A1:CK135"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2835" topLeftCell="A1" activePane="bottomLeft" state="split"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2835" topLeftCell="A88" activePane="bottomLeft" state="split"/>
+      <selection pane="topLeft" activeCell="U1" activeCellId="0" sqref="U1"/>
       <selection pane="bottomLeft" activeCell="AE9" activeCellId="0" sqref="AE9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.13"/>
@@ -2722,13 +2749,13 @@
   </sheetPr>
   <dimension ref="A1:CK85"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2835" topLeftCell="A30" activePane="bottomLeft" state="split"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2835" topLeftCell="A19" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="AK30" activeCellId="0" sqref="AK30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.13"/>
@@ -4168,13 +4195,13 @@
   </sheetPr>
   <dimension ref="A1:CK70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2835" topLeftCell="A50" activePane="bottomLeft" state="split"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="AE63" activeCellId="0" sqref="AE63"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AD1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2835" topLeftCell="A1" activePane="bottomLeft" state="split"/>
+      <selection pane="topLeft" activeCell="AD1" activeCellId="0" sqref="AD1"/>
+      <selection pane="bottomLeft" activeCell="BG43" activeCellId="0" sqref="BG43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.13"/>
@@ -4591,7 +4618,6 @@
       <c r="A7" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="23"/>
       <c r="AL7" s="14" t="n">
         <v>5</v>
       </c>
@@ -5112,4 +5138,1322 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:CK78"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2835" topLeftCell="A1" activePane="topLeft" state="split"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="33" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="45" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="57" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="69" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="76" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="77" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="78" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="79" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="80" min="80" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="81" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="84" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="85" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="86" min="86" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="1" width="3.13"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BK1" s="1"/>
+      <c r="BL1" s="1"/>
+      <c r="BN1" s="1"/>
+      <c r="BP1" s="1"/>
+      <c r="BS1" s="1"/>
+      <c r="BU1" s="1"/>
+      <c r="BW1" s="1"/>
+      <c r="BX1" s="1"/>
+      <c r="BZ1" s="1"/>
+      <c r="CB1" s="1"/>
+      <c r="CE1" s="1"/>
+      <c r="CG1" s="1"/>
+      <c r="CI1" s="1"/>
+      <c r="CJ1" s="1"/>
+      <c r="CK1" s="5"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="0"/>
+      <c r="F2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BB2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BG2" s="1"/>
+      <c r="BI2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1"/>
+      <c r="BN2" s="1"/>
+      <c r="BP2" s="1"/>
+      <c r="BS2" s="1"/>
+      <c r="BU2" s="1"/>
+      <c r="BW2" s="1"/>
+      <c r="BX2" s="1"/>
+      <c r="BZ2" s="1"/>
+      <c r="CB2" s="1"/>
+      <c r="CE2" s="1"/>
+      <c r="CG2" s="1"/>
+      <c r="CI2" s="1"/>
+      <c r="CJ2" s="1"/>
+      <c r="CK2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+      <c r="BN3" s="1"/>
+      <c r="BP3" s="1"/>
+      <c r="BS3" s="1"/>
+      <c r="BU3" s="1"/>
+      <c r="BW3" s="1"/>
+      <c r="BX3" s="1"/>
+      <c r="BZ3" s="1"/>
+      <c r="CB3" s="1"/>
+      <c r="CE3" s="1"/>
+      <c r="CG3" s="1"/>
+      <c r="CI3" s="1"/>
+      <c r="CJ3" s="1"/>
+      <c r="CK3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BB4" s="1"/>
+      <c r="BD4" s="1"/>
+      <c r="BG4" s="1"/>
+      <c r="BI4" s="1"/>
+      <c r="BK4" s="1"/>
+      <c r="BL4" s="1"/>
+      <c r="BN4" s="1"/>
+      <c r="BP4" s="1"/>
+      <c r="BS4" s="1"/>
+      <c r="BU4" s="1"/>
+      <c r="BW4" s="1"/>
+      <c r="BX4" s="1"/>
+      <c r="BZ4" s="1"/>
+      <c r="CB4" s="1"/>
+      <c r="CE4" s="1"/>
+      <c r="CG4" s="1"/>
+      <c r="CI4" s="1"/>
+      <c r="CJ4" s="1"/>
+      <c r="CK4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="8"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="8"/>
+      <c r="AV5" s="8"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="9"/>
+      <c r="BA5" s="11"/>
+      <c r="BB5" s="11"/>
+      <c r="BC5" s="11"/>
+      <c r="BD5" s="11"/>
+      <c r="BE5" s="11"/>
+      <c r="BF5" s="11"/>
+      <c r="BG5" s="11"/>
+      <c r="BH5" s="11"/>
+      <c r="BI5" s="11"/>
+      <c r="BJ5" s="11"/>
+      <c r="BK5" s="11"/>
+      <c r="BL5" s="10"/>
+      <c r="BM5" s="8"/>
+      <c r="BN5" s="8"/>
+      <c r="BO5" s="8"/>
+      <c r="BP5" s="8"/>
+      <c r="BQ5" s="8"/>
+      <c r="BR5" s="8"/>
+      <c r="BS5" s="8"/>
+      <c r="BT5" s="8"/>
+      <c r="BU5" s="8"/>
+      <c r="BV5" s="8"/>
+      <c r="BW5" s="8"/>
+      <c r="BX5" s="9"/>
+      <c r="BY5" s="11"/>
+      <c r="BZ5" s="11"/>
+      <c r="CA5" s="11"/>
+      <c r="CB5" s="11"/>
+      <c r="CC5" s="11"/>
+      <c r="CD5" s="11"/>
+      <c r="CE5" s="11"/>
+      <c r="CF5" s="11"/>
+      <c r="CG5" s="11"/>
+      <c r="CH5" s="11"/>
+      <c r="CI5" s="11"/>
+      <c r="CJ5" s="10"/>
+      <c r="CK5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="12"/>
+      <c r="AR6" s="12"/>
+      <c r="AU6" s="12"/>
+      <c r="AW6" s="12"/>
+      <c r="AY6" s="12"/>
+      <c r="BB6" s="12"/>
+      <c r="BD6" s="12"/>
+      <c r="BG6" s="12"/>
+      <c r="BI6" s="12"/>
+      <c r="BK6" s="12"/>
+      <c r="BN6" s="12"/>
+      <c r="BP6" s="12"/>
+      <c r="BS6" s="12"/>
+      <c r="BU6" s="12"/>
+      <c r="BW6" s="12"/>
+      <c r="BZ6" s="12"/>
+      <c r="CB6" s="12"/>
+      <c r="CE6" s="12"/>
+      <c r="CG6" s="12"/>
+      <c r="CI6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="U7" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG7" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO7" s="0"/>
+      <c r="AP7" s="0"/>
+      <c r="AQ7" s="0"/>
+      <c r="AR7" s="0"/>
+      <c r="AS7" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK8" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK9" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK10" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS10" s="0"/>
+      <c r="AW10" s="25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK11" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK12" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK13" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU13" s="25" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK14" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK15" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK16" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS16" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK17" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN17" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK18" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR19" s="25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AL20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AL21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AL22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX22" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AI23" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN23" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH24" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN24" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AI25" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN25" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AI26" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN26" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AG27" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN27" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AF28" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN28" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD29" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN29" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB30" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN30" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN31" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS31" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN32" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN33" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN34" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW34" s="25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN35" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN36" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN37" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS37" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK38" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN38" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK39" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN39" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN40" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR40" s="25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK41" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN41" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN42" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="J43" s="0"/>
+      <c r="K43" s="0"/>
+      <c r="L43" s="0"/>
+      <c r="M43" s="0"/>
+      <c r="N43" s="0"/>
+      <c r="O43" s="0"/>
+      <c r="P43" s="0"/>
+      <c r="Q43" s="0"/>
+      <c r="R43" s="0"/>
+      <c r="S43" s="0"/>
+      <c r="T43" s="0"/>
+      <c r="U43" s="0"/>
+      <c r="V43" s="0"/>
+      <c r="W43" s="0"/>
+      <c r="X43" s="0"/>
+      <c r="Y43" s="0"/>
+      <c r="AE43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK43" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN43" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ43" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J44" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK44" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN44" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M45" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK45" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN45" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P46" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK46" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN46" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S47" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK47" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN47" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V48" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK48" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN48" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y49" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK49" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN49" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK50" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN50" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK51" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN51" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK52" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN52" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ52" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE53" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK53" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN53" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN54" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="J55" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE55" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK55" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN55" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ55" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M56" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE56" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK56" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN56" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P57" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE57" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK57" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN57" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S58" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK58" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN58" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V59" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK59" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN59" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y60" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK60" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN60" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK61" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN61" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK62" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN62" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE63" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK63" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN63" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE64" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK64" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN64" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ64" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK65" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN65" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK66" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN66" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK67" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM67" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP67" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U68" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD68" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK68" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM68" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y69" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM69" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA70" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK70" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM70" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD71" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK71" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM71" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD72" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK72" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM72" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD73" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ73" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK73" s="0"/>
+      <c r="AM73" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T74" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ74" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK74" s="0"/>
+      <c r="AM74" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X75" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD75" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ75" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK75" s="0"/>
+      <c r="AM75" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA76" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD76" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF76" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ76" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK76" s="0"/>
+      <c r="AM76" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP76" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD77" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF77" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ77" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK77" s="0"/>
+      <c r="AM77" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD78" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF78" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ78" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK78" s="0"/>
+      <c r="AM78" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="https://www.youtube.com/watch?v=J3GmiOv_4xg"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/resources/mpn.xlsx
+++ b/resources/mpn.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="blank" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,7 @@
     <sheet name="prelude15_1" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="kiki_1" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="pathetique2_10" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="prelude15_2" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="12">
   <si>
     <t xml:space="preserve">bt</t>
   </si>
@@ -54,6 +55,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=J3GmiOv_4xg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雨だれ Lesson2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=V8ymnxRH_Dw</t>
   </si>
 </sst>
 </file>
@@ -224,7 +231,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -325,6 +332,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -414,7 +425,7 @@
       <selection pane="bottomLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.13"/>
@@ -853,7 +864,7 @@
       <selection pane="bottomLeft" activeCell="AE9" activeCellId="0" sqref="AE9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.13"/>
@@ -2755,7 +2766,7 @@
       <selection pane="bottomLeft" activeCell="AK30" activeCellId="0" sqref="AK30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.13"/>
@@ -4201,7 +4212,7 @@
       <selection pane="bottomLeft" activeCell="BG43" activeCellId="0" sqref="BG43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.13"/>
@@ -5147,13 +5158,13 @@
   </sheetPr>
   <dimension ref="A1:CK78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2835" topLeftCell="A1" activePane="topLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.13"/>
@@ -5600,7 +5611,7 @@
       <c r="AS8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK9" s="25" t="n">
+      <c r="AK9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AN9" s="3" t="n">
@@ -5609,19 +5620,19 @@
       <c r="AU9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK10" s="25" t="n">
+      <c r="AK10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AN10" s="3" t="n">
         <v>2</v>
       </c>
       <c r="AS10" s="0"/>
-      <c r="AW10" s="25" t="n">
+      <c r="AW10" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK11" s="25" t="n">
+      <c r="AK11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AN11" s="3" t="n">
@@ -5629,7 +5640,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK12" s="25" t="n">
+      <c r="AK12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AN12" s="3" t="n">
@@ -5637,18 +5648,18 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK13" s="25" t="n">
+      <c r="AK13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AN13" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="AU13" s="25" t="n">
+      <c r="AU13" s="1" t="n">
         <v>45</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK14" s="25" t="n">
+      <c r="AK14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AN14" s="3" t="n">
@@ -5656,7 +5667,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK15" s="25" t="n">
+      <c r="AK15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AN15" s="3" t="n">
@@ -5664,7 +5675,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK16" s="25" t="n">
+      <c r="AK16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AN16" s="3" t="n">
@@ -5675,7 +5686,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK17" s="25" t="n">
+      <c r="AK17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AN17" s="3" t="n">
@@ -5683,7 +5694,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK18" s="25" t="n">
+      <c r="AK18" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AN18" s="3" t="n">
@@ -5703,7 +5714,7 @@
       <c r="AN19" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="AR19" s="25" t="n">
+      <c r="AR19" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5862,7 +5873,7 @@
       <c r="AN34" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="AW34" s="25" t="n">
+      <c r="AW34" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5916,7 +5927,7 @@
       <c r="AN40" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="AR40" s="25" t="n">
+      <c r="AR40" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6456,4 +6467,1425 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:CK88"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2550" topLeftCell="A22" activePane="bottomLeft" state="split"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="33" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="45" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="57" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="69" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="76" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="77" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="78" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="79" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="80" min="80" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="81" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="84" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="85" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="86" min="86" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="1" width="3.13"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BK1" s="1"/>
+      <c r="BL1" s="1"/>
+      <c r="BN1" s="1"/>
+      <c r="BP1" s="1"/>
+      <c r="BS1" s="1"/>
+      <c r="BU1" s="1"/>
+      <c r="BW1" s="1"/>
+      <c r="BX1" s="1"/>
+      <c r="BZ1" s="1"/>
+      <c r="CB1" s="1"/>
+      <c r="CE1" s="1"/>
+      <c r="CG1" s="1"/>
+      <c r="CI1" s="1"/>
+      <c r="CJ1" s="1"/>
+      <c r="CK1" s="5"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="0"/>
+      <c r="F2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BB2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BG2" s="1"/>
+      <c r="BI2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1"/>
+      <c r="BN2" s="1"/>
+      <c r="BP2" s="1"/>
+      <c r="BS2" s="1"/>
+      <c r="BU2" s="1"/>
+      <c r="BW2" s="1"/>
+      <c r="BX2" s="1"/>
+      <c r="BZ2" s="1"/>
+      <c r="CB2" s="1"/>
+      <c r="CE2" s="1"/>
+      <c r="CG2" s="1"/>
+      <c r="CI2" s="1"/>
+      <c r="CJ2" s="1"/>
+      <c r="CK2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+      <c r="BN3" s="1"/>
+      <c r="BP3" s="1"/>
+      <c r="BS3" s="1"/>
+      <c r="BU3" s="1"/>
+      <c r="BW3" s="1"/>
+      <c r="BX3" s="1"/>
+      <c r="BZ3" s="1"/>
+      <c r="CB3" s="1"/>
+      <c r="CE3" s="1"/>
+      <c r="CG3" s="1"/>
+      <c r="CI3" s="1"/>
+      <c r="CJ3" s="1"/>
+      <c r="CK3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BB4" s="1"/>
+      <c r="BD4" s="1"/>
+      <c r="BG4" s="1"/>
+      <c r="BI4" s="1"/>
+      <c r="BK4" s="1"/>
+      <c r="BL4" s="1"/>
+      <c r="BN4" s="1"/>
+      <c r="BP4" s="1"/>
+      <c r="BS4" s="1"/>
+      <c r="BU4" s="1"/>
+      <c r="BW4" s="1"/>
+      <c r="BX4" s="1"/>
+      <c r="BZ4" s="1"/>
+      <c r="CB4" s="1"/>
+      <c r="CE4" s="1"/>
+      <c r="CG4" s="1"/>
+      <c r="CI4" s="1"/>
+      <c r="CJ4" s="1"/>
+      <c r="CK4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="8"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="8"/>
+      <c r="AV5" s="8"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="9"/>
+      <c r="BA5" s="11"/>
+      <c r="BB5" s="11"/>
+      <c r="BC5" s="11"/>
+      <c r="BD5" s="11"/>
+      <c r="BE5" s="11"/>
+      <c r="BF5" s="11"/>
+      <c r="BG5" s="11"/>
+      <c r="BH5" s="11"/>
+      <c r="BI5" s="11"/>
+      <c r="BJ5" s="11"/>
+      <c r="BK5" s="11"/>
+      <c r="BL5" s="10"/>
+      <c r="BM5" s="8"/>
+      <c r="BN5" s="8"/>
+      <c r="BO5" s="8"/>
+      <c r="BP5" s="8"/>
+      <c r="BQ5" s="8"/>
+      <c r="BR5" s="8"/>
+      <c r="BS5" s="8"/>
+      <c r="BT5" s="8"/>
+      <c r="BU5" s="8"/>
+      <c r="BV5" s="8"/>
+      <c r="BW5" s="8"/>
+      <c r="BX5" s="9"/>
+      <c r="BY5" s="11"/>
+      <c r="BZ5" s="11"/>
+      <c r="CA5" s="11"/>
+      <c r="CB5" s="11"/>
+      <c r="CC5" s="11"/>
+      <c r="CD5" s="11"/>
+      <c r="CE5" s="11"/>
+      <c r="CF5" s="11"/>
+      <c r="CG5" s="11"/>
+      <c r="CH5" s="11"/>
+      <c r="CI5" s="11"/>
+      <c r="CJ5" s="10"/>
+      <c r="CK5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="12"/>
+      <c r="AR6" s="12"/>
+      <c r="AU6" s="12"/>
+      <c r="AW6" s="12"/>
+      <c r="AY6" s="12"/>
+      <c r="BB6" s="12"/>
+      <c r="BD6" s="12"/>
+      <c r="BG6" s="12"/>
+      <c r="BI6" s="12"/>
+      <c r="BK6" s="12"/>
+      <c r="BN6" s="12"/>
+      <c r="BP6" s="12"/>
+      <c r="BS6" s="12"/>
+      <c r="BU6" s="12"/>
+      <c r="BW6" s="12"/>
+      <c r="BZ6" s="12"/>
+      <c r="CB6" s="12"/>
+      <c r="CE6" s="12"/>
+      <c r="CG6" s="12"/>
+      <c r="CI6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD7" s="14"/>
+      <c r="BD7" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK8" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV8" s="0"/>
+      <c r="AW8" s="0"/>
+      <c r="AX8" s="0"/>
+      <c r="AY8" s="0"/>
+      <c r="AZ8" s="0"/>
+      <c r="BA8" s="0"/>
+      <c r="BB8" s="0"/>
+      <c r="BC8" s="0"/>
+      <c r="BD8" s="0"/>
+      <c r="BE8" s="0"/>
+      <c r="BF8" s="0"/>
+      <c r="BG8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC9" s="0"/>
+      <c r="AD9" s="0"/>
+      <c r="AE9" s="0"/>
+      <c r="AF9" s="0"/>
+      <c r="AG9" s="0"/>
+      <c r="AH9" s="0"/>
+      <c r="AI9" s="0"/>
+      <c r="AJ9" s="0"/>
+      <c r="AK9" s="0"/>
+      <c r="AL9" s="0"/>
+      <c r="AM9" s="0"/>
+      <c r="AN9" s="0"/>
+      <c r="AO9" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP9" s="0"/>
+      <c r="AQ9" s="0"/>
+      <c r="AR9" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS9" s="0"/>
+      <c r="AT9" s="0"/>
+      <c r="BD9" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK10" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP10" s="14"/>
+      <c r="AT10" s="14"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK11" s="14"/>
+      <c r="AN11" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR11" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK12" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY12" s="0"/>
+      <c r="AZ12" s="0"/>
+      <c r="BA12" s="0"/>
+      <c r="BB12" s="0"/>
+      <c r="BC12" s="0"/>
+      <c r="BD12" s="0"/>
+      <c r="BE12" s="0"/>
+      <c r="BF12" s="0"/>
+      <c r="BG12" s="0"/>
+      <c r="BH12" s="0"/>
+      <c r="BI12" s="0"/>
+      <c r="BJ12" s="0"/>
+      <c r="BK12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD13" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK13" s="14"/>
+      <c r="AN13" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT13" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY13" s="0"/>
+      <c r="AZ13" s="0"/>
+      <c r="BA13" s="0"/>
+      <c r="BF13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH13" s="0"/>
+      <c r="BI13" s="0"/>
+      <c r="BJ13" s="0"/>
+      <c r="BK13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP14" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT14" s="14"/>
+      <c r="BB14" s="0"/>
+      <c r="BC14" s="0"/>
+      <c r="BD14" s="0"/>
+      <c r="BE14" s="0"/>
+      <c r="BF14" s="0"/>
+      <c r="BG14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK15" s="14"/>
+      <c r="AM15" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA15" s="0"/>
+      <c r="BB15" s="0"/>
+      <c r="BC15" s="0"/>
+      <c r="BD15" s="0"/>
+      <c r="BE15" s="0"/>
+      <c r="BF15" s="0"/>
+      <c r="BG15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH15" s="0"/>
+      <c r="BI15" s="0"/>
+      <c r="BJ15" s="0"/>
+      <c r="BK15" s="0"/>
+      <c r="BL15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP16" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR16" s="14"/>
+      <c r="AU16" s="14"/>
+      <c r="BB16" s="0"/>
+      <c r="BC16" s="0"/>
+      <c r="BD16" s="0"/>
+      <c r="BE16" s="0"/>
+      <c r="BF16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK17" s="14"/>
+      <c r="AM17" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU17" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD17" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK18" s="14"/>
+      <c r="AP18" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA18" s="0"/>
+      <c r="BB18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC18" s="0"/>
+      <c r="BD18" s="0"/>
+      <c r="BE18" s="0"/>
+      <c r="BF18" s="0"/>
+      <c r="BG18" s="0"/>
+      <c r="BH18" s="0"/>
+      <c r="BI18" s="0"/>
+      <c r="BJ18" s="0"/>
+      <c r="BK18" s="0"/>
+      <c r="BL18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD19" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK19" s="14"/>
+      <c r="BA19" s="0"/>
+      <c r="BF19" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH19" s="0"/>
+      <c r="BI19" s="0"/>
+      <c r="BJ19" s="0"/>
+      <c r="BK19" s="0"/>
+      <c r="BL19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK20" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM20" s="14"/>
+      <c r="BA20" s="0"/>
+      <c r="BB20" s="0"/>
+      <c r="BC20" s="0"/>
+      <c r="BD20" s="0"/>
+      <c r="BE20" s="0"/>
+      <c r="BF20" s="0"/>
+      <c r="BG20" s="0"/>
+      <c r="BH20" s="0"/>
+      <c r="BI20" s="0"/>
+      <c r="BJ20" s="0"/>
+      <c r="BK20" s="0"/>
+      <c r="BL20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK21" s="14"/>
+      <c r="AP21" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT21" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA21" s="0"/>
+      <c r="BB21" s="0"/>
+      <c r="BC21" s="0"/>
+      <c r="BD21" s="0"/>
+      <c r="BE21" s="0"/>
+      <c r="BF21" s="0"/>
+      <c r="BG21" s="0"/>
+      <c r="BH21" s="0"/>
+      <c r="BI21" s="0"/>
+      <c r="BJ21" s="0"/>
+      <c r="BK21" s="0"/>
+      <c r="BL21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK22" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP22" s="14"/>
+      <c r="AT22" s="14"/>
+      <c r="BB22" s="0"/>
+      <c r="BC22" s="0"/>
+      <c r="BD22" s="0"/>
+      <c r="BE22" s="0"/>
+      <c r="BF22" s="0"/>
+      <c r="BG22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK23" s="14"/>
+      <c r="BA23" s="0"/>
+      <c r="BB23" s="0"/>
+      <c r="BC23" s="0"/>
+      <c r="BD23" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE23" s="0"/>
+      <c r="BF23" s="0"/>
+      <c r="BG23" s="0"/>
+      <c r="BH23" s="0"/>
+      <c r="BI23" s="0"/>
+      <c r="BJ23" s="0"/>
+      <c r="BK23" s="0"/>
+      <c r="BL23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK24" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO24" s="14"/>
+      <c r="AU24" s="14"/>
+      <c r="AZ24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB24" s="0"/>
+      <c r="BC24" s="0"/>
+      <c r="BD24" s="0"/>
+      <c r="BE24" s="0"/>
+      <c r="BF24" s="0"/>
+      <c r="BG24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK25" s="14"/>
+      <c r="AN25" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO25" s="14"/>
+      <c r="AP25" s="14"/>
+      <c r="AQ25" s="14"/>
+      <c r="AR25" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY25" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA25" s="0"/>
+      <c r="BB25" s="0"/>
+      <c r="BC25" s="0"/>
+      <c r="BD25" s="0"/>
+      <c r="BE25" s="0"/>
+      <c r="BF25" s="0"/>
+      <c r="BG25" s="0"/>
+      <c r="BH25" s="0"/>
+      <c r="BI25" s="0"/>
+      <c r="BJ25" s="0"/>
+      <c r="BK25" s="0"/>
+      <c r="BL25" s="0"/>
+      <c r="BM25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK26" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW26" s="26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AF27" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY27" s="26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AJ28" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY28" s="26"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AY29" s="26"/>
+      <c r="AZ29" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AY30" s="26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AW31" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP32" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ32" s="14"/>
+      <c r="AR32" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY32" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA32" s="0"/>
+      <c r="BB32" s="0"/>
+      <c r="BC32" s="0"/>
+      <c r="BD32" s="0"/>
+      <c r="BE32" s="0"/>
+      <c r="BF32" s="0"/>
+      <c r="BG32" s="0"/>
+      <c r="BH32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AJ33" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA33" s="0"/>
+      <c r="BB33" s="0"/>
+      <c r="BC33" s="0"/>
+      <c r="BD33" s="0"/>
+      <c r="BE33" s="0"/>
+      <c r="BF33" s="0"/>
+      <c r="BG33" s="0"/>
+      <c r="BH33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK34" s="14"/>
+      <c r="AW34" s="26"/>
+      <c r="AZ34" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI34" s="0"/>
+      <c r="BJ34" s="0"/>
+      <c r="BK34" s="0"/>
+      <c r="BL34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK35" s="14"/>
+      <c r="AW35" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA35" s="0"/>
+      <c r="BB35" s="0"/>
+      <c r="BC35" s="0"/>
+      <c r="BD35" s="0"/>
+      <c r="BE35" s="0"/>
+      <c r="BF35" s="0"/>
+      <c r="BG35" s="0"/>
+      <c r="BH35" s="0"/>
+      <c r="BI35" s="0"/>
+      <c r="BJ35" s="0"/>
+      <c r="BK35" s="0"/>
+      <c r="BL35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK36" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO36" s="14"/>
+      <c r="AW36" s="26"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK37" s="14"/>
+      <c r="AN37" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR37" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD37" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK38" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU38" s="14"/>
+      <c r="BA38" s="0"/>
+      <c r="BB38" s="0"/>
+      <c r="BC38" s="0"/>
+      <c r="BD38" s="0"/>
+      <c r="BE38" s="0"/>
+      <c r="BF38" s="0"/>
+      <c r="BG38" s="0"/>
+      <c r="BH38" s="0"/>
+      <c r="BI38" s="0"/>
+      <c r="BJ38" s="0"/>
+      <c r="BK38" s="0"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK39" s="14"/>
+      <c r="AM39" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP39" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB39" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK40" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP40" s="14"/>
+      <c r="AT40" s="14"/>
+      <c r="BA40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK41" s="14"/>
+      <c r="AP41" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS41" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA41" s="0"/>
+      <c r="BB41" s="0"/>
+      <c r="BC41" s="0"/>
+      <c r="BD41" s="0"/>
+      <c r="BE41" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF41" s="0"/>
+      <c r="BG41" s="0"/>
+      <c r="BH41" s="0"/>
+      <c r="BI41" s="0"/>
+      <c r="BJ41" s="0"/>
+      <c r="BK41" s="0"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK42" s="14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK43" s="14"/>
+      <c r="AO43" s="14"/>
+      <c r="AU43" s="14"/>
+      <c r="BD43" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK44" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO44" s="14"/>
+      <c r="AU44" s="14"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK45" s="14"/>
+      <c r="AN45" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO45" s="14"/>
+      <c r="AR45" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU45" s="14"/>
+      <c r="BD45" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK46" s="14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK47" s="14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK48" s="14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK49" s="14"/>
+      <c r="AN49" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO49" s="14"/>
+      <c r="AP49" s="14"/>
+      <c r="AQ49" s="14"/>
+      <c r="AR49" s="14"/>
+      <c r="AS49" s="14"/>
+      <c r="AT49" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE49" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD50" s="14"/>
+      <c r="AK50" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG50" s="0"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK51" s="14"/>
+      <c r="AW51" s="0"/>
+      <c r="AX51" s="0"/>
+      <c r="AY51" s="0"/>
+      <c r="AZ51" s="0"/>
+      <c r="BA51" s="0"/>
+      <c r="BB51" s="0"/>
+      <c r="BC51" s="0"/>
+      <c r="BD51" s="0"/>
+      <c r="BE51" s="0"/>
+      <c r="BF51" s="0"/>
+      <c r="BG51" s="0"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK52" s="14"/>
+      <c r="AW52" s="0"/>
+      <c r="AX52" s="0"/>
+      <c r="AY52" s="0"/>
+      <c r="AZ52" s="0"/>
+      <c r="BA52" s="0"/>
+      <c r="BB52" s="0"/>
+      <c r="BC52" s="0"/>
+      <c r="BD52" s="0"/>
+      <c r="BE52" s="0"/>
+      <c r="BF52" s="0"/>
+      <c r="BG52" s="0"/>
+      <c r="BH52" s="0"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP53" s="14"/>
+      <c r="AT53" s="14"/>
+      <c r="AW53" s="0"/>
+      <c r="AX53" s="0"/>
+      <c r="AY53" s="0"/>
+      <c r="AZ53" s="0"/>
+      <c r="BA53" s="0"/>
+      <c r="BB53" s="0"/>
+      <c r="BC53" s="0"/>
+      <c r="BD53" s="0"/>
+      <c r="BE53" s="0"/>
+      <c r="BF53" s="0"/>
+      <c r="BG53" s="0"/>
+      <c r="BH53" s="0"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK54" s="14"/>
+      <c r="AW54" s="0"/>
+      <c r="AX54" s="0"/>
+      <c r="AY54" s="0"/>
+      <c r="AZ54" s="0"/>
+      <c r="BA54" s="0"/>
+      <c r="BB54" s="0"/>
+      <c r="BC54" s="0"/>
+      <c r="BD54" s="0"/>
+      <c r="BE54" s="0"/>
+      <c r="BF54" s="0"/>
+      <c r="BG54" s="0"/>
+      <c r="BH54" s="0"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK55" s="14"/>
+      <c r="AY55" s="0"/>
+      <c r="AZ55" s="0"/>
+      <c r="BA55" s="0"/>
+      <c r="BB55" s="0"/>
+      <c r="BC55" s="0"/>
+      <c r="BD55" s="0"/>
+      <c r="BE55" s="0"/>
+      <c r="BF55" s="0"/>
+      <c r="BG55" s="0"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK56" s="14"/>
+      <c r="AY56" s="0"/>
+      <c r="AZ56" s="0"/>
+      <c r="BA56" s="0"/>
+      <c r="BB56" s="0"/>
+      <c r="BC56" s="0"/>
+      <c r="BD56" s="0"/>
+      <c r="BE56" s="0"/>
+      <c r="BF56" s="0"/>
+      <c r="BG56" s="0"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK57" s="14"/>
+      <c r="BG57" s="0"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK58" s="14"/>
+      <c r="BA58" s="0"/>
+      <c r="BB58" s="0"/>
+      <c r="BC58" s="0"/>
+      <c r="BD58" s="0"/>
+      <c r="BE58" s="0"/>
+      <c r="BF58" s="0"/>
+      <c r="BG58" s="0"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AR59" s="14"/>
+      <c r="AU59" s="14"/>
+      <c r="BG59" s="0"/>
+      <c r="BH59" s="0"/>
+      <c r="BI59" s="0"/>
+      <c r="BJ59" s="0"/>
+      <c r="BK59" s="0"/>
+      <c r="BL59" s="0"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK60" s="14"/>
+      <c r="BG60" s="0"/>
+      <c r="BH60" s="0"/>
+      <c r="BI60" s="0"/>
+      <c r="BJ60" s="0"/>
+      <c r="BK60" s="0"/>
+      <c r="BL60" s="0"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK61" s="14"/>
+      <c r="BA61" s="0"/>
+      <c r="BB61" s="0"/>
+      <c r="BC61" s="0"/>
+      <c r="BD61" s="0"/>
+      <c r="BE61" s="0"/>
+      <c r="BF61" s="0"/>
+      <c r="BG61" s="0"/>
+      <c r="BH61" s="0"/>
+      <c r="BI61" s="0"/>
+      <c r="BJ61" s="0"/>
+      <c r="BK61" s="0"/>
+      <c r="BL61" s="0"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK62" s="14"/>
+      <c r="BA62" s="0"/>
+      <c r="BB62" s="0"/>
+      <c r="BC62" s="0"/>
+      <c r="BD62" s="0"/>
+      <c r="BE62" s="0"/>
+      <c r="BF62" s="0"/>
+      <c r="BG62" s="0"/>
+      <c r="BH62" s="0"/>
+      <c r="BI62" s="0"/>
+      <c r="BJ62" s="0"/>
+      <c r="BK62" s="0"/>
+      <c r="BL62" s="0"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AM63" s="14"/>
+      <c r="BA63" s="0"/>
+      <c r="BB63" s="0"/>
+      <c r="BC63" s="0"/>
+      <c r="BD63" s="0"/>
+      <c r="BE63" s="0"/>
+      <c r="BF63" s="0"/>
+      <c r="BG63" s="0"/>
+      <c r="BH63" s="0"/>
+      <c r="BI63" s="0"/>
+      <c r="BJ63" s="0"/>
+      <c r="BK63" s="0"/>
+      <c r="BL63" s="0"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK64" s="14"/>
+      <c r="BA64" s="0"/>
+      <c r="BB64" s="0"/>
+      <c r="BC64" s="0"/>
+      <c r="BD64" s="0"/>
+      <c r="BE64" s="0"/>
+      <c r="BF64" s="0"/>
+      <c r="BG64" s="0"/>
+      <c r="BH64" s="0"/>
+      <c r="BI64" s="0"/>
+      <c r="BJ64" s="0"/>
+      <c r="BK64" s="0"/>
+      <c r="BL64" s="0"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP65" s="14"/>
+      <c r="AT65" s="14"/>
+      <c r="BG65" s="0"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK66" s="14"/>
+      <c r="BA66" s="0"/>
+      <c r="BB66" s="0"/>
+      <c r="BC66" s="0"/>
+      <c r="BD66" s="0"/>
+      <c r="BE66" s="0"/>
+      <c r="BF66" s="0"/>
+      <c r="BG66" s="0"/>
+      <c r="BH66" s="0"/>
+      <c r="BI66" s="0"/>
+      <c r="BJ66" s="0"/>
+      <c r="BK66" s="0"/>
+      <c r="BL66" s="0"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AO67" s="14"/>
+      <c r="AU67" s="14"/>
+      <c r="BA67" s="0"/>
+      <c r="BB67" s="0"/>
+      <c r="BC67" s="0"/>
+      <c r="BF67" s="0"/>
+      <c r="BG67" s="0"/>
+      <c r="BH67" s="0"/>
+      <c r="BI67" s="0"/>
+      <c r="BJ67" s="0"/>
+      <c r="BK67" s="0"/>
+      <c r="BL67" s="0"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK68" s="14"/>
+      <c r="BA68" s="0"/>
+      <c r="BB68" s="0"/>
+      <c r="BC68" s="0"/>
+      <c r="BD68" s="0"/>
+      <c r="BE68" s="0"/>
+      <c r="BF68" s="0"/>
+      <c r="BG68" s="0"/>
+      <c r="BH68" s="0"/>
+      <c r="BI68" s="0"/>
+      <c r="BJ68" s="0"/>
+      <c r="BK68" s="0"/>
+      <c r="BL68" s="0"/>
+      <c r="BM68" s="0"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AW69" s="14"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AY70" s="14"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK71" s="14"/>
+      <c r="BA71" s="0"/>
+      <c r="BB71" s="0"/>
+      <c r="BC71" s="0"/>
+      <c r="BD71" s="0"/>
+      <c r="BE71" s="0"/>
+      <c r="BF71" s="0"/>
+      <c r="BG71" s="0"/>
+      <c r="BH71" s="0"/>
+      <c r="BI71" s="0"/>
+      <c r="BJ71" s="0"/>
+      <c r="BK71" s="0"/>
+      <c r="BL71" s="0"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK72" s="14"/>
+      <c r="BA72" s="0"/>
+      <c r="BB72" s="0"/>
+      <c r="BC72" s="0"/>
+      <c r="BD72" s="0"/>
+      <c r="BE72" s="0"/>
+      <c r="BF72" s="0"/>
+      <c r="BG72" s="0"/>
+      <c r="BH72" s="0"/>
+      <c r="BI72" s="0"/>
+      <c r="BJ72" s="0"/>
+      <c r="BK72" s="0"/>
+      <c r="BL72" s="0"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK73" s="14"/>
+      <c r="BA73" s="0"/>
+      <c r="BB73" s="0"/>
+      <c r="BC73" s="0"/>
+      <c r="BD73" s="0"/>
+      <c r="BE73" s="0"/>
+      <c r="BF73" s="0"/>
+      <c r="BG73" s="0"/>
+      <c r="BH73" s="0"/>
+      <c r="BI73" s="0"/>
+      <c r="BJ73" s="0"/>
+      <c r="BK73" s="0"/>
+      <c r="BL73" s="0"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP74" s="14"/>
+      <c r="AW74" s="14"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK75" s="14"/>
+      <c r="BA75" s="0"/>
+      <c r="BB75" s="0"/>
+      <c r="BC75" s="0"/>
+      <c r="BD75" s="0"/>
+      <c r="BE75" s="0"/>
+      <c r="BF75" s="0"/>
+      <c r="BG75" s="0"/>
+      <c r="BH75" s="0"/>
+      <c r="BI75" s="0"/>
+      <c r="BJ75" s="0"/>
+      <c r="BK75" s="0"/>
+      <c r="BL75" s="0"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AO76" s="14"/>
+      <c r="AW76" s="14"/>
+      <c r="BJ76" s="0"/>
+      <c r="BK76" s="0"/>
+      <c r="BL76" s="0"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK77" s="14"/>
+      <c r="BJ77" s="0"/>
+      <c r="BK77" s="0"/>
+      <c r="BL77" s="0"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AO78" s="14"/>
+      <c r="AU78" s="14"/>
+      <c r="BJ78" s="0"/>
+      <c r="BK78" s="0"/>
+      <c r="BL78" s="0"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK79" s="14"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP80" s="14"/>
+      <c r="AT80" s="14"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK81" s="14"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP82" s="14"/>
+      <c r="AT82" s="14"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK83" s="14"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA84" s="0"/>
+      <c r="BB84" s="0"/>
+      <c r="BC84" s="0"/>
+      <c r="BD84" s="0"/>
+      <c r="BE84" s="0"/>
+      <c r="BF84" s="0"/>
+      <c r="BG84" s="0"/>
+      <c r="BH84" s="0"/>
+      <c r="BI84" s="0"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA85" s="0"/>
+      <c r="BB85" s="0"/>
+      <c r="BC85" s="0"/>
+      <c r="BD85" s="0"/>
+      <c r="BE85" s="0"/>
+      <c r="BF85" s="0"/>
+      <c r="BG85" s="0"/>
+      <c r="BH85" s="0"/>
+      <c r="BI85" s="0"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA86" s="0"/>
+      <c r="BB86" s="0"/>
+      <c r="BC86" s="0"/>
+      <c r="BD86" s="0"/>
+      <c r="BE86" s="0"/>
+      <c r="BF86" s="0"/>
+      <c r="BG86" s="0"/>
+      <c r="BH86" s="0"/>
+      <c r="BI86" s="0"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA87" s="0"/>
+      <c r="BB87" s="0"/>
+      <c r="BC87" s="0"/>
+      <c r="BD87" s="0"/>
+      <c r="BE87" s="0"/>
+      <c r="BF87" s="0"/>
+      <c r="BG87" s="0"/>
+      <c r="BH87" s="0"/>
+      <c r="BI87" s="0"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA88" s="0"/>
+      <c r="BB88" s="0"/>
+      <c r="BC88" s="0"/>
+      <c r="BD88" s="0"/>
+      <c r="BE88" s="0"/>
+      <c r="BF88" s="0"/>
+      <c r="BG88" s="0"/>
+      <c r="BH88" s="0"/>
+      <c r="BI88" s="0"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/resources/mpn.xlsx
+++ b/resources/mpn.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="blank" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,6 +14,7 @@
     <sheet name="kiki_1" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="pathetique2_10" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="prelude15_2" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="prelude15_3" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="14">
   <si>
     <t xml:space="preserve">bt</t>
   </si>
@@ -61,6 +62,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=V8ymnxRH_Dw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雨だれ Lesson3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=BXwfygb0ckE</t>
   </si>
 </sst>
 </file>
@@ -231,7 +238,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -336,10 +343,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,7 +428,7 @@
       <selection pane="bottomLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.13"/>
@@ -864,7 +867,7 @@
       <selection pane="bottomLeft" activeCell="AE9" activeCellId="0" sqref="AE9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.13"/>
@@ -2766,7 +2769,7 @@
       <selection pane="bottomLeft" activeCell="AK30" activeCellId="0" sqref="AK30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.13"/>
@@ -4212,7 +4215,7 @@
       <selection pane="bottomLeft" activeCell="BG43" activeCellId="0" sqref="BG43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.13"/>
@@ -5164,7 +5167,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.13"/>
@@ -6476,13 +6479,13 @@
   </sheetPr>
   <dimension ref="A1:CK88"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2550" topLeftCell="A22" activePane="bottomLeft" state="split"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2550" topLeftCell="A22" activePane="topLeft" state="split"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.13"/>
@@ -7230,7 +7233,7 @@
       <c r="AK26" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="AW26" s="26" t="n">
+      <c r="AW26" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7238,7 +7241,7 @@
       <c r="AF27" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="AY27" s="26" t="n">
+      <c r="AY27" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7246,16 +7249,16 @@
       <c r="AJ28" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="AY28" s="26"/>
+      <c r="AY28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AY29" s="26"/>
+      <c r="AY29" s="1"/>
       <c r="AZ29" s="3" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AY30" s="26" t="n">
+      <c r="AY30" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7299,7 +7302,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK34" s="14"/>
-      <c r="AW34" s="26"/>
+      <c r="AW34" s="1"/>
       <c r="AZ34" s="3" t="n">
         <v>4</v>
       </c>
@@ -7316,7 +7319,7 @@
         <v>5</v>
       </c>
       <c r="AK35" s="14"/>
-      <c r="AW35" s="26" t="n">
+      <c r="AW35" s="1" t="n">
         <v>2</v>
       </c>
       <c r="BA35" s="0"/>
@@ -7337,7 +7340,7 @@
         <v>3</v>
       </c>
       <c r="AO36" s="14"/>
-      <c r="AW36" s="26"/>
+      <c r="AW36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK37" s="14"/>
@@ -7888,4 +7891,1088 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:CK62"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2595" topLeftCell="A28" activePane="bottomLeft" state="split"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A62" activeCellId="0" sqref="A62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="33" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="45" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="57" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="69" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="76" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="77" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="78" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="79" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="80" min="80" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="81" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="84" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="85" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="86" min="86" style="1" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="1" width="3.13"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BK1" s="1"/>
+      <c r="BL1" s="1"/>
+      <c r="BN1" s="1"/>
+      <c r="BP1" s="1"/>
+      <c r="BS1" s="1"/>
+      <c r="BU1" s="1"/>
+      <c r="BW1" s="1"/>
+      <c r="BX1" s="1"/>
+      <c r="BZ1" s="1"/>
+      <c r="CB1" s="1"/>
+      <c r="CE1" s="1"/>
+      <c r="CG1" s="1"/>
+      <c r="CI1" s="1"/>
+      <c r="CJ1" s="1"/>
+      <c r="CK1" s="5"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="0"/>
+      <c r="F2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BB2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BG2" s="1"/>
+      <c r="BI2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1"/>
+      <c r="BN2" s="1"/>
+      <c r="BP2" s="1"/>
+      <c r="BS2" s="1"/>
+      <c r="BU2" s="1"/>
+      <c r="BW2" s="1"/>
+      <c r="BX2" s="1"/>
+      <c r="BZ2" s="1"/>
+      <c r="CB2" s="1"/>
+      <c r="CE2" s="1"/>
+      <c r="CG2" s="1"/>
+      <c r="CI2" s="1"/>
+      <c r="CJ2" s="1"/>
+      <c r="CK2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+      <c r="BN3" s="1"/>
+      <c r="BP3" s="1"/>
+      <c r="BS3" s="1"/>
+      <c r="BU3" s="1"/>
+      <c r="BW3" s="1"/>
+      <c r="BX3" s="1"/>
+      <c r="BZ3" s="1"/>
+      <c r="CB3" s="1"/>
+      <c r="CE3" s="1"/>
+      <c r="CG3" s="1"/>
+      <c r="CI3" s="1"/>
+      <c r="CJ3" s="1"/>
+      <c r="CK3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BB4" s="1"/>
+      <c r="BD4" s="1"/>
+      <c r="BG4" s="1"/>
+      <c r="BI4" s="1"/>
+      <c r="BK4" s="1"/>
+      <c r="BL4" s="1"/>
+      <c r="BN4" s="1"/>
+      <c r="BP4" s="1"/>
+      <c r="BS4" s="1"/>
+      <c r="BU4" s="1"/>
+      <c r="BW4" s="1"/>
+      <c r="BX4" s="1"/>
+      <c r="BZ4" s="1"/>
+      <c r="CB4" s="1"/>
+      <c r="CE4" s="1"/>
+      <c r="CG4" s="1"/>
+      <c r="CI4" s="1"/>
+      <c r="CJ4" s="1"/>
+      <c r="CK4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="8"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="8"/>
+      <c r="AV5" s="8"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="9"/>
+      <c r="BA5" s="11"/>
+      <c r="BB5" s="11"/>
+      <c r="BC5" s="11"/>
+      <c r="BD5" s="11"/>
+      <c r="BE5" s="11"/>
+      <c r="BF5" s="11"/>
+      <c r="BG5" s="11"/>
+      <c r="BH5" s="11"/>
+      <c r="BI5" s="11"/>
+      <c r="BJ5" s="11"/>
+      <c r="BK5" s="11"/>
+      <c r="BL5" s="10"/>
+      <c r="BM5" s="8"/>
+      <c r="BN5" s="8"/>
+      <c r="BO5" s="8"/>
+      <c r="BP5" s="8"/>
+      <c r="BQ5" s="8"/>
+      <c r="BR5" s="8"/>
+      <c r="BS5" s="8"/>
+      <c r="BT5" s="8"/>
+      <c r="BU5" s="8"/>
+      <c r="BV5" s="8"/>
+      <c r="BW5" s="8"/>
+      <c r="BX5" s="9"/>
+      <c r="BY5" s="11"/>
+      <c r="BZ5" s="11"/>
+      <c r="CA5" s="11"/>
+      <c r="CB5" s="11"/>
+      <c r="CC5" s="11"/>
+      <c r="CD5" s="11"/>
+      <c r="CE5" s="11"/>
+      <c r="CF5" s="11"/>
+      <c r="CG5" s="11"/>
+      <c r="CH5" s="11"/>
+      <c r="CI5" s="11"/>
+      <c r="CJ5" s="10"/>
+      <c r="CK5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="12"/>
+      <c r="AR6" s="12"/>
+      <c r="AU6" s="12"/>
+      <c r="AW6" s="12"/>
+      <c r="AY6" s="12"/>
+      <c r="BB6" s="12"/>
+      <c r="BD6" s="12"/>
+      <c r="BG6" s="12"/>
+      <c r="BI6" s="12"/>
+      <c r="BK6" s="12"/>
+      <c r="BN6" s="12"/>
+      <c r="BP6" s="12"/>
+      <c r="BS6" s="12"/>
+      <c r="BU6" s="12"/>
+      <c r="BW6" s="12"/>
+      <c r="BZ6" s="12"/>
+      <c r="CB6" s="12"/>
+      <c r="CE6" s="12"/>
+      <c r="CG6" s="12"/>
+      <c r="CI6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="AF7" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG7" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AI8" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF8" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AM9" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN9" s="15"/>
+      <c r="AO9" s="14"/>
+      <c r="AP9" s="14"/>
+      <c r="AQ9" s="14"/>
+      <c r="AR9" s="14"/>
+      <c r="AS9" s="14"/>
+      <c r="AT9" s="14"/>
+      <c r="AU9" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD9" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AI10" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB10" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA11" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF11" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH12" s="14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH13" s="14"/>
+      <c r="AM13" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN13" s="15"/>
+      <c r="AO13" s="14"/>
+      <c r="AP13" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ13" s="14"/>
+      <c r="AR13" s="14"/>
+      <c r="AS13" s="14"/>
+      <c r="AT13" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH14" s="14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="V15" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH15" s="14"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V16" s="14"/>
+      <c r="AH16" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB16" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V17" s="14"/>
+      <c r="AH17" s="14"/>
+      <c r="AM17" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN17" s="15"/>
+      <c r="AO17" s="14"/>
+      <c r="AP17" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ17" s="14"/>
+      <c r="AR17" s="14"/>
+      <c r="AS17" s="14"/>
+      <c r="AT17" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA17" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V18" s="14"/>
+      <c r="AH18" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY18" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V19" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH19" s="14"/>
+      <c r="BA19" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH20" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB20" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH21" s="0"/>
+      <c r="AI21" s="0"/>
+      <c r="AJ21" s="0"/>
+      <c r="AK21" s="0"/>
+      <c r="AL21" s="0"/>
+      <c r="AM21" s="0"/>
+      <c r="AN21" s="0"/>
+      <c r="AO21" s="0"/>
+      <c r="AP21" s="0"/>
+      <c r="AQ21" s="0"/>
+      <c r="AR21" s="0"/>
+      <c r="AS21" s="0"/>
+      <c r="AT21" s="0"/>
+      <c r="BA21" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH22" s="0"/>
+      <c r="AI22" s="0"/>
+      <c r="AJ22" s="0"/>
+      <c r="AK22" s="0"/>
+      <c r="AL22" s="0"/>
+      <c r="AM22" s="0"/>
+      <c r="AN22" s="0"/>
+      <c r="AO22" s="0"/>
+      <c r="AP22" s="0"/>
+      <c r="AQ22" s="0"/>
+      <c r="AR22" s="0"/>
+      <c r="AS22" s="0"/>
+      <c r="AT22" s="0"/>
+      <c r="AY22" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AL23" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR23" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS23" s="14"/>
+      <c r="AT23" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA23" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AL24" s="14"/>
+      <c r="AR24" s="14"/>
+      <c r="AS24" s="14"/>
+      <c r="AT24" s="14"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH25" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB25" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH26" s="14"/>
+      <c r="AY26" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH27" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO27" s="0"/>
+      <c r="AP27" s="0"/>
+      <c r="AQ27" s="0"/>
+      <c r="AR27" s="0"/>
+      <c r="AS27" s="0"/>
+      <c r="AT27" s="0"/>
+      <c r="AU27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH28" s="14"/>
+      <c r="AP28" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ28" s="14"/>
+      <c r="AR28" s="14"/>
+      <c r="AS28" s="14"/>
+      <c r="AT28" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF28" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH29" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO29" s="0"/>
+      <c r="AP29" s="0"/>
+      <c r="AQ29" s="0"/>
+      <c r="AR29" s="0"/>
+      <c r="AS29" s="0"/>
+      <c r="AT29" s="0"/>
+      <c r="AU29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH30" s="14"/>
+      <c r="AO30" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP30" s="14"/>
+      <c r="AQ30" s="14"/>
+      <c r="AR30" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD30" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH31" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO31" s="0"/>
+      <c r="AP31" s="0"/>
+      <c r="AQ31" s="0"/>
+      <c r="AR31" s="0"/>
+      <c r="AS31" s="0"/>
+      <c r="AT31" s="0"/>
+      <c r="AU31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH32" s="14"/>
+      <c r="AR32" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS32" s="14"/>
+      <c r="AT32" s="14"/>
+      <c r="AU32" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG32" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH33" s="14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="14"/>
+      <c r="AP34" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ34" s="14"/>
+      <c r="AR34" s="14"/>
+      <c r="AS34" s="14"/>
+      <c r="AT34" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF34" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH35" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB35" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH36" s="14"/>
+      <c r="AM36" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN36" s="15"/>
+      <c r="AO36" s="14"/>
+      <c r="AP36" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ36" s="14"/>
+      <c r="AR36" s="14"/>
+      <c r="AS36" s="14"/>
+      <c r="AT36" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA36" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH37" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY37" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH38" s="14"/>
+      <c r="AL38" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM38" s="14"/>
+      <c r="AN38" s="15"/>
+      <c r="AO38" s="14"/>
+      <c r="AP38" s="14"/>
+      <c r="AQ38" s="14"/>
+      <c r="AR38" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA38" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH39" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB39" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB40" s="0"/>
+      <c r="AC40" s="0"/>
+      <c r="AD40" s="0"/>
+      <c r="AE40" s="0"/>
+      <c r="AF40" s="0"/>
+      <c r="AG40" s="0"/>
+      <c r="AH40" s="0"/>
+      <c r="AI40" s="0"/>
+      <c r="AJ40" s="0"/>
+      <c r="AK40" s="0"/>
+      <c r="AL40" s="0"/>
+      <c r="AM40" s="0"/>
+      <c r="AN40" s="0"/>
+      <c r="AO40" s="0"/>
+      <c r="AP40" s="0"/>
+      <c r="AQ40" s="0"/>
+      <c r="AR40" s="0"/>
+      <c r="AS40" s="0"/>
+      <c r="AT40" s="0"/>
+      <c r="BA40" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB41" s="0"/>
+      <c r="AC41" s="0"/>
+      <c r="AD41" s="0"/>
+      <c r="AE41" s="0"/>
+      <c r="AF41" s="0"/>
+      <c r="AG41" s="0"/>
+      <c r="AH41" s="0"/>
+      <c r="AI41" s="0"/>
+      <c r="AJ41" s="0"/>
+      <c r="AK41" s="0"/>
+      <c r="AL41" s="0"/>
+      <c r="AM41" s="0"/>
+      <c r="AN41" s="0"/>
+      <c r="AO41" s="0"/>
+      <c r="AP41" s="0"/>
+      <c r="AQ41" s="0"/>
+      <c r="AR41" s="0"/>
+      <c r="AS41" s="0"/>
+      <c r="AT41" s="0"/>
+      <c r="AY41" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH42" s="14"/>
+      <c r="AR42" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS42" s="14"/>
+      <c r="AT42" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA42" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH43" s="14"/>
+      <c r="AR43" s="14"/>
+      <c r="AS43" s="14"/>
+      <c r="AT43" s="14"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH44" s="14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB45" s="0"/>
+      <c r="AC45" s="0"/>
+      <c r="AD45" s="0"/>
+      <c r="AE45" s="0"/>
+      <c r="AF45" s="0"/>
+      <c r="AG45" s="0"/>
+      <c r="AH45" s="0"/>
+      <c r="AI45" s="0"/>
+      <c r="AJ45" s="0"/>
+      <c r="AK45" s="0"/>
+      <c r="AL45" s="0"/>
+      <c r="AM45" s="0"/>
+      <c r="AN45" s="0"/>
+      <c r="AO45" s="0"/>
+      <c r="AP45" s="0"/>
+      <c r="AQ45" s="0"/>
+      <c r="AR45" s="0"/>
+      <c r="AS45" s="0"/>
+      <c r="AT45" s="0"/>
+      <c r="BB45" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB46" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH46" s="14"/>
+      <c r="AY46" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH48" s="14"/>
+      <c r="AO48" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP48" s="14"/>
+      <c r="AQ48" s="14"/>
+      <c r="AR48" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD48" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH49" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO49" s="0"/>
+      <c r="AP49" s="0"/>
+      <c r="AQ49" s="0"/>
+      <c r="AR49" s="0"/>
+      <c r="AS49" s="0"/>
+      <c r="AT49" s="0"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH50" s="14"/>
+      <c r="AP50" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ50" s="14"/>
+      <c r="AR50" s="14"/>
+      <c r="AS50" s="14"/>
+      <c r="AT50" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF50" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH51" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO51" s="0"/>
+      <c r="AP51" s="0"/>
+      <c r="AQ51" s="0"/>
+      <c r="AR51" s="0"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AO52" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP52" s="14"/>
+      <c r="AQ52" s="14"/>
+      <c r="AR52" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD52" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH53" s="14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH54" s="14"/>
+      <c r="AP54" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ54" s="14"/>
+      <c r="AR54" s="14"/>
+      <c r="AS54" s="14"/>
+      <c r="AT54" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF54" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH55" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO55" s="0"/>
+      <c r="AP55" s="0"/>
+      <c r="AQ55" s="0"/>
+      <c r="AR55" s="0"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH56" s="14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH57" s="14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH58" s="14"/>
+      <c r="AP58" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ58" s="14"/>
+      <c r="AR58" s="14"/>
+      <c r="AS58" s="14"/>
+      <c r="AT58" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH59" s="14"/>
+      <c r="AI59" s="14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AO60" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP60" s="14"/>
+      <c r="AQ60" s="14"/>
+      <c r="AR60" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD60" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK61" s="14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="https://www.youtube.com/watch?v=BXwfygb0ckE"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/resources/mpn.xlsx
+++ b/resources/mpn.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="blank" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,6 +15,13 @@
     <sheet name="pathetique2_10" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="prelude15_2" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="prelude15_3" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="pavane" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="prelude15_5" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="prelude15_6" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="prelude15_7" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="prelude15_8" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="prelude15_9" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="prelude15_10" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -26,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="28">
   <si>
     <t xml:space="preserve">bt</t>
   </si>
@@ -68,6 +75,48 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=BXwfygb0ckE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亡き王女のためのパヴァーヌ(編曲)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=YuL_BG8Ou_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雨だれ Lesson5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=vZZCltB1Oj0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雨だれ Lesson6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=7zglRLvb8c0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雨だれ Lesson7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=4i3P7lVn_Ys&amp;t=0s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雨だれ Lesson8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=s2yukgYGkVw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雨だれ Lesson9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=CgUJgxl-TqE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雨だれ Lesson10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=t6ue19Fu7iU</t>
   </si>
 </sst>
 </file>
@@ -424,12 +473,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CK7"/>
+  <dimension ref="A1:CK11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2835" topLeftCell="A1" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -847,10 +896,4384 @@
       </c>
       <c r="B7" s="15"/>
     </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:CK44"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1560" topLeftCell="A1" activePane="bottomLeft" state="split"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="S13" activeCellId="0" sqref="S13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="33" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="45" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="57" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="69" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="76" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="77" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="78" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="79" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="80" min="80" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="81" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="84" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="85" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="86" min="86" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="2" width="3.13"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BN1" s="2"/>
+      <c r="BP1" s="2"/>
+      <c r="BS1" s="2"/>
+      <c r="BU1" s="2"/>
+      <c r="BW1" s="2"/>
+      <c r="BX1" s="2"/>
+      <c r="BZ1" s="2"/>
+      <c r="CB1" s="2"/>
+      <c r="CE1" s="2"/>
+      <c r="CG1" s="2"/>
+      <c r="CI1" s="2"/>
+      <c r="CJ1" s="2"/>
+      <c r="CK1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BG2" s="2"/>
+      <c r="BI2" s="2"/>
+      <c r="BK2" s="2"/>
+      <c r="BL2" s="2"/>
+      <c r="BN2" s="2"/>
+      <c r="BP2" s="2"/>
+      <c r="BS2" s="2"/>
+      <c r="BU2" s="2"/>
+      <c r="BW2" s="2"/>
+      <c r="BX2" s="2"/>
+      <c r="BZ2" s="2"/>
+      <c r="CB2" s="2"/>
+      <c r="CE2" s="2"/>
+      <c r="CG2" s="2"/>
+      <c r="CI2" s="2"/>
+      <c r="CJ2" s="2"/>
+      <c r="CK2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2"/>
+      <c r="BB3" s="2"/>
+      <c r="BD3" s="2"/>
+      <c r="BG3" s="2"/>
+      <c r="BI3" s="2"/>
+      <c r="BK3" s="2"/>
+      <c r="BL3" s="2"/>
+      <c r="BN3" s="2"/>
+      <c r="BP3" s="2"/>
+      <c r="BS3" s="2"/>
+      <c r="BU3" s="2"/>
+      <c r="BW3" s="2"/>
+      <c r="BX3" s="2"/>
+      <c r="BZ3" s="2"/>
+      <c r="CB3" s="2"/>
+      <c r="CE3" s="2"/>
+      <c r="CG3" s="2"/>
+      <c r="CI3" s="2"/>
+      <c r="CJ3" s="2"/>
+      <c r="CK3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BG4" s="2"/>
+      <c r="BI4" s="2"/>
+      <c r="BK4" s="2"/>
+      <c r="BL4" s="2"/>
+      <c r="BN4" s="2"/>
+      <c r="BP4" s="2"/>
+      <c r="BS4" s="2"/>
+      <c r="BU4" s="2"/>
+      <c r="BW4" s="2"/>
+      <c r="BX4" s="2"/>
+      <c r="BZ4" s="2"/>
+      <c r="CB4" s="2"/>
+      <c r="CE4" s="2"/>
+      <c r="CG4" s="2"/>
+      <c r="CI4" s="2"/>
+      <c r="CJ4" s="2"/>
+      <c r="CK4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="9"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="12"/>
+      <c r="BB5" s="12"/>
+      <c r="BC5" s="12"/>
+      <c r="BD5" s="12"/>
+      <c r="BE5" s="12"/>
+      <c r="BF5" s="12"/>
+      <c r="BG5" s="12"/>
+      <c r="BH5" s="12"/>
+      <c r="BI5" s="12"/>
+      <c r="BJ5" s="12"/>
+      <c r="BK5" s="12"/>
+      <c r="BL5" s="11"/>
+      <c r="BM5" s="9"/>
+      <c r="BN5" s="9"/>
+      <c r="BO5" s="9"/>
+      <c r="BP5" s="9"/>
+      <c r="BQ5" s="9"/>
+      <c r="BR5" s="9"/>
+      <c r="BS5" s="9"/>
+      <c r="BT5" s="9"/>
+      <c r="BU5" s="9"/>
+      <c r="BV5" s="9"/>
+      <c r="BW5" s="9"/>
+      <c r="BX5" s="10"/>
+      <c r="BY5" s="12"/>
+      <c r="BZ5" s="12"/>
+      <c r="CA5" s="12"/>
+      <c r="CB5" s="12"/>
+      <c r="CC5" s="12"/>
+      <c r="CD5" s="12"/>
+      <c r="CE5" s="12"/>
+      <c r="CF5" s="12"/>
+      <c r="CG5" s="12"/>
+      <c r="CH5" s="12"/>
+      <c r="CI5" s="12"/>
+      <c r="CJ5" s="11"/>
+      <c r="CK5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AY6" s="13"/>
+      <c r="BB6" s="13"/>
+      <c r="BD6" s="13"/>
+      <c r="BG6" s="13"/>
+      <c r="BI6" s="13"/>
+      <c r="BK6" s="13"/>
+      <c r="BN6" s="13"/>
+      <c r="BP6" s="13"/>
+      <c r="BS6" s="13"/>
+      <c r="BU6" s="13"/>
+      <c r="BW6" s="13"/>
+      <c r="BZ6" s="13"/>
+      <c r="CB6" s="13"/>
+      <c r="CE6" s="13"/>
+      <c r="CG6" s="13"/>
+      <c r="CI6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="15"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R11" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y11" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="15"/>
+      <c r="AW11" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S13" s="15"/>
+      <c r="T13" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y13" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW14" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U15" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD15" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP15" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW15" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW16" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T17" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC17" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO17" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW17" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW18" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T19" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y19" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW19" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW20" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U21" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW21" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW22" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W23" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF23" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR23" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW23" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD24" s="15"/>
+      <c r="AK24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW24" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U25" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD25" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP25" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW25" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW26" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U27" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD27" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW27" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW28" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W29" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF29" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR29" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW29" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW30" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD31" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG31" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS31" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW31" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW32" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y33" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF33" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR33" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW33" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW34" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y36" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF36" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR36" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW36" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW37" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW38" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW39" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW40" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW41" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW42" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK43" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW43" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:CK43"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1275" topLeftCell="A7" activePane="bottomLeft" state="split"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="33" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="45" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="57" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="69" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="76" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="77" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="78" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="79" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="80" min="80" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="81" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="84" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="85" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="86" min="86" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="2" width="3.13"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BN1" s="2"/>
+      <c r="BP1" s="2"/>
+      <c r="BS1" s="2"/>
+      <c r="BU1" s="2"/>
+      <c r="BW1" s="2"/>
+      <c r="BX1" s="2"/>
+      <c r="BZ1" s="2"/>
+      <c r="CB1" s="2"/>
+      <c r="CE1" s="2"/>
+      <c r="CG1" s="2"/>
+      <c r="CI1" s="2"/>
+      <c r="CJ1" s="2"/>
+      <c r="CK1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BG2" s="2"/>
+      <c r="BI2" s="2"/>
+      <c r="BK2" s="2"/>
+      <c r="BL2" s="2"/>
+      <c r="BN2" s="2"/>
+      <c r="BP2" s="2"/>
+      <c r="BS2" s="2"/>
+      <c r="BU2" s="2"/>
+      <c r="BW2" s="2"/>
+      <c r="BX2" s="2"/>
+      <c r="BZ2" s="2"/>
+      <c r="CB2" s="2"/>
+      <c r="CE2" s="2"/>
+      <c r="CG2" s="2"/>
+      <c r="CI2" s="2"/>
+      <c r="CJ2" s="2"/>
+      <c r="CK2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2"/>
+      <c r="BB3" s="2"/>
+      <c r="BD3" s="2"/>
+      <c r="BG3" s="2"/>
+      <c r="BI3" s="2"/>
+      <c r="BK3" s="2"/>
+      <c r="BL3" s="2"/>
+      <c r="BN3" s="2"/>
+      <c r="BP3" s="2"/>
+      <c r="BS3" s="2"/>
+      <c r="BU3" s="2"/>
+      <c r="BW3" s="2"/>
+      <c r="BX3" s="2"/>
+      <c r="BZ3" s="2"/>
+      <c r="CB3" s="2"/>
+      <c r="CE3" s="2"/>
+      <c r="CG3" s="2"/>
+      <c r="CI3" s="2"/>
+      <c r="CJ3" s="2"/>
+      <c r="CK3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BG4" s="2"/>
+      <c r="BI4" s="2"/>
+      <c r="BK4" s="2"/>
+      <c r="BL4" s="2"/>
+      <c r="BN4" s="2"/>
+      <c r="BP4" s="2"/>
+      <c r="BS4" s="2"/>
+      <c r="BU4" s="2"/>
+      <c r="BW4" s="2"/>
+      <c r="BX4" s="2"/>
+      <c r="BZ4" s="2"/>
+      <c r="CB4" s="2"/>
+      <c r="CE4" s="2"/>
+      <c r="CG4" s="2"/>
+      <c r="CI4" s="2"/>
+      <c r="CJ4" s="2"/>
+      <c r="CK4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="9"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="12"/>
+      <c r="BB5" s="12"/>
+      <c r="BC5" s="12"/>
+      <c r="BD5" s="12"/>
+      <c r="BE5" s="12"/>
+      <c r="BF5" s="12"/>
+      <c r="BG5" s="12"/>
+      <c r="BH5" s="12"/>
+      <c r="BI5" s="12"/>
+      <c r="BJ5" s="12"/>
+      <c r="BK5" s="12"/>
+      <c r="BL5" s="11"/>
+      <c r="BM5" s="9"/>
+      <c r="BN5" s="9"/>
+      <c r="BO5" s="9"/>
+      <c r="BP5" s="9"/>
+      <c r="BQ5" s="9"/>
+      <c r="BR5" s="9"/>
+      <c r="BS5" s="9"/>
+      <c r="BT5" s="9"/>
+      <c r="BU5" s="9"/>
+      <c r="BV5" s="9"/>
+      <c r="BW5" s="9"/>
+      <c r="BX5" s="10"/>
+      <c r="BY5" s="12"/>
+      <c r="BZ5" s="12"/>
+      <c r="CA5" s="12"/>
+      <c r="CB5" s="12"/>
+      <c r="CC5" s="12"/>
+      <c r="CD5" s="12"/>
+      <c r="CE5" s="12"/>
+      <c r="CF5" s="12"/>
+      <c r="CG5" s="12"/>
+      <c r="CH5" s="12"/>
+      <c r="CI5" s="12"/>
+      <c r="CJ5" s="11"/>
+      <c r="CK5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AY6" s="13"/>
+      <c r="BB6" s="13"/>
+      <c r="BD6" s="13"/>
+      <c r="BG6" s="13"/>
+      <c r="BI6" s="13"/>
+      <c r="BK6" s="13"/>
+      <c r="BN6" s="13"/>
+      <c r="BP6" s="13"/>
+      <c r="BS6" s="13"/>
+      <c r="BU6" s="13"/>
+      <c r="BW6" s="13"/>
+      <c r="BZ6" s="13"/>
+      <c r="CB6" s="13"/>
+      <c r="CE6" s="13"/>
+      <c r="CG6" s="13"/>
+      <c r="CI6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="15"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="U11" s="15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS11" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW11" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ11" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ12" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ13" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ14" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P15" s="15" t="n">
+        <v>52</v>
+      </c>
+      <c r="AB15" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR15" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW15" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ15" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ16" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ17" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ18" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="U19" s="15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS19" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW19" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ19" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ20" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ21" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ22" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P23" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB23" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR23" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW23" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ23" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AN24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ24" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ25" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O26" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA26" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ26" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y27" s="15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR27" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW27" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ27" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ28" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ29" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ30" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T31" s="15" t="n">
+        <v>52</v>
+      </c>
+      <c r="AA31" s="15"/>
+      <c r="AF31" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR31" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV31" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ31" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ32" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ33" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ34" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y35" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR35" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW35" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ35" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK36" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK37" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK38" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK39" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK40" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK41" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK42" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:CK43"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1275" topLeftCell="A6" activePane="bottomLeft" state="split"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="AZ32" activeCellId="0" sqref="AZ32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="33" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="45" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="57" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="69" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="76" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="77" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="78" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="79" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="80" min="80" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="81" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="84" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="85" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="86" min="86" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="2" width="3.13"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BN1" s="2"/>
+      <c r="BP1" s="2"/>
+      <c r="BS1" s="2"/>
+      <c r="BU1" s="2"/>
+      <c r="BW1" s="2"/>
+      <c r="BX1" s="2"/>
+      <c r="BZ1" s="2"/>
+      <c r="CB1" s="2"/>
+      <c r="CE1" s="2"/>
+      <c r="CG1" s="2"/>
+      <c r="CI1" s="2"/>
+      <c r="CJ1" s="2"/>
+      <c r="CK1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BG2" s="2"/>
+      <c r="BI2" s="2"/>
+      <c r="BK2" s="2"/>
+      <c r="BL2" s="2"/>
+      <c r="BN2" s="2"/>
+      <c r="BP2" s="2"/>
+      <c r="BS2" s="2"/>
+      <c r="BU2" s="2"/>
+      <c r="BW2" s="2"/>
+      <c r="BX2" s="2"/>
+      <c r="BZ2" s="2"/>
+      <c r="CB2" s="2"/>
+      <c r="CE2" s="2"/>
+      <c r="CG2" s="2"/>
+      <c r="CI2" s="2"/>
+      <c r="CJ2" s="2"/>
+      <c r="CK2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2"/>
+      <c r="BB3" s="2"/>
+      <c r="BD3" s="2"/>
+      <c r="BG3" s="2"/>
+      <c r="BI3" s="2"/>
+      <c r="BK3" s="2"/>
+      <c r="BL3" s="2"/>
+      <c r="BN3" s="2"/>
+      <c r="BP3" s="2"/>
+      <c r="BS3" s="2"/>
+      <c r="BU3" s="2"/>
+      <c r="BW3" s="2"/>
+      <c r="BX3" s="2"/>
+      <c r="BZ3" s="2"/>
+      <c r="CB3" s="2"/>
+      <c r="CE3" s="2"/>
+      <c r="CG3" s="2"/>
+      <c r="CI3" s="2"/>
+      <c r="CJ3" s="2"/>
+      <c r="CK3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BG4" s="2"/>
+      <c r="BI4" s="2"/>
+      <c r="BK4" s="2"/>
+      <c r="BL4" s="2"/>
+      <c r="BN4" s="2"/>
+      <c r="BP4" s="2"/>
+      <c r="BS4" s="2"/>
+      <c r="BU4" s="2"/>
+      <c r="BW4" s="2"/>
+      <c r="BX4" s="2"/>
+      <c r="BZ4" s="2"/>
+      <c r="CB4" s="2"/>
+      <c r="CE4" s="2"/>
+      <c r="CG4" s="2"/>
+      <c r="CI4" s="2"/>
+      <c r="CJ4" s="2"/>
+      <c r="CK4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="9"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="12"/>
+      <c r="BB5" s="12"/>
+      <c r="BC5" s="12"/>
+      <c r="BD5" s="12"/>
+      <c r="BE5" s="12"/>
+      <c r="BF5" s="12"/>
+      <c r="BG5" s="12"/>
+      <c r="BH5" s="12"/>
+      <c r="BI5" s="12"/>
+      <c r="BJ5" s="12"/>
+      <c r="BK5" s="12"/>
+      <c r="BL5" s="11"/>
+      <c r="BM5" s="9"/>
+      <c r="BN5" s="9"/>
+      <c r="BO5" s="9"/>
+      <c r="BP5" s="9"/>
+      <c r="BQ5" s="9"/>
+      <c r="BR5" s="9"/>
+      <c r="BS5" s="9"/>
+      <c r="BT5" s="9"/>
+      <c r="BU5" s="9"/>
+      <c r="BV5" s="9"/>
+      <c r="BW5" s="9"/>
+      <c r="BX5" s="10"/>
+      <c r="BY5" s="12"/>
+      <c r="BZ5" s="12"/>
+      <c r="CA5" s="12"/>
+      <c r="CB5" s="12"/>
+      <c r="CC5" s="12"/>
+      <c r="CD5" s="12"/>
+      <c r="CE5" s="12"/>
+      <c r="CF5" s="12"/>
+      <c r="CG5" s="12"/>
+      <c r="CH5" s="12"/>
+      <c r="CI5" s="12"/>
+      <c r="CJ5" s="11"/>
+      <c r="CK5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AY6" s="13"/>
+      <c r="BB6" s="13"/>
+      <c r="BD6" s="13"/>
+      <c r="BG6" s="13"/>
+      <c r="BI6" s="13"/>
+      <c r="BK6" s="13"/>
+      <c r="BN6" s="13"/>
+      <c r="BP6" s="13"/>
+      <c r="BS6" s="13"/>
+      <c r="BU6" s="13"/>
+      <c r="BW6" s="13"/>
+      <c r="BZ6" s="13"/>
+      <c r="CB6" s="13"/>
+      <c r="CE6" s="13"/>
+      <c r="CG6" s="13"/>
+      <c r="CI6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="15"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="W11" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG11" s="15"/>
+      <c r="AI11" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="2"/>
+      <c r="AO11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA11" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN12" s="2"/>
+      <c r="AW12" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN13" s="2"/>
+      <c r="AW13" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN14" s="2"/>
+      <c r="AW14" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P15" s="15"/>
+      <c r="U15" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="15"/>
+      <c r="AF15" s="15"/>
+      <c r="AG15" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="2"/>
+      <c r="AP15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW15" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB15" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN16" s="2"/>
+      <c r="AW16" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R17" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN17" s="2"/>
+      <c r="AW17" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN18" s="2"/>
+      <c r="AW18" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="M19" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="15"/>
+      <c r="AN19" s="2"/>
+      <c r="AR19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW19" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB19" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD19" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN20" s="2"/>
+      <c r="AW20" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN21" s="2"/>
+      <c r="AW21" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN22" s="2"/>
+      <c r="AW22" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P23" s="15"/>
+      <c r="AB23" s="15"/>
+      <c r="AN23" s="2"/>
+      <c r="AW23" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AN24" s="2"/>
+      <c r="AW24" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y25" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="15"/>
+      <c r="AF25" s="15"/>
+      <c r="AG25" s="15"/>
+      <c r="AH25" s="15"/>
+      <c r="AI25" s="15"/>
+      <c r="AJ25" s="15"/>
+      <c r="AK25" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN25" s="2"/>
+      <c r="AR25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW25" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA25" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD25" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AN26" s="2"/>
+      <c r="AW26" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="AD27" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE27" s="15"/>
+      <c r="AF27" s="15"/>
+      <c r="AG27" s="15"/>
+      <c r="AH27" s="15"/>
+      <c r="AI27" s="15"/>
+      <c r="AJ27" s="15"/>
+      <c r="AK27" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN27" s="2"/>
+      <c r="AS27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW27" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD27" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE27" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN28" s="2"/>
+      <c r="AW28" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN29" s="2"/>
+      <c r="AS29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW29" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB29" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE29" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN30" s="2"/>
+      <c r="AW30" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T31" s="15"/>
+      <c r="Y31" s="15" t="n">
+        <v>54</v>
+      </c>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="15"/>
+      <c r="AB31" s="16"/>
+      <c r="AC31" s="15"/>
+      <c r="AD31" s="15"/>
+      <c r="AE31" s="15"/>
+      <c r="AF31" s="15"/>
+      <c r="AG31" s="15"/>
+      <c r="AH31" s="15"/>
+      <c r="AI31" s="15"/>
+      <c r="AJ31" s="15"/>
+      <c r="AK31" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN31" s="2"/>
+      <c r="AR31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW31" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB31" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD31" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN32" s="2"/>
+      <c r="AW32" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN33" s="2"/>
+      <c r="AR33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW33" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA33" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD33" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN34" s="2"/>
+      <c r="AW34" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15"/>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL35" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN35" s="2"/>
+      <c r="AP35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW35" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB35" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AW36" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AU37" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AU38" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y39" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK39" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW39" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AW40" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W41" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI41" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX41" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AX42" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="https://www.youtube.com/watch?v=s2yukgYGkVw"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:CK43"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1275" topLeftCell="A5" activePane="bottomLeft" state="split"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="33" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="45" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="57" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="69" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="76" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="77" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="78" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="79" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="80" min="80" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="81" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="84" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="85" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="86" min="86" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="2" width="3.13"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BN1" s="2"/>
+      <c r="BP1" s="2"/>
+      <c r="BS1" s="2"/>
+      <c r="BU1" s="2"/>
+      <c r="BW1" s="2"/>
+      <c r="BX1" s="2"/>
+      <c r="BZ1" s="2"/>
+      <c r="CB1" s="2"/>
+      <c r="CE1" s="2"/>
+      <c r="CG1" s="2"/>
+      <c r="CI1" s="2"/>
+      <c r="CJ1" s="2"/>
+      <c r="CK1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BG2" s="2"/>
+      <c r="BI2" s="2"/>
+      <c r="BK2" s="2"/>
+      <c r="BL2" s="2"/>
+      <c r="BN2" s="2"/>
+      <c r="BP2" s="2"/>
+      <c r="BS2" s="2"/>
+      <c r="BU2" s="2"/>
+      <c r="BW2" s="2"/>
+      <c r="BX2" s="2"/>
+      <c r="BZ2" s="2"/>
+      <c r="CB2" s="2"/>
+      <c r="CE2" s="2"/>
+      <c r="CG2" s="2"/>
+      <c r="CI2" s="2"/>
+      <c r="CJ2" s="2"/>
+      <c r="CK2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2"/>
+      <c r="BB3" s="2"/>
+      <c r="BD3" s="2"/>
+      <c r="BG3" s="2"/>
+      <c r="BI3" s="2"/>
+      <c r="BK3" s="2"/>
+      <c r="BL3" s="2"/>
+      <c r="BN3" s="2"/>
+      <c r="BP3" s="2"/>
+      <c r="BS3" s="2"/>
+      <c r="BU3" s="2"/>
+      <c r="BW3" s="2"/>
+      <c r="BX3" s="2"/>
+      <c r="BZ3" s="2"/>
+      <c r="CB3" s="2"/>
+      <c r="CE3" s="2"/>
+      <c r="CG3" s="2"/>
+      <c r="CI3" s="2"/>
+      <c r="CJ3" s="2"/>
+      <c r="CK3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BG4" s="2"/>
+      <c r="BI4" s="2"/>
+      <c r="BK4" s="2"/>
+      <c r="BL4" s="2"/>
+      <c r="BN4" s="2"/>
+      <c r="BP4" s="2"/>
+      <c r="BS4" s="2"/>
+      <c r="BU4" s="2"/>
+      <c r="BW4" s="2"/>
+      <c r="BX4" s="2"/>
+      <c r="BZ4" s="2"/>
+      <c r="CB4" s="2"/>
+      <c r="CE4" s="2"/>
+      <c r="CG4" s="2"/>
+      <c r="CI4" s="2"/>
+      <c r="CJ4" s="2"/>
+      <c r="CK4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="9"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="12"/>
+      <c r="BB5" s="12"/>
+      <c r="BC5" s="12"/>
+      <c r="BD5" s="12"/>
+      <c r="BE5" s="12"/>
+      <c r="BF5" s="12"/>
+      <c r="BG5" s="12"/>
+      <c r="BH5" s="12"/>
+      <c r="BI5" s="12"/>
+      <c r="BJ5" s="12"/>
+      <c r="BK5" s="12"/>
+      <c r="BL5" s="11"/>
+      <c r="BM5" s="9"/>
+      <c r="BN5" s="9"/>
+      <c r="BO5" s="9"/>
+      <c r="BP5" s="9"/>
+      <c r="BQ5" s="9"/>
+      <c r="BR5" s="9"/>
+      <c r="BS5" s="9"/>
+      <c r="BT5" s="9"/>
+      <c r="BU5" s="9"/>
+      <c r="BV5" s="9"/>
+      <c r="BW5" s="9"/>
+      <c r="BX5" s="10"/>
+      <c r="BY5" s="12"/>
+      <c r="BZ5" s="12"/>
+      <c r="CA5" s="12"/>
+      <c r="CB5" s="12"/>
+      <c r="CC5" s="12"/>
+      <c r="CD5" s="12"/>
+      <c r="CE5" s="12"/>
+      <c r="CF5" s="12"/>
+      <c r="CG5" s="12"/>
+      <c r="CH5" s="12"/>
+      <c r="CI5" s="12"/>
+      <c r="CJ5" s="11"/>
+      <c r="CK5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AY6" s="13"/>
+      <c r="BB6" s="13"/>
+      <c r="BD6" s="13"/>
+      <c r="BG6" s="13"/>
+      <c r="BI6" s="13"/>
+      <c r="BK6" s="13"/>
+      <c r="BN6" s="13"/>
+      <c r="BP6" s="13"/>
+      <c r="BS6" s="13"/>
+      <c r="BU6" s="13"/>
+      <c r="BW6" s="13"/>
+      <c r="BZ6" s="13"/>
+      <c r="CB6" s="13"/>
+      <c r="CE6" s="13"/>
+      <c r="CG6" s="13"/>
+      <c r="CI6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="15"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" s="15"/>
+      <c r="AI11" s="15"/>
+      <c r="AK11" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="2"/>
+      <c r="AO11" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR11" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW11" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="0"/>
+      <c r="AN13" s="0"/>
+      <c r="AO13" s="0"/>
+      <c r="AP13" s="0"/>
+      <c r="AQ13" s="0"/>
+      <c r="AR13" s="0"/>
+      <c r="AS13" s="0"/>
+      <c r="AT13" s="0"/>
+      <c r="AU13" s="0"/>
+      <c r="AV13" s="0"/>
+      <c r="AW13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="0"/>
+      <c r="AN14" s="0"/>
+      <c r="AO14" s="0"/>
+      <c r="AP14" s="0"/>
+      <c r="AQ14" s="0"/>
+      <c r="AR14" s="0"/>
+      <c r="AS14" s="0"/>
+      <c r="AT14" s="0"/>
+      <c r="AU14" s="0"/>
+      <c r="AV14" s="0"/>
+      <c r="AW14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P15" s="15"/>
+      <c r="R15" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="15"/>
+      <c r="AF15" s="15"/>
+      <c r="AG15" s="15"/>
+      <c r="AK15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="2"/>
+      <c r="AP15" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS15" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW15" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
+      <c r="AK17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN17" s="2"/>
+      <c r="AP17" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW17" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="M19" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="15"/>
+      <c r="AK19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR19" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW19" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R21" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="2"/>
+      <c r="AP21" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS21" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW21" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P23" s="15"/>
+      <c r="AB23" s="15"/>
+      <c r="AK23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM23" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN23" s="2"/>
+      <c r="AP23" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW23" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AK24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM24" s="0"/>
+      <c r="AN24" s="0"/>
+      <c r="AO24" s="0"/>
+      <c r="AP24" s="0"/>
+      <c r="AQ24" s="0"/>
+      <c r="AR24" s="0"/>
+      <c r="AS24" s="0"/>
+      <c r="AT24" s="0"/>
+      <c r="AU24" s="0"/>
+      <c r="AV24" s="0"/>
+      <c r="AW24" s="0"/>
+      <c r="AX24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="15"/>
+      <c r="AF25" s="15"/>
+      <c r="AG25" s="15"/>
+      <c r="AH25" s="15"/>
+      <c r="AI25" s="15"/>
+      <c r="AJ25" s="15"/>
+      <c r="AK25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM25" s="0"/>
+      <c r="AN25" s="0"/>
+      <c r="AO25" s="0"/>
+      <c r="AP25" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS25" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW25" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AK26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM26" s="0"/>
+      <c r="AN26" s="0"/>
+      <c r="AO26" s="0"/>
+      <c r="AX26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27" s="15"/>
+      <c r="R27" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="15"/>
+      <c r="AF27" s="15"/>
+      <c r="AG27" s="15"/>
+      <c r="AH27" s="15"/>
+      <c r="AI27" s="15"/>
+      <c r="AJ27" s="15"/>
+      <c r="AK27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM27" s="0"/>
+      <c r="AN27" s="0"/>
+      <c r="AP27" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS27" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW27" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM28" s="0"/>
+      <c r="AN28" s="0"/>
+      <c r="AX28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M29" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR29" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW29" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN30" s="2"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="15"/>
+      <c r="AB31" s="16"/>
+      <c r="AC31" s="15"/>
+      <c r="AD31" s="15"/>
+      <c r="AE31" s="15"/>
+      <c r="AF31" s="15"/>
+      <c r="AG31" s="15"/>
+      <c r="AH31" s="15"/>
+      <c r="AI31" s="15"/>
+      <c r="AJ31" s="15"/>
+      <c r="AK31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN31" s="2"/>
+      <c r="AR31" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU31" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW31" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN32" s="2"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R33" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="U33" s="15"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="15"/>
+      <c r="X33" s="15"/>
+      <c r="Y33" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN33" s="2"/>
+      <c r="AP33" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS33" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW33" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN34" s="2"/>
+      <c r="AO34" s="0"/>
+      <c r="AP34" s="0"/>
+      <c r="AQ34" s="0"/>
+      <c r="AR34" s="0"/>
+      <c r="AS34" s="0"/>
+      <c r="AT34" s="0"/>
+      <c r="AU34" s="0"/>
+      <c r="AV34" s="0"/>
+      <c r="AW34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="15"/>
+      <c r="AK35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL35" s="15"/>
+      <c r="AN35" s="2"/>
+      <c r="AO35" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR35" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW35" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN36" s="2"/>
+      <c r="AO36" s="0"/>
+      <c r="AP36" s="0"/>
+      <c r="AQ36" s="0"/>
+      <c r="AR36" s="0"/>
+      <c r="AS36" s="0"/>
+      <c r="AT36" s="0"/>
+      <c r="AU36" s="0"/>
+      <c r="AV36" s="0"/>
+      <c r="AW36" s="0"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN37" s="2"/>
+      <c r="AO37" s="0"/>
+      <c r="AP37" s="0"/>
+      <c r="AQ37" s="0"/>
+      <c r="AR37" s="0"/>
+      <c r="AS37" s="0"/>
+      <c r="AT37" s="0"/>
+      <c r="AU37" s="0"/>
+      <c r="AV37" s="0"/>
+      <c r="AW37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN38" s="2"/>
+      <c r="AO38" s="0"/>
+      <c r="AP38" s="0"/>
+      <c r="AQ38" s="0"/>
+      <c r="AR38" s="0"/>
+      <c r="AS38" s="0"/>
+      <c r="AT38" s="0"/>
+      <c r="AU38" s="0"/>
+      <c r="AV38" s="0"/>
+      <c r="AW38" s="0"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y39" s="15"/>
+      <c r="AK39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN39" s="2"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK40" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W41" s="15"/>
+      <c r="AI41" s="15"/>
+      <c r="AK41" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK42" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:CK43"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1275" topLeftCell="A1" activePane="bottomLeft" state="split"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="AZ39" activeCellId="0" sqref="AZ39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="33" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="45" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="57" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="69" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="76" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="77" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="78" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="79" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="80" min="80" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="81" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="84" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="85" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="86" min="86" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="2" width="3.13"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BN1" s="2"/>
+      <c r="BP1" s="2"/>
+      <c r="BS1" s="2"/>
+      <c r="BU1" s="2"/>
+      <c r="BW1" s="2"/>
+      <c r="BX1" s="2"/>
+      <c r="BZ1" s="2"/>
+      <c r="CB1" s="2"/>
+      <c r="CE1" s="2"/>
+      <c r="CG1" s="2"/>
+      <c r="CI1" s="2"/>
+      <c r="CJ1" s="2"/>
+      <c r="CK1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BG2" s="2"/>
+      <c r="BI2" s="2"/>
+      <c r="BK2" s="2"/>
+      <c r="BL2" s="2"/>
+      <c r="BN2" s="2"/>
+      <c r="BP2" s="2"/>
+      <c r="BS2" s="2"/>
+      <c r="BU2" s="2"/>
+      <c r="BW2" s="2"/>
+      <c r="BX2" s="2"/>
+      <c r="BZ2" s="2"/>
+      <c r="CB2" s="2"/>
+      <c r="CE2" s="2"/>
+      <c r="CG2" s="2"/>
+      <c r="CI2" s="2"/>
+      <c r="CJ2" s="2"/>
+      <c r="CK2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2"/>
+      <c r="BB3" s="2"/>
+      <c r="BD3" s="2"/>
+      <c r="BG3" s="2"/>
+      <c r="BI3" s="2"/>
+      <c r="BK3" s="2"/>
+      <c r="BL3" s="2"/>
+      <c r="BN3" s="2"/>
+      <c r="BP3" s="2"/>
+      <c r="BS3" s="2"/>
+      <c r="BU3" s="2"/>
+      <c r="BW3" s="2"/>
+      <c r="BX3" s="2"/>
+      <c r="BZ3" s="2"/>
+      <c r="CB3" s="2"/>
+      <c r="CE3" s="2"/>
+      <c r="CG3" s="2"/>
+      <c r="CI3" s="2"/>
+      <c r="CJ3" s="2"/>
+      <c r="CK3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BG4" s="2"/>
+      <c r="BI4" s="2"/>
+      <c r="BK4" s="2"/>
+      <c r="BL4" s="2"/>
+      <c r="BN4" s="2"/>
+      <c r="BP4" s="2"/>
+      <c r="BS4" s="2"/>
+      <c r="BU4" s="2"/>
+      <c r="BW4" s="2"/>
+      <c r="BX4" s="2"/>
+      <c r="BZ4" s="2"/>
+      <c r="CB4" s="2"/>
+      <c r="CE4" s="2"/>
+      <c r="CG4" s="2"/>
+      <c r="CI4" s="2"/>
+      <c r="CJ4" s="2"/>
+      <c r="CK4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="9"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="12"/>
+      <c r="BB5" s="12"/>
+      <c r="BC5" s="12"/>
+      <c r="BD5" s="12"/>
+      <c r="BE5" s="12"/>
+      <c r="BF5" s="12"/>
+      <c r="BG5" s="12"/>
+      <c r="BH5" s="12"/>
+      <c r="BI5" s="12"/>
+      <c r="BJ5" s="12"/>
+      <c r="BK5" s="12"/>
+      <c r="BL5" s="11"/>
+      <c r="BM5" s="9"/>
+      <c r="BN5" s="9"/>
+      <c r="BO5" s="9"/>
+      <c r="BP5" s="9"/>
+      <c r="BQ5" s="9"/>
+      <c r="BR5" s="9"/>
+      <c r="BS5" s="9"/>
+      <c r="BT5" s="9"/>
+      <c r="BU5" s="9"/>
+      <c r="BV5" s="9"/>
+      <c r="BW5" s="9"/>
+      <c r="BX5" s="10"/>
+      <c r="BY5" s="12"/>
+      <c r="BZ5" s="12"/>
+      <c r="CA5" s="12"/>
+      <c r="CB5" s="12"/>
+      <c r="CC5" s="12"/>
+      <c r="CD5" s="12"/>
+      <c r="CE5" s="12"/>
+      <c r="CF5" s="12"/>
+      <c r="CG5" s="12"/>
+      <c r="CH5" s="12"/>
+      <c r="CI5" s="12"/>
+      <c r="CJ5" s="11"/>
+      <c r="CK5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AY6" s="13"/>
+      <c r="BB6" s="13"/>
+      <c r="BD6" s="13"/>
+      <c r="BG6" s="13"/>
+      <c r="BI6" s="13"/>
+      <c r="BK6" s="13"/>
+      <c r="BN6" s="13"/>
+      <c r="BP6" s="13"/>
+      <c r="BS6" s="13"/>
+      <c r="BU6" s="13"/>
+      <c r="BW6" s="13"/>
+      <c r="BZ6" s="13"/>
+      <c r="CB6" s="13"/>
+      <c r="CE6" s="13"/>
+      <c r="CG6" s="13"/>
+      <c r="CI6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="15"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="W11" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="AG11" s="15"/>
+      <c r="AI11" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="2"/>
+      <c r="AO11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA11" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN12" s="2"/>
+      <c r="AW12" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN13" s="2"/>
+      <c r="AW13" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN14" s="2"/>
+      <c r="AW14" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P15" s="15"/>
+      <c r="U15" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="15"/>
+      <c r="AF15" s="15"/>
+      <c r="AG15" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="2"/>
+      <c r="AP15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW15" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB15" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN16" s="2"/>
+      <c r="AW16" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R17" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN17" s="2"/>
+      <c r="AW17" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN18" s="2"/>
+      <c r="AW18" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="M19" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="15"/>
+      <c r="AN19" s="2"/>
+      <c r="AR19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW19" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB19" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD19" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN20" s="2"/>
+      <c r="AW20" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN21" s="2"/>
+      <c r="AW21" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN22" s="2"/>
+      <c r="AW22" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P23" s="15"/>
+      <c r="AB23" s="15"/>
+      <c r="AN23" s="2"/>
+      <c r="AW23" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AN24" s="2"/>
+      <c r="AW24" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="15"/>
+      <c r="AF25" s="15"/>
+      <c r="AG25" s="15"/>
+      <c r="AH25" s="15"/>
+      <c r="AI25" s="15"/>
+      <c r="AJ25" s="15"/>
+      <c r="AK25" s="15"/>
+      <c r="AN25" s="2"/>
+      <c r="AR25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW25" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA25" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD25" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AN26" s="2"/>
+      <c r="AW26" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27" s="15"/>
+      <c r="R27" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="15"/>
+      <c r="AF27" s="15"/>
+      <c r="AG27" s="15"/>
+      <c r="AH27" s="15"/>
+      <c r="AI27" s="15"/>
+      <c r="AJ27" s="15"/>
+      <c r="AK27" s="15"/>
+      <c r="AN27" s="2"/>
+      <c r="AS27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW27" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD27" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE27" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN28" s="2"/>
+      <c r="AW28" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN29" s="2"/>
+      <c r="AS29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW29" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB29" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE29" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN30" s="2"/>
+      <c r="AW30" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T31" s="15"/>
+      <c r="Y31" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="15"/>
+      <c r="AB31" s="16"/>
+      <c r="AC31" s="15"/>
+      <c r="AD31" s="15"/>
+      <c r="AE31" s="15"/>
+      <c r="AF31" s="15"/>
+      <c r="AG31" s="15"/>
+      <c r="AH31" s="15"/>
+      <c r="AI31" s="15"/>
+      <c r="AJ31" s="15"/>
+      <c r="AK31" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN31" s="2"/>
+      <c r="AR31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW31" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB31" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD31" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN32" s="2"/>
+      <c r="AW32" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN33" s="2"/>
+      <c r="AR33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW33" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA33" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD33" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN34" s="2"/>
+      <c r="AW34" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15"/>
+      <c r="V35" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="15"/>
+      <c r="AH35" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL35" s="15"/>
+      <c r="AN35" s="2"/>
+      <c r="AP35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW35" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ35" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB35" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP36" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP37" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP38" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W39" s="15" t="n">
+        <v>43</v>
+      </c>
+      <c r="AI39" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK39" s="15"/>
+      <c r="AP39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW39" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX39" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB39" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP40" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W41" s="15"/>
+      <c r="AI41" s="15"/>
+      <c r="AP41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU41" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB41" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP42" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12ページ &amp;P</oddFooter>
@@ -866,7 +5289,7 @@
   <dimension ref="A1:CK135"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2835" topLeftCell="A88" activePane="bottomLeft" state="split"/>
+      <pane xSplit="0" ySplit="2835" topLeftCell="A121" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="U1" activeCellId="0" sqref="U1"/>
       <selection pane="bottomLeft" activeCell="AE9" activeCellId="0" sqref="AE9"/>
     </sheetView>
@@ -7904,10 +12327,10 @@
   </sheetPr>
   <dimension ref="A1:CK62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2595" topLeftCell="A28" activePane="bottomLeft" state="split"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="AH29" activeCellId="0" sqref="AH29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2595" topLeftCell="A7" activePane="topLeft" state="split"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8979,4 +13402,2931 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:CK251"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2595" topLeftCell="A1" activePane="bottomLeft" state="split"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="AJ13" activeCellId="0" sqref="AJ13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="33" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="45" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="57" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="69" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="76" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="77" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="78" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="79" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="80" min="80" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="81" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="84" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="85" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="86" min="86" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="2" width="3.13"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BN1" s="2"/>
+      <c r="BP1" s="2"/>
+      <c r="BS1" s="2"/>
+      <c r="BU1" s="2"/>
+      <c r="BW1" s="2"/>
+      <c r="BX1" s="2"/>
+      <c r="BZ1" s="2"/>
+      <c r="CB1" s="2"/>
+      <c r="CE1" s="2"/>
+      <c r="CG1" s="2"/>
+      <c r="CI1" s="2"/>
+      <c r="CJ1" s="2"/>
+      <c r="CK1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BG2" s="2"/>
+      <c r="BI2" s="2"/>
+      <c r="BK2" s="2"/>
+      <c r="BL2" s="2"/>
+      <c r="BN2" s="2"/>
+      <c r="BP2" s="2"/>
+      <c r="BS2" s="2"/>
+      <c r="BU2" s="2"/>
+      <c r="BW2" s="2"/>
+      <c r="BX2" s="2"/>
+      <c r="BZ2" s="2"/>
+      <c r="CB2" s="2"/>
+      <c r="CE2" s="2"/>
+      <c r="CG2" s="2"/>
+      <c r="CI2" s="2"/>
+      <c r="CJ2" s="2"/>
+      <c r="CK2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2"/>
+      <c r="BB3" s="2"/>
+      <c r="BD3" s="2"/>
+      <c r="BG3" s="2"/>
+      <c r="BI3" s="2"/>
+      <c r="BK3" s="2"/>
+      <c r="BL3" s="2"/>
+      <c r="BN3" s="2"/>
+      <c r="BP3" s="2"/>
+      <c r="BS3" s="2"/>
+      <c r="BU3" s="2"/>
+      <c r="BW3" s="2"/>
+      <c r="BX3" s="2"/>
+      <c r="BZ3" s="2"/>
+      <c r="CB3" s="2"/>
+      <c r="CE3" s="2"/>
+      <c r="CG3" s="2"/>
+      <c r="CI3" s="2"/>
+      <c r="CJ3" s="2"/>
+      <c r="CK3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BG4" s="2"/>
+      <c r="BI4" s="2"/>
+      <c r="BK4" s="2"/>
+      <c r="BL4" s="2"/>
+      <c r="BN4" s="2"/>
+      <c r="BP4" s="2"/>
+      <c r="BS4" s="2"/>
+      <c r="BU4" s="2"/>
+      <c r="BW4" s="2"/>
+      <c r="BX4" s="2"/>
+      <c r="BZ4" s="2"/>
+      <c r="CB4" s="2"/>
+      <c r="CE4" s="2"/>
+      <c r="CG4" s="2"/>
+      <c r="CI4" s="2"/>
+      <c r="CJ4" s="2"/>
+      <c r="CK4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="9"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="12"/>
+      <c r="BB5" s="12"/>
+      <c r="BC5" s="12"/>
+      <c r="BD5" s="12"/>
+      <c r="BE5" s="12"/>
+      <c r="BF5" s="12"/>
+      <c r="BG5" s="12"/>
+      <c r="BH5" s="12"/>
+      <c r="BI5" s="12"/>
+      <c r="BJ5" s="12"/>
+      <c r="BK5" s="12"/>
+      <c r="BL5" s="11"/>
+      <c r="BM5" s="9"/>
+      <c r="BN5" s="9"/>
+      <c r="BO5" s="9"/>
+      <c r="BP5" s="9"/>
+      <c r="BQ5" s="9"/>
+      <c r="BR5" s="9"/>
+      <c r="BS5" s="9"/>
+      <c r="BT5" s="9"/>
+      <c r="BU5" s="9"/>
+      <c r="BV5" s="9"/>
+      <c r="BW5" s="9"/>
+      <c r="BX5" s="10"/>
+      <c r="BY5" s="12"/>
+      <c r="BZ5" s="12"/>
+      <c r="CA5" s="12"/>
+      <c r="CB5" s="12"/>
+      <c r="CC5" s="12"/>
+      <c r="CD5" s="12"/>
+      <c r="CE5" s="12"/>
+      <c r="CF5" s="12"/>
+      <c r="CG5" s="12"/>
+      <c r="CH5" s="12"/>
+      <c r="CI5" s="12"/>
+      <c r="CJ5" s="11"/>
+      <c r="CK5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AY6" s="13"/>
+      <c r="BB6" s="13"/>
+      <c r="BD6" s="13"/>
+      <c r="BG6" s="13"/>
+      <c r="BI6" s="13"/>
+      <c r="BK6" s="13"/>
+      <c r="BN6" s="13"/>
+      <c r="BP6" s="13"/>
+      <c r="BS6" s="13"/>
+      <c r="BU6" s="13"/>
+      <c r="BW6" s="13"/>
+      <c r="BZ6" s="13"/>
+      <c r="CB6" s="13"/>
+      <c r="CE6" s="13"/>
+      <c r="CG6" s="13"/>
+      <c r="CI6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="15"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="15"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="15"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="15"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="AN11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="2" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="15"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AJ13" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC15" s="15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AX16" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="15"/>
+      <c r="AF17" s="15"/>
+      <c r="AG17" s="15"/>
+      <c r="AH17" s="15"/>
+      <c r="AI17" s="15"/>
+      <c r="AJ17" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU17" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="15"/>
+      <c r="AF18" s="15"/>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="15"/>
+      <c r="AI18" s="15"/>
+      <c r="AJ18" s="15"/>
+      <c r="AS18" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="15"/>
+      <c r="AH19" s="15"/>
+      <c r="AI19" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ19" s="15"/>
+      <c r="AQ19" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="15"/>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="15"/>
+      <c r="AJ20" s="15"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF21" s="15"/>
+      <c r="AG21" s="15"/>
+      <c r="AH21" s="15"/>
+      <c r="AI21" s="15"/>
+      <c r="AJ21" s="15"/>
+      <c r="AS21" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="15"/>
+      <c r="AF22" s="15"/>
+      <c r="AG22" s="15"/>
+      <c r="AH22" s="15"/>
+      <c r="AI22" s="15"/>
+      <c r="AJ22" s="15"/>
+      <c r="AU22" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH23" s="15"/>
+      <c r="AI23" s="15"/>
+      <c r="AJ23" s="15"/>
+      <c r="AU23" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="15"/>
+      <c r="AF24" s="15"/>
+      <c r="AG24" s="15"/>
+      <c r="AH24" s="15"/>
+      <c r="AI24" s="15"/>
+      <c r="AJ24" s="15"/>
+      <c r="AS24" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="15"/>
+      <c r="AF25" s="15"/>
+      <c r="AG25" s="15"/>
+      <c r="AH25" s="15"/>
+      <c r="AI25" s="15"/>
+      <c r="AJ25" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS25" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ27" s="4" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS29" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS30" s="15"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AL31" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS31" s="15"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA32" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AO33" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX33" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AV34" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU35" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AV37" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AX38" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AJ39" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX39" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AZ40" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AV41" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AU42" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO43" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS43" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AO44" s="15"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AU45" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AV46" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AI47" s="15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AX48" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AU49" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS50" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN51" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU51" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W55" s="15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AX56" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X57" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y57" s="15"/>
+      <c r="Z57" s="15"/>
+      <c r="AA57" s="15"/>
+      <c r="AB57" s="16"/>
+      <c r="AU57" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X58" s="15"/>
+      <c r="Y58" s="15"/>
+      <c r="Z58" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA58" s="15"/>
+      <c r="AB58" s="16"/>
+      <c r="AS58" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X59" s="15"/>
+      <c r="Y59" s="15"/>
+      <c r="Z59" s="15"/>
+      <c r="AA59" s="15"/>
+      <c r="AB59" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU59" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AZ61" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AZ65" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ67" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS69" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AL71" s="15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AX72" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BC73" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AZ74" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ75" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ75" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AX76" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE77" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV77" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AX78" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS79" s="2" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN81" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN82" s="16"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG83" s="15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE84" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ84" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AJ85" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV85" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AI86" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU86" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AG87" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS87" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN88" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AQ89" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS90" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG91" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK91" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU91" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE93" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI93" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO93" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS93" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB95" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU95" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB96" s="16"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BC97" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BE98" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX99" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ99" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG99" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AZ100" s="16"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AV101" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW101" s="15"/>
+      <c r="AX101" s="15"/>
+      <c r="AY101" s="15"/>
+      <c r="AZ101" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH101" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AV103" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW103" s="15"/>
+      <c r="AX103" s="15"/>
+      <c r="AY103" s="15"/>
+      <c r="AZ103" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BG104" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AU105" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV105" s="15"/>
+      <c r="AW105" s="15"/>
+      <c r="AX105" s="15"/>
+      <c r="AY105" s="15"/>
+      <c r="AZ105" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH105" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BJ106" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS107" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT107" s="15"/>
+      <c r="AU107" s="15"/>
+      <c r="AV107" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC107" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS109" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT109" s="15"/>
+      <c r="AU109" s="15"/>
+      <c r="AV109" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB109" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS112" s="15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN113" s="16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS114" s="15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU115" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV115" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC115" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS117" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT117" s="15"/>
+      <c r="AU117" s="15"/>
+      <c r="AV117" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE117" s="2" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS118" s="15"/>
+      <c r="AT118" s="15"/>
+      <c r="AU118" s="15"/>
+      <c r="AV118" s="15"/>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS119" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT119" s="15"/>
+      <c r="AU119" s="15"/>
+      <c r="AV119" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BC120" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AQ121" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR121" s="15"/>
+      <c r="AS121" s="15"/>
+      <c r="AT121" s="15"/>
+      <c r="AU121" s="15"/>
+      <c r="AV121" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE121" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BG122" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP123" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS123" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ123" s="4" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP125" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS125" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX125" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS126" s="15"/>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP127" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ127" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU127" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP128" s="15"/>
+      <c r="AQ128" s="15"/>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP129" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ129" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP131" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ131" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX131" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN133" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ133" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ133" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN135" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ135" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AX136" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AL137" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ137" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ137" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BB138" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP139" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU139" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AJ141" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN141" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS141" s="2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AL144" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ144" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AJ145" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK145" s="15"/>
+      <c r="AL145" s="15"/>
+      <c r="AM145" s="15"/>
+      <c r="AN145" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS145" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AL146" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM146" s="15"/>
+      <c r="AN146" s="16"/>
+      <c r="AO146" s="15"/>
+      <c r="AP146" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU146" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ147" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK147" s="15"/>
+      <c r="AL147" s="15"/>
+      <c r="AM147" s="15"/>
+      <c r="AN147" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS147" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH149" s="15"/>
+      <c r="AI149" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL149" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ149" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ155" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA155" s="15"/>
+      <c r="BB155" s="15"/>
+      <c r="BC155" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH155" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AZ157" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA157" s="15"/>
+      <c r="BB157" s="15"/>
+      <c r="BC157" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AZ159" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA159" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BJ160" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AZ161" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA161" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG161" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BE162" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU163" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV163" s="15"/>
+      <c r="AW163" s="15"/>
+      <c r="AX163" s="15"/>
+      <c r="AY163" s="15"/>
+      <c r="AZ163" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC163" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AU164" s="15"/>
+      <c r="AV164" s="15"/>
+      <c r="AW164" s="15"/>
+      <c r="AX164" s="15"/>
+      <c r="AY164" s="15"/>
+      <c r="AZ164" s="16"/>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AU165" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV165" s="15"/>
+      <c r="AW165" s="15"/>
+      <c r="AX165" s="15"/>
+      <c r="AY165" s="15"/>
+      <c r="AZ165" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE165" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BG166" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AV167" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW167" s="15"/>
+      <c r="AX167" s="15"/>
+      <c r="AY167" s="15"/>
+      <c r="AZ167" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG167" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AV168" s="1"/>
+      <c r="AW168" s="1"/>
+      <c r="AX168" s="1"/>
+      <c r="AY168" s="1"/>
+      <c r="AZ168" s="1"/>
+      <c r="BE168" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AV169" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW169" s="15"/>
+      <c r="AX169" s="15"/>
+      <c r="AY169" s="15"/>
+      <c r="AZ169" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE169" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA171" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB171" s="15"/>
+      <c r="BC171" s="15"/>
+      <c r="BD171" s="15"/>
+      <c r="BE171" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL171" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA173" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB173" s="15"/>
+      <c r="BC173" s="15"/>
+      <c r="BD173" s="15"/>
+      <c r="BE173" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA175" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB175" s="15"/>
+      <c r="BC175" s="15"/>
+      <c r="BD175" s="15"/>
+      <c r="BE175" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BM176" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA177" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB177" s="15"/>
+      <c r="BC177" s="15"/>
+      <c r="BD177" s="15"/>
+      <c r="BE177" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ177" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BH178" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA179" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB179" s="15"/>
+      <c r="BC179" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG179" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA181" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB181" s="15"/>
+      <c r="BC181" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH181" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BJ182" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AZ183" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA183" s="15"/>
+      <c r="BB183" s="15"/>
+      <c r="BC183" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BL184" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AZ185" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA185" s="15"/>
+      <c r="BB185" s="15"/>
+      <c r="BC185" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH185" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BG186" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ187" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA187" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE187" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AZ188" s="16"/>
+      <c r="BA188" s="15"/>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AZ189" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA189" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG189" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BH190" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AX191" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY191" s="15"/>
+      <c r="AZ191" s="16"/>
+      <c r="BA191" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BJ192" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AX193" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY193" s="15"/>
+      <c r="AZ193" s="16"/>
+      <c r="BA193" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG193" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BE194" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ195" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA195" s="15"/>
+      <c r="BB195" s="15"/>
+      <c r="BC195" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG195" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AZ197" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA197" s="15"/>
+      <c r="BB197" s="15"/>
+      <c r="BC197" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AZ198" s="16"/>
+      <c r="BA198" s="15"/>
+      <c r="BB198" s="15"/>
+      <c r="BC198" s="15"/>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AU199" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ199" s="16"/>
+      <c r="BA199" s="15"/>
+      <c r="BB199" s="15"/>
+      <c r="BC199" s="15"/>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BJ200" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AV201" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG201" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AX202" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE202" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ203" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG203" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BL205" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BL209" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL211" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BE213" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AX215" s="15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BJ216" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BO217" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BL218" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC219" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL219" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AQ221" s="15"/>
+      <c r="BJ221" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AQ223" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH223" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BJ225" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE227" s="2" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AZ229" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS231" s="15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AQ232" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC232" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AV233" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH233" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AU234" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG234" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS235" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ235" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE235" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN237" s="16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AG239" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH239" s="15"/>
+      <c r="AI239" s="15"/>
+      <c r="AJ239" s="15"/>
+      <c r="AK239" s="15"/>
+      <c r="AL239" s="15"/>
+      <c r="AM239" s="15"/>
+      <c r="AN239" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ239" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE239" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE241" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM241" s="15"/>
+      <c r="AN241" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC241" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X243" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE243" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH243" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO243" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="https://www.youtube.com/watch?v=YuL_BG8Ou_A"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:CK75"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1560" topLeftCell="A56" activePane="bottomLeft" state="split"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="S13" activeCellId="0" sqref="S13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="33" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="45" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="57" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="69" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="76" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="77" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="78" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="79" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="80" min="80" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="81" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="84" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="85" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="86" min="86" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="2" width="3.13"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BN1" s="2"/>
+      <c r="BP1" s="2"/>
+      <c r="BS1" s="2"/>
+      <c r="BU1" s="2"/>
+      <c r="BW1" s="2"/>
+      <c r="BX1" s="2"/>
+      <c r="BZ1" s="2"/>
+      <c r="CB1" s="2"/>
+      <c r="CE1" s="2"/>
+      <c r="CG1" s="2"/>
+      <c r="CI1" s="2"/>
+      <c r="CJ1" s="2"/>
+      <c r="CK1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BG2" s="2"/>
+      <c r="BI2" s="2"/>
+      <c r="BK2" s="2"/>
+      <c r="BL2" s="2"/>
+      <c r="BN2" s="2"/>
+      <c r="BP2" s="2"/>
+      <c r="BS2" s="2"/>
+      <c r="BU2" s="2"/>
+      <c r="BW2" s="2"/>
+      <c r="BX2" s="2"/>
+      <c r="BZ2" s="2"/>
+      <c r="CB2" s="2"/>
+      <c r="CE2" s="2"/>
+      <c r="CG2" s="2"/>
+      <c r="CI2" s="2"/>
+      <c r="CJ2" s="2"/>
+      <c r="CK2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2"/>
+      <c r="BB3" s="2"/>
+      <c r="BD3" s="2"/>
+      <c r="BG3" s="2"/>
+      <c r="BI3" s="2"/>
+      <c r="BK3" s="2"/>
+      <c r="BL3" s="2"/>
+      <c r="BN3" s="2"/>
+      <c r="BP3" s="2"/>
+      <c r="BS3" s="2"/>
+      <c r="BU3" s="2"/>
+      <c r="BW3" s="2"/>
+      <c r="BX3" s="2"/>
+      <c r="BZ3" s="2"/>
+      <c r="CB3" s="2"/>
+      <c r="CE3" s="2"/>
+      <c r="CG3" s="2"/>
+      <c r="CI3" s="2"/>
+      <c r="CJ3" s="2"/>
+      <c r="CK3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BG4" s="2"/>
+      <c r="BI4" s="2"/>
+      <c r="BK4" s="2"/>
+      <c r="BL4" s="2"/>
+      <c r="BN4" s="2"/>
+      <c r="BP4" s="2"/>
+      <c r="BS4" s="2"/>
+      <c r="BU4" s="2"/>
+      <c r="BW4" s="2"/>
+      <c r="BX4" s="2"/>
+      <c r="BZ4" s="2"/>
+      <c r="CB4" s="2"/>
+      <c r="CE4" s="2"/>
+      <c r="CG4" s="2"/>
+      <c r="CI4" s="2"/>
+      <c r="CJ4" s="2"/>
+      <c r="CK4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="9"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="12"/>
+      <c r="BB5" s="12"/>
+      <c r="BC5" s="12"/>
+      <c r="BD5" s="12"/>
+      <c r="BE5" s="12"/>
+      <c r="BF5" s="12"/>
+      <c r="BG5" s="12"/>
+      <c r="BH5" s="12"/>
+      <c r="BI5" s="12"/>
+      <c r="BJ5" s="12"/>
+      <c r="BK5" s="12"/>
+      <c r="BL5" s="11"/>
+      <c r="BM5" s="9"/>
+      <c r="BN5" s="9"/>
+      <c r="BO5" s="9"/>
+      <c r="BP5" s="9"/>
+      <c r="BQ5" s="9"/>
+      <c r="BR5" s="9"/>
+      <c r="BS5" s="9"/>
+      <c r="BT5" s="9"/>
+      <c r="BU5" s="9"/>
+      <c r="BV5" s="9"/>
+      <c r="BW5" s="9"/>
+      <c r="BX5" s="10"/>
+      <c r="BY5" s="12"/>
+      <c r="BZ5" s="12"/>
+      <c r="CA5" s="12"/>
+      <c r="CB5" s="12"/>
+      <c r="CC5" s="12"/>
+      <c r="CD5" s="12"/>
+      <c r="CE5" s="12"/>
+      <c r="CF5" s="12"/>
+      <c r="CG5" s="12"/>
+      <c r="CH5" s="12"/>
+      <c r="CI5" s="12"/>
+      <c r="CJ5" s="11"/>
+      <c r="CK5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AY6" s="13"/>
+      <c r="BB6" s="13"/>
+      <c r="BD6" s="13"/>
+      <c r="BG6" s="13"/>
+      <c r="BI6" s="13"/>
+      <c r="BK6" s="13"/>
+      <c r="BN6" s="13"/>
+      <c r="BP6" s="13"/>
+      <c r="BS6" s="13"/>
+      <c r="BU6" s="13"/>
+      <c r="BW6" s="13"/>
+      <c r="BZ6" s="13"/>
+      <c r="CB6" s="13"/>
+      <c r="CE6" s="13"/>
+      <c r="CG6" s="13"/>
+      <c r="CI6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="15"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R11" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y11" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK11" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN11" s="15"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK12" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S13" s="15"/>
+      <c r="T13" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y13" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK13" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK14" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U15" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD15" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK16" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T17" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC17" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK18" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T19" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y19" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK19" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK20" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U21" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK21" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK22" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W23" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF23" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK23" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD24" s="15"/>
+      <c r="AK24" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U25" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD25" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK26" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U27" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD27" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK27" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK28" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W29" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF29" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK30" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD31" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG31" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK31" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK32" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y33" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF33" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK33" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK34" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF35" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK35" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK36" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK37" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK38" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK39" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK40" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK41" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK42" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK43" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK44" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD45" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG45" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK45" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK46" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y47" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF47" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK47" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK48" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U49" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD49" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK49" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK50" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF51" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK51" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK52" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U53" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD53" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK53" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK54" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T55" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC55" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK55" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK56" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R57" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD57" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK57" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK58" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T59" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC59" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK59" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK60" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U61" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD61" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK61" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK62" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T63" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF63" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK63" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK64" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R65" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG65" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK65" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK66" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF67" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK67" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK68" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW68" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK69" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW69" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK70" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW70" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK71" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW71" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK72" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW72" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK73" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW73" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK74" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW74" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/resources/mpn.xlsx
+++ b/resources/mpn.xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="blank" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="canon1" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="prelude15_1" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="pathetique2_10" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="kiki_1" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="pathetique2_10" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="prelude15_1" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="prelude15_2" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="prelude15_3" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="pavane" sheetId="8" state="visible" r:id="rId9"/>
@@ -22,6 +22,8 @@
     <sheet name="prelude15_8" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="prelude15_9" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="prelude15_10" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="prelude15_11" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="prelude15_12" sheetId="16" state="visible" r:id="rId17"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="32">
   <si>
     <t xml:space="preserve">bt</t>
   </si>
@@ -47,10 +49,10 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">雨だれ Lesson1</t>
+    <t xml:space="preserve">ベートーヴェン - ピアノソナタ第8番「悲愴」 第二楽章 Lesson10</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=oqoPJcpt_v0</t>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=J3GmiOv_4xg</t>
   </si>
   <si>
     <t xml:space="preserve">海の見える街 Lesson1</t>
@@ -59,10 +61,10 @@
     <t xml:space="preserve">https://www.youtube.com/watch?v=PU5QzclYzRI</t>
   </si>
   <si>
-    <t xml:space="preserve">ベートーヴェン - ピアノソナタ第8番「悲愴」 第二楽章 Lesson10</t>
+    <t xml:space="preserve">雨だれ Lesson1</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=J3GmiOv_4xg</t>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=oqoPJcpt_v0</t>
   </si>
   <si>
     <t xml:space="preserve">雨だれ Lesson2</t>
@@ -117,6 +119,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=t6ue19Fu7iU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雨だれ Lesson11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=bsJ4VH8NtPU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雨だれ Lesson12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=BNsYPKp7lx4</t>
   </si>
 </sst>
 </file>
@@ -287,7 +301,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -394,6 +408,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3865,33 +3887,33 @@
       <c r="AK13" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AM13" s="0"/>
-      <c r="AN13" s="0"/>
-      <c r="AO13" s="0"/>
-      <c r="AP13" s="0"/>
-      <c r="AQ13" s="0"/>
-      <c r="AR13" s="0"/>
-      <c r="AS13" s="0"/>
-      <c r="AT13" s="0"/>
-      <c r="AU13" s="0"/>
-      <c r="AV13" s="0"/>
-      <c r="AW13" s="0"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1"/>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK14" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AM14" s="0"/>
-      <c r="AN14" s="0"/>
-      <c r="AO14" s="0"/>
-      <c r="AP14" s="0"/>
-      <c r="AQ14" s="0"/>
-      <c r="AR14" s="0"/>
-      <c r="AS14" s="0"/>
-      <c r="AT14" s="0"/>
-      <c r="AU14" s="0"/>
-      <c r="AV14" s="0"/>
-      <c r="AW14" s="0"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P15" s="15"/>
@@ -4057,7 +4079,7 @@
       <c r="AW23" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AX23" s="0"/>
+      <c r="AX23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P24" s="15"/>
@@ -4065,18 +4087,18 @@
       <c r="AK24" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AM24" s="0"/>
-      <c r="AN24" s="0"/>
-      <c r="AO24" s="0"/>
-      <c r="AP24" s="0"/>
-      <c r="AQ24" s="0"/>
-      <c r="AR24" s="0"/>
-      <c r="AS24" s="0"/>
-      <c r="AT24" s="0"/>
-      <c r="AU24" s="0"/>
-      <c r="AV24" s="0"/>
-      <c r="AW24" s="0"/>
-      <c r="AX24" s="0"/>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="1"/>
+      <c r="AO24" s="1"/>
+      <c r="AP24" s="1"/>
+      <c r="AQ24" s="1"/>
+      <c r="AR24" s="1"/>
+      <c r="AS24" s="1"/>
+      <c r="AT24" s="1"/>
+      <c r="AU24" s="1"/>
+      <c r="AV24" s="1"/>
+      <c r="AW24" s="1"/>
+      <c r="AX24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="Y25" s="15"/>
@@ -4094,9 +4116,9 @@
       <c r="AK25" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AM25" s="0"/>
-      <c r="AN25" s="0"/>
-      <c r="AO25" s="0"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="1"/>
       <c r="AP25" s="3" t="n">
         <v>2</v>
       </c>
@@ -4106,7 +4128,7 @@
       <c r="AW25" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AX25" s="0"/>
+      <c r="AX25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O26" s="15"/>
@@ -4114,10 +4136,10 @@
       <c r="AK26" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AM26" s="0"/>
-      <c r="AN26" s="0"/>
-      <c r="AO26" s="0"/>
-      <c r="AX26" s="0"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
+      <c r="AX26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
@@ -4144,8 +4166,8 @@
       <c r="AK27" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AM27" s="0"/>
-      <c r="AN27" s="0"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1"/>
       <c r="AP27" s="3" t="n">
         <v>2</v>
       </c>
@@ -4155,15 +4177,15 @@
       <c r="AW27" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AX27" s="0"/>
+      <c r="AX27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK28" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AM28" s="0"/>
-      <c r="AN28" s="0"/>
-      <c r="AX28" s="0"/>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="1"/>
+      <c r="AX28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M29" s="15" t="n">
@@ -4267,15 +4289,15 @@
         <v>1</v>
       </c>
       <c r="AN34" s="2"/>
-      <c r="AO34" s="0"/>
-      <c r="AP34" s="0"/>
-      <c r="AQ34" s="0"/>
-      <c r="AR34" s="0"/>
-      <c r="AS34" s="0"/>
-      <c r="AT34" s="0"/>
-      <c r="AU34" s="0"/>
-      <c r="AV34" s="0"/>
-      <c r="AW34" s="0"/>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="1"/>
+      <c r="AT34" s="1"/>
+      <c r="AU34" s="1"/>
+      <c r="AV34" s="1"/>
+      <c r="AW34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
@@ -4319,45 +4341,45 @@
         <v>1</v>
       </c>
       <c r="AN36" s="2"/>
-      <c r="AO36" s="0"/>
-      <c r="AP36" s="0"/>
-      <c r="AQ36" s="0"/>
-      <c r="AR36" s="0"/>
-      <c r="AS36" s="0"/>
-      <c r="AT36" s="0"/>
-      <c r="AU36" s="0"/>
-      <c r="AV36" s="0"/>
-      <c r="AW36" s="0"/>
+      <c r="AO36" s="1"/>
+      <c r="AP36" s="1"/>
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="1"/>
+      <c r="AT36" s="1"/>
+      <c r="AU36" s="1"/>
+      <c r="AV36" s="1"/>
+      <c r="AW36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK37" s="3" t="n">
         <v>1</v>
       </c>
       <c r="AN37" s="2"/>
-      <c r="AO37" s="0"/>
-      <c r="AP37" s="0"/>
-      <c r="AQ37" s="0"/>
-      <c r="AR37" s="0"/>
-      <c r="AS37" s="0"/>
-      <c r="AT37" s="0"/>
-      <c r="AU37" s="0"/>
-      <c r="AV37" s="0"/>
-      <c r="AW37" s="0"/>
+      <c r="AO37" s="1"/>
+      <c r="AP37" s="1"/>
+      <c r="AQ37" s="1"/>
+      <c r="AR37" s="1"/>
+      <c r="AS37" s="1"/>
+      <c r="AT37" s="1"/>
+      <c r="AU37" s="1"/>
+      <c r="AV37" s="1"/>
+      <c r="AW37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK38" s="3" t="n">
         <v>1</v>
       </c>
       <c r="AN38" s="2"/>
-      <c r="AO38" s="0"/>
-      <c r="AP38" s="0"/>
-      <c r="AQ38" s="0"/>
-      <c r="AR38" s="0"/>
-      <c r="AS38" s="0"/>
-      <c r="AT38" s="0"/>
-      <c r="AU38" s="0"/>
-      <c r="AV38" s="0"/>
-      <c r="AW38" s="0"/>
+      <c r="AO38" s="1"/>
+      <c r="AP38" s="1"/>
+      <c r="AQ38" s="1"/>
+      <c r="AR38" s="1"/>
+      <c r="AS38" s="1"/>
+      <c r="AT38" s="1"/>
+      <c r="AU38" s="1"/>
+      <c r="AV38" s="1"/>
+      <c r="AW38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="Y39" s="15"/>
@@ -4406,7 +4428,7 @@
   </sheetPr>
   <dimension ref="A1:CK43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1275" topLeftCell="A1" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="AZ39" activeCellId="0" sqref="AZ39"/>
@@ -5271,6 +5293,2933 @@
       </c>
     </row>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:CK43"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1275" topLeftCell="A1" activePane="bottomLeft" state="split"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="AT46" activeCellId="0" sqref="AT46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="33" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="45" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="57" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="69" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="76" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="77" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="78" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="79" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="80" min="80" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="81" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="84" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="85" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="86" min="86" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="2" width="3.13"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BN1" s="2"/>
+      <c r="BP1" s="2"/>
+      <c r="BS1" s="2"/>
+      <c r="BU1" s="2"/>
+      <c r="BW1" s="2"/>
+      <c r="BX1" s="2"/>
+      <c r="BZ1" s="2"/>
+      <c r="CB1" s="2"/>
+      <c r="CE1" s="2"/>
+      <c r="CG1" s="2"/>
+      <c r="CI1" s="2"/>
+      <c r="CJ1" s="2"/>
+      <c r="CK1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BG2" s="2"/>
+      <c r="BI2" s="2"/>
+      <c r="BK2" s="2"/>
+      <c r="BL2" s="2"/>
+      <c r="BN2" s="2"/>
+      <c r="BP2" s="2"/>
+      <c r="BS2" s="2"/>
+      <c r="BU2" s="2"/>
+      <c r="BW2" s="2"/>
+      <c r="BX2" s="2"/>
+      <c r="BZ2" s="2"/>
+      <c r="CB2" s="2"/>
+      <c r="CE2" s="2"/>
+      <c r="CG2" s="2"/>
+      <c r="CI2" s="2"/>
+      <c r="CJ2" s="2"/>
+      <c r="CK2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2"/>
+      <c r="BB3" s="2"/>
+      <c r="BD3" s="2"/>
+      <c r="BG3" s="2"/>
+      <c r="BI3" s="2"/>
+      <c r="BK3" s="2"/>
+      <c r="BL3" s="2"/>
+      <c r="BN3" s="2"/>
+      <c r="BP3" s="2"/>
+      <c r="BS3" s="2"/>
+      <c r="BU3" s="2"/>
+      <c r="BW3" s="2"/>
+      <c r="BX3" s="2"/>
+      <c r="BZ3" s="2"/>
+      <c r="CB3" s="2"/>
+      <c r="CE3" s="2"/>
+      <c r="CG3" s="2"/>
+      <c r="CI3" s="2"/>
+      <c r="CJ3" s="2"/>
+      <c r="CK3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BG4" s="2"/>
+      <c r="BI4" s="2"/>
+      <c r="BK4" s="2"/>
+      <c r="BL4" s="2"/>
+      <c r="BN4" s="2"/>
+      <c r="BP4" s="2"/>
+      <c r="BS4" s="2"/>
+      <c r="BU4" s="2"/>
+      <c r="BW4" s="2"/>
+      <c r="BX4" s="2"/>
+      <c r="BZ4" s="2"/>
+      <c r="CB4" s="2"/>
+      <c r="CE4" s="2"/>
+      <c r="CG4" s="2"/>
+      <c r="CI4" s="2"/>
+      <c r="CJ4" s="2"/>
+      <c r="CK4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="9"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="12"/>
+      <c r="BB5" s="12"/>
+      <c r="BC5" s="12"/>
+      <c r="BD5" s="12"/>
+      <c r="BE5" s="12"/>
+      <c r="BF5" s="12"/>
+      <c r="BG5" s="12"/>
+      <c r="BH5" s="12"/>
+      <c r="BI5" s="12"/>
+      <c r="BJ5" s="12"/>
+      <c r="BK5" s="12"/>
+      <c r="BL5" s="11"/>
+      <c r="BM5" s="9"/>
+      <c r="BN5" s="9"/>
+      <c r="BO5" s="9"/>
+      <c r="BP5" s="9"/>
+      <c r="BQ5" s="9"/>
+      <c r="BR5" s="9"/>
+      <c r="BS5" s="9"/>
+      <c r="BT5" s="9"/>
+      <c r="BU5" s="9"/>
+      <c r="BV5" s="9"/>
+      <c r="BW5" s="9"/>
+      <c r="BX5" s="10"/>
+      <c r="BY5" s="12"/>
+      <c r="BZ5" s="12"/>
+      <c r="CA5" s="12"/>
+      <c r="CB5" s="12"/>
+      <c r="CC5" s="12"/>
+      <c r="CD5" s="12"/>
+      <c r="CE5" s="12"/>
+      <c r="CF5" s="12"/>
+      <c r="CG5" s="12"/>
+      <c r="CH5" s="12"/>
+      <c r="CI5" s="12"/>
+      <c r="CJ5" s="11"/>
+      <c r="CK5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AY6" s="13"/>
+      <c r="BB6" s="13"/>
+      <c r="BD6" s="13"/>
+      <c r="BG6" s="13"/>
+      <c r="BI6" s="13"/>
+      <c r="BK6" s="13"/>
+      <c r="BN6" s="13"/>
+      <c r="BP6" s="13"/>
+      <c r="BS6" s="13"/>
+      <c r="BU6" s="13"/>
+      <c r="BW6" s="13"/>
+      <c r="BZ6" s="13"/>
+      <c r="CB6" s="13"/>
+      <c r="CE6" s="13"/>
+      <c r="CG6" s="13"/>
+      <c r="CI6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="15"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="Q11" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="U11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="AC11" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="15"/>
+      <c r="AI11" s="15"/>
+      <c r="AK11" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="2"/>
+      <c r="AR11" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU11" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW11" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="0"/>
+      <c r="AP13" s="0"/>
+      <c r="AQ13" s="0"/>
+      <c r="AR13" s="0"/>
+      <c r="AS13" s="0"/>
+      <c r="AT13" s="0"/>
+      <c r="AU13" s="0"/>
+      <c r="AV13" s="0"/>
+      <c r="AW13" s="0"/>
+      <c r="AX13" s="0"/>
+      <c r="AY13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="0"/>
+      <c r="AP14" s="0"/>
+      <c r="AQ14" s="0"/>
+      <c r="AR14" s="0"/>
+      <c r="AS14" s="0"/>
+      <c r="AT14" s="0"/>
+      <c r="AU14" s="0"/>
+      <c r="AV14" s="0"/>
+      <c r="AW14" s="0"/>
+      <c r="AX14" s="0"/>
+      <c r="AY14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P15" s="15"/>
+      <c r="R15" s="15" t="n">
+        <v>43</v>
+      </c>
+      <c r="S15" s="3"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="15"/>
+      <c r="AF15" s="15"/>
+      <c r="AG15" s="15"/>
+      <c r="AK15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="2"/>
+      <c r="AP15" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR15" s="2"/>
+      <c r="AU15" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW15" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="2"/>
+      <c r="AP16" s="2"/>
+      <c r="AR16" s="2"/>
+      <c r="AU16" s="2"/>
+      <c r="AW16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
+      <c r="AK17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN17" s="2"/>
+      <c r="AP17" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS17" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW17" s="0"/>
+      <c r="AY17" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="M19" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="15"/>
+      <c r="AK19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="2"/>
+      <c r="AP19" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS19" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW19" s="0"/>
+      <c r="AY19" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="AK21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="0"/>
+      <c r="AP21" s="0"/>
+      <c r="AQ21" s="0"/>
+      <c r="AR21" s="0"/>
+      <c r="AS21" s="0"/>
+      <c r="AT21" s="0"/>
+      <c r="AU21" s="0"/>
+      <c r="AV21" s="0"/>
+      <c r="AW21" s="0"/>
+      <c r="AX21" s="0"/>
+      <c r="AY21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="0"/>
+      <c r="AP22" s="0"/>
+      <c r="AQ22" s="0"/>
+      <c r="AR22" s="0"/>
+      <c r="AS22" s="0"/>
+      <c r="AT22" s="0"/>
+      <c r="AU22" s="0"/>
+      <c r="AV22" s="0"/>
+      <c r="AW22" s="0"/>
+      <c r="AX22" s="0"/>
+      <c r="AY22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P23" s="15"/>
+      <c r="AB23" s="15"/>
+      <c r="AK23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR23" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW23" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AK24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R25" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y25" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="15"/>
+      <c r="AF25" s="15"/>
+      <c r="AG25" s="15"/>
+      <c r="AH25" s="15"/>
+      <c r="AI25" s="15"/>
+      <c r="AJ25" s="15"/>
+      <c r="AK25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AP25" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS25" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW25" s="0"/>
+      <c r="AY25" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AK26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="15"/>
+      <c r="AF27" s="15"/>
+      <c r="AG27" s="15"/>
+      <c r="AH27" s="15"/>
+      <c r="AI27" s="15"/>
+      <c r="AJ27" s="15"/>
+      <c r="AK27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM27" s="2"/>
+      <c r="AN27" s="2"/>
+      <c r="AP27" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS27" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW27" s="0"/>
+      <c r="AY27" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM28" s="2"/>
+      <c r="AN28" s="2"/>
+      <c r="AP28" s="2"/>
+      <c r="AR28" s="2"/>
+      <c r="AU28" s="2"/>
+      <c r="AW28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15"/>
+      <c r="AK29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN30" s="2"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="15"/>
+      <c r="AB31" s="16"/>
+      <c r="AC31" s="15"/>
+      <c r="AD31" s="15"/>
+      <c r="AE31" s="15"/>
+      <c r="AF31" s="15"/>
+      <c r="AG31" s="15"/>
+      <c r="AH31" s="15"/>
+      <c r="AI31" s="15"/>
+      <c r="AJ31" s="15"/>
+      <c r="AK31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN31" s="2"/>
+      <c r="AO31" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR31" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW31" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN32" s="2"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R33" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y33" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN33" s="2"/>
+      <c r="AP33" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS33" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW33" s="0"/>
+      <c r="AY33" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN34" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="15"/>
+      <c r="AK35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL35" s="15"/>
+      <c r="AN35" s="2"/>
+      <c r="AP35" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS35" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW35" s="0"/>
+      <c r="AY35" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN36" s="2"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y37" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN37" s="2"/>
+      <c r="AO37" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR37" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW37" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN38" s="2"/>
+      <c r="AP38" s="2"/>
+      <c r="AR38" s="2"/>
+      <c r="AU38" s="2"/>
+      <c r="AW38" s="2"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y39" s="15"/>
+      <c r="AK39" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN39" s="2"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH40" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK40" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W41" s="15"/>
+      <c r="AI41" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK41" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AF42" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK42" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:CK128"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1245" topLeftCell="A100" activePane="bottomLeft" state="split"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="P124" activeCellId="0" sqref="P124"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="33" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="45" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="57" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="69" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="76" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="77" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="78" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="79" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="80" min="80" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="81" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="84" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="85" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="86" min="86" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="2" width="3.13"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BN1" s="2"/>
+      <c r="BP1" s="2"/>
+      <c r="BS1" s="2"/>
+      <c r="BU1" s="2"/>
+      <c r="BW1" s="2"/>
+      <c r="BX1" s="2"/>
+      <c r="BZ1" s="2"/>
+      <c r="CB1" s="2"/>
+      <c r="CE1" s="2"/>
+      <c r="CG1" s="2"/>
+      <c r="CI1" s="2"/>
+      <c r="CJ1" s="2"/>
+      <c r="CK1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BG2" s="2"/>
+      <c r="BI2" s="2"/>
+      <c r="BK2" s="2"/>
+      <c r="BL2" s="2"/>
+      <c r="BN2" s="2"/>
+      <c r="BP2" s="2"/>
+      <c r="BS2" s="2"/>
+      <c r="BU2" s="2"/>
+      <c r="BW2" s="2"/>
+      <c r="BX2" s="2"/>
+      <c r="BZ2" s="2"/>
+      <c r="CB2" s="2"/>
+      <c r="CE2" s="2"/>
+      <c r="CG2" s="2"/>
+      <c r="CI2" s="2"/>
+      <c r="CJ2" s="2"/>
+      <c r="CK2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2"/>
+      <c r="BB3" s="2"/>
+      <c r="BD3" s="2"/>
+      <c r="BG3" s="2"/>
+      <c r="BI3" s="2"/>
+      <c r="BK3" s="2"/>
+      <c r="BL3" s="2"/>
+      <c r="BN3" s="2"/>
+      <c r="BP3" s="2"/>
+      <c r="BS3" s="2"/>
+      <c r="BU3" s="2"/>
+      <c r="BW3" s="2"/>
+      <c r="BX3" s="2"/>
+      <c r="BZ3" s="2"/>
+      <c r="CB3" s="2"/>
+      <c r="CE3" s="2"/>
+      <c r="CG3" s="2"/>
+      <c r="CI3" s="2"/>
+      <c r="CJ3" s="2"/>
+      <c r="CK3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BG4" s="2"/>
+      <c r="BI4" s="2"/>
+      <c r="BK4" s="2"/>
+      <c r="BL4" s="2"/>
+      <c r="BN4" s="2"/>
+      <c r="BP4" s="2"/>
+      <c r="BS4" s="2"/>
+      <c r="BU4" s="2"/>
+      <c r="BW4" s="2"/>
+      <c r="BX4" s="2"/>
+      <c r="BZ4" s="2"/>
+      <c r="CB4" s="2"/>
+      <c r="CE4" s="2"/>
+      <c r="CG4" s="2"/>
+      <c r="CI4" s="2"/>
+      <c r="CJ4" s="2"/>
+      <c r="CK4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="9"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="12"/>
+      <c r="BB5" s="12"/>
+      <c r="BC5" s="12"/>
+      <c r="BD5" s="12"/>
+      <c r="BE5" s="12"/>
+      <c r="BF5" s="12"/>
+      <c r="BG5" s="12"/>
+      <c r="BH5" s="12"/>
+      <c r="BI5" s="12"/>
+      <c r="BJ5" s="12"/>
+      <c r="BK5" s="12"/>
+      <c r="BL5" s="11"/>
+      <c r="BM5" s="9"/>
+      <c r="BN5" s="9"/>
+      <c r="BO5" s="9"/>
+      <c r="BP5" s="9"/>
+      <c r="BQ5" s="9"/>
+      <c r="BR5" s="9"/>
+      <c r="BS5" s="9"/>
+      <c r="BT5" s="9"/>
+      <c r="BU5" s="9"/>
+      <c r="BV5" s="9"/>
+      <c r="BW5" s="9"/>
+      <c r="BX5" s="10"/>
+      <c r="BY5" s="12"/>
+      <c r="BZ5" s="12"/>
+      <c r="CA5" s="12"/>
+      <c r="CB5" s="12"/>
+      <c r="CC5" s="12"/>
+      <c r="CD5" s="12"/>
+      <c r="CE5" s="12"/>
+      <c r="CF5" s="12"/>
+      <c r="CG5" s="12"/>
+      <c r="CH5" s="12"/>
+      <c r="CI5" s="12"/>
+      <c r="CJ5" s="11"/>
+      <c r="CK5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AY6" s="13"/>
+      <c r="BB6" s="13"/>
+      <c r="BD6" s="13"/>
+      <c r="BG6" s="13"/>
+      <c r="BI6" s="13"/>
+      <c r="BK6" s="13"/>
+      <c r="BN6" s="13"/>
+      <c r="BP6" s="13"/>
+      <c r="BS6" s="13"/>
+      <c r="BU6" s="13"/>
+      <c r="BW6" s="13"/>
+      <c r="BZ6" s="13"/>
+      <c r="CB6" s="13"/>
+      <c r="CE6" s="13"/>
+      <c r="CG6" s="13"/>
+      <c r="CI6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="15"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD8" s="15"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD9" s="15"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD10" s="15"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="M11" s="0"/>
+      <c r="N11" s="0"/>
+      <c r="O11" s="0"/>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
+      <c r="S11" s="0"/>
+      <c r="T11" s="0"/>
+      <c r="U11" s="0"/>
+      <c r="V11" s="0"/>
+      <c r="W11" s="0"/>
+      <c r="X11" s="0"/>
+      <c r="Y11" s="0"/>
+      <c r="Z11" s="0"/>
+      <c r="AA11" s="0"/>
+      <c r="AB11" s="0"/>
+      <c r="AC11" s="0"/>
+      <c r="AD11" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF11" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG11" s="0"/>
+      <c r="BH11" s="0"/>
+      <c r="BI11" s="0"/>
+      <c r="BJ11" s="0"/>
+      <c r="BK11" s="0"/>
+      <c r="BL11" s="0"/>
+      <c r="BM11" s="0"/>
+      <c r="BN11" s="0"/>
+      <c r="BO11" s="0"/>
+      <c r="BP11" s="0"/>
+      <c r="BQ11" s="0"/>
+      <c r="BR11" s="0"/>
+      <c r="BS11" s="0"/>
+      <c r="BT11" s="0"/>
+      <c r="BU11" s="0"/>
+      <c r="BV11" s="0"/>
+      <c r="BW11" s="0"/>
+      <c r="BX11" s="0"/>
+      <c r="BY11" s="0"/>
+      <c r="BZ11" s="0"/>
+      <c r="CA11" s="0"/>
+      <c r="CB11" s="0"/>
+      <c r="CC11" s="0"/>
+      <c r="CD11" s="0"/>
+      <c r="CE11" s="0"/>
+      <c r="CF11" s="0"/>
+      <c r="CG11" s="0"/>
+      <c r="CH11" s="0"/>
+      <c r="CI11" s="0"/>
+      <c r="CJ11" s="0"/>
+      <c r="CK11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK12" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
+      <c r="AZ12" s="1"/>
+      <c r="BA12" s="1"/>
+      <c r="BB12" s="1"/>
+      <c r="BC12" s="1"/>
+      <c r="BD12" s="1"/>
+      <c r="BE12" s="1"/>
+      <c r="BF12" s="1"/>
+      <c r="BG12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="BB13" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP14" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT14" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW14" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK15" s="15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK16" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY16" s="1"/>
+      <c r="AZ16" s="1"/>
+      <c r="BA16" s="1"/>
+      <c r="BB16" s="1"/>
+      <c r="BC16" s="1"/>
+      <c r="BD16" s="1"/>
+      <c r="BE16" s="1"/>
+      <c r="BF16" s="1"/>
+      <c r="BG16" s="1"/>
+      <c r="BH16" s="1"/>
+      <c r="BI16" s="1"/>
+      <c r="BJ16" s="1"/>
+      <c r="BK16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK17" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY17" s="1"/>
+      <c r="AZ17" s="1"/>
+      <c r="BA17" s="1"/>
+      <c r="BB17" s="1"/>
+      <c r="BC17" s="1"/>
+      <c r="BD17" s="1"/>
+      <c r="BE17" s="1"/>
+      <c r="BF17" s="1"/>
+      <c r="BG17" s="1"/>
+      <c r="BH17" s="1"/>
+      <c r="BI17" s="1"/>
+      <c r="BJ17" s="1"/>
+      <c r="BK17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP18" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT18" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY18" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK19" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA19" s="1"/>
+      <c r="BB19" s="1"/>
+      <c r="BC19" s="1"/>
+      <c r="BD19" s="1"/>
+      <c r="BE19" s="1"/>
+      <c r="BF19" s="1"/>
+      <c r="BG19" s="1"/>
+      <c r="BH19" s="1"/>
+      <c r="BI19" s="1"/>
+      <c r="BJ19" s="1"/>
+      <c r="BK19" s="1"/>
+      <c r="BL19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU20" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA20" s="2" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK21" s="15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK22" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA22" s="1"/>
+      <c r="BB22" s="1"/>
+      <c r="BC22" s="1"/>
+      <c r="BD22" s="1"/>
+      <c r="BE22" s="1"/>
+      <c r="BF22" s="1"/>
+      <c r="BG22" s="1"/>
+      <c r="BH22" s="1"/>
+      <c r="BI22" s="1"/>
+      <c r="BJ22" s="1"/>
+      <c r="BK22" s="1"/>
+      <c r="BL22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK23" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA23" s="1"/>
+      <c r="BB23" s="1"/>
+      <c r="BC23" s="1"/>
+      <c r="BD23" s="1"/>
+      <c r="BE23" s="1"/>
+      <c r="BF23" s="1"/>
+      <c r="BG23" s="1"/>
+      <c r="BH23" s="1"/>
+      <c r="BI23" s="1"/>
+      <c r="BJ23" s="1"/>
+      <c r="BK23" s="1"/>
+      <c r="BL23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AM24" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA24" s="1"/>
+      <c r="BB24" s="1"/>
+      <c r="BC24" s="1"/>
+      <c r="BD24" s="1"/>
+      <c r="BE24" s="1"/>
+      <c r="BF24" s="1"/>
+      <c r="BG24" s="1"/>
+      <c r="BH24" s="1"/>
+      <c r="BI24" s="1"/>
+      <c r="BJ24" s="1"/>
+      <c r="BK24" s="1"/>
+      <c r="BL24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK25" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA25" s="1"/>
+      <c r="BB25" s="1"/>
+      <c r="BC25" s="1"/>
+      <c r="BD25" s="1"/>
+      <c r="BE25" s="1"/>
+      <c r="BF25" s="1"/>
+      <c r="BG25" s="1"/>
+      <c r="BH25" s="1"/>
+      <c r="BI25" s="1"/>
+      <c r="BJ25" s="1"/>
+      <c r="BK25" s="1"/>
+      <c r="BL25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP26" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT26" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB26" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK27" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA27" s="1"/>
+      <c r="BB27" s="1"/>
+      <c r="BC27" s="1"/>
+      <c r="BD27" s="1"/>
+      <c r="BE27" s="1"/>
+      <c r="BF27" s="1"/>
+      <c r="BG27" s="1"/>
+      <c r="BH27" s="1"/>
+      <c r="BI27" s="1"/>
+      <c r="BJ27" s="1"/>
+      <c r="BK27" s="1"/>
+      <c r="BL27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU28" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD28" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK29" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA29" s="1"/>
+      <c r="BB29" s="1"/>
+      <c r="BC29" s="1"/>
+      <c r="BD29" s="1"/>
+      <c r="BE29" s="1"/>
+      <c r="BF29" s="1"/>
+      <c r="BG29" s="1"/>
+      <c r="BH29" s="1"/>
+      <c r="BI29" s="1"/>
+      <c r="BJ29" s="1"/>
+      <c r="BK29" s="1"/>
+      <c r="BL29" s="1"/>
+      <c r="BM29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AW30" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF30" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AY31" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG31" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK32" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA32" s="1"/>
+      <c r="BB32" s="1"/>
+      <c r="BC32" s="1"/>
+      <c r="BD32" s="1"/>
+      <c r="BE32" s="1"/>
+      <c r="BF32" s="1"/>
+      <c r="BG32" s="1"/>
+      <c r="BH32" s="1"/>
+      <c r="BI32" s="1"/>
+      <c r="BJ32" s="1"/>
+      <c r="BK32" s="1"/>
+      <c r="BL32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK33" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA33" s="1"/>
+      <c r="BB33" s="1"/>
+      <c r="BC33" s="1"/>
+      <c r="BD33" s="1"/>
+      <c r="BE33" s="1"/>
+      <c r="BF33" s="1"/>
+      <c r="BG33" s="1"/>
+      <c r="BH33" s="1"/>
+      <c r="BI33" s="1"/>
+      <c r="BJ33" s="1"/>
+      <c r="BK33" s="1"/>
+      <c r="BL33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK34" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA34" s="1"/>
+      <c r="BB34" s="1"/>
+      <c r="BC34" s="1"/>
+      <c r="BD34" s="1"/>
+      <c r="BE34" s="1"/>
+      <c r="BF34" s="1"/>
+      <c r="BG34" s="1"/>
+      <c r="BH34" s="1"/>
+      <c r="BI34" s="1"/>
+      <c r="BJ34" s="1"/>
+      <c r="BK34" s="1"/>
+      <c r="BL34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP35" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW35" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF35" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK36" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA36" s="1"/>
+      <c r="BB36" s="1"/>
+      <c r="BC36" s="1"/>
+      <c r="BD36" s="1"/>
+      <c r="BE36" s="1"/>
+      <c r="BF36" s="1"/>
+      <c r="BG36" s="1"/>
+      <c r="BH36" s="1"/>
+      <c r="BI36" s="1"/>
+      <c r="BJ36" s="1"/>
+      <c r="BK36" s="1"/>
+      <c r="BL36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO37" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW37" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF37" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK38" s="15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AU39" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA39" s="1"/>
+      <c r="BB39" s="1"/>
+      <c r="BC39" s="1"/>
+      <c r="BD39" s="1"/>
+      <c r="BE39" s="1"/>
+      <c r="BF39" s="1"/>
+      <c r="BG39" s="1"/>
+      <c r="BH39" s="1"/>
+      <c r="BI39" s="1"/>
+      <c r="BJ39" s="1"/>
+      <c r="BK39" s="1"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK40" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD40" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL40" s="1"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP41" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT41" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA41" s="1"/>
+      <c r="BB41" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK42" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA42" s="1"/>
+      <c r="BB42" s="1"/>
+      <c r="BC42" s="1"/>
+      <c r="BD42" s="1"/>
+      <c r="BE42" s="1"/>
+      <c r="BF42" s="1"/>
+      <c r="BG42" s="1"/>
+      <c r="BH42" s="1"/>
+      <c r="BI42" s="1"/>
+      <c r="BJ42" s="1"/>
+      <c r="BK42" s="1"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK43" s="15"/>
+      <c r="BC43" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AO44" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU44" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD44" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AO45" s="15"/>
+      <c r="AU45" s="15"/>
+      <c r="BF45" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AO46" s="15"/>
+      <c r="AU46" s="15"/>
+      <c r="BD46" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK47" s="15"/>
+      <c r="BC47" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK48" s="15"/>
+      <c r="BD48" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK49" s="15"/>
+      <c r="BE49" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK50" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF50" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK51" s="15"/>
+      <c r="BI51" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK52" s="15"/>
+      <c r="BH52" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK53" s="15"/>
+      <c r="BG53" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF54" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="BG54" s="1"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK55" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW55" s="1"/>
+      <c r="AX55" s="1"/>
+      <c r="AY55" s="1"/>
+      <c r="AZ55" s="1"/>
+      <c r="BA55" s="1"/>
+      <c r="BB55" s="1"/>
+      <c r="BC55" s="1"/>
+      <c r="BD55" s="1"/>
+      <c r="BE55" s="1"/>
+      <c r="BF55" s="1"/>
+      <c r="BG55" s="1"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK56" s="15"/>
+      <c r="BB56" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG56" s="1"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP57" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT57" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW57" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG57" s="1"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK58" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG58" s="1"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK59" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY59" s="1"/>
+      <c r="AZ59" s="1"/>
+      <c r="BA59" s="1"/>
+      <c r="BB59" s="1"/>
+      <c r="BC59" s="1"/>
+      <c r="BD59" s="1"/>
+      <c r="BE59" s="1"/>
+      <c r="BF59" s="1"/>
+      <c r="BG59" s="1"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK60" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY60" s="1"/>
+      <c r="AZ60" s="1"/>
+      <c r="BA60" s="1"/>
+      <c r="BB60" s="1"/>
+      <c r="BC60" s="1"/>
+      <c r="BD60" s="1"/>
+      <c r="BE60" s="1"/>
+      <c r="BF60" s="1"/>
+      <c r="BG60" s="1"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK61" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY61" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG61" s="1"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK62" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA62" s="1"/>
+      <c r="BB62" s="1"/>
+      <c r="BC62" s="1"/>
+      <c r="BD62" s="1"/>
+      <c r="BE62" s="1"/>
+      <c r="BF62" s="1"/>
+      <c r="BG62" s="1"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR63" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU63" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA63" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG63" s="2"/>
+      <c r="BI63" s="2"/>
+      <c r="BK63" s="2"/>
+      <c r="BL63" s="2"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK64" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG64" s="2"/>
+      <c r="BI64" s="2"/>
+      <c r="BK64" s="2"/>
+      <c r="BL64" s="2"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK65" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB65" s="2"/>
+      <c r="BD65" s="2"/>
+      <c r="BG65" s="2"/>
+      <c r="BI65" s="2"/>
+      <c r="BK65" s="2"/>
+      <c r="BL65" s="2"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK66" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB66" s="2"/>
+      <c r="BD66" s="2"/>
+      <c r="BG66" s="2"/>
+      <c r="BI66" s="2"/>
+      <c r="BK66" s="2"/>
+      <c r="BL66" s="2"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AM67" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB67" s="2"/>
+      <c r="BD67" s="2"/>
+      <c r="BG67" s="2"/>
+      <c r="BI67" s="2"/>
+      <c r="BK67" s="2"/>
+      <c r="BL67" s="2"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK68" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB68" s="2"/>
+      <c r="BD68" s="2"/>
+      <c r="BG68" s="2"/>
+      <c r="BI68" s="2"/>
+      <c r="BK68" s="2"/>
+      <c r="BL68" s="2"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK69" s="15"/>
+      <c r="BB69" s="2"/>
+      <c r="BD69" s="2"/>
+      <c r="BG69" s="2"/>
+      <c r="BI69" s="2"/>
+      <c r="BK69" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BL69" s="2"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK70" s="15"/>
+      <c r="BB70" s="2"/>
+      <c r="BD70" s="2"/>
+      <c r="BG70" s="2"/>
+      <c r="BI70" s="2"/>
+      <c r="BK70" s="2"/>
+      <c r="BL70" s="2"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO71" s="15"/>
+      <c r="AU71" s="15"/>
+      <c r="BA71" s="0"/>
+      <c r="BB71" s="0"/>
+      <c r="BC71" s="0"/>
+      <c r="BD71" s="0"/>
+      <c r="BE71" s="0"/>
+      <c r="BF71" s="0"/>
+      <c r="BG71" s="0"/>
+      <c r="BH71" s="0"/>
+      <c r="BI71" s="0"/>
+      <c r="BK71" s="2"/>
+      <c r="BL71" s="2"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK72" s="15"/>
+      <c r="BA72" s="0"/>
+      <c r="BB72" s="0"/>
+      <c r="BC72" s="0"/>
+      <c r="BD72" s="0"/>
+      <c r="BE72" s="0"/>
+      <c r="BF72" s="0"/>
+      <c r="BG72" s="0"/>
+      <c r="BH72" s="0"/>
+      <c r="BI72" s="0"/>
+      <c r="BK72" s="2"/>
+      <c r="BL72" s="2"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AW73" s="15"/>
+      <c r="BB73" s="2"/>
+      <c r="BG73" s="2"/>
+      <c r="BI73" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AW74" s="15"/>
+      <c r="BB74" s="2"/>
+      <c r="BG74" s="2"/>
+      <c r="BI74" s="2"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AY75" s="15"/>
+      <c r="BB75" s="2"/>
+      <c r="BD75" s="2"/>
+      <c r="BG75" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI75" s="2"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK76" s="15"/>
+      <c r="BK76" s="2"/>
+      <c r="BL76" s="2"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK77" s="15"/>
+      <c r="BA77" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK77" s="2"/>
+      <c r="BL77" s="2"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK78" s="15"/>
+      <c r="BB78" s="2"/>
+      <c r="BD78" s="2"/>
+      <c r="BG78" s="2"/>
+      <c r="BI78" s="2"/>
+      <c r="BK78" s="2"/>
+      <c r="BL78" s="2"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP79" s="15"/>
+      <c r="AW79" s="15"/>
+      <c r="BB79" s="2"/>
+      <c r="BD79" s="2"/>
+      <c r="BF79" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG79" s="2"/>
+      <c r="BI79" s="2"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK80" s="15"/>
+      <c r="BB80" s="2"/>
+      <c r="BD80" s="2"/>
+      <c r="BG80" s="2"/>
+      <c r="BI80" s="2"/>
+      <c r="BK80" s="2"/>
+      <c r="BL80" s="2"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AO81" s="15"/>
+      <c r="AW81" s="15"/>
+      <c r="BD81" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK81" s="2"/>
+      <c r="BL81" s="2"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK82" s="15"/>
+      <c r="BB82" s="2"/>
+      <c r="BD82" s="2"/>
+      <c r="BG82" s="2"/>
+      <c r="BI82" s="2"/>
+      <c r="BK82" s="2"/>
+      <c r="BL82" s="2"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AO83" s="15"/>
+      <c r="AU83" s="15"/>
+      <c r="AY83" s="0"/>
+      <c r="BB83" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK83" s="2"/>
+      <c r="BL83" s="2"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK84" s="15"/>
+      <c r="AY84" s="0"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD85" s="27"/>
+      <c r="AE85" s="27"/>
+      <c r="AF85" s="27"/>
+      <c r="AG85" s="27"/>
+      <c r="AH85" s="27"/>
+      <c r="AI85" s="27"/>
+      <c r="AJ85" s="27"/>
+      <c r="AK85" s="27"/>
+      <c r="AL85" s="27"/>
+      <c r="AM85" s="0"/>
+      <c r="AN85" s="0"/>
+      <c r="AO85" s="0"/>
+      <c r="AP85" s="0"/>
+      <c r="AQ85" s="0"/>
+      <c r="AR85" s="0"/>
+      <c r="AS85" s="0"/>
+      <c r="AT85" s="0"/>
+      <c r="AU85" s="0"/>
+      <c r="AY85" s="3" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD86" s="27"/>
+      <c r="AE86" s="27"/>
+      <c r="AF86" s="27"/>
+      <c r="AG86" s="27"/>
+      <c r="AH86" s="27"/>
+      <c r="AI86" s="27"/>
+      <c r="AJ86" s="27"/>
+      <c r="AK86" s="27"/>
+      <c r="AL86" s="27"/>
+      <c r="AM86" s="27"/>
+      <c r="AN86" s="28"/>
+      <c r="AO86" s="27"/>
+      <c r="AP86" s="27"/>
+      <c r="AQ86" s="27"/>
+      <c r="AR86" s="27"/>
+      <c r="AS86" s="27"/>
+      <c r="AT86" s="27"/>
+      <c r="AU86" s="27"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD87" s="27"/>
+      <c r="AE87" s="27"/>
+      <c r="AF87" s="27"/>
+      <c r="AG87" s="27"/>
+      <c r="AH87" s="27"/>
+      <c r="AI87" s="27"/>
+      <c r="AJ87" s="27"/>
+      <c r="AK87" s="15"/>
+      <c r="AL87" s="27"/>
+      <c r="AM87" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN87" s="28"/>
+      <c r="AO87" s="27"/>
+      <c r="AP87" s="27"/>
+      <c r="AQ87" s="27"/>
+      <c r="AR87" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS87" s="27"/>
+      <c r="AT87" s="27"/>
+      <c r="AU87" s="27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD88" s="27"/>
+      <c r="AE88" s="27"/>
+      <c r="AF88" s="27"/>
+      <c r="AG88" s="27"/>
+      <c r="AH88" s="27"/>
+      <c r="AI88" s="27"/>
+      <c r="AJ88" s="27"/>
+      <c r="AK88" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL88" s="27"/>
+      <c r="AM88" s="27"/>
+      <c r="AN88" s="28"/>
+      <c r="AO88" s="27"/>
+      <c r="AP88" s="27"/>
+      <c r="AQ88" s="27"/>
+      <c r="AR88" s="27"/>
+      <c r="AS88" s="27"/>
+      <c r="AT88" s="27"/>
+      <c r="AU88" s="27"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD89" s="27"/>
+      <c r="AE89" s="27"/>
+      <c r="AF89" s="27"/>
+      <c r="AG89" s="27"/>
+      <c r="AH89" s="27"/>
+      <c r="AI89" s="27"/>
+      <c r="AJ89" s="27"/>
+      <c r="AK89" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL89" s="27"/>
+      <c r="AM89" s="27"/>
+      <c r="AN89" s="28"/>
+      <c r="AO89" s="27"/>
+      <c r="AP89" s="27"/>
+      <c r="AQ89" s="27"/>
+      <c r="AR89" s="27"/>
+      <c r="AS89" s="27"/>
+      <c r="AT89" s="27"/>
+      <c r="AU89" s="27"/>
+      <c r="BB89" s="2"/>
+      <c r="BD89" s="2"/>
+      <c r="BG89" s="2"/>
+      <c r="BI89" s="2"/>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD90" s="27"/>
+      <c r="AE90" s="27"/>
+      <c r="AF90" s="27"/>
+      <c r="AG90" s="27"/>
+      <c r="AH90" s="27"/>
+      <c r="AI90" s="27"/>
+      <c r="AJ90" s="27"/>
+      <c r="AK90" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL90" s="27"/>
+      <c r="AM90" s="27"/>
+      <c r="AN90" s="28"/>
+      <c r="AO90" s="27"/>
+      <c r="AP90" s="27"/>
+      <c r="AQ90" s="27"/>
+      <c r="AR90" s="27"/>
+      <c r="AS90" s="27"/>
+      <c r="AT90" s="27"/>
+      <c r="AU90" s="27"/>
+      <c r="BB90" s="2"/>
+      <c r="BD90" s="2"/>
+      <c r="BG90" s="2"/>
+      <c r="BI90" s="2"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD91" s="27"/>
+      <c r="AE91" s="27"/>
+      <c r="AF91" s="27"/>
+      <c r="AG91" s="27"/>
+      <c r="AH91" s="27"/>
+      <c r="AI91" s="27"/>
+      <c r="AJ91" s="27"/>
+      <c r="AK91" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL91" s="27"/>
+      <c r="AM91" s="27"/>
+      <c r="AN91" s="28"/>
+      <c r="AO91" s="27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP91" s="27"/>
+      <c r="AQ91" s="27"/>
+      <c r="AR91" s="27"/>
+      <c r="AS91" s="27"/>
+      <c r="AT91" s="27"/>
+      <c r="AU91" s="27"/>
+      <c r="BB91" s="2"/>
+      <c r="BD91" s="2"/>
+      <c r="BG91" s="2"/>
+      <c r="BI91" s="2"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD92" s="27"/>
+      <c r="AE92" s="27"/>
+      <c r="AF92" s="27"/>
+      <c r="AG92" s="27"/>
+      <c r="AH92" s="27"/>
+      <c r="AI92" s="27"/>
+      <c r="AJ92" s="27"/>
+      <c r="AK92" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL92" s="27"/>
+      <c r="AM92" s="27"/>
+      <c r="AN92" s="28"/>
+      <c r="AO92" s="27"/>
+      <c r="AP92" s="27"/>
+      <c r="AQ92" s="27"/>
+      <c r="AR92" s="27"/>
+      <c r="AS92" s="27"/>
+      <c r="AT92" s="27"/>
+      <c r="AU92" s="27"/>
+      <c r="BB92" s="2"/>
+      <c r="BD92" s="2"/>
+      <c r="BG92" s="2"/>
+      <c r="BI92" s="2"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK93" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB93" s="2"/>
+      <c r="BD93" s="2"/>
+      <c r="BG93" s="2"/>
+      <c r="BI93" s="2"/>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK94" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD95" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK95" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP95" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT95" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y96" s="15"/>
+      <c r="AD96" s="27"/>
+      <c r="AE96" s="27"/>
+      <c r="AF96" s="27"/>
+      <c r="AG96" s="27"/>
+      <c r="AH96" s="27"/>
+      <c r="AI96" s="27"/>
+      <c r="AJ96" s="27"/>
+      <c r="AK96" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD97" s="27"/>
+      <c r="AE97" s="27"/>
+      <c r="AF97" s="27"/>
+      <c r="AG97" s="27"/>
+      <c r="AH97" s="27"/>
+      <c r="AI97" s="27"/>
+      <c r="AJ97" s="27"/>
+      <c r="AK97" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD98" s="27"/>
+      <c r="AE98" s="27"/>
+      <c r="AF98" s="27"/>
+      <c r="AG98" s="27"/>
+      <c r="AH98" s="27"/>
+      <c r="AI98" s="27"/>
+      <c r="AJ98" s="27"/>
+      <c r="AK98" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD99" s="27"/>
+      <c r="AE99" s="27"/>
+      <c r="AF99" s="27"/>
+      <c r="AG99" s="27"/>
+      <c r="AH99" s="27"/>
+      <c r="AI99" s="27"/>
+      <c r="AJ99" s="27"/>
+      <c r="AK99" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO99" s="0"/>
+      <c r="AP99" s="0"/>
+      <c r="AQ99" s="0"/>
+      <c r="AR99" s="0"/>
+      <c r="AS99" s="0"/>
+      <c r="AT99" s="0"/>
+      <c r="AU99" s="0"/>
+      <c r="AV99" s="0"/>
+      <c r="AW99" s="0"/>
+      <c r="AX99" s="0"/>
+      <c r="AY99" s="0"/>
+      <c r="AZ99" s="0"/>
+      <c r="BA99" s="0"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD100" s="27"/>
+      <c r="AE100" s="27"/>
+      <c r="AF100" s="27"/>
+      <c r="AG100" s="27"/>
+      <c r="AH100" s="27"/>
+      <c r="AI100" s="27"/>
+      <c r="AJ100" s="27"/>
+      <c r="AK100" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP100" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD101" s="27"/>
+      <c r="AE101" s="27"/>
+      <c r="AF101" s="27"/>
+      <c r="AG101" s="27"/>
+      <c r="AH101" s="27"/>
+      <c r="AI101" s="27"/>
+      <c r="AJ101" s="27"/>
+      <c r="AK101" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR101" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK102" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK103" s="15"/>
+      <c r="AP103" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y104" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK104" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP104" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR104" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU104" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK105" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO105" s="0"/>
+      <c r="AP105" s="0"/>
+      <c r="AQ105" s="0"/>
+      <c r="AR105" s="0"/>
+      <c r="AS105" s="0"/>
+      <c r="AT105" s="0"/>
+      <c r="AU105" s="0"/>
+      <c r="AV105" s="0"/>
+      <c r="AW105" s="0"/>
+      <c r="AX105" s="0"/>
+      <c r="AY105" s="0"/>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK106" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO106" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK107" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO107" s="0"/>
+      <c r="AP107" s="0"/>
+      <c r="AQ107" s="0"/>
+      <c r="AR107" s="0"/>
+      <c r="AS107" s="0"/>
+      <c r="AT107" s="0"/>
+      <c r="AU107" s="0"/>
+      <c r="AV107" s="0"/>
+      <c r="AW107" s="0"/>
+      <c r="AX107" s="0"/>
+      <c r="AY107" s="0"/>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK108" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY108" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK109" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO109" s="0"/>
+      <c r="AP109" s="0"/>
+      <c r="AQ109" s="0"/>
+      <c r="AR109" s="0"/>
+      <c r="AS109" s="0"/>
+      <c r="AT109" s="0"/>
+      <c r="AU109" s="0"/>
+      <c r="AV109" s="0"/>
+      <c r="AW109" s="0"/>
+      <c r="AX109" s="0"/>
+      <c r="AY109" s="0"/>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK110" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO110" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK111" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y112" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK112" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO112" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR112" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU112" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK113" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK114" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK115" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO115" s="0"/>
+      <c r="AP115" s="0"/>
+      <c r="AQ115" s="0"/>
+      <c r="AR115" s="0"/>
+      <c r="AS115" s="0"/>
+      <c r="AT115" s="0"/>
+      <c r="AU115" s="0"/>
+      <c r="AV115" s="0"/>
+      <c r="AW115" s="0"/>
+      <c r="AX115" s="0"/>
+      <c r="AY115" s="0"/>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK116" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK117" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK118" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK119" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD120" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK120" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP120" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT120" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK121" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD122" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK122" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK123" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y124" s="15" t="n">
+        <v>52</v>
+      </c>
+      <c r="AK124" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK125" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK126" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK127" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R128" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK128" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP128" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT128" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="https://www.youtube.com/watch?v=BNsYPKp7lx4"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -7188,12 +10137,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CK85"/>
+  <dimension ref="A1:CK78"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2835" topLeftCell="A19" activePane="bottomLeft" state="split"/>
+      <pane xSplit="0" ySplit="2835" topLeftCell="A1" activePane="topLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="AK30" activeCellId="0" sqref="AK30"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7613,1012 +10562,884 @@
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AD7" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="BF7" s="2" t="n">
-        <v>5</v>
+      <c r="U7" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK8" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV8" s="1"/>
-      <c r="AW8" s="1"/>
-      <c r="AX8" s="1"/>
-      <c r="AY8" s="1"/>
-      <c r="AZ8" s="1"/>
-      <c r="BA8" s="1"/>
-      <c r="BB8" s="1"/>
-      <c r="BC8" s="1"/>
-      <c r="BD8" s="1"/>
-      <c r="BE8" s="1"/>
-      <c r="BF8" s="1"/>
-      <c r="BG8" s="1"/>
+      <c r="AK8" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="1"/>
-      <c r="AM9" s="1"/>
-      <c r="AN9" s="1"/>
-      <c r="AO9" s="1"/>
-      <c r="AP9" s="1"/>
-      <c r="AQ9" s="1"/>
-      <c r="AR9" s="1"/>
-      <c r="AS9" s="1"/>
-      <c r="AT9" s="1"/>
-      <c r="BB9" s="3" t="n">
-        <v>4</v>
-      </c>
+      <c r="AK9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AP10" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT10" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW10" s="3" t="n">
-        <v>2</v>
+      <c r="AK10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS10" s="1"/>
+      <c r="AW10" s="2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK11" s="15" t="n">
-        <v>5</v>
+      <c r="AK11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK12" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY12" s="1"/>
-      <c r="AZ12" s="1"/>
-      <c r="BA12" s="1"/>
-      <c r="BB12" s="1"/>
-      <c r="BC12" s="1"/>
-      <c r="BD12" s="1"/>
-      <c r="BE12" s="1"/>
-      <c r="BF12" s="1"/>
-      <c r="BG12" s="1"/>
-      <c r="BH12" s="1"/>
-      <c r="BI12" s="1"/>
-      <c r="BJ12" s="1"/>
-      <c r="BK12" s="1"/>
+      <c r="AK12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK13" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY13" s="1"/>
-      <c r="AZ13" s="1"/>
-      <c r="BA13" s="1"/>
-      <c r="BB13" s="1"/>
-      <c r="BC13" s="1"/>
-      <c r="BD13" s="1"/>
-      <c r="BE13" s="1"/>
-      <c r="BF13" s="1"/>
-      <c r="BG13" s="1"/>
-      <c r="BH13" s="1"/>
-      <c r="BI13" s="1"/>
-      <c r="BJ13" s="1"/>
-      <c r="BK13" s="1"/>
+      <c r="AK13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU13" s="2" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AP14" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT14" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY14" s="3" t="n">
-        <v>3</v>
+      <c r="AK14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK15" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA15" s="1"/>
-      <c r="BB15" s="1"/>
-      <c r="BC15" s="1"/>
-      <c r="BD15" s="1"/>
-      <c r="BE15" s="1"/>
-      <c r="BF15" s="1"/>
-      <c r="BG15" s="1"/>
-      <c r="BH15" s="1"/>
-      <c r="BI15" s="1"/>
-      <c r="BJ15" s="1"/>
-      <c r="BK15" s="1"/>
-      <c r="BL15" s="1"/>
+      <c r="AK15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="AK16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS16" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN17" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AR16" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU16" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA16" s="2" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK17" s="15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK18" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA18" s="1"/>
-      <c r="BB18" s="1"/>
-      <c r="BC18" s="1"/>
-      <c r="BD18" s="1"/>
-      <c r="BE18" s="1"/>
-      <c r="BF18" s="1"/>
-      <c r="BG18" s="1"/>
-      <c r="BH18" s="1"/>
-      <c r="BI18" s="1"/>
-      <c r="BJ18" s="1"/>
-      <c r="BK18" s="1"/>
-      <c r="BL18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK19" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA19" s="1"/>
-      <c r="BB19" s="1"/>
-      <c r="BC19" s="1"/>
-      <c r="BD19" s="1"/>
-      <c r="BE19" s="1"/>
-      <c r="BF19" s="1"/>
-      <c r="BG19" s="1"/>
-      <c r="BH19" s="1"/>
-      <c r="BI19" s="1"/>
-      <c r="BJ19" s="1"/>
-      <c r="BK19" s="1"/>
-      <c r="BL19" s="1"/>
+      <c r="AI19" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR19" s="2" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AM20" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="BA20" s="1"/>
-      <c r="BB20" s="1"/>
-      <c r="BC20" s="1"/>
-      <c r="BD20" s="1"/>
-      <c r="BE20" s="1"/>
-      <c r="BF20" s="1"/>
-      <c r="BG20" s="1"/>
-      <c r="BH20" s="1"/>
-      <c r="BI20" s="1"/>
-      <c r="BJ20" s="1"/>
-      <c r="BK20" s="1"/>
-      <c r="BL20" s="1"/>
+      <c r="AL20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK21" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA21" s="1"/>
-      <c r="BB21" s="1"/>
-      <c r="BC21" s="1"/>
-      <c r="BD21" s="1"/>
-      <c r="BE21" s="1"/>
-      <c r="BF21" s="1"/>
-      <c r="BG21" s="1"/>
-      <c r="BH21" s="1"/>
-      <c r="BI21" s="1"/>
-      <c r="BJ21" s="1"/>
-      <c r="BK21" s="1"/>
-      <c r="BL21" s="1"/>
+      <c r="AL21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AP22" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT22" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB22" s="3" t="n">
-        <v>2</v>
+      <c r="AL22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX22" s="2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK23" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA23" s="1"/>
-      <c r="BB23" s="1"/>
-      <c r="BC23" s="1"/>
-      <c r="BD23" s="1"/>
-      <c r="BE23" s="1"/>
-      <c r="BF23" s="1"/>
-      <c r="BG23" s="1"/>
-      <c r="BH23" s="1"/>
-      <c r="BI23" s="1"/>
-      <c r="BJ23" s="1"/>
-      <c r="BK23" s="1"/>
-      <c r="BL23" s="1"/>
+      <c r="AI23" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN23" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="AH24" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN24" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AI25" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN25" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AI26" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN26" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AG27" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN27" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AF28" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN28" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD29" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN29" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB30" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN30" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AO24" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU24" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD24" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK25" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA25" s="1"/>
-      <c r="BB25" s="1"/>
-      <c r="BC25" s="1"/>
-      <c r="BD25" s="1"/>
-      <c r="BE25" s="1"/>
-      <c r="BF25" s="1"/>
-      <c r="BG25" s="1"/>
-      <c r="BH25" s="1"/>
-      <c r="BI25" s="1"/>
-      <c r="BJ25" s="1"/>
-      <c r="BK25" s="1"/>
-      <c r="BL25" s="1"/>
-      <c r="BM25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AW26" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF26" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AY27" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG27" s="3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK28" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA28" s="1"/>
-      <c r="BB28" s="1"/>
-      <c r="BC28" s="1"/>
-      <c r="BD28" s="1"/>
-      <c r="BE28" s="1"/>
-      <c r="BF28" s="1"/>
-      <c r="BG28" s="1"/>
-      <c r="BH28" s="1"/>
-      <c r="BI28" s="1"/>
-      <c r="BJ28" s="1"/>
-      <c r="BK28" s="1"/>
-      <c r="BL28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK29" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA29" s="1"/>
-      <c r="BB29" s="1"/>
-      <c r="BC29" s="1"/>
-      <c r="BD29" s="1"/>
-      <c r="BE29" s="1"/>
-      <c r="BF29" s="1"/>
-      <c r="BG29" s="1"/>
-      <c r="BH29" s="1"/>
-      <c r="BI29" s="1"/>
-      <c r="BJ29" s="1"/>
-      <c r="BK29" s="1"/>
-      <c r="BL29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK30" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA30" s="1"/>
-      <c r="BB30" s="1"/>
-      <c r="BC30" s="1"/>
-      <c r="BD30" s="1"/>
-      <c r="BE30" s="1"/>
-      <c r="BF30" s="1"/>
-      <c r="BG30" s="1"/>
-      <c r="BH30" s="1"/>
-      <c r="BI30" s="1"/>
-      <c r="BJ30" s="1"/>
-      <c r="BK30" s="1"/>
-      <c r="BL30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AP31" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW31" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF31" s="2" t="n">
-        <v>3</v>
+      <c r="AG31" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN31" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS31" s="1" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK32" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA32" s="1"/>
-      <c r="BB32" s="1"/>
-      <c r="BC32" s="1"/>
-      <c r="BD32" s="1"/>
-      <c r="BE32" s="1"/>
-      <c r="BF32" s="1"/>
-      <c r="BG32" s="1"/>
-      <c r="BH32" s="1"/>
-      <c r="BI32" s="1"/>
-      <c r="BJ32" s="1"/>
-      <c r="BK32" s="1"/>
-      <c r="BL32" s="1"/>
+      <c r="AK32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN32" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="AK33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN33" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN34" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW34" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN35" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN36" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN37" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS37" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN38" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN39" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN40" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR40" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN41" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN42" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AO33" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW33" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF33" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK34" s="15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AU35" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA35" s="1"/>
-      <c r="BB35" s="1"/>
-      <c r="BC35" s="1"/>
-      <c r="BD35" s="1"/>
-      <c r="BE35" s="1"/>
-      <c r="BF35" s="1"/>
-      <c r="BG35" s="1"/>
-      <c r="BH35" s="1"/>
-      <c r="BI35" s="1"/>
-      <c r="BJ35" s="1"/>
-      <c r="BK35" s="1"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK36" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="BD36" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BL36" s="1"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AP37" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT37" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA37" s="1"/>
-      <c r="BB37" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK38" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA38" s="1"/>
-      <c r="BB38" s="1"/>
-      <c r="BC38" s="1"/>
-      <c r="BD38" s="1"/>
-      <c r="BE38" s="1"/>
-      <c r="BF38" s="1"/>
-      <c r="BG38" s="1"/>
-      <c r="BH38" s="1"/>
-      <c r="BI38" s="1"/>
-      <c r="BJ38" s="1"/>
-      <c r="BK38" s="1"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK39" s="15"/>
-      <c r="BD39" s="3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AO40" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU40" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD40" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AO41" s="15"/>
-      <c r="AU41" s="15"/>
-      <c r="BF41" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AO42" s="15"/>
-      <c r="AU42" s="15"/>
-      <c r="BD42" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK43" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC43" s="2" t="n">
-        <v>2</v>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="AE43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK43" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN43" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ43" s="2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK44" s="15"/>
-      <c r="BD44" s="3" t="n">
-        <v>3</v>
+      <c r="J44" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK44" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN44" s="4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK45" s="15"/>
-      <c r="BF45" s="2" t="n">
-        <v>5</v>
+      <c r="M45" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK45" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN45" s="4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK46" s="15"/>
-      <c r="BG46" s="3" t="n">
+      <c r="P46" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK46" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN46" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
+      <c r="S47" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK47" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN47" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V48" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK48" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN48" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y49" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK49" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN49" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK50" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN50" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK51" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN51" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE52" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK52" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN52" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ52" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK53" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN53" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK54" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN54" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AD47" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="BF47" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG47" s="1"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK48" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW48" s="1"/>
-      <c r="AX48" s="1"/>
-      <c r="AY48" s="1"/>
-      <c r="AZ48" s="1"/>
-      <c r="BA48" s="1"/>
-      <c r="BB48" s="1"/>
-      <c r="BC48" s="1"/>
-      <c r="BD48" s="1"/>
-      <c r="BE48" s="1"/>
-      <c r="BF48" s="1"/>
-      <c r="BG48" s="1"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK49" s="15"/>
-      <c r="BB49" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="BG49" s="1"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AP50" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT50" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW50" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG50" s="1"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK51" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG51" s="1"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK52" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY52" s="1"/>
-      <c r="AZ52" s="1"/>
-      <c r="BA52" s="1"/>
-      <c r="BB52" s="1"/>
-      <c r="BC52" s="1"/>
-      <c r="BD52" s="1"/>
-      <c r="BE52" s="1"/>
-      <c r="BF52" s="1"/>
-      <c r="BG52" s="1"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK53" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY53" s="1"/>
-      <c r="AZ53" s="1"/>
-      <c r="BA53" s="1"/>
-      <c r="BB53" s="1"/>
-      <c r="BC53" s="1"/>
-      <c r="BD53" s="1"/>
-      <c r="BE53" s="1"/>
-      <c r="BF53" s="1"/>
-      <c r="BG53" s="1"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK54" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY54" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BG54" s="1"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK55" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA55" s="1"/>
-      <c r="BB55" s="1"/>
-      <c r="BC55" s="1"/>
-      <c r="BD55" s="1"/>
-      <c r="BE55" s="1"/>
-      <c r="BF55" s="1"/>
-      <c r="BG55" s="1"/>
+      <c r="J55" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK55" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN55" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ55" s="2" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
+      <c r="M56" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK56" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN56" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P57" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK57" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN57" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S58" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK58" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN58" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V59" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK59" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN59" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y60" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK60" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN60" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE61" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK61" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN61" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK62" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN62" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE63" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK63" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN63" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE64" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK64" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN64" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ64" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE65" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK65" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN65" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK66" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN66" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AR56" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU56" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA56" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="BG56" s="1"/>
-      <c r="BH56" s="1"/>
-      <c r="BI56" s="1"/>
-      <c r="BJ56" s="1"/>
-      <c r="BK56" s="1"/>
-      <c r="BL56" s="1"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK57" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG57" s="1"/>
-      <c r="BH57" s="1"/>
-      <c r="BI57" s="1"/>
-      <c r="BJ57" s="1"/>
-      <c r="BK57" s="1"/>
-      <c r="BL57" s="1"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK58" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA58" s="1"/>
-      <c r="BB58" s="1"/>
-      <c r="BC58" s="1"/>
-      <c r="BD58" s="1"/>
-      <c r="BE58" s="1"/>
-      <c r="BF58" s="1"/>
-      <c r="BG58" s="1"/>
-      <c r="BH58" s="1"/>
-      <c r="BI58" s="1"/>
-      <c r="BJ58" s="1"/>
-      <c r="BK58" s="1"/>
-      <c r="BL58" s="1"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK59" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA59" s="1"/>
-      <c r="BB59" s="1"/>
-      <c r="BC59" s="1"/>
-      <c r="BD59" s="1"/>
-      <c r="BE59" s="1"/>
-      <c r="BF59" s="1"/>
-      <c r="BG59" s="1"/>
-      <c r="BH59" s="1"/>
-      <c r="BI59" s="1"/>
-      <c r="BJ59" s="1"/>
-      <c r="BK59" s="1"/>
-      <c r="BL59" s="1"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AM60" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="BA60" s="1"/>
-      <c r="BB60" s="1"/>
-      <c r="BC60" s="1"/>
-      <c r="BD60" s="1"/>
-      <c r="BE60" s="1"/>
-      <c r="BF60" s="1"/>
-      <c r="BG60" s="1"/>
-      <c r="BH60" s="1"/>
-      <c r="BI60" s="1"/>
-      <c r="BJ60" s="1"/>
-      <c r="BK60" s="1"/>
-      <c r="BL60" s="1"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK61" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA61" s="1"/>
-      <c r="BB61" s="1"/>
-      <c r="BC61" s="1"/>
-      <c r="BD61" s="1"/>
-      <c r="BE61" s="1"/>
-      <c r="BF61" s="1"/>
-      <c r="BG61" s="1"/>
-      <c r="BH61" s="1"/>
-      <c r="BI61" s="1"/>
-      <c r="BJ61" s="1"/>
-      <c r="BK61" s="1"/>
-      <c r="BL61" s="1"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AP62" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT62" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB62" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG62" s="1"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK63" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA63" s="1"/>
-      <c r="BB63" s="1"/>
-      <c r="BC63" s="1"/>
-      <c r="BD63" s="1"/>
-      <c r="BE63" s="1"/>
-      <c r="BF63" s="1"/>
-      <c r="BG63" s="1"/>
-      <c r="BH63" s="1"/>
-      <c r="BI63" s="1"/>
-      <c r="BJ63" s="1"/>
-      <c r="BK63" s="1"/>
-      <c r="BL63" s="1"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO64" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU64" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA64" s="1"/>
-      <c r="BB64" s="1"/>
-      <c r="BC64" s="1"/>
-      <c r="BD64" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BF64" s="1"/>
-      <c r="BG64" s="1"/>
-      <c r="BH64" s="1"/>
-      <c r="BI64" s="1"/>
-      <c r="BJ64" s="1"/>
-      <c r="BK64" s="1"/>
-      <c r="BL64" s="1"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK65" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA65" s="1"/>
-      <c r="BB65" s="1"/>
-      <c r="BC65" s="1"/>
-      <c r="BD65" s="1"/>
-      <c r="BE65" s="1"/>
-      <c r="BF65" s="1"/>
-      <c r="BG65" s="1"/>
-      <c r="BH65" s="1"/>
-      <c r="BI65" s="1"/>
-      <c r="BJ65" s="1"/>
-      <c r="BK65" s="1"/>
-      <c r="BL65" s="1"/>
-      <c r="BM65" s="1"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AW66" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF66" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AY67" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG67" s="3" t="n">
-        <v>4</v>
+      <c r="AD67" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK67" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM67" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP67" s="3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK68" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA68" s="1"/>
-      <c r="BB68" s="1"/>
-      <c r="BC68" s="1"/>
-      <c r="BD68" s="1"/>
-      <c r="BE68" s="1"/>
-      <c r="BF68" s="1"/>
-      <c r="BG68" s="1"/>
-      <c r="BH68" s="1"/>
-      <c r="BI68" s="1"/>
-      <c r="BJ68" s="1"/>
-      <c r="BK68" s="1"/>
-      <c r="BL68" s="1"/>
+      <c r="U68" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD68" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK68" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM68" s="3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK69" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA69" s="1"/>
-      <c r="BB69" s="1"/>
-      <c r="BC69" s="1"/>
-      <c r="BD69" s="1"/>
-      <c r="BE69" s="1"/>
-      <c r="BF69" s="1"/>
-      <c r="BG69" s="1"/>
-      <c r="BH69" s="1"/>
-      <c r="BI69" s="1"/>
-      <c r="BJ69" s="1"/>
-      <c r="BK69" s="1"/>
-      <c r="BL69" s="1"/>
+      <c r="Y69" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD69" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK69" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM69" s="3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK70" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA70" s="1"/>
-      <c r="BB70" s="1"/>
-      <c r="BC70" s="1"/>
-      <c r="BD70" s="1"/>
-      <c r="BE70" s="1"/>
-      <c r="BF70" s="1"/>
-      <c r="BG70" s="1"/>
-      <c r="BH70" s="1"/>
-      <c r="BI70" s="1"/>
-      <c r="BJ70" s="1"/>
-      <c r="BK70" s="1"/>
-      <c r="BL70" s="1"/>
+      <c r="AA70" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD70" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK70" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM70" s="3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP71" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW71" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF71" s="2" t="n">
+      <c r="AD71" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK71" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM71" s="3" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK72" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA72" s="1"/>
-      <c r="BB72" s="1"/>
-      <c r="BC72" s="1"/>
-      <c r="BD72" s="1"/>
-      <c r="BE72" s="1"/>
-      <c r="BF72" s="1"/>
-      <c r="BG72" s="1"/>
-      <c r="BH72" s="1"/>
-      <c r="BI72" s="1"/>
-      <c r="BJ72" s="1"/>
-      <c r="BK72" s="1"/>
-      <c r="BL72" s="1"/>
+      <c r="AD72" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK72" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM72" s="3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AO73" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW73" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF73" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ73" s="1"/>
-      <c r="BK73" s="1"/>
-      <c r="BL73" s="1"/>
+      <c r="AD73" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ73" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK73" s="1"/>
+      <c r="AM73" s="3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK74" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ74" s="1"/>
-      <c r="BK74" s="1"/>
-      <c r="BL74" s="1"/>
+      <c r="T74" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD74" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ74" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK74" s="1"/>
+      <c r="AM74" s="3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AO75" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU75" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ75" s="1"/>
-      <c r="BK75" s="1"/>
-      <c r="BL75" s="1"/>
+      <c r="X75" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD75" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ75" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK75" s="1"/>
+      <c r="AM75" s="3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK76" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="BD76" s="3" t="n">
-        <v>4</v>
+      <c r="AA76" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD76" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF76" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ76" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK76" s="1"/>
+      <c r="AM76" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP76" s="3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AP77" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT77" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB77" s="3" t="n">
-        <v>3</v>
+      <c r="AD77" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF77" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ77" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK77" s="1"/>
+      <c r="AM77" s="3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK78" s="15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP79" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT79" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA79" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK80" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB80" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BA81" s="1"/>
-      <c r="BB81" s="1"/>
-      <c r="BC81" s="1"/>
-      <c r="BD81" s="1"/>
-      <c r="BE81" s="1"/>
-      <c r="BF81" s="1"/>
-      <c r="BG81" s="1"/>
-      <c r="BH81" s="1"/>
-      <c r="BI81" s="1"/>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BA82" s="1"/>
-      <c r="BB82" s="1"/>
-      <c r="BC82" s="1"/>
-      <c r="BD82" s="1"/>
-      <c r="BE82" s="1"/>
-      <c r="BF82" s="1"/>
-      <c r="BG82" s="1"/>
-      <c r="BH82" s="1"/>
-      <c r="BI82" s="1"/>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BA83" s="1"/>
-      <c r="BB83" s="1"/>
-      <c r="BC83" s="1"/>
-      <c r="BD83" s="1"/>
-      <c r="BE83" s="1"/>
-      <c r="BF83" s="1"/>
-      <c r="BG83" s="1"/>
-      <c r="BH83" s="1"/>
-      <c r="BI83" s="1"/>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BA84" s="1"/>
-      <c r="BB84" s="1"/>
-      <c r="BC84" s="1"/>
-      <c r="BD84" s="1"/>
-      <c r="BE84" s="1"/>
-      <c r="BF84" s="1"/>
-      <c r="BG84" s="1"/>
-      <c r="BH84" s="1"/>
-      <c r="BI84" s="1"/>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BA85" s="1"/>
-      <c r="BB85" s="1"/>
-      <c r="BC85" s="1"/>
-      <c r="BD85" s="1"/>
-      <c r="BE85" s="1"/>
-      <c r="BF85" s="1"/>
-      <c r="BG85" s="1"/>
-      <c r="BH85" s="1"/>
-      <c r="BI85" s="1"/>
+      <c r="AD78" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF78" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ78" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK78" s="1"/>
+      <c r="AM78" s="3" t="n">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="https://www.youtube.com/watch?v=J3GmiOv_4xg"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -9586,12 +12407,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CK78"/>
+  <dimension ref="A1:CK85"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2835" topLeftCell="A1" activePane="topLeft" state="split"/>
+      <pane xSplit="0" ySplit="2835" topLeftCell="A1" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="AD7" activeCellId="0" sqref="AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10011,884 +12832,1012 @@
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="U7" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG7" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK7" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN7" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO7" s="1"/>
-      <c r="AP7" s="1"/>
-      <c r="AQ7" s="1"/>
-      <c r="AR7" s="1"/>
-      <c r="AS7" s="1" t="n">
-        <v>4</v>
+      <c r="AD7" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF7" s="2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK8" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN8" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS8" s="1"/>
+      <c r="AK8" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
+      <c r="AY8" s="1"/>
+      <c r="AZ8" s="1"/>
+      <c r="BA8" s="1"/>
+      <c r="BB8" s="1"/>
+      <c r="BC8" s="1"/>
+      <c r="BD8" s="1"/>
+      <c r="BE8" s="1"/>
+      <c r="BF8" s="1"/>
+      <c r="BG8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN9" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1"/>
+      <c r="BB9" s="3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN10" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS10" s="1"/>
-      <c r="AW10" s="2" t="n">
-        <v>5</v>
+      <c r="AP10" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT10" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW10" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN11" s="4" t="n">
-        <v>2</v>
+      <c r="AK11" s="15" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN12" s="4" t="n">
-        <v>2</v>
-      </c>
+      <c r="AK12" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY12" s="1"/>
+      <c r="AZ12" s="1"/>
+      <c r="BA12" s="1"/>
+      <c r="BB12" s="1"/>
+      <c r="BC12" s="1"/>
+      <c r="BD12" s="1"/>
+      <c r="BE12" s="1"/>
+      <c r="BF12" s="1"/>
+      <c r="BG12" s="1"/>
+      <c r="BH12" s="1"/>
+      <c r="BI12" s="1"/>
+      <c r="BJ12" s="1"/>
+      <c r="BK12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN13" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU13" s="2" t="n">
-        <v>45</v>
-      </c>
+      <c r="AK13" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY13" s="1"/>
+      <c r="AZ13" s="1"/>
+      <c r="BA13" s="1"/>
+      <c r="BB13" s="1"/>
+      <c r="BC13" s="1"/>
+      <c r="BD13" s="1"/>
+      <c r="BE13" s="1"/>
+      <c r="BF13" s="1"/>
+      <c r="BG13" s="1"/>
+      <c r="BH13" s="1"/>
+      <c r="BI13" s="1"/>
+      <c r="BJ13" s="1"/>
+      <c r="BK13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN14" s="4" t="n">
-        <v>2</v>
+      <c r="AP14" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT14" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY14" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN15" s="4" t="n">
-        <v>2</v>
-      </c>
+      <c r="AK15" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA15" s="1"/>
+      <c r="BB15" s="1"/>
+      <c r="BC15" s="1"/>
+      <c r="BD15" s="1"/>
+      <c r="BE15" s="1"/>
+      <c r="BF15" s="1"/>
+      <c r="BG15" s="1"/>
+      <c r="BH15" s="1"/>
+      <c r="BI15" s="1"/>
+      <c r="BJ15" s="1"/>
+      <c r="BK15" s="1"/>
+      <c r="BL15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN16" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS16" s="2" t="n">
-        <v>4</v>
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU16" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA16" s="2" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN17" s="4" t="n">
-        <v>2</v>
+      <c r="AK17" s="15" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN18" s="4" t="n">
-        <v>2</v>
-      </c>
+      <c r="AK18" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA18" s="1"/>
+      <c r="BB18" s="1"/>
+      <c r="BC18" s="1"/>
+      <c r="BD18" s="1"/>
+      <c r="BE18" s="1"/>
+      <c r="BF18" s="1"/>
+      <c r="BG18" s="1"/>
+      <c r="BH18" s="1"/>
+      <c r="BI18" s="1"/>
+      <c r="BJ18" s="1"/>
+      <c r="BK18" s="1"/>
+      <c r="BL18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="AK19" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA19" s="1"/>
+      <c r="BB19" s="1"/>
+      <c r="BC19" s="1"/>
+      <c r="BD19" s="1"/>
+      <c r="BE19" s="1"/>
+      <c r="BF19" s="1"/>
+      <c r="BG19" s="1"/>
+      <c r="BH19" s="1"/>
+      <c r="BI19" s="1"/>
+      <c r="BJ19" s="1"/>
+      <c r="BK19" s="1"/>
+      <c r="BL19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AM20" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA20" s="1"/>
+      <c r="BB20" s="1"/>
+      <c r="BC20" s="1"/>
+      <c r="BD20" s="1"/>
+      <c r="BE20" s="1"/>
+      <c r="BF20" s="1"/>
+      <c r="BG20" s="1"/>
+      <c r="BH20" s="1"/>
+      <c r="BI20" s="1"/>
+      <c r="BJ20" s="1"/>
+      <c r="BK20" s="1"/>
+      <c r="BL20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK21" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA21" s="1"/>
+      <c r="BB21" s="1"/>
+      <c r="BC21" s="1"/>
+      <c r="BD21" s="1"/>
+      <c r="BE21" s="1"/>
+      <c r="BF21" s="1"/>
+      <c r="BG21" s="1"/>
+      <c r="BH21" s="1"/>
+      <c r="BI21" s="1"/>
+      <c r="BJ21" s="1"/>
+      <c r="BK21" s="1"/>
+      <c r="BL21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP22" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT22" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB22" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK23" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA23" s="1"/>
+      <c r="BB23" s="1"/>
+      <c r="BC23" s="1"/>
+      <c r="BD23" s="1"/>
+      <c r="BE23" s="1"/>
+      <c r="BF23" s="1"/>
+      <c r="BG23" s="1"/>
+      <c r="BH23" s="1"/>
+      <c r="BI23" s="1"/>
+      <c r="BJ23" s="1"/>
+      <c r="BK23" s="1"/>
+      <c r="BL23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AI19" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN19" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR19" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN20" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN21" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN22" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX22" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AI23" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL23" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN23" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH24" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN24" s="4" t="n">
-        <v>2</v>
+      <c r="AO24" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU24" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD24" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AI25" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL25" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN25" s="4" t="n">
-        <v>2</v>
-      </c>
+      <c r="AK25" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA25" s="1"/>
+      <c r="BB25" s="1"/>
+      <c r="BC25" s="1"/>
+      <c r="BD25" s="1"/>
+      <c r="BE25" s="1"/>
+      <c r="BF25" s="1"/>
+      <c r="BG25" s="1"/>
+      <c r="BH25" s="1"/>
+      <c r="BI25" s="1"/>
+      <c r="BJ25" s="1"/>
+      <c r="BK25" s="1"/>
+      <c r="BL25" s="1"/>
+      <c r="BM25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AI26" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN26" s="4" t="n">
-        <v>2</v>
+      <c r="AW26" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF26" s="2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AG27" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL27" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN27" s="4" t="n">
-        <v>2</v>
+      <c r="AY27" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG27" s="3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AF28" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL28" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN28" s="4" t="n">
-        <v>2</v>
-      </c>
+      <c r="AK28" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA28" s="1"/>
+      <c r="BB28" s="1"/>
+      <c r="BC28" s="1"/>
+      <c r="BD28" s="1"/>
+      <c r="BE28" s="1"/>
+      <c r="BF28" s="1"/>
+      <c r="BG28" s="1"/>
+      <c r="BH28" s="1"/>
+      <c r="BI28" s="1"/>
+      <c r="BJ28" s="1"/>
+      <c r="BK28" s="1"/>
+      <c r="BL28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD29" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN29" s="4" t="n">
-        <v>2</v>
-      </c>
+      <c r="AK29" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA29" s="1"/>
+      <c r="BB29" s="1"/>
+      <c r="BC29" s="1"/>
+      <c r="BD29" s="1"/>
+      <c r="BE29" s="1"/>
+      <c r="BF29" s="1"/>
+      <c r="BG29" s="1"/>
+      <c r="BH29" s="1"/>
+      <c r="BI29" s="1"/>
+      <c r="BJ29" s="1"/>
+      <c r="BK29" s="1"/>
+      <c r="BL29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AB30" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN30" s="4" t="n">
-        <v>2</v>
-      </c>
+      <c r="AK30" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA30" s="1"/>
+      <c r="BB30" s="1"/>
+      <c r="BC30" s="1"/>
+      <c r="BD30" s="1"/>
+      <c r="BE30" s="1"/>
+      <c r="BF30" s="1"/>
+      <c r="BG30" s="1"/>
+      <c r="BH30" s="1"/>
+      <c r="BI30" s="1"/>
+      <c r="BJ30" s="1"/>
+      <c r="BK30" s="1"/>
+      <c r="BL30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+      <c r="AP31" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW31" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF31" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK32" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA32" s="1"/>
+      <c r="BB32" s="1"/>
+      <c r="BC32" s="1"/>
+      <c r="BD32" s="1"/>
+      <c r="BE32" s="1"/>
+      <c r="BF32" s="1"/>
+      <c r="BG32" s="1"/>
+      <c r="BH32" s="1"/>
+      <c r="BI32" s="1"/>
+      <c r="BJ32" s="1"/>
+      <c r="BK32" s="1"/>
+      <c r="BL32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AG31" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK31" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN31" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS31" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK32" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN32" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK33" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN33" s="4" t="n">
-        <v>2</v>
+      <c r="AO33" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW33" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF33" s="2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK34" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN34" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW34" s="2" t="n">
+      <c r="AK34" s="15" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK35" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN35" s="4" t="n">
-        <v>2</v>
-      </c>
+      <c r="AU35" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA35" s="1"/>
+      <c r="BB35" s="1"/>
+      <c r="BC35" s="1"/>
+      <c r="BD35" s="1"/>
+      <c r="BE35" s="1"/>
+      <c r="BF35" s="1"/>
+      <c r="BG35" s="1"/>
+      <c r="BH35" s="1"/>
+      <c r="BI35" s="1"/>
+      <c r="BJ35" s="1"/>
+      <c r="BK35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK36" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN36" s="4" t="n">
-        <v>2</v>
-      </c>
+      <c r="AK36" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD36" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK37" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN37" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS37" s="1" t="n">
-        <v>4</v>
+      <c r="AP37" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT37" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA37" s="1"/>
+      <c r="BB37" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK38" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN38" s="4" t="n">
-        <v>2</v>
-      </c>
+      <c r="AK38" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA38" s="1"/>
+      <c r="BB38" s="1"/>
+      <c r="BC38" s="1"/>
+      <c r="BD38" s="1"/>
+      <c r="BE38" s="1"/>
+      <c r="BF38" s="1"/>
+      <c r="BG38" s="1"/>
+      <c r="BH38" s="1"/>
+      <c r="BI38" s="1"/>
+      <c r="BJ38" s="1"/>
+      <c r="BK38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK39" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN39" s="4" t="n">
-        <v>2</v>
+      <c r="AK39" s="15"/>
+      <c r="BD39" s="3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK40" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN40" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR40" s="2" t="n">
+      <c r="AO40" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU40" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD40" s="3" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK41" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN41" s="4" t="n">
-        <v>2</v>
+      <c r="AO41" s="15"/>
+      <c r="AU41" s="15"/>
+      <c r="BF41" s="2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK42" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN42" s="4" t="n">
-        <v>2</v>
+      <c r="AO42" s="15"/>
+      <c r="AU42" s="15"/>
+      <c r="BD42" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
+      <c r="AK43" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC43" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK44" s="15"/>
+      <c r="BD44" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK45" s="15"/>
+      <c r="BF45" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK46" s="15"/>
+      <c r="BG46" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
-      <c r="Y43" s="1"/>
-      <c r="AE43" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK43" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN43" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AQ43" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J44" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE44" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK44" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN44" s="4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M45" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE45" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK45" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN45" s="4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P46" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE46" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK46" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN46" s="4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S47" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE47" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK47" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN47" s="4" t="n">
-        <v>4</v>
-      </c>
+      <c r="AD47" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF47" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V48" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE48" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK48" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN48" s="4" t="n">
-        <v>4</v>
-      </c>
+      <c r="AK48" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW48" s="1"/>
+      <c r="AX48" s="1"/>
+      <c r="AY48" s="1"/>
+      <c r="AZ48" s="1"/>
+      <c r="BA48" s="1"/>
+      <c r="BB48" s="1"/>
+      <c r="BC48" s="1"/>
+      <c r="BD48" s="1"/>
+      <c r="BE48" s="1"/>
+      <c r="BF48" s="1"/>
+      <c r="BG48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y49" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK49" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN49" s="4" t="n">
-        <v>4</v>
-      </c>
+      <c r="AK49" s="15"/>
+      <c r="BB49" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AE50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK50" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN50" s="4" t="n">
-        <v>4</v>
-      </c>
+      <c r="AP50" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT50" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW50" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG50" s="1"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AE51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK51" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN51" s="4" t="n">
-        <v>4</v>
-      </c>
+      <c r="AK51" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AE52" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK52" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN52" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AQ52" s="2" t="n">
-        <v>5</v>
-      </c>
+      <c r="AK52" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY52" s="1"/>
+      <c r="AZ52" s="1"/>
+      <c r="BA52" s="1"/>
+      <c r="BB52" s="1"/>
+      <c r="BC52" s="1"/>
+      <c r="BD52" s="1"/>
+      <c r="BE52" s="1"/>
+      <c r="BF52" s="1"/>
+      <c r="BG52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AE53" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK53" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN53" s="4" t="n">
-        <v>4</v>
-      </c>
+      <c r="AK53" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY53" s="1"/>
+      <c r="AZ53" s="1"/>
+      <c r="BA53" s="1"/>
+      <c r="BB53" s="1"/>
+      <c r="BC53" s="1"/>
+      <c r="BD53" s="1"/>
+      <c r="BE53" s="1"/>
+      <c r="BF53" s="1"/>
+      <c r="BG53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AE54" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK54" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN54" s="4" t="n">
-        <v>4</v>
-      </c>
+      <c r="AK54" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY54" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
+      <c r="AK55" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA55" s="1"/>
+      <c r="BB55" s="1"/>
+      <c r="BC55" s="1"/>
+      <c r="BD55" s="1"/>
+      <c r="BE55" s="1"/>
+      <c r="BF55" s="1"/>
+      <c r="BG55" s="1"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J55" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE55" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK55" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN55" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AQ55" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M56" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE56" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK56" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN56" s="4" t="n">
-        <v>4</v>
-      </c>
+      <c r="AR56" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU56" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA56" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="BG56" s="1"/>
+      <c r="BH56" s="1"/>
+      <c r="BI56" s="1"/>
+      <c r="BJ56" s="1"/>
+      <c r="BK56" s="1"/>
+      <c r="BL56" s="1"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P57" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE57" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK57" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN57" s="4" t="n">
-        <v>4</v>
-      </c>
+      <c r="AK57" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG57" s="1"/>
+      <c r="BH57" s="1"/>
+      <c r="BI57" s="1"/>
+      <c r="BJ57" s="1"/>
+      <c r="BK57" s="1"/>
+      <c r="BL57" s="1"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S58" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK58" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN58" s="4" t="n">
-        <v>4</v>
-      </c>
+      <c r="AK58" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA58" s="1"/>
+      <c r="BB58" s="1"/>
+      <c r="BC58" s="1"/>
+      <c r="BD58" s="1"/>
+      <c r="BE58" s="1"/>
+      <c r="BF58" s="1"/>
+      <c r="BG58" s="1"/>
+      <c r="BH58" s="1"/>
+      <c r="BI58" s="1"/>
+      <c r="BJ58" s="1"/>
+      <c r="BK58" s="1"/>
+      <c r="BL58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V59" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK59" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN59" s="4" t="n">
-        <v>4</v>
-      </c>
+      <c r="AK59" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA59" s="1"/>
+      <c r="BB59" s="1"/>
+      <c r="BC59" s="1"/>
+      <c r="BD59" s="1"/>
+      <c r="BE59" s="1"/>
+      <c r="BF59" s="1"/>
+      <c r="BG59" s="1"/>
+      <c r="BH59" s="1"/>
+      <c r="BI59" s="1"/>
+      <c r="BJ59" s="1"/>
+      <c r="BK59" s="1"/>
+      <c r="BL59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y60" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK60" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN60" s="4" t="n">
-        <v>4</v>
-      </c>
+      <c r="AM60" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA60" s="1"/>
+      <c r="BB60" s="1"/>
+      <c r="BC60" s="1"/>
+      <c r="BD60" s="1"/>
+      <c r="BE60" s="1"/>
+      <c r="BF60" s="1"/>
+      <c r="BG60" s="1"/>
+      <c r="BH60" s="1"/>
+      <c r="BI60" s="1"/>
+      <c r="BJ60" s="1"/>
+      <c r="BK60" s="1"/>
+      <c r="BL60" s="1"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AE61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK61" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN61" s="4" t="n">
-        <v>4</v>
-      </c>
+      <c r="AK61" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA61" s="1"/>
+      <c r="BB61" s="1"/>
+      <c r="BC61" s="1"/>
+      <c r="BD61" s="1"/>
+      <c r="BE61" s="1"/>
+      <c r="BF61" s="1"/>
+      <c r="BG61" s="1"/>
+      <c r="BH61" s="1"/>
+      <c r="BI61" s="1"/>
+      <c r="BJ61" s="1"/>
+      <c r="BK61" s="1"/>
+      <c r="BL61" s="1"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AE62" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK62" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN62" s="4" t="n">
-        <v>4</v>
-      </c>
+      <c r="AP62" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT62" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB62" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AE63" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK63" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN63" s="4" t="n">
-        <v>4</v>
-      </c>
+      <c r="AK63" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA63" s="1"/>
+      <c r="BB63" s="1"/>
+      <c r="BC63" s="1"/>
+      <c r="BD63" s="1"/>
+      <c r="BE63" s="1"/>
+      <c r="BF63" s="1"/>
+      <c r="BG63" s="1"/>
+      <c r="BH63" s="1"/>
+      <c r="BI63" s="1"/>
+      <c r="BJ63" s="1"/>
+      <c r="BK63" s="1"/>
+      <c r="BL63" s="1"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AE64" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK64" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN64" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AQ64" s="2" t="n">
-        <v>5</v>
-      </c>
+      <c r="A64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO64" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU64" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA64" s="1"/>
+      <c r="BB64" s="1"/>
+      <c r="BC64" s="1"/>
+      <c r="BD64" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF64" s="1"/>
+      <c r="BG64" s="1"/>
+      <c r="BH64" s="1"/>
+      <c r="BI64" s="1"/>
+      <c r="BJ64" s="1"/>
+      <c r="BK64" s="1"/>
+      <c r="BL64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AE65" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK65" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN65" s="4" t="n">
-        <v>4</v>
-      </c>
+      <c r="AK65" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA65" s="1"/>
+      <c r="BB65" s="1"/>
+      <c r="BC65" s="1"/>
+      <c r="BD65" s="1"/>
+      <c r="BE65" s="1"/>
+      <c r="BF65" s="1"/>
+      <c r="BG65" s="1"/>
+      <c r="BH65" s="1"/>
+      <c r="BI65" s="1"/>
+      <c r="BJ65" s="1"/>
+      <c r="BK65" s="1"/>
+      <c r="BL65" s="1"/>
+      <c r="BM65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AE66" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK66" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN66" s="4" t="n">
-        <v>4</v>
+      <c r="AW66" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF66" s="2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="s">
+      <c r="AY67" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG67" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK68" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA68" s="1"/>
+      <c r="BB68" s="1"/>
+      <c r="BC68" s="1"/>
+      <c r="BD68" s="1"/>
+      <c r="BE68" s="1"/>
+      <c r="BF68" s="1"/>
+      <c r="BG68" s="1"/>
+      <c r="BH68" s="1"/>
+      <c r="BI68" s="1"/>
+      <c r="BJ68" s="1"/>
+      <c r="BK68" s="1"/>
+      <c r="BL68" s="1"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK69" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA69" s="1"/>
+      <c r="BB69" s="1"/>
+      <c r="BC69" s="1"/>
+      <c r="BD69" s="1"/>
+      <c r="BE69" s="1"/>
+      <c r="BF69" s="1"/>
+      <c r="BG69" s="1"/>
+      <c r="BH69" s="1"/>
+      <c r="BI69" s="1"/>
+      <c r="BJ69" s="1"/>
+      <c r="BK69" s="1"/>
+      <c r="BL69" s="1"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK70" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA70" s="1"/>
+      <c r="BB70" s="1"/>
+      <c r="BC70" s="1"/>
+      <c r="BD70" s="1"/>
+      <c r="BE70" s="1"/>
+      <c r="BF70" s="1"/>
+      <c r="BG70" s="1"/>
+      <c r="BH70" s="1"/>
+      <c r="BI70" s="1"/>
+      <c r="BJ70" s="1"/>
+      <c r="BK70" s="1"/>
+      <c r="BL70" s="1"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AD67" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK67" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM67" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AP67" s="3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U68" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD68" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK68" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM68" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y69" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD69" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK69" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM69" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA70" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD70" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK70" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM70" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD71" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK71" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM71" s="3" t="n">
+      <c r="AP71" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW71" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF71" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD72" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK72" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM72" s="3" t="n">
-        <v>3</v>
-      </c>
+      <c r="AK72" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA72" s="1"/>
+      <c r="BB72" s="1"/>
+      <c r="BC72" s="1"/>
+      <c r="BD72" s="1"/>
+      <c r="BE72" s="1"/>
+      <c r="BF72" s="1"/>
+      <c r="BG72" s="1"/>
+      <c r="BH72" s="1"/>
+      <c r="BI72" s="1"/>
+      <c r="BJ72" s="1"/>
+      <c r="BK72" s="1"/>
+      <c r="BL72" s="1"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD73" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ73" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK73" s="1"/>
-      <c r="AM73" s="3" t="n">
-        <v>3</v>
-      </c>
+      <c r="AO73" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW73" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF73" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ73" s="1"/>
+      <c r="BK73" s="1"/>
+      <c r="BL73" s="1"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T74" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD74" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ74" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK74" s="1"/>
-      <c r="AM74" s="3" t="n">
-        <v>3</v>
-      </c>
+      <c r="AK74" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ74" s="1"/>
+      <c r="BK74" s="1"/>
+      <c r="BL74" s="1"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X75" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD75" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ75" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK75" s="1"/>
-      <c r="AM75" s="3" t="n">
-        <v>3</v>
-      </c>
+      <c r="AO75" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU75" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ75" s="1"/>
+      <c r="BK75" s="1"/>
+      <c r="BL75" s="1"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA76" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD76" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF76" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ76" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK76" s="1"/>
-      <c r="AM76" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP76" s="3" t="n">
-        <v>5</v>
+      <c r="AK76" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD76" s="3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD77" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF77" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ77" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK77" s="1"/>
-      <c r="AM77" s="3" t="n">
-        <v>4</v>
+      <c r="AP77" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT77" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB77" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD78" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF78" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ78" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK78" s="1"/>
-      <c r="AM78" s="3" t="n">
-        <v>4</v>
-      </c>
+      <c r="AK78" s="15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP79" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT79" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA79" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK80" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB80" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA81" s="1"/>
+      <c r="BB81" s="1"/>
+      <c r="BC81" s="1"/>
+      <c r="BD81" s="1"/>
+      <c r="BE81" s="1"/>
+      <c r="BF81" s="1"/>
+      <c r="BG81" s="1"/>
+      <c r="BH81" s="1"/>
+      <c r="BI81" s="1"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA82" s="1"/>
+      <c r="BB82" s="1"/>
+      <c r="BC82" s="1"/>
+      <c r="BD82" s="1"/>
+      <c r="BE82" s="1"/>
+      <c r="BF82" s="1"/>
+      <c r="BG82" s="1"/>
+      <c r="BH82" s="1"/>
+      <c r="BI82" s="1"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA83" s="1"/>
+      <c r="BB83" s="1"/>
+      <c r="BC83" s="1"/>
+      <c r="BD83" s="1"/>
+      <c r="BE83" s="1"/>
+      <c r="BF83" s="1"/>
+      <c r="BG83" s="1"/>
+      <c r="BH83" s="1"/>
+      <c r="BI83" s="1"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA84" s="1"/>
+      <c r="BB84" s="1"/>
+      <c r="BC84" s="1"/>
+      <c r="BD84" s="1"/>
+      <c r="BE84" s="1"/>
+      <c r="BF84" s="1"/>
+      <c r="BG84" s="1"/>
+      <c r="BH84" s="1"/>
+      <c r="BI84" s="1"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA85" s="1"/>
+      <c r="BB85" s="1"/>
+      <c r="BC85" s="1"/>
+      <c r="BD85" s="1"/>
+      <c r="BE85" s="1"/>
+      <c r="BF85" s="1"/>
+      <c r="BG85" s="1"/>
+      <c r="BH85" s="1"/>
+      <c r="BI85" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://www.youtube.com/watch?v=J3GmiOv_4xg"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/resources/mpn.xlsx
+++ b/resources/mpn.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="blank" sheetId="1" state="visible" r:id="rId2"/>
@@ -301,7 +301,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -408,14 +408,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -4428,10 +4420,10 @@
   </sheetPr>
   <dimension ref="A1:CK43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1275" topLeftCell="A1" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="AZ39" activeCellId="0" sqref="AZ39"/>
+      <selection pane="bottomLeft" activeCell="Y15" activeCellId="0" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4863,7 +4855,9 @@
         <v>5</v>
       </c>
       <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
+      <c r="Y11" s="15" t="n">
+        <v>4</v>
+      </c>
       <c r="AG11" s="15"/>
       <c r="AI11" s="15" t="n">
         <v>1</v>
@@ -4880,18 +4874,27 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y12" s="15" t="n">
+        <v>4</v>
+      </c>
       <c r="AN12" s="2"/>
       <c r="AW12" s="3" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y13" s="15" t="n">
+        <v>4</v>
+      </c>
       <c r="AN13" s="2"/>
       <c r="AW13" s="3" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y14" s="15" t="n">
+        <v>4</v>
+      </c>
       <c r="AN14" s="2"/>
       <c r="AW14" s="3" t="n">
         <v>3</v>
@@ -5752,7 +5755,7 @@
       </c>
       <c r="AG11" s="15"/>
       <c r="AI11" s="15"/>
-      <c r="AK11" s="27" t="n">
+      <c r="AK11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AN11" s="2"/>
@@ -5778,17 +5781,17 @@
       </c>
       <c r="AM13" s="2"/>
       <c r="AN13" s="2"/>
-      <c r="AO13" s="0"/>
-      <c r="AP13" s="0"/>
-      <c r="AQ13" s="0"/>
-      <c r="AR13" s="0"/>
-      <c r="AS13" s="0"/>
-      <c r="AT13" s="0"/>
-      <c r="AU13" s="0"/>
-      <c r="AV13" s="0"/>
-      <c r="AW13" s="0"/>
-      <c r="AX13" s="0"/>
-      <c r="AY13" s="0"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1"/>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="1"/>
+      <c r="AX13" s="1"/>
+      <c r="AY13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK14" s="3" t="n">
@@ -5796,17 +5799,17 @@
       </c>
       <c r="AM14" s="2"/>
       <c r="AN14" s="2"/>
-      <c r="AO14" s="0"/>
-      <c r="AP14" s="0"/>
-      <c r="AQ14" s="0"/>
-      <c r="AR14" s="0"/>
-      <c r="AS14" s="0"/>
-      <c r="AT14" s="0"/>
-      <c r="AU14" s="0"/>
-      <c r="AV14" s="0"/>
-      <c r="AW14" s="0"/>
-      <c r="AX14" s="0"/>
-      <c r="AY14" s="0"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1"/>
+      <c r="AX14" s="1"/>
+      <c r="AY14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P15" s="15"/>
@@ -5879,7 +5882,7 @@
       <c r="AS17" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="AW17" s="0"/>
+      <c r="AW17" s="1"/>
       <c r="AY17" s="3" t="n">
         <v>5</v>
       </c>
@@ -5921,7 +5924,7 @@
       <c r="AS19" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="AW19" s="0"/>
+      <c r="AW19" s="1"/>
       <c r="AY19" s="3" t="n">
         <v>5</v>
       </c>
@@ -5943,34 +5946,34 @@
         <v>1</v>
       </c>
       <c r="AN21" s="2"/>
-      <c r="AO21" s="0"/>
-      <c r="AP21" s="0"/>
-      <c r="AQ21" s="0"/>
-      <c r="AR21" s="0"/>
-      <c r="AS21" s="0"/>
-      <c r="AT21" s="0"/>
-      <c r="AU21" s="0"/>
-      <c r="AV21" s="0"/>
-      <c r="AW21" s="0"/>
-      <c r="AX21" s="0"/>
-      <c r="AY21" s="0"/>
+      <c r="AO21" s="1"/>
+      <c r="AP21" s="1"/>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1"/>
+      <c r="AS21" s="1"/>
+      <c r="AT21" s="1"/>
+      <c r="AU21" s="1"/>
+      <c r="AV21" s="1"/>
+      <c r="AW21" s="1"/>
+      <c r="AX21" s="1"/>
+      <c r="AY21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK22" s="3" t="n">
         <v>1</v>
       </c>
       <c r="AN22" s="2"/>
-      <c r="AO22" s="0"/>
-      <c r="AP22" s="0"/>
-      <c r="AQ22" s="0"/>
-      <c r="AR22" s="0"/>
-      <c r="AS22" s="0"/>
-      <c r="AT22" s="0"/>
-      <c r="AU22" s="0"/>
-      <c r="AV22" s="0"/>
-      <c r="AW22" s="0"/>
-      <c r="AX22" s="0"/>
-      <c r="AY22" s="0"/>
+      <c r="AO22" s="1"/>
+      <c r="AP22" s="1"/>
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="1"/>
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="1"/>
+      <c r="AU22" s="1"/>
+      <c r="AV22" s="1"/>
+      <c r="AW22" s="1"/>
+      <c r="AX22" s="1"/>
+      <c r="AY22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P23" s="15"/>
@@ -6027,7 +6030,7 @@
       <c r="AS25" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="AW25" s="0"/>
+      <c r="AW25" s="1"/>
       <c r="AY25" s="3" t="n">
         <v>5</v>
       </c>
@@ -6078,7 +6081,7 @@
       <c r="AS27" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="AW27" s="0"/>
+      <c r="AW27" s="1"/>
       <c r="AY27" s="3" t="n">
         <v>5</v>
       </c>
@@ -6170,7 +6173,7 @@
       <c r="AS33" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="AW33" s="0"/>
+      <c r="AW33" s="1"/>
       <c r="AY33" s="3" t="n">
         <v>5</v>
       </c>
@@ -6212,7 +6215,7 @@
       <c r="AS35" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="AW35" s="0"/>
+      <c r="AW35" s="1"/>
       <c r="AY35" s="3" t="n">
         <v>5</v>
       </c>
@@ -6268,7 +6271,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W41" s="15"/>
-      <c r="AI41" s="27" t="n">
+      <c r="AI41" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AK41" s="3" t="n">
@@ -6306,7 +6309,7 @@
   </sheetPr>
   <dimension ref="A1:CK128"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1245" topLeftCell="A100" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
       <selection pane="bottomLeft" activeCell="P124" activeCellId="0" sqref="P124"/>
@@ -6741,74 +6744,74 @@
       <c r="AD10" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="0"/>
-      <c r="C11" s="0"/>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
-      <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="0"/>
-      <c r="I11" s="0"/>
-      <c r="J11" s="0"/>
-      <c r="K11" s="0"/>
-      <c r="L11" s="0"/>
-      <c r="M11" s="0"/>
-      <c r="N11" s="0"/>
-      <c r="O11" s="0"/>
-      <c r="P11" s="0"/>
-      <c r="Q11" s="0"/>
-      <c r="R11" s="0"/>
-      <c r="S11" s="0"/>
-      <c r="T11" s="0"/>
-      <c r="U11" s="0"/>
-      <c r="V11" s="0"/>
-      <c r="W11" s="0"/>
-      <c r="X11" s="0"/>
-      <c r="Y11" s="0"/>
-      <c r="Z11" s="0"/>
-      <c r="AA11" s="0"/>
-      <c r="AB11" s="0"/>
-      <c r="AC11" s="0"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
       <c r="AD11" s="15" t="n">
         <v>5</v>
       </c>
       <c r="BF11" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="BG11" s="0"/>
-      <c r="BH11" s="0"/>
-      <c r="BI11" s="0"/>
-      <c r="BJ11" s="0"/>
-      <c r="BK11" s="0"/>
-      <c r="BL11" s="0"/>
-      <c r="BM11" s="0"/>
-      <c r="BN11" s="0"/>
-      <c r="BO11" s="0"/>
-      <c r="BP11" s="0"/>
-      <c r="BQ11" s="0"/>
-      <c r="BR11" s="0"/>
-      <c r="BS11" s="0"/>
-      <c r="BT11" s="0"/>
-      <c r="BU11" s="0"/>
-      <c r="BV11" s="0"/>
-      <c r="BW11" s="0"/>
-      <c r="BX11" s="0"/>
-      <c r="BY11" s="0"/>
-      <c r="BZ11" s="0"/>
-      <c r="CA11" s="0"/>
-      <c r="CB11" s="0"/>
-      <c r="CC11" s="0"/>
-      <c r="CD11" s="0"/>
-      <c r="CE11" s="0"/>
-      <c r="CF11" s="0"/>
-      <c r="CG11" s="0"/>
-      <c r="CH11" s="0"/>
-      <c r="CI11" s="0"/>
-      <c r="CJ11" s="0"/>
-      <c r="CK11" s="0"/>
+      <c r="BG11" s="1"/>
+      <c r="BH11" s="1"/>
+      <c r="BI11" s="1"/>
+      <c r="BJ11" s="1"/>
+      <c r="BK11" s="1"/>
+      <c r="BL11" s="1"/>
+      <c r="BM11" s="1"/>
+      <c r="BN11" s="1"/>
+      <c r="BO11" s="1"/>
+      <c r="BP11" s="1"/>
+      <c r="BQ11" s="1"/>
+      <c r="BR11" s="1"/>
+      <c r="BS11" s="1"/>
+      <c r="BT11" s="1"/>
+      <c r="BU11" s="1"/>
+      <c r="BV11" s="1"/>
+      <c r="BW11" s="1"/>
+      <c r="BX11" s="1"/>
+      <c r="BY11" s="1"/>
+      <c r="BZ11" s="1"/>
+      <c r="CA11" s="1"/>
+      <c r="CB11" s="1"/>
+      <c r="CC11" s="1"/>
+      <c r="CD11" s="1"/>
+      <c r="CE11" s="1"/>
+      <c r="CF11" s="1"/>
+      <c r="CG11" s="1"/>
+      <c r="CH11" s="1"/>
+      <c r="CI11" s="1"/>
+      <c r="CJ11" s="1"/>
+      <c r="CK11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK12" s="15" t="n">
@@ -7518,29 +7521,29 @@
       </c>
       <c r="AO71" s="15"/>
       <c r="AU71" s="15"/>
-      <c r="BA71" s="0"/>
-      <c r="BB71" s="0"/>
-      <c r="BC71" s="0"/>
-      <c r="BD71" s="0"/>
-      <c r="BE71" s="0"/>
-      <c r="BF71" s="0"/>
-      <c r="BG71" s="0"/>
-      <c r="BH71" s="0"/>
-      <c r="BI71" s="0"/>
+      <c r="BA71" s="1"/>
+      <c r="BB71" s="1"/>
+      <c r="BC71" s="1"/>
+      <c r="BD71" s="1"/>
+      <c r="BE71" s="1"/>
+      <c r="BF71" s="1"/>
+      <c r="BG71" s="1"/>
+      <c r="BH71" s="1"/>
+      <c r="BI71" s="1"/>
       <c r="BK71" s="2"/>
       <c r="BL71" s="2"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK72" s="15"/>
-      <c r="BA72" s="0"/>
-      <c r="BB72" s="0"/>
-      <c r="BC72" s="0"/>
-      <c r="BD72" s="0"/>
-      <c r="BE72" s="0"/>
-      <c r="BF72" s="0"/>
-      <c r="BG72" s="0"/>
-      <c r="BH72" s="0"/>
-      <c r="BI72" s="0"/>
+      <c r="BA72" s="1"/>
+      <c r="BB72" s="1"/>
+      <c r="BC72" s="1"/>
+      <c r="BD72" s="1"/>
+      <c r="BE72" s="1"/>
+      <c r="BF72" s="1"/>
+      <c r="BG72" s="1"/>
+      <c r="BH72" s="1"/>
+      <c r="BI72" s="1"/>
       <c r="BK72" s="2"/>
       <c r="BL72" s="2"/>
     </row>
@@ -7633,7 +7636,7 @@
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AO83" s="15"/>
       <c r="AU83" s="15"/>
-      <c r="AY83" s="0"/>
+      <c r="AY83" s="1"/>
       <c r="BB83" s="3" t="n">
         <v>3</v>
       </c>
@@ -7642,50 +7645,35 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK84" s="15"/>
-      <c r="AY84" s="0"/>
+      <c r="AY84" s="1"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD85" s="27"/>
-      <c r="AE85" s="27"/>
-      <c r="AF85" s="27"/>
-      <c r="AG85" s="27"/>
-      <c r="AH85" s="27"/>
-      <c r="AI85" s="27"/>
-      <c r="AJ85" s="27"/>
-      <c r="AK85" s="27"/>
-      <c r="AL85" s="27"/>
-      <c r="AM85" s="0"/>
-      <c r="AN85" s="0"/>
-      <c r="AO85" s="0"/>
-      <c r="AP85" s="0"/>
-      <c r="AQ85" s="0"/>
-      <c r="AR85" s="0"/>
-      <c r="AS85" s="0"/>
-      <c r="AT85" s="0"/>
-      <c r="AU85" s="0"/>
+      <c r="AD85" s="2"/>
+      <c r="AF85" s="2"/>
+      <c r="AI85" s="2"/>
+      <c r="AK85" s="2"/>
+      <c r="AM85" s="1"/>
+      <c r="AN85" s="1"/>
+      <c r="AO85" s="1"/>
+      <c r="AP85" s="1"/>
+      <c r="AQ85" s="1"/>
+      <c r="AR85" s="1"/>
+      <c r="AS85" s="1"/>
+      <c r="AT85" s="1"/>
+      <c r="AU85" s="1"/>
       <c r="AY85" s="3" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD86" s="27"/>
-      <c r="AE86" s="27"/>
-      <c r="AF86" s="27"/>
-      <c r="AG86" s="27"/>
-      <c r="AH86" s="27"/>
-      <c r="AI86" s="27"/>
-      <c r="AJ86" s="27"/>
-      <c r="AK86" s="27"/>
-      <c r="AL86" s="27"/>
-      <c r="AM86" s="27"/>
-      <c r="AN86" s="28"/>
-      <c r="AO86" s="27"/>
-      <c r="AP86" s="27"/>
-      <c r="AQ86" s="27"/>
-      <c r="AR86" s="27"/>
-      <c r="AS86" s="27"/>
-      <c r="AT86" s="27"/>
-      <c r="AU86" s="27"/>
+      <c r="AD86" s="2"/>
+      <c r="AF86" s="2"/>
+      <c r="AI86" s="2"/>
+      <c r="AK86" s="2"/>
+      <c r="AM86" s="2"/>
+      <c r="AP86" s="2"/>
+      <c r="AR86" s="2"/>
+      <c r="AU86" s="2"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
@@ -7694,154 +7682,95 @@
       <c r="Y87" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="AD87" s="27"/>
-      <c r="AE87" s="27"/>
-      <c r="AF87" s="27"/>
-      <c r="AG87" s="27"/>
-      <c r="AH87" s="27"/>
-      <c r="AI87" s="27"/>
-      <c r="AJ87" s="27"/>
+      <c r="AD87" s="2"/>
+      <c r="AF87" s="2"/>
+      <c r="AI87" s="2"/>
       <c r="AK87" s="15"/>
-      <c r="AL87" s="27"/>
-      <c r="AM87" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN87" s="28"/>
-      <c r="AO87" s="27"/>
-      <c r="AP87" s="27"/>
-      <c r="AQ87" s="27"/>
-      <c r="AR87" s="27" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS87" s="27"/>
-      <c r="AT87" s="27"/>
-      <c r="AU87" s="27" t="n">
+      <c r="AM87" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP87" s="2"/>
+      <c r="AR87" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU87" s="2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD88" s="27"/>
-      <c r="AE88" s="27"/>
-      <c r="AF88" s="27"/>
-      <c r="AG88" s="27"/>
-      <c r="AH88" s="27"/>
-      <c r="AI88" s="27"/>
-      <c r="AJ88" s="27"/>
+      <c r="AD88" s="2"/>
+      <c r="AF88" s="2"/>
+      <c r="AI88" s="2"/>
       <c r="AK88" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="AL88" s="27"/>
-      <c r="AM88" s="27"/>
-      <c r="AN88" s="28"/>
-      <c r="AO88" s="27"/>
-      <c r="AP88" s="27"/>
-      <c r="AQ88" s="27"/>
-      <c r="AR88" s="27"/>
-      <c r="AS88" s="27"/>
-      <c r="AT88" s="27"/>
-      <c r="AU88" s="27"/>
+      <c r="AM88" s="2"/>
+      <c r="AP88" s="2"/>
+      <c r="AR88" s="2"/>
+      <c r="AU88" s="2"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD89" s="27"/>
-      <c r="AE89" s="27"/>
-      <c r="AF89" s="27"/>
-      <c r="AG89" s="27"/>
-      <c r="AH89" s="27"/>
-      <c r="AI89" s="27"/>
-      <c r="AJ89" s="27"/>
+      <c r="AD89" s="2"/>
+      <c r="AF89" s="2"/>
+      <c r="AI89" s="2"/>
       <c r="AK89" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="AL89" s="27"/>
-      <c r="AM89" s="27"/>
-      <c r="AN89" s="28"/>
-      <c r="AO89" s="27"/>
-      <c r="AP89" s="27"/>
-      <c r="AQ89" s="27"/>
-      <c r="AR89" s="27"/>
-      <c r="AS89" s="27"/>
-      <c r="AT89" s="27"/>
-      <c r="AU89" s="27"/>
+      <c r="AM89" s="2"/>
+      <c r="AP89" s="2"/>
+      <c r="AR89" s="2"/>
+      <c r="AU89" s="2"/>
       <c r="BB89" s="2"/>
       <c r="BD89" s="2"/>
       <c r="BG89" s="2"/>
       <c r="BI89" s="2"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD90" s="27"/>
-      <c r="AE90" s="27"/>
-      <c r="AF90" s="27"/>
-      <c r="AG90" s="27"/>
-      <c r="AH90" s="27"/>
-      <c r="AI90" s="27"/>
-      <c r="AJ90" s="27"/>
+      <c r="AD90" s="2"/>
+      <c r="AF90" s="2"/>
+      <c r="AI90" s="2"/>
       <c r="AK90" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="AL90" s="27"/>
-      <c r="AM90" s="27"/>
-      <c r="AN90" s="28"/>
-      <c r="AO90" s="27"/>
-      <c r="AP90" s="27"/>
-      <c r="AQ90" s="27"/>
-      <c r="AR90" s="27"/>
-      <c r="AS90" s="27"/>
-      <c r="AT90" s="27"/>
-      <c r="AU90" s="27"/>
+      <c r="AM90" s="2"/>
+      <c r="AP90" s="2"/>
+      <c r="AR90" s="2"/>
+      <c r="AU90" s="2"/>
       <c r="BB90" s="2"/>
       <c r="BD90" s="2"/>
       <c r="BG90" s="2"/>
       <c r="BI90" s="2"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD91" s="27"/>
-      <c r="AE91" s="27"/>
-      <c r="AF91" s="27"/>
-      <c r="AG91" s="27"/>
-      <c r="AH91" s="27"/>
-      <c r="AI91" s="27"/>
-      <c r="AJ91" s="27"/>
+      <c r="AD91" s="2"/>
+      <c r="AF91" s="2"/>
+      <c r="AI91" s="2"/>
       <c r="AK91" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="AL91" s="27"/>
-      <c r="AM91" s="27"/>
-      <c r="AN91" s="28"/>
-      <c r="AO91" s="27" t="n">
+      <c r="AM91" s="2"/>
+      <c r="AO91" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="AP91" s="27"/>
-      <c r="AQ91" s="27"/>
-      <c r="AR91" s="27"/>
-      <c r="AS91" s="27"/>
-      <c r="AT91" s="27"/>
-      <c r="AU91" s="27"/>
+      <c r="AP91" s="2"/>
+      <c r="AR91" s="2"/>
+      <c r="AU91" s="2"/>
       <c r="BB91" s="2"/>
       <c r="BD91" s="2"/>
       <c r="BG91" s="2"/>
       <c r="BI91" s="2"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD92" s="27"/>
-      <c r="AE92" s="27"/>
-      <c r="AF92" s="27"/>
-      <c r="AG92" s="27"/>
-      <c r="AH92" s="27"/>
-      <c r="AI92" s="27"/>
-      <c r="AJ92" s="27"/>
+      <c r="AD92" s="2"/>
+      <c r="AF92" s="2"/>
+      <c r="AI92" s="2"/>
       <c r="AK92" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="AL92" s="27"/>
-      <c r="AM92" s="27"/>
-      <c r="AN92" s="28"/>
-      <c r="AO92" s="27"/>
-      <c r="AP92" s="27"/>
-      <c r="AQ92" s="27"/>
-      <c r="AR92" s="27"/>
-      <c r="AS92" s="27"/>
-      <c r="AT92" s="27"/>
-      <c r="AU92" s="27"/>
+      <c r="AM92" s="2"/>
+      <c r="AP92" s="2"/>
+      <c r="AR92" s="2"/>
+      <c r="AU92" s="2"/>
       <c r="BB92" s="2"/>
       <c r="BD92" s="2"/>
       <c r="BG92" s="2"/>
@@ -7880,74 +7809,54 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="Y96" s="15"/>
-      <c r="AD96" s="27"/>
-      <c r="AE96" s="27"/>
-      <c r="AF96" s="27"/>
-      <c r="AG96" s="27"/>
-      <c r="AH96" s="27"/>
-      <c r="AI96" s="27"/>
-      <c r="AJ96" s="27"/>
+      <c r="AD96" s="2"/>
+      <c r="AF96" s="2"/>
+      <c r="AI96" s="2"/>
       <c r="AK96" s="15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD97" s="27"/>
-      <c r="AE97" s="27"/>
-      <c r="AF97" s="27"/>
-      <c r="AG97" s="27"/>
-      <c r="AH97" s="27"/>
-      <c r="AI97" s="27"/>
-      <c r="AJ97" s="27"/>
+      <c r="AD97" s="2"/>
+      <c r="AF97" s="2"/>
+      <c r="AI97" s="2"/>
       <c r="AK97" s="15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD98" s="27"/>
-      <c r="AE98" s="27"/>
-      <c r="AF98" s="27"/>
-      <c r="AG98" s="27"/>
-      <c r="AH98" s="27"/>
-      <c r="AI98" s="27"/>
-      <c r="AJ98" s="27"/>
+      <c r="AD98" s="2"/>
+      <c r="AF98" s="2"/>
+      <c r="AI98" s="2"/>
       <c r="AK98" s="15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD99" s="27"/>
-      <c r="AE99" s="27"/>
-      <c r="AF99" s="27"/>
-      <c r="AG99" s="27"/>
-      <c r="AH99" s="27"/>
-      <c r="AI99" s="27"/>
-      <c r="AJ99" s="27"/>
+      <c r="AD99" s="2"/>
+      <c r="AF99" s="2"/>
+      <c r="AI99" s="2"/>
       <c r="AK99" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="AO99" s="0"/>
-      <c r="AP99" s="0"/>
-      <c r="AQ99" s="0"/>
-      <c r="AR99" s="0"/>
-      <c r="AS99" s="0"/>
-      <c r="AT99" s="0"/>
-      <c r="AU99" s="0"/>
-      <c r="AV99" s="0"/>
-      <c r="AW99" s="0"/>
-      <c r="AX99" s="0"/>
-      <c r="AY99" s="0"/>
-      <c r="AZ99" s="0"/>
-      <c r="BA99" s="0"/>
+      <c r="AO99" s="1"/>
+      <c r="AP99" s="1"/>
+      <c r="AQ99" s="1"/>
+      <c r="AR99" s="1"/>
+      <c r="AS99" s="1"/>
+      <c r="AT99" s="1"/>
+      <c r="AU99" s="1"/>
+      <c r="AV99" s="1"/>
+      <c r="AW99" s="1"/>
+      <c r="AX99" s="1"/>
+      <c r="AY99" s="1"/>
+      <c r="AZ99" s="1"/>
+      <c r="BA99" s="1"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD100" s="27"/>
-      <c r="AE100" s="27"/>
-      <c r="AF100" s="27"/>
-      <c r="AG100" s="27"/>
-      <c r="AH100" s="27"/>
-      <c r="AI100" s="27"/>
-      <c r="AJ100" s="27"/>
+      <c r="AD100" s="2"/>
+      <c r="AF100" s="2"/>
+      <c r="AI100" s="2"/>
       <c r="AK100" s="15" t="n">
         <v>1</v>
       </c>
@@ -7956,13 +7865,9 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD101" s="27"/>
-      <c r="AE101" s="27"/>
-      <c r="AF101" s="27"/>
-      <c r="AG101" s="27"/>
-      <c r="AH101" s="27"/>
-      <c r="AI101" s="27"/>
-      <c r="AJ101" s="27"/>
+      <c r="AD101" s="2"/>
+      <c r="AF101" s="2"/>
+      <c r="AI101" s="2"/>
       <c r="AK101" s="15" t="n">
         <v>1</v>
       </c>
@@ -8005,17 +7910,17 @@
       <c r="AK105" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="AO105" s="0"/>
-      <c r="AP105" s="0"/>
-      <c r="AQ105" s="0"/>
-      <c r="AR105" s="0"/>
-      <c r="AS105" s="0"/>
-      <c r="AT105" s="0"/>
-      <c r="AU105" s="0"/>
-      <c r="AV105" s="0"/>
-      <c r="AW105" s="0"/>
-      <c r="AX105" s="0"/>
-      <c r="AY105" s="0"/>
+      <c r="AO105" s="1"/>
+      <c r="AP105" s="1"/>
+      <c r="AQ105" s="1"/>
+      <c r="AR105" s="1"/>
+      <c r="AS105" s="1"/>
+      <c r="AT105" s="1"/>
+      <c r="AU105" s="1"/>
+      <c r="AV105" s="1"/>
+      <c r="AW105" s="1"/>
+      <c r="AX105" s="1"/>
+      <c r="AY105" s="1"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK106" s="15" t="n">
@@ -8029,17 +7934,17 @@
       <c r="AK107" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="AO107" s="0"/>
-      <c r="AP107" s="0"/>
-      <c r="AQ107" s="0"/>
-      <c r="AR107" s="0"/>
-      <c r="AS107" s="0"/>
-      <c r="AT107" s="0"/>
-      <c r="AU107" s="0"/>
-      <c r="AV107" s="0"/>
-      <c r="AW107" s="0"/>
-      <c r="AX107" s="0"/>
-      <c r="AY107" s="0"/>
+      <c r="AO107" s="1"/>
+      <c r="AP107" s="1"/>
+      <c r="AQ107" s="1"/>
+      <c r="AR107" s="1"/>
+      <c r="AS107" s="1"/>
+      <c r="AT107" s="1"/>
+      <c r="AU107" s="1"/>
+      <c r="AV107" s="1"/>
+      <c r="AW107" s="1"/>
+      <c r="AX107" s="1"/>
+      <c r="AY107" s="1"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK108" s="15" t="n">
@@ -8053,17 +7958,17 @@
       <c r="AK109" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="AO109" s="0"/>
-      <c r="AP109" s="0"/>
-      <c r="AQ109" s="0"/>
-      <c r="AR109" s="0"/>
-      <c r="AS109" s="0"/>
-      <c r="AT109" s="0"/>
-      <c r="AU109" s="0"/>
-      <c r="AV109" s="0"/>
-      <c r="AW109" s="0"/>
-      <c r="AX109" s="0"/>
-      <c r="AY109" s="0"/>
+      <c r="AO109" s="1"/>
+      <c r="AP109" s="1"/>
+      <c r="AQ109" s="1"/>
+      <c r="AR109" s="1"/>
+      <c r="AS109" s="1"/>
+      <c r="AT109" s="1"/>
+      <c r="AU109" s="1"/>
+      <c r="AV109" s="1"/>
+      <c r="AW109" s="1"/>
+      <c r="AX109" s="1"/>
+      <c r="AY109" s="1"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK110" s="15" t="n">
@@ -8109,17 +8014,17 @@
       <c r="AK115" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="AO115" s="0"/>
-      <c r="AP115" s="0"/>
-      <c r="AQ115" s="0"/>
-      <c r="AR115" s="0"/>
-      <c r="AS115" s="0"/>
-      <c r="AT115" s="0"/>
-      <c r="AU115" s="0"/>
-      <c r="AV115" s="0"/>
-      <c r="AW115" s="0"/>
-      <c r="AX115" s="0"/>
-      <c r="AY115" s="0"/>
+      <c r="AO115" s="1"/>
+      <c r="AP115" s="1"/>
+      <c r="AQ115" s="1"/>
+      <c r="AR115" s="1"/>
+      <c r="AS115" s="1"/>
+      <c r="AT115" s="1"/>
+      <c r="AU115" s="1"/>
+      <c r="AV115" s="1"/>
+      <c r="AW115" s="1"/>
+      <c r="AX115" s="1"/>
+      <c r="AY115" s="1"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK116" s="15" t="n">

--- a/resources/mpn.xlsx
+++ b/resources/mpn.xlsx
@@ -5,25 +5,26 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="blank" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="canon1" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="pathetique2_10" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="kiki_1" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="prelude15_1" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="prelude15_2" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="prelude15_3" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="pavane" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="prelude15_5" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="prelude15_6" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="prelude15_7" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="prelude15_8" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="prelude15_9" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="prelude15_10" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="prelude15_11" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="prelude15_12" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="farewell_1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="canon1" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="pathetique2_10" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="kiki_1" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="prelude15_1" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="prelude15_2" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="prelude15_3" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="pavane" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="prelude15_5" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="prelude15_6" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="prelude15_7" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="prelude15_8" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="prelude15_9" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="prelude15_10" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="prelude15_11" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="prelude15_12" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -35,9 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="34">
   <si>
     <t xml:space="preserve">bt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">別れの曲 Lesson1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=2MjAkCyxc4Y</t>
   </si>
   <si>
     <t xml:space="preserve">パッヘルベル - 「カノン」 - Lesson1</t>
@@ -232,7 +239,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -251,6 +258,27 @@
       <left style="hair"/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
@@ -301,7 +329,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -390,11 +418,39 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -937,6 +993,972 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:CK75"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1560" topLeftCell="A56" activePane="bottomLeft" state="split"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="S13" activeCellId="0" sqref="S13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="33" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="45" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="57" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="69" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="76" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="77" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="78" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="79" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="80" min="80" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="81" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="84" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="85" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="86" min="86" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="2" width="3.13"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BN1" s="2"/>
+      <c r="BP1" s="2"/>
+      <c r="BS1" s="2"/>
+      <c r="BU1" s="2"/>
+      <c r="BW1" s="2"/>
+      <c r="BX1" s="2"/>
+      <c r="BZ1" s="2"/>
+      <c r="CB1" s="2"/>
+      <c r="CE1" s="2"/>
+      <c r="CG1" s="2"/>
+      <c r="CI1" s="2"/>
+      <c r="CJ1" s="2"/>
+      <c r="CK1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BG2" s="2"/>
+      <c r="BI2" s="2"/>
+      <c r="BK2" s="2"/>
+      <c r="BL2" s="2"/>
+      <c r="BN2" s="2"/>
+      <c r="BP2" s="2"/>
+      <c r="BS2" s="2"/>
+      <c r="BU2" s="2"/>
+      <c r="BW2" s="2"/>
+      <c r="BX2" s="2"/>
+      <c r="BZ2" s="2"/>
+      <c r="CB2" s="2"/>
+      <c r="CE2" s="2"/>
+      <c r="CG2" s="2"/>
+      <c r="CI2" s="2"/>
+      <c r="CJ2" s="2"/>
+      <c r="CK2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2"/>
+      <c r="BB3" s="2"/>
+      <c r="BD3" s="2"/>
+      <c r="BG3" s="2"/>
+      <c r="BI3" s="2"/>
+      <c r="BK3" s="2"/>
+      <c r="BL3" s="2"/>
+      <c r="BN3" s="2"/>
+      <c r="BP3" s="2"/>
+      <c r="BS3" s="2"/>
+      <c r="BU3" s="2"/>
+      <c r="BW3" s="2"/>
+      <c r="BX3" s="2"/>
+      <c r="BZ3" s="2"/>
+      <c r="CB3" s="2"/>
+      <c r="CE3" s="2"/>
+      <c r="CG3" s="2"/>
+      <c r="CI3" s="2"/>
+      <c r="CJ3" s="2"/>
+      <c r="CK3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BG4" s="2"/>
+      <c r="BI4" s="2"/>
+      <c r="BK4" s="2"/>
+      <c r="BL4" s="2"/>
+      <c r="BN4" s="2"/>
+      <c r="BP4" s="2"/>
+      <c r="BS4" s="2"/>
+      <c r="BU4" s="2"/>
+      <c r="BW4" s="2"/>
+      <c r="BX4" s="2"/>
+      <c r="BZ4" s="2"/>
+      <c r="CB4" s="2"/>
+      <c r="CE4" s="2"/>
+      <c r="CG4" s="2"/>
+      <c r="CI4" s="2"/>
+      <c r="CJ4" s="2"/>
+      <c r="CK4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="9"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="12"/>
+      <c r="BB5" s="12"/>
+      <c r="BC5" s="12"/>
+      <c r="BD5" s="12"/>
+      <c r="BE5" s="12"/>
+      <c r="BF5" s="12"/>
+      <c r="BG5" s="12"/>
+      <c r="BH5" s="12"/>
+      <c r="BI5" s="12"/>
+      <c r="BJ5" s="12"/>
+      <c r="BK5" s="12"/>
+      <c r="BL5" s="11"/>
+      <c r="BM5" s="9"/>
+      <c r="BN5" s="9"/>
+      <c r="BO5" s="9"/>
+      <c r="BP5" s="9"/>
+      <c r="BQ5" s="9"/>
+      <c r="BR5" s="9"/>
+      <c r="BS5" s="9"/>
+      <c r="BT5" s="9"/>
+      <c r="BU5" s="9"/>
+      <c r="BV5" s="9"/>
+      <c r="BW5" s="9"/>
+      <c r="BX5" s="10"/>
+      <c r="BY5" s="12"/>
+      <c r="BZ5" s="12"/>
+      <c r="CA5" s="12"/>
+      <c r="CB5" s="12"/>
+      <c r="CC5" s="12"/>
+      <c r="CD5" s="12"/>
+      <c r="CE5" s="12"/>
+      <c r="CF5" s="12"/>
+      <c r="CG5" s="12"/>
+      <c r="CH5" s="12"/>
+      <c r="CI5" s="12"/>
+      <c r="CJ5" s="11"/>
+      <c r="CK5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AY6" s="13"/>
+      <c r="BB6" s="13"/>
+      <c r="BD6" s="13"/>
+      <c r="BG6" s="13"/>
+      <c r="BI6" s="13"/>
+      <c r="BK6" s="13"/>
+      <c r="BN6" s="13"/>
+      <c r="BP6" s="13"/>
+      <c r="BS6" s="13"/>
+      <c r="BU6" s="13"/>
+      <c r="BW6" s="13"/>
+      <c r="BZ6" s="13"/>
+      <c r="CB6" s="13"/>
+      <c r="CE6" s="13"/>
+      <c r="CG6" s="13"/>
+      <c r="CI6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="15"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R11" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y11" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK11" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN11" s="15"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK12" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S13" s="15"/>
+      <c r="T13" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y13" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK13" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK14" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U15" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD15" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK16" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T17" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC17" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK18" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T19" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y19" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK19" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK20" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U21" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK21" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK22" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W23" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF23" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK23" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD24" s="15"/>
+      <c r="AK24" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U25" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD25" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK26" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U27" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD27" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK27" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK28" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W29" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF29" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK30" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD31" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG31" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK31" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK32" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y33" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF33" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK33" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK34" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF35" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK35" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK36" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK37" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK38" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK39" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK40" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK41" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK42" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK43" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK44" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD45" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG45" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK45" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK46" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y47" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF47" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK47" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK48" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U49" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD49" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK49" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK50" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF51" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK51" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK52" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U53" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD53" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK53" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK54" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T55" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC55" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK55" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK56" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R57" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD57" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK57" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK58" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T59" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC59" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK59" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK60" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U61" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD61" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK61" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK62" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T63" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF63" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK63" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK64" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R65" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG65" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK65" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK66" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF67" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK67" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK68" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW68" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK69" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW69" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK70" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW70" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK71" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW71" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK72" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW72" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK73" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW73" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK74" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW74" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:CK44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -1081,7 +2103,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1132,7 +2154,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1758,7 +2780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1907,7 +2929,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1958,7 +2980,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2546,7 +3568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2695,7 +3717,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2746,7 +3768,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3410,7 +4432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3559,7 +4581,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -3610,7 +4632,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -4413,14 +5435,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:CK43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1275" topLeftCell="A1" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="Y15" activeCellId="0" sqref="Y15"/>
@@ -4562,7 +5584,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -4613,7 +5635,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -5306,7 +6328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5455,7 +6477,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -5506,7 +6528,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -6302,7 +7324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -6451,7 +7473,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -6502,7 +7524,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -8070,7 +9092,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AD122" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK122" s="3" t="n">
         <v>1</v>
@@ -8140,10 +9162,1092 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:CK51"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2580" topLeftCell="A1" activePane="topLeft" state="split"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="33" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="45" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="57" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="69" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="76" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="77" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="78" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="79" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="80" min="80" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="81" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="84" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="85" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="86" min="86" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="2" width="3.13"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BN1" s="2"/>
+      <c r="BP1" s="2"/>
+      <c r="BS1" s="2"/>
+      <c r="BU1" s="2"/>
+      <c r="BW1" s="2"/>
+      <c r="BX1" s="2"/>
+      <c r="BZ1" s="2"/>
+      <c r="CB1" s="2"/>
+      <c r="CE1" s="2"/>
+      <c r="CG1" s="2"/>
+      <c r="CI1" s="2"/>
+      <c r="CJ1" s="2"/>
+      <c r="CK1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BG2" s="2"/>
+      <c r="BI2" s="2"/>
+      <c r="BK2" s="2"/>
+      <c r="BL2" s="2"/>
+      <c r="BN2" s="2"/>
+      <c r="BP2" s="2"/>
+      <c r="BS2" s="2"/>
+      <c r="BU2" s="2"/>
+      <c r="BW2" s="2"/>
+      <c r="BX2" s="2"/>
+      <c r="BZ2" s="2"/>
+      <c r="CB2" s="2"/>
+      <c r="CE2" s="2"/>
+      <c r="CG2" s="2"/>
+      <c r="CI2" s="2"/>
+      <c r="CJ2" s="2"/>
+      <c r="CK2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2"/>
+      <c r="BB3" s="2"/>
+      <c r="BD3" s="2"/>
+      <c r="BG3" s="2"/>
+      <c r="BI3" s="2"/>
+      <c r="BK3" s="2"/>
+      <c r="BL3" s="2"/>
+      <c r="BN3" s="2"/>
+      <c r="BP3" s="2"/>
+      <c r="BS3" s="2"/>
+      <c r="BU3" s="2"/>
+      <c r="BW3" s="2"/>
+      <c r="BX3" s="2"/>
+      <c r="BZ3" s="2"/>
+      <c r="CB3" s="2"/>
+      <c r="CE3" s="2"/>
+      <c r="CG3" s="2"/>
+      <c r="CI3" s="2"/>
+      <c r="CJ3" s="2"/>
+      <c r="CK3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BG4" s="2"/>
+      <c r="BI4" s="2"/>
+      <c r="BK4" s="2"/>
+      <c r="BL4" s="2"/>
+      <c r="BN4" s="2"/>
+      <c r="BP4" s="2"/>
+      <c r="BS4" s="2"/>
+      <c r="BU4" s="2"/>
+      <c r="BW4" s="2"/>
+      <c r="BX4" s="2"/>
+      <c r="BZ4" s="2"/>
+      <c r="CB4" s="2"/>
+      <c r="CE4" s="2"/>
+      <c r="CG4" s="2"/>
+      <c r="CI4" s="2"/>
+      <c r="CJ4" s="2"/>
+      <c r="CK4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="9"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="12"/>
+      <c r="BB5" s="12"/>
+      <c r="BC5" s="12"/>
+      <c r="BD5" s="12"/>
+      <c r="BE5" s="12"/>
+      <c r="BF5" s="12"/>
+      <c r="BG5" s="12"/>
+      <c r="BH5" s="12"/>
+      <c r="BI5" s="12"/>
+      <c r="BJ5" s="12"/>
+      <c r="BK5" s="12"/>
+      <c r="BL5" s="11"/>
+      <c r="BM5" s="9"/>
+      <c r="BN5" s="9"/>
+      <c r="BO5" s="9"/>
+      <c r="BP5" s="9"/>
+      <c r="BQ5" s="9"/>
+      <c r="BR5" s="9"/>
+      <c r="BS5" s="9"/>
+      <c r="BT5" s="9"/>
+      <c r="BU5" s="9"/>
+      <c r="BV5" s="9"/>
+      <c r="BW5" s="9"/>
+      <c r="BX5" s="10"/>
+      <c r="BY5" s="12"/>
+      <c r="BZ5" s="12"/>
+      <c r="CA5" s="12"/>
+      <c r="CB5" s="12"/>
+      <c r="CC5" s="12"/>
+      <c r="CD5" s="12"/>
+      <c r="CE5" s="12"/>
+      <c r="CF5" s="12"/>
+      <c r="CG5" s="12"/>
+      <c r="CH5" s="12"/>
+      <c r="CI5" s="12"/>
+      <c r="CJ5" s="11"/>
+      <c r="CK5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AY6" s="13"/>
+      <c r="BB6" s="13"/>
+      <c r="BD6" s="13"/>
+      <c r="BG6" s="13"/>
+      <c r="BI6" s="13"/>
+      <c r="BK6" s="13"/>
+      <c r="BN6" s="13"/>
+      <c r="BP6" s="13"/>
+      <c r="BS6" s="13"/>
+      <c r="BU6" s="13"/>
+      <c r="BW6" s="13"/>
+      <c r="BZ6" s="13"/>
+      <c r="CB6" s="13"/>
+      <c r="CE6" s="13"/>
+      <c r="CG6" s="13"/>
+      <c r="CI6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="15"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN10" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U11" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="15"/>
+      <c r="AS11" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB12" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB14" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS14" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P15" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR15" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU15" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB16" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AL17" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB18" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="18"/>
+      <c r="AI19" s="19"/>
+      <c r="AJ19" s="18"/>
+      <c r="AK19" s="19"/>
+      <c r="AL19" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="19"/>
+      <c r="AN19" s="20"/>
+      <c r="AO19" s="18"/>
+      <c r="AP19" s="19"/>
+      <c r="AQ19" s="18"/>
+      <c r="AR19" s="19"/>
+      <c r="AS19" s="18"/>
+      <c r="AT19" s="18"/>
+      <c r="AU19" s="19"/>
+      <c r="AV19" s="18"/>
+      <c r="AW19" s="19"/>
+      <c r="AX19" s="18"/>
+      <c r="AY19" s="19"/>
+      <c r="AZ19" s="20"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB20" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW20" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AL21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR21" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW21" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB22" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU22" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U23" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS23" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW23" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB24" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN24" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK25" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB26" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN26" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="19"/>
+      <c r="U27" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC27" s="18"/>
+      <c r="AD27" s="19"/>
+      <c r="AE27" s="18"/>
+      <c r="AF27" s="19"/>
+      <c r="AG27" s="18"/>
+      <c r="AH27" s="18"/>
+      <c r="AI27" s="19"/>
+      <c r="AJ27" s="18"/>
+      <c r="AK27" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL27" s="18"/>
+      <c r="AM27" s="19"/>
+      <c r="AN27" s="20"/>
+      <c r="AO27" s="18"/>
+      <c r="AP27" s="19"/>
+      <c r="AQ27" s="18"/>
+      <c r="AR27" s="19"/>
+      <c r="AS27" s="18"/>
+      <c r="AT27" s="18"/>
+      <c r="AU27" s="19"/>
+      <c r="AV27" s="18"/>
+      <c r="AW27" s="19"/>
+      <c r="AX27" s="18"/>
+      <c r="AY27" s="19"/>
+      <c r="AZ27" s="20"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB28" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS28" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX28" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN29" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX29" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB30" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS30" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW30" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P31" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB31" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB32" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX32" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN33" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB34" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR34" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ34" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="19"/>
+      <c r="U35" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC35" s="18"/>
+      <c r="AD35" s="19"/>
+      <c r="AE35" s="18"/>
+      <c r="AF35" s="19"/>
+      <c r="AG35" s="18"/>
+      <c r="AH35" s="18"/>
+      <c r="AI35" s="19"/>
+      <c r="AJ35" s="18"/>
+      <c r="AK35" s="19"/>
+      <c r="AL35" s="18"/>
+      <c r="AM35" s="19"/>
+      <c r="AN35" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO35" s="18"/>
+      <c r="AP35" s="19"/>
+      <c r="AQ35" s="18"/>
+      <c r="AR35" s="19"/>
+      <c r="AS35" s="18"/>
+      <c r="AT35" s="18"/>
+      <c r="AU35" s="19"/>
+      <c r="AV35" s="18"/>
+      <c r="AW35" s="19"/>
+      <c r="AX35" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY35" s="19"/>
+      <c r="AZ35" s="20"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB36" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS36" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW36" s="3" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR37" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB38" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN38" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS38" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P39" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL39" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP39" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU39" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB40" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN40" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR40" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AL41" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP41" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB42" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN42" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR42" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="18"/>
+      <c r="V43" s="18"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="18"/>
+      <c r="Y43" s="19"/>
+      <c r="Z43" s="18"/>
+      <c r="AA43" s="19"/>
+      <c r="AB43" s="20"/>
+      <c r="AC43" s="18"/>
+      <c r="AD43" s="19"/>
+      <c r="AE43" s="18"/>
+      <c r="AF43" s="19"/>
+      <c r="AG43" s="18"/>
+      <c r="AH43" s="18"/>
+      <c r="AI43" s="19"/>
+      <c r="AJ43" s="18"/>
+      <c r="AK43" s="19"/>
+      <c r="AL43" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM43" s="19"/>
+      <c r="AN43" s="20"/>
+      <c r="AO43" s="18"/>
+      <c r="AP43" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ43" s="18"/>
+      <c r="AR43" s="19"/>
+      <c r="AS43" s="18"/>
+      <c r="AT43" s="18"/>
+      <c r="AU43" s="19"/>
+      <c r="AV43" s="18"/>
+      <c r="AW43" s="19"/>
+      <c r="AX43" s="18"/>
+      <c r="AY43" s="19"/>
+      <c r="AZ43" s="20"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB44" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN44" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR44" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW44" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AL45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP45" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW45" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB46" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN46" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR46" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU46" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U47" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK47" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS47" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB48" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN48" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK49" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB50" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN50" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="18"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="23"/>
+      <c r="V51" s="18"/>
+      <c r="W51" s="19"/>
+      <c r="X51" s="18"/>
+      <c r="Y51" s="19"/>
+      <c r="Z51" s="18"/>
+      <c r="AA51" s="19"/>
+      <c r="AB51" s="20"/>
+      <c r="AC51" s="18"/>
+      <c r="AD51" s="19"/>
+      <c r="AE51" s="18"/>
+      <c r="AF51" s="19"/>
+      <c r="AG51" s="18"/>
+      <c r="AH51" s="18"/>
+      <c r="AI51" s="19"/>
+      <c r="AJ51" s="18"/>
+      <c r="AK51" s="19"/>
+      <c r="AL51" s="18"/>
+      <c r="AM51" s="19"/>
+      <c r="AN51" s="20"/>
+      <c r="AO51" s="18"/>
+      <c r="AP51" s="19"/>
+      <c r="AQ51" s="18"/>
+      <c r="AR51" s="19"/>
+      <c r="AS51" s="18"/>
+      <c r="AT51" s="18"/>
+      <c r="AU51" s="19"/>
+      <c r="AV51" s="18"/>
+      <c r="AW51" s="19"/>
+      <c r="AX51" s="18"/>
+      <c r="AY51" s="19"/>
+      <c r="AZ51" s="20"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="https://www.youtube.com/watch?v=2MjAkCyxc4Y"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:CK135"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2835" topLeftCell="A121" activePane="bottomLeft" state="split"/>
+      <pane xSplit="0" ySplit="2835" topLeftCell="A106" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="U1" activeCellId="0" sqref="U1"/>
       <selection pane="bottomLeft" activeCell="AE9" activeCellId="0" sqref="AE9"/>
     </sheetView>
@@ -8284,7 +10388,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -8335,7 +10439,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -8594,7 +10698,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU10" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8686,7 +10790,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AM22" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8829,7 +10933,7 @@
         <v>1</v>
       </c>
       <c r="AM35" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT35" s="2" t="n">
         <v>3</v>
@@ -9079,7 +11183,7 @@
         <v>1</v>
       </c>
       <c r="AM63" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT63" s="2" t="n">
         <v>3</v>
@@ -9140,104 +11244,104 @@
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AJ70" s="15"/>
     </row>
-    <row r="71" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="17" t="s">
+    <row r="71" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="19"/>
-      <c r="L71" s="18"/>
-      <c r="M71" s="19"/>
-      <c r="N71" s="18"/>
-      <c r="O71" s="19"/>
-      <c r="P71" s="20"/>
-      <c r="Q71" s="18"/>
-      <c r="R71" s="19"/>
-      <c r="S71" s="18"/>
-      <c r="T71" s="19"/>
-      <c r="U71" s="18"/>
-      <c r="V71" s="18"/>
-      <c r="W71" s="19"/>
-      <c r="X71" s="18"/>
-      <c r="Y71" s="19"/>
-      <c r="Z71" s="18"/>
-      <c r="AA71" s="19"/>
-      <c r="AB71" s="20"/>
-      <c r="AC71" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD71" s="19"/>
-      <c r="AE71" s="18"/>
-      <c r="AF71" s="19"/>
-      <c r="AG71" s="18"/>
-      <c r="AH71" s="18"/>
-      <c r="AI71" s="19"/>
-      <c r="AJ71" s="17"/>
-      <c r="AK71" s="19"/>
-      <c r="AL71" s="18"/>
-      <c r="AM71" s="19"/>
-      <c r="AN71" s="20"/>
-      <c r="AO71" s="17"/>
-      <c r="AP71" s="19"/>
-      <c r="AQ71" s="18"/>
-      <c r="AR71" s="19"/>
-      <c r="AS71" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT71" s="18"/>
-      <c r="AU71" s="19"/>
-      <c r="AV71" s="18"/>
-      <c r="AW71" s="19"/>
-      <c r="AX71" s="18"/>
-      <c r="AY71" s="19"/>
-      <c r="AZ71" s="20"/>
-      <c r="BA71" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB71" s="19"/>
-      <c r="BC71" s="18"/>
-      <c r="BD71" s="19"/>
-      <c r="BE71" s="18"/>
-      <c r="BF71" s="18"/>
-      <c r="BG71" s="19"/>
-      <c r="BH71" s="18"/>
-      <c r="BI71" s="19"/>
-      <c r="BJ71" s="18"/>
-      <c r="BK71" s="19"/>
-      <c r="BL71" s="20"/>
-      <c r="BM71" s="18"/>
-      <c r="BN71" s="19"/>
-      <c r="BO71" s="18"/>
-      <c r="BP71" s="19"/>
-      <c r="BQ71" s="18"/>
-      <c r="BR71" s="18"/>
-      <c r="BS71" s="19"/>
-      <c r="BT71" s="18"/>
-      <c r="BU71" s="19"/>
-      <c r="BV71" s="18"/>
-      <c r="BW71" s="19"/>
-      <c r="BX71" s="20"/>
-      <c r="BY71" s="18"/>
-      <c r="BZ71" s="19"/>
-      <c r="CA71" s="18"/>
-      <c r="CB71" s="19"/>
-      <c r="CC71" s="18"/>
-      <c r="CD71" s="18"/>
-      <c r="CE71" s="19"/>
-      <c r="CF71" s="18"/>
-      <c r="CG71" s="19"/>
-      <c r="CH71" s="18"/>
-      <c r="CI71" s="19"/>
-      <c r="CJ71" s="20"/>
-      <c r="CK71" s="18"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="26"/>
+      <c r="L71" s="25"/>
+      <c r="M71" s="26"/>
+      <c r="N71" s="25"/>
+      <c r="O71" s="26"/>
+      <c r="P71" s="27"/>
+      <c r="Q71" s="25"/>
+      <c r="R71" s="26"/>
+      <c r="S71" s="25"/>
+      <c r="T71" s="26"/>
+      <c r="U71" s="25"/>
+      <c r="V71" s="25"/>
+      <c r="W71" s="26"/>
+      <c r="X71" s="25"/>
+      <c r="Y71" s="26"/>
+      <c r="Z71" s="25"/>
+      <c r="AA71" s="26"/>
+      <c r="AB71" s="27"/>
+      <c r="AC71" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD71" s="26"/>
+      <c r="AE71" s="25"/>
+      <c r="AF71" s="26"/>
+      <c r="AG71" s="25"/>
+      <c r="AH71" s="25"/>
+      <c r="AI71" s="26"/>
+      <c r="AJ71" s="24"/>
+      <c r="AK71" s="26"/>
+      <c r="AL71" s="25"/>
+      <c r="AM71" s="26"/>
+      <c r="AN71" s="27"/>
+      <c r="AO71" s="24"/>
+      <c r="AP71" s="26"/>
+      <c r="AQ71" s="25"/>
+      <c r="AR71" s="26"/>
+      <c r="AS71" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT71" s="25"/>
+      <c r="AU71" s="26"/>
+      <c r="AV71" s="25"/>
+      <c r="AW71" s="26"/>
+      <c r="AX71" s="25"/>
+      <c r="AY71" s="26"/>
+      <c r="AZ71" s="27"/>
+      <c r="BA71" s="25" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB71" s="26"/>
+      <c r="BC71" s="25"/>
+      <c r="BD71" s="26"/>
+      <c r="BE71" s="25"/>
+      <c r="BF71" s="25"/>
+      <c r="BG71" s="26"/>
+      <c r="BH71" s="25"/>
+      <c r="BI71" s="26"/>
+      <c r="BJ71" s="25"/>
+      <c r="BK71" s="26"/>
+      <c r="BL71" s="27"/>
+      <c r="BM71" s="25"/>
+      <c r="BN71" s="26"/>
+      <c r="BO71" s="25"/>
+      <c r="BP71" s="26"/>
+      <c r="BQ71" s="25"/>
+      <c r="BR71" s="25"/>
+      <c r="BS71" s="26"/>
+      <c r="BT71" s="25"/>
+      <c r="BU71" s="26"/>
+      <c r="BV71" s="25"/>
+      <c r="BW71" s="26"/>
+      <c r="BX71" s="27"/>
+      <c r="BY71" s="25"/>
+      <c r="BZ71" s="26"/>
+      <c r="CA71" s="25"/>
+      <c r="CB71" s="26"/>
+      <c r="CC71" s="25"/>
+      <c r="CD71" s="25"/>
+      <c r="CE71" s="26"/>
+      <c r="CF71" s="25"/>
+      <c r="CG71" s="26"/>
+      <c r="CH71" s="25"/>
+      <c r="CI71" s="26"/>
+      <c r="CJ71" s="27"/>
+      <c r="CK71" s="25"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AJ72" s="15" t="n">
@@ -9531,7 +11635,7 @@
         <v>1</v>
       </c>
       <c r="AM95" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT95" s="2" t="n">
         <v>5</v>
@@ -9944,7 +12048,7 @@
       <c r="AC127" s="15"/>
       <c r="AH127" s="15"/>
       <c r="AM127" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO127" s="2" t="n">
         <v>1</v>
@@ -10037,7 +12141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -10046,7 +12150,7 @@
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2835" topLeftCell="A1" activePane="topLeft" state="split"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -10186,7 +12290,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -10237,7 +12341,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -10473,7 +12577,7 @@
       <c r="AG7" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="AK7" s="24" t="n">
+      <c r="AK7" s="31" t="n">
         <v>1</v>
       </c>
       <c r="AN7" s="4" t="n">
@@ -10488,7 +12592,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK8" s="25" t="n">
+      <c r="AK8" s="32" t="n">
         <v>1</v>
       </c>
       <c r="AN8" s="4" t="n">
@@ -11355,7 +13459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -11504,7 +13608,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -11555,7 +13659,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -12307,7 +14411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -12456,7 +14560,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -12507,7 +14611,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -13681,7 +15785,7 @@
         <v>4</v>
       </c>
       <c r="AL80" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB80" s="3" t="n">
         <v>3</v>
@@ -13753,7 +15857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -13902,7 +16006,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -13953,7 +16057,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -14221,12 +16325,12 @@
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
       <c r="AN9" s="1"/>
-      <c r="AO9" s="26" t="n">
+      <c r="AO9" s="33" t="n">
         <v>2</v>
       </c>
       <c r="AP9" s="1"/>
       <c r="AQ9" s="1"/>
-      <c r="AR9" s="26" t="n">
+      <c r="AR9" s="33" t="n">
         <v>1</v>
       </c>
       <c r="AS9" s="1"/>
@@ -15174,7 +17278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -15323,7 +17427,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -15374,7 +17478,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -16258,7 +18362,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -16407,7 +18511,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -16458,7 +18562,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -17445,7 +19549,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AP127" s="15" t="n">
         <v>3</v>
@@ -18217,970 +20321,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:CK75"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1560" topLeftCell="A56" activePane="bottomLeft" state="split"/>
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
-      <selection pane="bottomLeft" activeCell="S13" activeCellId="0" sqref="S13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="4" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="4" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="33" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="4" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="45" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="4" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="57" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="4" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="69" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="76" style="4" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="77" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="78" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="79" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="80" min="80" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="81" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="84" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="85" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="86" min="86" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="4" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="2" width="3.13"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2"/>
-      <c r="BB1" s="2"/>
-      <c r="BD1" s="2"/>
-      <c r="BG1" s="2"/>
-      <c r="BI1" s="2"/>
-      <c r="BK1" s="2"/>
-      <c r="BL1" s="2"/>
-      <c r="BN1" s="2"/>
-      <c r="BP1" s="2"/>
-      <c r="BS1" s="2"/>
-      <c r="BU1" s="2"/>
-      <c r="BW1" s="2"/>
-      <c r="BX1" s="2"/>
-      <c r="BZ1" s="2"/>
-      <c r="CB1" s="2"/>
-      <c r="CE1" s="2"/>
-      <c r="CG1" s="2"/>
-      <c r="CI1" s="2"/>
-      <c r="CJ1" s="2"/>
-      <c r="CK1" s="6"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
-      <c r="AP2" s="2"/>
-      <c r="AR2" s="2"/>
-      <c r="AU2" s="2"/>
-      <c r="AW2" s="2"/>
-      <c r="AY2" s="2"/>
-      <c r="AZ2" s="2"/>
-      <c r="BB2" s="2"/>
-      <c r="BD2" s="2"/>
-      <c r="BG2" s="2"/>
-      <c r="BI2" s="2"/>
-      <c r="BK2" s="2"/>
-      <c r="BL2" s="2"/>
-      <c r="BN2" s="2"/>
-      <c r="BP2" s="2"/>
-      <c r="BS2" s="2"/>
-      <c r="BU2" s="2"/>
-      <c r="BW2" s="2"/>
-      <c r="BX2" s="2"/>
-      <c r="BZ2" s="2"/>
-      <c r="CB2" s="2"/>
-      <c r="CE2" s="2"/>
-      <c r="CG2" s="2"/>
-      <c r="CI2" s="2"/>
-      <c r="CJ2" s="2"/>
-      <c r="CK2" s="6"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
-      <c r="AP3" s="2"/>
-      <c r="AR3" s="2"/>
-      <c r="AU3" s="2"/>
-      <c r="AW3" s="2"/>
-      <c r="AY3" s="2"/>
-      <c r="AZ3" s="2"/>
-      <c r="BB3" s="2"/>
-      <c r="BD3" s="2"/>
-      <c r="BG3" s="2"/>
-      <c r="BI3" s="2"/>
-      <c r="BK3" s="2"/>
-      <c r="BL3" s="2"/>
-      <c r="BN3" s="2"/>
-      <c r="BP3" s="2"/>
-      <c r="BS3" s="2"/>
-      <c r="BU3" s="2"/>
-      <c r="BW3" s="2"/>
-      <c r="BX3" s="2"/>
-      <c r="BZ3" s="2"/>
-      <c r="CB3" s="2"/>
-      <c r="CE3" s="2"/>
-      <c r="CG3" s="2"/>
-      <c r="CI3" s="2"/>
-      <c r="CJ3" s="2"/>
-      <c r="CK3" s="6"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2"/>
-      <c r="AP4" s="2"/>
-      <c r="AR4" s="2"/>
-      <c r="AU4" s="2"/>
-      <c r="AW4" s="2"/>
-      <c r="AY4" s="2"/>
-      <c r="AZ4" s="2"/>
-      <c r="BB4" s="2"/>
-      <c r="BD4" s="2"/>
-      <c r="BG4" s="2"/>
-      <c r="BI4" s="2"/>
-      <c r="BK4" s="2"/>
-      <c r="BL4" s="2"/>
-      <c r="BN4" s="2"/>
-      <c r="BP4" s="2"/>
-      <c r="BS4" s="2"/>
-      <c r="BU4" s="2"/>
-      <c r="BW4" s="2"/>
-      <c r="BX4" s="2"/>
-      <c r="BZ4" s="2"/>
-      <c r="CB4" s="2"/>
-      <c r="CE4" s="2"/>
-      <c r="CG4" s="2"/>
-      <c r="CI4" s="2"/>
-      <c r="CJ4" s="2"/>
-      <c r="CK4" s="6"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12"/>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="12"/>
-      <c r="AN5" s="11"/>
-      <c r="AO5" s="9"/>
-      <c r="AP5" s="9"/>
-      <c r="AQ5" s="9"/>
-      <c r="AR5" s="9"/>
-      <c r="AS5" s="9"/>
-      <c r="AT5" s="9"/>
-      <c r="AU5" s="9"/>
-      <c r="AV5" s="9"/>
-      <c r="AW5" s="9"/>
-      <c r="AX5" s="9"/>
-      <c r="AY5" s="9"/>
-      <c r="AZ5" s="10"/>
-      <c r="BA5" s="12"/>
-      <c r="BB5" s="12"/>
-      <c r="BC5" s="12"/>
-      <c r="BD5" s="12"/>
-      <c r="BE5" s="12"/>
-      <c r="BF5" s="12"/>
-      <c r="BG5" s="12"/>
-      <c r="BH5" s="12"/>
-      <c r="BI5" s="12"/>
-      <c r="BJ5" s="12"/>
-      <c r="BK5" s="12"/>
-      <c r="BL5" s="11"/>
-      <c r="BM5" s="9"/>
-      <c r="BN5" s="9"/>
-      <c r="BO5" s="9"/>
-      <c r="BP5" s="9"/>
-      <c r="BQ5" s="9"/>
-      <c r="BR5" s="9"/>
-      <c r="BS5" s="9"/>
-      <c r="BT5" s="9"/>
-      <c r="BU5" s="9"/>
-      <c r="BV5" s="9"/>
-      <c r="BW5" s="9"/>
-      <c r="BX5" s="10"/>
-      <c r="BY5" s="12"/>
-      <c r="BZ5" s="12"/>
-      <c r="CA5" s="12"/>
-      <c r="CB5" s="12"/>
-      <c r="CC5" s="12"/>
-      <c r="CD5" s="12"/>
-      <c r="CE5" s="12"/>
-      <c r="CF5" s="12"/>
-      <c r="CG5" s="12"/>
-      <c r="CH5" s="12"/>
-      <c r="CI5" s="12"/>
-      <c r="CJ5" s="11"/>
-      <c r="CK5" s="9"/>
-    </row>
-    <row r="6" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AI6" s="13"/>
-      <c r="AK6" s="13"/>
-      <c r="AM6" s="13"/>
-      <c r="AO6" s="14"/>
-      <c r="AP6" s="13"/>
-      <c r="AR6" s="13"/>
-      <c r="AU6" s="13"/>
-      <c r="AW6" s="13"/>
-      <c r="AY6" s="13"/>
-      <c r="BB6" s="13"/>
-      <c r="BD6" s="13"/>
-      <c r="BG6" s="13"/>
-      <c r="BI6" s="13"/>
-      <c r="BK6" s="13"/>
-      <c r="BN6" s="13"/>
-      <c r="BP6" s="13"/>
-      <c r="BS6" s="13"/>
-      <c r="BU6" s="13"/>
-      <c r="BW6" s="13"/>
-      <c r="BZ6" s="13"/>
-      <c r="CB6" s="13"/>
-      <c r="CE6" s="13"/>
-      <c r="CG6" s="13"/>
-      <c r="CI6" s="13"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="15"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R11" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y11" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK11" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN11" s="15"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK12" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S13" s="15"/>
-      <c r="T13" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y13" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK13" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK14" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U15" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD15" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK15" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK16" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T17" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC17" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK17" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK18" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T19" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y19" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK19" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK20" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U21" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y21" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK21" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK22" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W23" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF23" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK23" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD24" s="15"/>
-      <c r="AK24" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U25" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD25" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK25" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK26" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U27" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD27" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK27" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK28" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W29" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF29" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK29" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK30" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD31" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG31" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK31" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK32" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y33" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF33" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK33" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK34" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF35" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK35" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK36" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK37" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK38" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK39" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK40" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK41" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK42" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK43" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK44" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD45" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG45" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK45" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK46" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y47" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF47" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK47" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK48" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U49" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD49" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK49" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK50" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF51" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK51" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK52" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U53" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD53" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK53" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK54" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T55" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC55" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK55" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK56" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R57" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD57" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK57" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK58" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T59" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC59" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK59" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK60" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U61" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD61" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK61" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK62" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T63" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF63" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK63" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK64" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R65" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG65" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK65" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK66" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y67" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF67" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK67" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK68" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW68" s="3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK69" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW69" s="3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK70" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW70" s="3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK71" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW71" s="3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK72" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW72" s="3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK73" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW73" s="3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK74" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW74" s="3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12ページ &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/resources/mpn.xlsx
+++ b/resources/mpn.xlsx
@@ -8,23 +8,24 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="blank" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="farewell_1" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="canon1" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="pathetique2_10" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="kiki_1" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="prelude15_1" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="prelude15_2" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="prelude15_3" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="pavane" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="prelude15_5" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="prelude15_6" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="prelude15_7" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="prelude15_8" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="prelude15_9" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="prelude15_10" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="prelude15_11" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="prelude15_12" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="blank" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="pavane_1" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="farewell_1" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="canon1" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="pathetique2_10" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="kiki_1" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="prelude15_1" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="prelude15_2" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="prelude15_3" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="pavane" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="prelude15_5" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="prelude15_6" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="prelude15_7" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="prelude15_8" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="prelude15_9" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="prelude15_10" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="prelude15_11" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="prelude15_12" sheetId="18" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -36,9 +37,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="37">
+  <si>
+    <t xml:space="preserve">TITLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL</t>
+  </si>
   <si>
     <t xml:space="preserve">bt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亡き王女のためのパヴァーヌ – Lesson1</t>
   </si>
   <si>
     <t xml:space="preserve">別れの曲 Lesson1</t>
@@ -538,6 +548,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -546,8 +662,8 @@
   <dimension ref="A1:CK11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2835" topLeftCell="A1" activePane="bottomLeft" state="split"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <pane xSplit="0" ySplit="2835" topLeftCell="A1" activePane="topLeft" state="split"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -686,7 +802,9 @@
       <c r="CK1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7"/>
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
@@ -735,7 +853,9 @@
       <c r="CK2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="1"/>
@@ -962,13 +1082,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B7" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN11" s="15" t="n">
         <v>1</v>
@@ -989,6 +1109,1967 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:CK251"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2595" topLeftCell="A1" activePane="bottomLeft" state="split"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="AJ13" activeCellId="0" sqref="AJ13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="33" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="45" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="57" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="69" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="76" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="77" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="78" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="79" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="80" min="80" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="81" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="84" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="85" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="86" min="86" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="2" width="3.13"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BN1" s="2"/>
+      <c r="BP1" s="2"/>
+      <c r="BS1" s="2"/>
+      <c r="BU1" s="2"/>
+      <c r="BW1" s="2"/>
+      <c r="BX1" s="2"/>
+      <c r="BZ1" s="2"/>
+      <c r="CB1" s="2"/>
+      <c r="CE1" s="2"/>
+      <c r="CG1" s="2"/>
+      <c r="CI1" s="2"/>
+      <c r="CJ1" s="2"/>
+      <c r="CK1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BG2" s="2"/>
+      <c r="BI2" s="2"/>
+      <c r="BK2" s="2"/>
+      <c r="BL2" s="2"/>
+      <c r="BN2" s="2"/>
+      <c r="BP2" s="2"/>
+      <c r="BS2" s="2"/>
+      <c r="BU2" s="2"/>
+      <c r="BW2" s="2"/>
+      <c r="BX2" s="2"/>
+      <c r="BZ2" s="2"/>
+      <c r="CB2" s="2"/>
+      <c r="CE2" s="2"/>
+      <c r="CG2" s="2"/>
+      <c r="CI2" s="2"/>
+      <c r="CJ2" s="2"/>
+      <c r="CK2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2"/>
+      <c r="BB3" s="2"/>
+      <c r="BD3" s="2"/>
+      <c r="BG3" s="2"/>
+      <c r="BI3" s="2"/>
+      <c r="BK3" s="2"/>
+      <c r="BL3" s="2"/>
+      <c r="BN3" s="2"/>
+      <c r="BP3" s="2"/>
+      <c r="BS3" s="2"/>
+      <c r="BU3" s="2"/>
+      <c r="BW3" s="2"/>
+      <c r="BX3" s="2"/>
+      <c r="BZ3" s="2"/>
+      <c r="CB3" s="2"/>
+      <c r="CE3" s="2"/>
+      <c r="CG3" s="2"/>
+      <c r="CI3" s="2"/>
+      <c r="CJ3" s="2"/>
+      <c r="CK3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BG4" s="2"/>
+      <c r="BI4" s="2"/>
+      <c r="BK4" s="2"/>
+      <c r="BL4" s="2"/>
+      <c r="BN4" s="2"/>
+      <c r="BP4" s="2"/>
+      <c r="BS4" s="2"/>
+      <c r="BU4" s="2"/>
+      <c r="BW4" s="2"/>
+      <c r="BX4" s="2"/>
+      <c r="BZ4" s="2"/>
+      <c r="CB4" s="2"/>
+      <c r="CE4" s="2"/>
+      <c r="CG4" s="2"/>
+      <c r="CI4" s="2"/>
+      <c r="CJ4" s="2"/>
+      <c r="CK4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="9"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="12"/>
+      <c r="BB5" s="12"/>
+      <c r="BC5" s="12"/>
+      <c r="BD5" s="12"/>
+      <c r="BE5" s="12"/>
+      <c r="BF5" s="12"/>
+      <c r="BG5" s="12"/>
+      <c r="BH5" s="12"/>
+      <c r="BI5" s="12"/>
+      <c r="BJ5" s="12"/>
+      <c r="BK5" s="12"/>
+      <c r="BL5" s="11"/>
+      <c r="BM5" s="9"/>
+      <c r="BN5" s="9"/>
+      <c r="BO5" s="9"/>
+      <c r="BP5" s="9"/>
+      <c r="BQ5" s="9"/>
+      <c r="BR5" s="9"/>
+      <c r="BS5" s="9"/>
+      <c r="BT5" s="9"/>
+      <c r="BU5" s="9"/>
+      <c r="BV5" s="9"/>
+      <c r="BW5" s="9"/>
+      <c r="BX5" s="10"/>
+      <c r="BY5" s="12"/>
+      <c r="BZ5" s="12"/>
+      <c r="CA5" s="12"/>
+      <c r="CB5" s="12"/>
+      <c r="CC5" s="12"/>
+      <c r="CD5" s="12"/>
+      <c r="CE5" s="12"/>
+      <c r="CF5" s="12"/>
+      <c r="CG5" s="12"/>
+      <c r="CH5" s="12"/>
+      <c r="CI5" s="12"/>
+      <c r="CJ5" s="11"/>
+      <c r="CK5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AY6" s="13"/>
+      <c r="BB6" s="13"/>
+      <c r="BD6" s="13"/>
+      <c r="BG6" s="13"/>
+      <c r="BI6" s="13"/>
+      <c r="BK6" s="13"/>
+      <c r="BN6" s="13"/>
+      <c r="BP6" s="13"/>
+      <c r="BS6" s="13"/>
+      <c r="BU6" s="13"/>
+      <c r="BW6" s="13"/>
+      <c r="BZ6" s="13"/>
+      <c r="CB6" s="13"/>
+      <c r="CE6" s="13"/>
+      <c r="CG6" s="13"/>
+      <c r="CI6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="15"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="15"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="15"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="15"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="AN11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="2" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="15"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AJ13" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC15" s="15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AX16" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="15"/>
+      <c r="AF17" s="15"/>
+      <c r="AG17" s="15"/>
+      <c r="AH17" s="15"/>
+      <c r="AI17" s="15"/>
+      <c r="AJ17" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU17" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="15"/>
+      <c r="AF18" s="15"/>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="15"/>
+      <c r="AI18" s="15"/>
+      <c r="AJ18" s="15"/>
+      <c r="AS18" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="15"/>
+      <c r="AH19" s="15"/>
+      <c r="AI19" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ19" s="15"/>
+      <c r="AQ19" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="15"/>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="15"/>
+      <c r="AJ20" s="15"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF21" s="15"/>
+      <c r="AG21" s="15"/>
+      <c r="AH21" s="15"/>
+      <c r="AI21" s="15"/>
+      <c r="AJ21" s="15"/>
+      <c r="AS21" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="15"/>
+      <c r="AF22" s="15"/>
+      <c r="AG22" s="15"/>
+      <c r="AH22" s="15"/>
+      <c r="AI22" s="15"/>
+      <c r="AJ22" s="15"/>
+      <c r="AU22" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH23" s="15"/>
+      <c r="AI23" s="15"/>
+      <c r="AJ23" s="15"/>
+      <c r="AU23" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="15"/>
+      <c r="AF24" s="15"/>
+      <c r="AG24" s="15"/>
+      <c r="AH24" s="15"/>
+      <c r="AI24" s="15"/>
+      <c r="AJ24" s="15"/>
+      <c r="AS24" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="15"/>
+      <c r="AF25" s="15"/>
+      <c r="AG25" s="15"/>
+      <c r="AH25" s="15"/>
+      <c r="AI25" s="15"/>
+      <c r="AJ25" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS25" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ27" s="4" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS29" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS30" s="15"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AL31" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS31" s="15"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA32" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AO33" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX33" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AV34" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ35" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU35" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AV37" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AX38" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AJ39" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX39" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AZ40" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AV41" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AU42" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO43" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS43" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AO44" s="15"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AU45" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AV46" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AI47" s="15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AX48" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AU49" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS50" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN51" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU51" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W55" s="15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AX56" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X57" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y57" s="15"/>
+      <c r="Z57" s="15"/>
+      <c r="AA57" s="15"/>
+      <c r="AB57" s="16"/>
+      <c r="AU57" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X58" s="15"/>
+      <c r="Y58" s="15"/>
+      <c r="Z58" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA58" s="15"/>
+      <c r="AB58" s="16"/>
+      <c r="AS58" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X59" s="15"/>
+      <c r="Y59" s="15"/>
+      <c r="Z59" s="15"/>
+      <c r="AA59" s="15"/>
+      <c r="AB59" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU59" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AZ61" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AZ65" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ67" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS69" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AL71" s="15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AX72" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BC73" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AZ74" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ75" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ75" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AX76" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE77" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV77" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AX78" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS79" s="2" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN81" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN82" s="16"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG83" s="15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE84" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ84" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AJ85" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV85" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AI86" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU86" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AG87" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS87" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN88" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AQ89" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS90" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG91" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK91" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU91" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE93" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI93" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO93" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS93" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB95" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU95" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB96" s="16"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BC97" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BE98" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX99" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ99" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG99" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AZ100" s="16"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AV101" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW101" s="15"/>
+      <c r="AX101" s="15"/>
+      <c r="AY101" s="15"/>
+      <c r="AZ101" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH101" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AV103" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW103" s="15"/>
+      <c r="AX103" s="15"/>
+      <c r="AY103" s="15"/>
+      <c r="AZ103" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BG104" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AU105" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV105" s="15"/>
+      <c r="AW105" s="15"/>
+      <c r="AX105" s="15"/>
+      <c r="AY105" s="15"/>
+      <c r="AZ105" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH105" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BJ106" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS107" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT107" s="15"/>
+      <c r="AU107" s="15"/>
+      <c r="AV107" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC107" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS109" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT109" s="15"/>
+      <c r="AU109" s="15"/>
+      <c r="AV109" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB109" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS112" s="15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN113" s="16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS114" s="15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU115" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV115" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC115" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS117" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT117" s="15"/>
+      <c r="AU117" s="15"/>
+      <c r="AV117" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE117" s="2" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS118" s="15"/>
+      <c r="AT118" s="15"/>
+      <c r="AU118" s="15"/>
+      <c r="AV118" s="15"/>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS119" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT119" s="15"/>
+      <c r="AU119" s="15"/>
+      <c r="AV119" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BC120" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AQ121" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR121" s="15"/>
+      <c r="AS121" s="15"/>
+      <c r="AT121" s="15"/>
+      <c r="AU121" s="15"/>
+      <c r="AV121" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE121" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BG122" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP123" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS123" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ123" s="4" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP125" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS125" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX125" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS126" s="15"/>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP127" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ127" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU127" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP128" s="15"/>
+      <c r="AQ128" s="15"/>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP129" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ129" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP131" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ131" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX131" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN133" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ133" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ133" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN135" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ135" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AX136" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AL137" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ137" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ137" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BB138" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP139" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU139" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AJ141" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN141" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS141" s="2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AL144" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ144" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AJ145" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK145" s="15"/>
+      <c r="AL145" s="15"/>
+      <c r="AM145" s="15"/>
+      <c r="AN145" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS145" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AL146" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM146" s="15"/>
+      <c r="AN146" s="16"/>
+      <c r="AO146" s="15"/>
+      <c r="AP146" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU146" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ147" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK147" s="15"/>
+      <c r="AL147" s="15"/>
+      <c r="AM147" s="15"/>
+      <c r="AN147" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS147" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH149" s="15"/>
+      <c r="AI149" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL149" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ149" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ155" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA155" s="15"/>
+      <c r="BB155" s="15"/>
+      <c r="BC155" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH155" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AZ157" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA157" s="15"/>
+      <c r="BB157" s="15"/>
+      <c r="BC157" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AZ159" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA159" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BJ160" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AZ161" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA161" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG161" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BE162" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU163" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV163" s="15"/>
+      <c r="AW163" s="15"/>
+      <c r="AX163" s="15"/>
+      <c r="AY163" s="15"/>
+      <c r="AZ163" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC163" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AU164" s="15"/>
+      <c r="AV164" s="15"/>
+      <c r="AW164" s="15"/>
+      <c r="AX164" s="15"/>
+      <c r="AY164" s="15"/>
+      <c r="AZ164" s="16"/>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AU165" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV165" s="15"/>
+      <c r="AW165" s="15"/>
+      <c r="AX165" s="15"/>
+      <c r="AY165" s="15"/>
+      <c r="AZ165" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE165" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BG166" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AV167" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW167" s="15"/>
+      <c r="AX167" s="15"/>
+      <c r="AY167" s="15"/>
+      <c r="AZ167" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG167" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AV168" s="1"/>
+      <c r="AW168" s="1"/>
+      <c r="AX168" s="1"/>
+      <c r="AY168" s="1"/>
+      <c r="AZ168" s="1"/>
+      <c r="BE168" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AV169" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW169" s="15"/>
+      <c r="AX169" s="15"/>
+      <c r="AY169" s="15"/>
+      <c r="AZ169" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE169" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA171" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB171" s="15"/>
+      <c r="BC171" s="15"/>
+      <c r="BD171" s="15"/>
+      <c r="BE171" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL171" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA173" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB173" s="15"/>
+      <c r="BC173" s="15"/>
+      <c r="BD173" s="15"/>
+      <c r="BE173" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA175" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB175" s="15"/>
+      <c r="BC175" s="15"/>
+      <c r="BD175" s="15"/>
+      <c r="BE175" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BM176" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA177" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB177" s="15"/>
+      <c r="BC177" s="15"/>
+      <c r="BD177" s="15"/>
+      <c r="BE177" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ177" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BH178" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA179" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB179" s="15"/>
+      <c r="BC179" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG179" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA181" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB181" s="15"/>
+      <c r="BC181" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH181" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BJ182" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AZ183" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA183" s="15"/>
+      <c r="BB183" s="15"/>
+      <c r="BC183" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BL184" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AZ185" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA185" s="15"/>
+      <c r="BB185" s="15"/>
+      <c r="BC185" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH185" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BG186" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ187" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA187" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE187" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AZ188" s="16"/>
+      <c r="BA188" s="15"/>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AZ189" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA189" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG189" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BH190" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AX191" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY191" s="15"/>
+      <c r="AZ191" s="16"/>
+      <c r="BA191" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BJ192" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AX193" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY193" s="15"/>
+      <c r="AZ193" s="16"/>
+      <c r="BA193" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG193" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BE194" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ195" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA195" s="15"/>
+      <c r="BB195" s="15"/>
+      <c r="BC195" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG195" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AZ197" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA197" s="15"/>
+      <c r="BB197" s="15"/>
+      <c r="BC197" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AZ198" s="16"/>
+      <c r="BA198" s="15"/>
+      <c r="BB198" s="15"/>
+      <c r="BC198" s="15"/>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AU199" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ199" s="16"/>
+      <c r="BA199" s="15"/>
+      <c r="BB199" s="15"/>
+      <c r="BC199" s="15"/>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BJ200" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AV201" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG201" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AX202" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE202" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ203" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG203" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BL205" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BL209" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL211" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BE213" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AX215" s="15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BJ216" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BO217" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BL218" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC219" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL219" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AQ221" s="15"/>
+      <c r="BJ221" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AQ223" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH223" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BJ225" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE227" s="2" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AZ229" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS231" s="15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AQ232" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC232" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AV233" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH233" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AU234" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG234" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS235" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ235" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE235" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN237" s="16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AG239" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH239" s="15"/>
+      <c r="AI239" s="15"/>
+      <c r="AJ239" s="15"/>
+      <c r="AK239" s="15"/>
+      <c r="AL239" s="15"/>
+      <c r="AM239" s="15"/>
+      <c r="AN239" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ239" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE239" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE241" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM241" s="15"/>
+      <c r="AN241" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC241" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X243" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE243" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH243" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO243" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="https://www.youtube.com/watch?v=YuL_BG8Ou_A"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1137,7 +3218,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1188,7 +3269,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1416,13 +3497,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B7" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R11" s="15" t="n">
         <v>5</v>
@@ -1491,7 +3572,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T19" s="15" t="n">
         <v>5</v>
@@ -1559,7 +3640,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U27" s="15" t="n">
         <v>5</v>
@@ -1626,7 +3707,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y35" s="15" t="n">
         <v>3</v>
@@ -1675,7 +3756,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK43" s="3" t="n">
         <v>3</v>
@@ -1736,7 +3817,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y51" s="15" t="n">
         <v>3</v>
@@ -1803,7 +3884,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T59" s="15" t="n">
         <v>4</v>
@@ -1870,7 +3951,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y67" s="15" t="n">
         <v>4</v>
@@ -1940,7 +4021,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1954,7 +4035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2103,7 +4184,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2154,7 +4235,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2382,13 +4463,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B7" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R11" s="15" t="n">
         <v>5</v>
@@ -2487,7 +4568,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T19" s="15" t="n">
         <v>5</v>
@@ -2585,7 +4666,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U27" s="15" t="n">
         <v>5</v>
@@ -2685,7 +4766,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M35" s="15" t="n">
         <v>5</v>
@@ -2766,7 +4847,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2780,7 +4861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2929,7 +5010,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2980,7 +5061,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3208,13 +5289,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B7" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" s="15" t="n">
         <v>5</v>
@@ -3305,7 +5386,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" s="15" t="n">
         <v>5</v>
@@ -3404,7 +5485,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M27" s="15" t="n">
         <v>5</v>
@@ -3496,7 +5577,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M35" s="15" t="n">
         <v>5</v>
@@ -3554,7 +5635,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3568,7 +5649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3717,7 +5798,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -3768,7 +5849,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3996,13 +6077,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B7" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" s="15"/>
       <c r="U11" s="15"/>
@@ -4115,7 +6196,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" s="15"/>
       <c r="M19" s="15" t="n">
@@ -4226,7 +6307,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M27" s="15"/>
       <c r="Y27" s="15"/>
@@ -4345,7 +6426,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M35" s="15"/>
       <c r="Y35" s="15"/>
@@ -4415,7 +6496,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4432,7 +6513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4581,7 +6662,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -4632,7 +6713,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -4860,13 +6941,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B7" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" s="15"/>
       <c r="U11" s="15"/>
@@ -5005,7 +7086,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" s="15"/>
       <c r="M19" s="15" t="n">
@@ -5157,7 +7238,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M27" s="15"/>
       <c r="R27" s="15" t="n">
@@ -5315,7 +7396,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M35" s="15" t="n">
         <v>5</v>
@@ -5421,7 +7502,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5435,7 +7516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5584,7 +7665,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -5635,7 +7716,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -5863,13 +7944,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B7" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" s="15"/>
       <c r="U11" s="15"/>
@@ -5991,7 +8072,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" s="15"/>
       <c r="M19" s="15" t="n">
@@ -6098,7 +8179,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M27" s="15"/>
       <c r="R27" s="15" t="n">
@@ -6224,7 +8305,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M35" s="15"/>
       <c r="V35" s="15" t="n">
@@ -6314,7 +8395,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6328,7 +8409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -6477,7 +8558,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -6528,7 +8609,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -6756,13 +8837,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B7" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" s="15"/>
       <c r="Q11" s="15" t="n">
@@ -6917,7 +8998,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" s="15"/>
       <c r="M19" s="15" t="n">
@@ -7068,7 +9149,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M27" s="15" t="n">
         <v>5</v>
@@ -7208,7 +9289,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M35" s="15" t="n">
         <v>5</v>
@@ -7310,7 +9391,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -7324,7 +9405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -7473,7 +9554,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -7524,7 +9605,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -7752,7 +9833,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD7" s="15"/>
     </row>
@@ -7767,7 +9848,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -7957,7 +10038,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR20" s="15" t="n">
         <v>2</v>
@@ -8072,7 +10153,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO28" s="15" t="n">
         <v>4</v>
@@ -8199,7 +10280,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO37" s="15" t="n">
         <v>4</v>
@@ -8346,7 +10427,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD54" s="15" t="n">
         <v>5</v>
@@ -8448,7 +10529,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR63" s="15" t="n">
         <v>2</v>
@@ -8539,7 +10620,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO71" s="15"/>
       <c r="AU71" s="15"/>
@@ -8616,7 +10697,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP79" s="15"/>
       <c r="AW79" s="15"/>
@@ -8699,7 +10780,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y87" s="15" t="n">
         <v>5</v>
@@ -8814,7 +10895,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD95" s="15" t="n">
         <v>3</v>
@@ -8910,7 +10991,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y104" s="15" t="n">
         <v>5</v>
@@ -9070,7 +11151,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD120" s="15" t="n">
         <v>2</v>
@@ -9092,7 +11173,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AD122" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AK122" s="3" t="n">
         <v>1</v>
@@ -9128,7 +11209,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R128" s="15" t="n">
         <v>5</v>
@@ -9162,9 +11243,1264 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:CK105"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2835" topLeftCell="A43" activePane="bottomLeft" state="split"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="R71" activeCellId="0" sqref="R71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="33" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="45" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="57" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="69" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="76" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="77" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="78" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="79" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="80" min="80" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="81" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="84" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="85" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="86" min="86" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="3" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="4" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="2" width="3.13"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BN1" s="2"/>
+      <c r="BP1" s="2"/>
+      <c r="BS1" s="2"/>
+      <c r="BU1" s="2"/>
+      <c r="BW1" s="2"/>
+      <c r="BX1" s="2"/>
+      <c r="BZ1" s="2"/>
+      <c r="CB1" s="2"/>
+      <c r="CE1" s="2"/>
+      <c r="CG1" s="2"/>
+      <c r="CI1" s="2"/>
+      <c r="CJ1" s="2"/>
+      <c r="CK1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BG2" s="2"/>
+      <c r="BI2" s="2"/>
+      <c r="BK2" s="2"/>
+      <c r="BL2" s="2"/>
+      <c r="BN2" s="2"/>
+      <c r="BP2" s="2"/>
+      <c r="BS2" s="2"/>
+      <c r="BU2" s="2"/>
+      <c r="BW2" s="2"/>
+      <c r="BX2" s="2"/>
+      <c r="BZ2" s="2"/>
+      <c r="CB2" s="2"/>
+      <c r="CE2" s="2"/>
+      <c r="CG2" s="2"/>
+      <c r="CI2" s="2"/>
+      <c r="CJ2" s="2"/>
+      <c r="CK2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="8"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2"/>
+      <c r="BB3" s="2"/>
+      <c r="BD3" s="2"/>
+      <c r="BG3" s="2"/>
+      <c r="BI3" s="2"/>
+      <c r="BK3" s="2"/>
+      <c r="BL3" s="2"/>
+      <c r="BN3" s="2"/>
+      <c r="BP3" s="2"/>
+      <c r="BS3" s="2"/>
+      <c r="BU3" s="2"/>
+      <c r="BW3" s="2"/>
+      <c r="BX3" s="2"/>
+      <c r="BZ3" s="2"/>
+      <c r="CB3" s="2"/>
+      <c r="CE3" s="2"/>
+      <c r="CG3" s="2"/>
+      <c r="CI3" s="2"/>
+      <c r="CJ3" s="2"/>
+      <c r="CK3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BG4" s="2"/>
+      <c r="BI4" s="2"/>
+      <c r="BK4" s="2"/>
+      <c r="BL4" s="2"/>
+      <c r="BN4" s="2"/>
+      <c r="BP4" s="2"/>
+      <c r="BS4" s="2"/>
+      <c r="BU4" s="2"/>
+      <c r="BW4" s="2"/>
+      <c r="BX4" s="2"/>
+      <c r="BZ4" s="2"/>
+      <c r="CB4" s="2"/>
+      <c r="CE4" s="2"/>
+      <c r="CG4" s="2"/>
+      <c r="CI4" s="2"/>
+      <c r="CJ4" s="2"/>
+      <c r="CK4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="9"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="12"/>
+      <c r="BB5" s="12"/>
+      <c r="BC5" s="12"/>
+      <c r="BD5" s="12"/>
+      <c r="BE5" s="12"/>
+      <c r="BF5" s="12"/>
+      <c r="BG5" s="12"/>
+      <c r="BH5" s="12"/>
+      <c r="BI5" s="12"/>
+      <c r="BJ5" s="12"/>
+      <c r="BK5" s="12"/>
+      <c r="BL5" s="11"/>
+      <c r="BM5" s="9"/>
+      <c r="BN5" s="9"/>
+      <c r="BO5" s="9"/>
+      <c r="BP5" s="9"/>
+      <c r="BQ5" s="9"/>
+      <c r="BR5" s="9"/>
+      <c r="BS5" s="9"/>
+      <c r="BT5" s="9"/>
+      <c r="BU5" s="9"/>
+      <c r="BV5" s="9"/>
+      <c r="BW5" s="9"/>
+      <c r="BX5" s="10"/>
+      <c r="BY5" s="12"/>
+      <c r="BZ5" s="12"/>
+      <c r="CA5" s="12"/>
+      <c r="CB5" s="12"/>
+      <c r="CC5" s="12"/>
+      <c r="CD5" s="12"/>
+      <c r="CE5" s="12"/>
+      <c r="CF5" s="12"/>
+      <c r="CG5" s="12"/>
+      <c r="CH5" s="12"/>
+      <c r="CI5" s="12"/>
+      <c r="CJ5" s="11"/>
+      <c r="CK5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AY6" s="13"/>
+      <c r="BB6" s="13"/>
+      <c r="BD6" s="13"/>
+      <c r="BG6" s="13"/>
+      <c r="BI6" s="13"/>
+      <c r="BK6" s="13"/>
+      <c r="BN6" s="13"/>
+      <c r="BP6" s="13"/>
+      <c r="BS6" s="13"/>
+      <c r="BU6" s="13"/>
+      <c r="BW6" s="13"/>
+      <c r="BZ6" s="13"/>
+      <c r="CB6" s="13"/>
+      <c r="CE6" s="13"/>
+      <c r="CG6" s="13"/>
+      <c r="CI6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="15"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM11" s="0"/>
+      <c r="AN11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="15"/>
+      <c r="AM12" s="0"/>
+      <c r="AN12" s="0"/>
+      <c r="AQ12" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X13" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="4"/>
+      <c r="AN13" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AQ14" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q15" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN15" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS16" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX16" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AG17" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU17" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS18" s="2" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S19" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ19" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN20" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB21" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS21" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU22" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U23" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU23" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE24" s="15"/>
+      <c r="AN24" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS24" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE25" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS25" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN26" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ27" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS28" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AJ29" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO29" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS30" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W31" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO31" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS32" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA32" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AJ33" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX33" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS34" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV34" s="2" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE35" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU35" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AQ36" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AO37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV37" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AQ38" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX38" s="2" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X39" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN39" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AQ40" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ40" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AI41" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN41" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV41" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AQ42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU42" s="3" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC43" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN43" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS43" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AO44" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN45" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU45" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AO46" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV46" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W47" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL47" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AO48" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX48" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AI49" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU49" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AO50" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS50" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB51" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI51" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU51" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN52" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AQ53" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN54" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W55" s="15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AO56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS56" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX56" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X57" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN57" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ57" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU57" s="3" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z58" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI58" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO58" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS58" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE59" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN59" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU59" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AQ60" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AZ61" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P63" s="15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AZ65" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN66" s="15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AO67" s="15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS68" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AV69" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AZ70" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BE71" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N72" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ72" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS73" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN74" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV74" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS75" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AO76" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AL77" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS77" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX77" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AQ78" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV78" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC78" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AL79" s="15"/>
+      <c r="AN79" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS79" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ79" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN80" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO80" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ80" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S81" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="W81" s="15"/>
+      <c r="Z81" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI81" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS81" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AI82" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX82" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS83" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN84" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO84" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV84" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS85" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AL86" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX86" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS87" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ88" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL88" s="15"/>
+      <c r="AS88" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN89" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS90" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AZ91" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U92" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG92" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS92" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S93" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE93" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ93" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA93" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC93" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X94" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ94" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV94" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W95" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI95" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU95" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA95" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC95" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U96" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG96" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS96" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ96" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE96" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN97" s="15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AQ98" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ98" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS99" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U100" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB100" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK100" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ100" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU100" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U101" s="15"/>
+      <c r="AB101" s="15"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S102" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z102" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI102" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO102" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS102" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN103" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AL104" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P105" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="W105" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE105" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI105" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN105" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU105" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:CK51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2580" topLeftCell="A1" activePane="topLeft" state="split"/>
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -9306,7 +12642,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -9357,7 +12693,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -9585,7 +12921,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B7" s="15"/>
     </row>
@@ -9596,7 +12932,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U11" s="15" t="n">
         <v>3</v>
@@ -9673,7 +13009,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="17" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="19"/>
@@ -9801,7 +13137,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="17" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="19"/>
@@ -9914,7 +13250,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="17" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B35" s="18"/>
       <c r="C35" s="19"/>
@@ -10038,7 +13374,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="17" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B43" s="18"/>
       <c r="C43" s="19"/>
@@ -10171,7 +13507,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="17" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B51" s="18"/>
       <c r="C51" s="19"/>
@@ -10239,7 +13575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -10388,7 +13724,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -10439,7 +13775,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -10667,7 +14003,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC7" s="15" t="n">
         <v>2</v>
@@ -10698,7 +14034,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU10" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10731,7 +14067,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V15" s="15" t="n">
         <v>2</v>
@@ -10790,12 +14126,12 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AM22" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC23" s="15" t="n">
         <v>5</v>
@@ -10878,7 +14214,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V31" s="15" t="n">
         <v>5</v>
@@ -10933,7 +14269,7 @@
         <v>1</v>
       </c>
       <c r="AM35" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AT35" s="2" t="n">
         <v>3</v>
@@ -10964,7 +14300,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC39" s="15" t="n">
         <v>5</v>
@@ -11098,7 +14434,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V55" s="15" t="n">
         <v>5</v>
@@ -11183,7 +14519,7 @@
         <v>1</v>
       </c>
       <c r="AM63" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AT63" s="2" t="n">
         <v>3</v>
@@ -11246,7 +14582,7 @@
     </row>
     <row r="71" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="24" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B71" s="25"/>
       <c r="C71" s="26"/>
@@ -11540,7 +14876,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V87" s="15" t="n">
         <v>5</v>
@@ -11635,7 +14971,7 @@
         <v>1</v>
       </c>
       <c r="AM95" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AT95" s="2" t="n">
         <v>5</v>
@@ -11742,7 +15078,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC103" s="15" t="n">
         <v>5</v>
@@ -11963,7 +15299,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V119" s="15" t="n">
         <v>5</v>
@@ -12048,7 +15384,7 @@
       <c r="AC127" s="15"/>
       <c r="AH127" s="15"/>
       <c r="AM127" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AO127" s="2" t="n">
         <v>1</v>
@@ -12118,7 +15454,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC135" s="15" t="n">
         <v>5</v>
@@ -12141,7 +15477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -12290,7 +15626,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -12341,7 +15677,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -12569,7 +15905,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U7" s="15" t="n">
         <v>5</v>
@@ -12693,7 +16029,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI19" s="15" t="n">
         <v>2</v>
@@ -12825,7 +16161,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG31" s="15" t="n">
         <v>1</v>
@@ -12939,7 +16275,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -13114,7 +16450,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" s="15" t="n">
         <v>5</v>
@@ -13273,7 +16609,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD67" s="3" t="n">
         <v>1</v>
@@ -13459,7 +16795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -13608,7 +16944,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -13659,7 +16995,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -13887,7 +17223,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL7" s="15" t="n">
         <v>5</v>
@@ -13945,7 +17281,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN15" s="15" t="n">
         <v>5</v>
@@ -14001,7 +17337,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP23" s="15" t="n">
         <v>3</v>
@@ -14038,7 +17374,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ31" s="15" t="n">
         <v>3</v>
@@ -14087,7 +17423,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG39" s="15" t="n">
         <v>5</v>
@@ -14178,7 +17514,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC47" s="15" t="n">
         <v>5</v>
@@ -14245,7 +17581,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z55" s="15" t="n">
         <v>5</v>
@@ -14322,7 +17658,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X63" s="15" t="n">
         <v>5</v>
@@ -14411,7 +17747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -14560,7 +17896,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -14611,7 +17947,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -14839,7 +18175,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD7" s="15" t="n">
         <v>5</v>
@@ -14970,7 +18306,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR16" s="15" t="n">
         <v>2</v>
@@ -15085,7 +18421,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO24" s="15" t="n">
         <v>4</v>
@@ -15212,7 +18548,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO33" s="15" t="n">
         <v>4</v>
@@ -15341,7 +18677,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD47" s="15" t="n">
         <v>5</v>
@@ -15443,7 +18779,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR56" s="15" t="n">
         <v>2</v>
@@ -15571,7 +18907,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO64" s="15" t="n">
         <v>4</v>
@@ -15680,7 +19016,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP71" s="15" t="n">
         <v>3</v>
@@ -15768,7 +19104,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP79" s="15" t="n">
         <v>2</v>
@@ -15785,7 +19121,7 @@
         <v>4</v>
       </c>
       <c r="AL80" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BB80" s="3" t="n">
         <v>3</v>
@@ -15857,7 +19193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -16006,7 +19342,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -16057,7 +19393,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -16285,7 +19621,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y7" s="15" t="n">
         <v>5</v>
@@ -16409,7 +19745,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI15" s="15" t="n">
         <v>5</v>
@@ -16549,7 +19885,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF23" s="15" t="n">
         <v>5</v>
@@ -16698,7 +20034,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y35" s="15" t="n">
         <v>5</v>
@@ -16806,7 +20142,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y43" s="15" t="n">
         <v>5</v>
@@ -17278,7 +20614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -17427,7 +20763,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -17478,7 +20814,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -17706,7 +21042,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B7" s="15"/>
       <c r="AF7" s="15" t="n">
@@ -17787,7 +21123,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V15" s="15" t="n">
         <v>4</v>
@@ -17917,7 +21253,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA26" s="15" t="n">
         <v>4</v>
@@ -18013,7 +21349,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH34" s="15"/>
       <c r="AP34" s="15" t="n">
@@ -18197,7 +21533,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH47" s="15" t="n">
         <v>3</v>
@@ -18287,7 +21623,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH55" s="15" t="n">
         <v>5</v>
@@ -18345,7 +21681,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -18360,1965 +21696,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:CK251"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2595" topLeftCell="A1" activePane="bottomLeft" state="split"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="AJ13" activeCellId="0" sqref="AJ13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="4" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="4" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="33" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="4" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="45" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="4" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="57" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="4" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="69" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="76" style="4" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="77" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="78" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="79" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="80" min="80" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="81" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="84" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="85" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="86" min="86" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="3" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="4" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="2" width="3.13"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2"/>
-      <c r="BB1" s="2"/>
-      <c r="BD1" s="2"/>
-      <c r="BG1" s="2"/>
-      <c r="BI1" s="2"/>
-      <c r="BK1" s="2"/>
-      <c r="BL1" s="2"/>
-      <c r="BN1" s="2"/>
-      <c r="BP1" s="2"/>
-      <c r="BS1" s="2"/>
-      <c r="BU1" s="2"/>
-      <c r="BW1" s="2"/>
-      <c r="BX1" s="2"/>
-      <c r="BZ1" s="2"/>
-      <c r="CB1" s="2"/>
-      <c r="CE1" s="2"/>
-      <c r="CG1" s="2"/>
-      <c r="CI1" s="2"/>
-      <c r="CJ1" s="2"/>
-      <c r="CK1" s="6"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
-      <c r="AP2" s="2"/>
-      <c r="AR2" s="2"/>
-      <c r="AU2" s="2"/>
-      <c r="AW2" s="2"/>
-      <c r="AY2" s="2"/>
-      <c r="AZ2" s="2"/>
-      <c r="BB2" s="2"/>
-      <c r="BD2" s="2"/>
-      <c r="BG2" s="2"/>
-      <c r="BI2" s="2"/>
-      <c r="BK2" s="2"/>
-      <c r="BL2" s="2"/>
-      <c r="BN2" s="2"/>
-      <c r="BP2" s="2"/>
-      <c r="BS2" s="2"/>
-      <c r="BU2" s="2"/>
-      <c r="BW2" s="2"/>
-      <c r="BX2" s="2"/>
-      <c r="BZ2" s="2"/>
-      <c r="CB2" s="2"/>
-      <c r="CE2" s="2"/>
-      <c r="CG2" s="2"/>
-      <c r="CI2" s="2"/>
-      <c r="CJ2" s="2"/>
-      <c r="CK2" s="6"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
-      <c r="AP3" s="2"/>
-      <c r="AR3" s="2"/>
-      <c r="AU3" s="2"/>
-      <c r="AW3" s="2"/>
-      <c r="AY3" s="2"/>
-      <c r="AZ3" s="2"/>
-      <c r="BB3" s="2"/>
-      <c r="BD3" s="2"/>
-      <c r="BG3" s="2"/>
-      <c r="BI3" s="2"/>
-      <c r="BK3" s="2"/>
-      <c r="BL3" s="2"/>
-      <c r="BN3" s="2"/>
-      <c r="BP3" s="2"/>
-      <c r="BS3" s="2"/>
-      <c r="BU3" s="2"/>
-      <c r="BW3" s="2"/>
-      <c r="BX3" s="2"/>
-      <c r="BZ3" s="2"/>
-      <c r="CB3" s="2"/>
-      <c r="CE3" s="2"/>
-      <c r="CG3" s="2"/>
-      <c r="CI3" s="2"/>
-      <c r="CJ3" s="2"/>
-      <c r="CK3" s="6"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2"/>
-      <c r="AP4" s="2"/>
-      <c r="AR4" s="2"/>
-      <c r="AU4" s="2"/>
-      <c r="AW4" s="2"/>
-      <c r="AY4" s="2"/>
-      <c r="AZ4" s="2"/>
-      <c r="BB4" s="2"/>
-      <c r="BD4" s="2"/>
-      <c r="BG4" s="2"/>
-      <c r="BI4" s="2"/>
-      <c r="BK4" s="2"/>
-      <c r="BL4" s="2"/>
-      <c r="BN4" s="2"/>
-      <c r="BP4" s="2"/>
-      <c r="BS4" s="2"/>
-      <c r="BU4" s="2"/>
-      <c r="BW4" s="2"/>
-      <c r="BX4" s="2"/>
-      <c r="BZ4" s="2"/>
-      <c r="CB4" s="2"/>
-      <c r="CE4" s="2"/>
-      <c r="CG4" s="2"/>
-      <c r="CI4" s="2"/>
-      <c r="CJ4" s="2"/>
-      <c r="CK4" s="6"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12"/>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="12"/>
-      <c r="AN5" s="11"/>
-      <c r="AO5" s="9"/>
-      <c r="AP5" s="9"/>
-      <c r="AQ5" s="9"/>
-      <c r="AR5" s="9"/>
-      <c r="AS5" s="9"/>
-      <c r="AT5" s="9"/>
-      <c r="AU5" s="9"/>
-      <c r="AV5" s="9"/>
-      <c r="AW5" s="9"/>
-      <c r="AX5" s="9"/>
-      <c r="AY5" s="9"/>
-      <c r="AZ5" s="10"/>
-      <c r="BA5" s="12"/>
-      <c r="BB5" s="12"/>
-      <c r="BC5" s="12"/>
-      <c r="BD5" s="12"/>
-      <c r="BE5" s="12"/>
-      <c r="BF5" s="12"/>
-      <c r="BG5" s="12"/>
-      <c r="BH5" s="12"/>
-      <c r="BI5" s="12"/>
-      <c r="BJ5" s="12"/>
-      <c r="BK5" s="12"/>
-      <c r="BL5" s="11"/>
-      <c r="BM5" s="9"/>
-      <c r="BN5" s="9"/>
-      <c r="BO5" s="9"/>
-      <c r="BP5" s="9"/>
-      <c r="BQ5" s="9"/>
-      <c r="BR5" s="9"/>
-      <c r="BS5" s="9"/>
-      <c r="BT5" s="9"/>
-      <c r="BU5" s="9"/>
-      <c r="BV5" s="9"/>
-      <c r="BW5" s="9"/>
-      <c r="BX5" s="10"/>
-      <c r="BY5" s="12"/>
-      <c r="BZ5" s="12"/>
-      <c r="CA5" s="12"/>
-      <c r="CB5" s="12"/>
-      <c r="CC5" s="12"/>
-      <c r="CD5" s="12"/>
-      <c r="CE5" s="12"/>
-      <c r="CF5" s="12"/>
-      <c r="CG5" s="12"/>
-      <c r="CH5" s="12"/>
-      <c r="CI5" s="12"/>
-      <c r="CJ5" s="11"/>
-      <c r="CK5" s="9"/>
-    </row>
-    <row r="6" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AI6" s="13"/>
-      <c r="AK6" s="13"/>
-      <c r="AM6" s="13"/>
-      <c r="AO6" s="14"/>
-      <c r="AP6" s="13"/>
-      <c r="AR6" s="13"/>
-      <c r="AU6" s="13"/>
-      <c r="AW6" s="13"/>
-      <c r="AY6" s="13"/>
-      <c r="BB6" s="13"/>
-      <c r="BD6" s="13"/>
-      <c r="BG6" s="13"/>
-      <c r="BI6" s="13"/>
-      <c r="BK6" s="13"/>
-      <c r="BN6" s="13"/>
-      <c r="BP6" s="13"/>
-      <c r="BS6" s="13"/>
-      <c r="BU6" s="13"/>
-      <c r="BW6" s="13"/>
-      <c r="BZ6" s="13"/>
-      <c r="CB6" s="13"/>
-      <c r="CE6" s="13"/>
-      <c r="CG6" s="13"/>
-      <c r="CI6" s="13"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="15"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="15"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="15"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="15"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="AN11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV11" s="2" t="n">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="15"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AJ13" s="15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AC15" s="15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AX16" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AC17" s="15"/>
-      <c r="AD17" s="15"/>
-      <c r="AE17" s="15"/>
-      <c r="AF17" s="15"/>
-      <c r="AG17" s="15"/>
-      <c r="AH17" s="15"/>
-      <c r="AI17" s="15"/>
-      <c r="AJ17" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU17" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AC18" s="15"/>
-      <c r="AD18" s="15"/>
-      <c r="AE18" s="15"/>
-      <c r="AF18" s="15"/>
-      <c r="AG18" s="15"/>
-      <c r="AH18" s="15"/>
-      <c r="AI18" s="15"/>
-      <c r="AJ18" s="15"/>
-      <c r="AS18" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="15"/>
-      <c r="AD19" s="15"/>
-      <c r="AE19" s="15"/>
-      <c r="AF19" s="15"/>
-      <c r="AG19" s="15"/>
-      <c r="AH19" s="15"/>
-      <c r="AI19" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ19" s="15"/>
-      <c r="AQ19" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AC20" s="15"/>
-      <c r="AD20" s="15"/>
-      <c r="AE20" s="15"/>
-      <c r="AF20" s="15"/>
-      <c r="AG20" s="15"/>
-      <c r="AH20" s="15"/>
-      <c r="AI20" s="15"/>
-      <c r="AJ20" s="15"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AC21" s="15"/>
-      <c r="AD21" s="15"/>
-      <c r="AE21" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF21" s="15"/>
-      <c r="AG21" s="15"/>
-      <c r="AH21" s="15"/>
-      <c r="AI21" s="15"/>
-      <c r="AJ21" s="15"/>
-      <c r="AS21" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AC22" s="15"/>
-      <c r="AD22" s="15"/>
-      <c r="AE22" s="15"/>
-      <c r="AF22" s="15"/>
-      <c r="AG22" s="15"/>
-      <c r="AH22" s="15"/>
-      <c r="AI22" s="15"/>
-      <c r="AJ22" s="15"/>
-      <c r="AU22" s="3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AC23" s="15"/>
-      <c r="AD23" s="15"/>
-      <c r="AE23" s="15"/>
-      <c r="AF23" s="15"/>
-      <c r="AG23" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH23" s="15"/>
-      <c r="AI23" s="15"/>
-      <c r="AJ23" s="15"/>
-      <c r="AU23" s="3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AC24" s="15"/>
-      <c r="AD24" s="15"/>
-      <c r="AE24" s="15"/>
-      <c r="AF24" s="15"/>
-      <c r="AG24" s="15"/>
-      <c r="AH24" s="15"/>
-      <c r="AI24" s="15"/>
-      <c r="AJ24" s="15"/>
-      <c r="AS24" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AC25" s="15"/>
-      <c r="AD25" s="15"/>
-      <c r="AE25" s="15"/>
-      <c r="AF25" s="15"/>
-      <c r="AG25" s="15"/>
-      <c r="AH25" s="15"/>
-      <c r="AI25" s="15"/>
-      <c r="AJ25" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS25" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO27" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ27" s="4" t="n">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AS29" s="15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AS30" s="15"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL31" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AS31" s="15"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BA32" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AO33" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX33" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AV34" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ35" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU35" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AV37" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AX38" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AJ39" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX39" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AZ40" s="4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AV41" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AU42" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO43" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS43" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AO44" s="15"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AU45" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AV46" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AI47" s="15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AX48" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AU49" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AS50" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN51" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU51" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W55" s="15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AX56" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X57" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y57" s="15"/>
-      <c r="Z57" s="15"/>
-      <c r="AA57" s="15"/>
-      <c r="AB57" s="16"/>
-      <c r="AU57" s="3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X58" s="15"/>
-      <c r="Y58" s="15"/>
-      <c r="Z58" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA58" s="15"/>
-      <c r="AB58" s="16"/>
-      <c r="AS58" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X59" s="15"/>
-      <c r="Y59" s="15"/>
-      <c r="Z59" s="15"/>
-      <c r="AA59" s="15"/>
-      <c r="AB59" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU59" s="3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AZ61" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AZ65" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ67" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AS69" s="15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL71" s="15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AX72" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BC73" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AZ74" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ75" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ75" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AX76" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AE77" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV77" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AX78" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AS79" s="2" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AN81" s="16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AN82" s="16"/>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG83" s="15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AE84" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AQ84" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AJ85" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV85" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AI86" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU86" s="3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AG87" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS87" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AN88" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AQ89" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AS90" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG91" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK91" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU91" s="3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AE93" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AI93" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO93" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS93" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AB95" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AU95" s="3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AB96" s="16"/>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BC97" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BE98" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX99" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ99" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG99" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AZ100" s="16"/>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AV101" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW101" s="15"/>
-      <c r="AX101" s="15"/>
-      <c r="AY101" s="15"/>
-      <c r="AZ101" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH101" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AV103" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW103" s="15"/>
-      <c r="AX103" s="15"/>
-      <c r="AY103" s="15"/>
-      <c r="AZ103" s="16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BG104" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AU105" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AV105" s="15"/>
-      <c r="AW105" s="15"/>
-      <c r="AX105" s="15"/>
-      <c r="AY105" s="15"/>
-      <c r="AZ105" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH105" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BJ106" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS107" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AT107" s="15"/>
-      <c r="AU107" s="15"/>
-      <c r="AV107" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC107" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AS109" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT109" s="15"/>
-      <c r="AU109" s="15"/>
-      <c r="AV109" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB109" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AS112" s="15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AN113" s="16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AS114" s="15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU115" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV115" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC115" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AS117" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT117" s="15"/>
-      <c r="AU117" s="15"/>
-      <c r="AV117" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE117" s="2" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AS118" s="15"/>
-      <c r="AT118" s="15"/>
-      <c r="AU118" s="15"/>
-      <c r="AV118" s="15"/>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AS119" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT119" s="15"/>
-      <c r="AU119" s="15"/>
-      <c r="AV119" s="15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BC120" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AQ121" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AR121" s="15"/>
-      <c r="AS121" s="15"/>
-      <c r="AT121" s="15"/>
-      <c r="AU121" s="15"/>
-      <c r="AV121" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE121" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BG122" s="3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP123" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS123" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ123" s="4" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AP125" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS125" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX125" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AS126" s="15"/>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP127" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ127" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU127" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AP128" s="15"/>
-      <c r="AQ128" s="15"/>
-    </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AP129" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ129" s="15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP131" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ131" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX131" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AN133" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AQ133" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ133" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AN135" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ135" s="15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AX136" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL137" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AQ137" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ137" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BB138" s="3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP139" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU139" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AJ141" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AN141" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS141" s="2" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL144" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ144" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AJ145" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK145" s="15"/>
-      <c r="AL145" s="15"/>
-      <c r="AM145" s="15"/>
-      <c r="AN145" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS145" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL146" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM146" s="15"/>
-      <c r="AN146" s="16"/>
-      <c r="AO146" s="15"/>
-      <c r="AP146" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU146" s="3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ147" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK147" s="15"/>
-      <c r="AL147" s="15"/>
-      <c r="AM147" s="15"/>
-      <c r="AN147" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS147" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH149" s="15"/>
-      <c r="AI149" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AL149" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ149" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ155" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA155" s="15"/>
-      <c r="BB155" s="15"/>
-      <c r="BC155" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH155" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AZ157" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA157" s="15"/>
-      <c r="BB157" s="15"/>
-      <c r="BC157" s="15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AZ159" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA159" s="15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BJ160" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AZ161" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA161" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG161" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BE162" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU163" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AV163" s="15"/>
-      <c r="AW163" s="15"/>
-      <c r="AX163" s="15"/>
-      <c r="AY163" s="15"/>
-      <c r="AZ163" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC163" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AU164" s="15"/>
-      <c r="AV164" s="15"/>
-      <c r="AW164" s="15"/>
-      <c r="AX164" s="15"/>
-      <c r="AY164" s="15"/>
-      <c r="AZ164" s="16"/>
-    </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AU165" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AV165" s="15"/>
-      <c r="AW165" s="15"/>
-      <c r="AX165" s="15"/>
-      <c r="AY165" s="15"/>
-      <c r="AZ165" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE165" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BG166" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AV167" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW167" s="15"/>
-      <c r="AX167" s="15"/>
-      <c r="AY167" s="15"/>
-      <c r="AZ167" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG167" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AV168" s="1"/>
-      <c r="AW168" s="1"/>
-      <c r="AX168" s="1"/>
-      <c r="AY168" s="1"/>
-      <c r="AZ168" s="1"/>
-      <c r="BE168" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AV169" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW169" s="15"/>
-      <c r="AX169" s="15"/>
-      <c r="AY169" s="15"/>
-      <c r="AZ169" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE169" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA171" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB171" s="15"/>
-      <c r="BC171" s="15"/>
-      <c r="BD171" s="15"/>
-      <c r="BE171" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL171" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BA173" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB173" s="15"/>
-      <c r="BC173" s="15"/>
-      <c r="BD173" s="15"/>
-      <c r="BE173" s="15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BA175" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB175" s="15"/>
-      <c r="BC175" s="15"/>
-      <c r="BD175" s="15"/>
-      <c r="BE175" s="15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BM176" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BA177" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB177" s="15"/>
-      <c r="BC177" s="15"/>
-      <c r="BD177" s="15"/>
-      <c r="BE177" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ177" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BH178" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA179" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB179" s="15"/>
-      <c r="BC179" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG179" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BA181" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB181" s="15"/>
-      <c r="BC181" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH181" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BJ182" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AZ183" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA183" s="15"/>
-      <c r="BB183" s="15"/>
-      <c r="BC183" s="15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BL184" s="4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AZ185" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA185" s="15"/>
-      <c r="BB185" s="15"/>
-      <c r="BC185" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH185" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BG186" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ187" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA187" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE187" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AZ188" s="16"/>
-      <c r="BA188" s="15"/>
-    </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AZ189" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA189" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG189" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BH190" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AX191" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY191" s="15"/>
-      <c r="AZ191" s="16"/>
-      <c r="BA191" s="15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BJ192" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AX193" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY193" s="15"/>
-      <c r="AZ193" s="16"/>
-      <c r="BA193" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG193" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BE194" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ195" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA195" s="15"/>
-      <c r="BB195" s="15"/>
-      <c r="BC195" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG195" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AZ197" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA197" s="15"/>
-      <c r="BB197" s="15"/>
-      <c r="BC197" s="15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AZ198" s="16"/>
-      <c r="BA198" s="15"/>
-      <c r="BB198" s="15"/>
-      <c r="BC198" s="15"/>
-    </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AU199" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ199" s="16"/>
-      <c r="BA199" s="15"/>
-      <c r="BB199" s="15"/>
-      <c r="BC199" s="15"/>
-    </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BJ200" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AV201" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="BG201" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AX202" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="BE202" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ203" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG203" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BL205" s="4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BL209" s="4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL211" s="4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BE213" s="15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AX215" s="15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BJ216" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BO217" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BL218" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC219" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL219" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AQ221" s="15"/>
-      <c r="BJ221" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AQ223" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="BH223" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BJ225" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE227" s="2" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AZ229" s="16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AS231" s="15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AQ232" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC232" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AV233" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH233" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AU234" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG234" s="3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS235" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ235" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE235" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AN237" s="16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AG239" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH239" s="15"/>
-      <c r="AI239" s="15"/>
-      <c r="AJ239" s="15"/>
-      <c r="AK239" s="15"/>
-      <c r="AL239" s="15"/>
-      <c r="AM239" s="15"/>
-      <c r="AN239" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ239" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE239" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AE241" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AM241" s="15"/>
-      <c r="AN241" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC241" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X243" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE243" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH243" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO243" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://www.youtube.com/watch?v=YuL_BG8Ou_A"/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12ページ &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/resources/mpn.xlsx
+++ b/resources/mpn.xlsx
@@ -665,13 +665,13 @@
   </sheetPr>
   <dimension ref="A1:CK11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2835" topLeftCell="A1" activePane="topLeft" state="split"/>
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2117" topLeftCell="A1" activePane="topLeft" state="split"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="AA130:AB130 B4"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.13"/>
@@ -755,7 +755,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="3" width="3.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="4" width="3.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="90" style="1" width="12.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="90" style="1" width="12.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1120,13 +1120,13 @@
   </sheetPr>
   <dimension ref="A1:CK62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2595" topLeftCell="A7" activePane="topLeft" state="split"/>
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1933" topLeftCell="A7" activePane="topLeft" state="split"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="AA130:AB130 B2"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.13"/>
@@ -1210,7 +1210,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="3" width="3.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="4" width="3.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="90" style="1" width="12.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="90" style="1" width="12.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2205,13 +2205,13 @@
   </sheetPr>
   <dimension ref="A1:CK251"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2595" topLeftCell="A1" activePane="bottomLeft" state="split"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1933" topLeftCell="A1" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="AJ13" activeCellId="0" sqref="AJ13"/>
+      <selection pane="bottomLeft" activeCell="AJ13" activeCellId="1" sqref="AA130:AB130 AJ13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.13"/>
@@ -2295,7 +2295,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="3" width="3.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="4" width="3.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="90" style="1" width="12.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="90" style="1" width="12.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4167,13 +4167,13 @@
   </sheetPr>
   <dimension ref="A1:CK75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1560" topLeftCell="A56" activePane="bottomLeft" state="split"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1160" topLeftCell="A56" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
-      <selection pane="bottomLeft" activeCell="S13" activeCellId="0" sqref="S13"/>
+      <selection pane="bottomLeft" activeCell="S13" activeCellId="1" sqref="AA130:AB130 S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.13"/>
@@ -4257,7 +4257,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="3" width="3.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="4" width="3.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="90" style="1" width="12.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="90" style="1" width="12.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5134,13 +5134,13 @@
   </sheetPr>
   <dimension ref="A1:CK44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1560" topLeftCell="A1" activePane="bottomLeft" state="split"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1160" topLeftCell="A1" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="S13" activeCellId="0" sqref="S13"/>
+      <selection pane="bottomLeft" activeCell="S13" activeCellId="1" sqref="AA130:AB130 S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.13"/>
@@ -5224,7 +5224,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="3" width="3.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="4" width="3.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="90" style="1" width="12.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="90" style="1" width="12.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5961,13 +5961,13 @@
   </sheetPr>
   <dimension ref="A1:CK43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1275" topLeftCell="A7" activePane="bottomLeft" state="split"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="947" topLeftCell="A7" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
+      <selection pane="bottomLeft" activeCell="A44" activeCellId="1" sqref="AA130:AB130 A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.13"/>
@@ -6051,7 +6051,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="3" width="3.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="4" width="3.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="90" style="1" width="12.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="90" style="1" width="12.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6750,13 +6750,13 @@
   </sheetPr>
   <dimension ref="A1:CK43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1275" topLeftCell="A6" activePane="bottomLeft" state="split"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="947" topLeftCell="A6" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="AZ32" activeCellId="0" sqref="AZ32"/>
+      <selection pane="bottomLeft" activeCell="AZ32" activeCellId="1" sqref="AA130:AB130 AZ32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.13"/>
@@ -6840,7 +6840,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="3" width="3.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="4" width="3.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="90" style="1" width="12.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="90" style="1" width="12.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7615,13 +7615,13 @@
   </sheetPr>
   <dimension ref="A1:CK43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1275" topLeftCell="A5" activePane="bottomLeft" state="split"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="947" topLeftCell="A5" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="I14" activeCellId="1" sqref="AA130:AB130 I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.13"/>
@@ -7705,7 +7705,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="3" width="3.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="4" width="3.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="90" style="1" width="12.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="90" style="1" width="12.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8619,13 +8619,13 @@
   </sheetPr>
   <dimension ref="A1:CK43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1275" topLeftCell="A1" activePane="bottomLeft" state="split"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="947" topLeftCell="A1" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="Y15" activeCellId="0" sqref="Y15"/>
+      <selection pane="bottomLeft" activeCell="Y15" activeCellId="1" sqref="AA130:AB130 Y15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.13"/>
@@ -8709,7 +8709,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="3" width="3.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="4" width="3.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="90" style="1" width="12.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="90" style="1" width="12.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9513,13 +9513,13 @@
   </sheetPr>
   <dimension ref="A1:CK43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1275" topLeftCell="A1" activePane="bottomLeft" state="split"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="947" topLeftCell="A1" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="AT46" activeCellId="0" sqref="AT46"/>
+      <selection pane="bottomLeft" activeCell="AT46" activeCellId="1" sqref="AA130:AB130 AT46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.13"/>
@@ -9603,7 +9603,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="3" width="3.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="4" width="3.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="90" style="1" width="12.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="90" style="1" width="12.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10510,13 +10510,13 @@
   </sheetPr>
   <dimension ref="A1:CK128"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1245" topLeftCell="A100" activePane="bottomLeft" state="split"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="928" topLeftCell="A100" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="P124" activeCellId="0" sqref="P124"/>
+      <selection pane="bottomLeft" activeCell="P124" activeCellId="1" sqref="AA130:AB130 P124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.13"/>
@@ -10600,7 +10600,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="3" width="3.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="4" width="3.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="90" style="1" width="12.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="90" style="1" width="12.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12344,13 +12344,13 @@
   </sheetPr>
   <dimension ref="A1:CK105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2835" topLeftCell="A74" activePane="topLeft" state="split"/>
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2117" topLeftCell="A74" activePane="topLeft" state="split"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="AA130:AB130 B2"/>
       <selection pane="bottomLeft" activeCell="A74" activeCellId="0" sqref="A74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.13"/>
@@ -12434,7 +12434,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="3" width="3.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="4" width="3.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="90" style="1" width="12.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="90" style="1" width="12.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13600,13 +13600,13 @@
   </sheetPr>
   <dimension ref="A1:CK133"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1200" topLeftCell="A53" activePane="bottomLeft" state="split"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="889" topLeftCell="A96" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
-      <selection pane="bottomLeft" activeCell="AE62" activeCellId="0" sqref="AE62"/>
+      <selection pane="bottomLeft" activeCell="AB130" activeCellId="0" sqref="AA130:AB130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.13"/>
@@ -13690,7 +13690,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="3" width="3.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="4" width="3.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="90" style="1" width="12.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="90" style="1" width="12.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15492,9 +15492,10 @@
       <c r="Q128" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="Y128" s="15" t="n">
-        <v>2</v>
-      </c>
+      <c r="X128" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y128" s="0"/>
       <c r="AG128" s="2" t="n">
         <v>1</v>
       </c>
@@ -15530,10 +15531,11 @@
       <c r="W130" s="2"/>
       <c r="X130" s="3"/>
       <c r="Y130" s="2"/>
-      <c r="AB130" s="2"/>
-      <c r="AC130" s="15" t="n">
-        <v>2</v>
-      </c>
+      <c r="AA130" s="2"/>
+      <c r="AB130" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC130" s="0"/>
       <c r="AK130" s="3" t="n">
         <v>1</v>
       </c>
@@ -15607,13 +15609,13 @@
   </sheetPr>
   <dimension ref="A1:CK51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2580" topLeftCell="A1" activePane="topLeft" state="split"/>
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1923" topLeftCell="A1" activePane="topLeft" state="split"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="AA130:AB130 B3"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.13"/>
@@ -15697,7 +15699,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="3" width="3.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="4" width="3.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="90" style="1" width="12.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="90" style="1" width="12.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16690,13 +16692,13 @@
   </sheetPr>
   <dimension ref="A1:CK135"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2835" topLeftCell="A106" activePane="bottomLeft" state="split"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2117" topLeftCell="A106" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="U1" activeCellId="0" sqref="U1"/>
-      <selection pane="bottomLeft" activeCell="AE9" activeCellId="0" sqref="AE9"/>
+      <selection pane="bottomLeft" activeCell="AE9" activeCellId="1" sqref="AA130:AB130 AE9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.13"/>
@@ -16780,7 +16782,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="3" width="3.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="4" width="3.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="90" style="1" width="12.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="90" style="1" width="12.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18593,13 +18595,13 @@
   </sheetPr>
   <dimension ref="A1:CK78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2835" topLeftCell="A1" activePane="topLeft" state="split"/>
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2117" topLeftCell="A1" activePane="topLeft" state="split"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="AA130:AB130 B2"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.13"/>
@@ -18683,7 +18685,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="3" width="3.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="4" width="3.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="90" style="1" width="12.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="90" style="1" width="12.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19912,13 +19914,13 @@
   </sheetPr>
   <dimension ref="A1:CK70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AD1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2835" topLeftCell="A1" activePane="bottomLeft" state="split"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AD1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2117" topLeftCell="A1" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="AD1" activeCellId="0" sqref="AD1"/>
-      <selection pane="bottomLeft" activeCell="BG43" activeCellId="0" sqref="BG43"/>
+      <selection pane="bottomLeft" activeCell="BG43" activeCellId="1" sqref="AA130:AB130 BG43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.13"/>
@@ -20002,7 +20004,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="3" width="3.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="4" width="3.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="90" style="1" width="12.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="90" style="1" width="12.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20865,13 +20867,13 @@
   </sheetPr>
   <dimension ref="A1:CK85"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2835" topLeftCell="A1" activePane="bottomLeft" state="split"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2117" topLeftCell="A1" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="AD7" activeCellId="0" sqref="AD7"/>
+      <selection pane="bottomLeft" activeCell="AD7" activeCellId="1" sqref="AA130:AB130 AD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.13"/>
@@ -20955,7 +20957,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="3" width="3.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="4" width="3.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="90" style="1" width="12.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="90" style="1" width="12.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22312,13 +22314,13 @@
   </sheetPr>
   <dimension ref="A1:CK88"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2550" topLeftCell="A22" activePane="topLeft" state="split"/>
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1894" topLeftCell="A22" activePane="topLeft" state="split"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="AA130:AB130 B2"/>
       <selection pane="bottomLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.13"/>
@@ -22402,7 +22404,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="3" width="3.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="4" width="3.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="90" style="1" width="12.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="90" style="1" width="12.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
